--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/rokig/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CCB600-4E81-B942-B4A9-3E261537431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631AE564-357E-2542-9BD6-6CFE5D1972BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,6 +774,450 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1344,450 +1788,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1802,46 +1802,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:N2" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2131,7 +2131,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2204,10 +2204,10 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="15">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F2" s="15">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="15">
         <v>0.6</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631AE564-357E-2542-9BD6-6CFE5D1972BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C8F59-FDB6-644E-A764-06D1A60085B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,20 @@
     <sheet name="nuts3" sheetId="3" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2201,13 +2214,13 @@
         <v>2019</v>
       </c>
       <c r="D2" s="15">
-        <v>9010101</v>
+        <v>9160004</v>
       </c>
       <c r="E2" s="15">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F2" s="15">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="G2" s="15">
         <v>0.6</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C8F59-FDB6-644E-A764-06D1A60085B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D686194-5D8B-3043-A404-202BFA7E9E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2144,7 +2144,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D686194-5D8B-3043-A404-202BFA7E9E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CEBC7-2B97-D144-9EF5-F4F6CE8CFA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="17160" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="5" r:id="rId1"/>
@@ -787,450 +787,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1801,6 +1357,450 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1815,46 +1815,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:N2" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2144,7 +2144,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2260,7 @@
   <dimension ref="A1:N402"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CEBC7-2B97-D144-9EF5-F4F6CE8CFA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270EF2D6-7441-7F45-862F-2E4CE3CE4D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="17160" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="17160" windowHeight="13040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="5" r:id="rId1"/>
@@ -787,6 +787,450 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1357,450 +1801,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1815,46 +1815,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:N2" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2143,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>7</v>
@@ -2259,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N402"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>7</v>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>7</v>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>7</v>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>7</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>7</v>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>7</v>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>7</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>7</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>7</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>7</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>7</v>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>7</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>7</v>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>7</v>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>7</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>7</v>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>7</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>7</v>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>7</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>7</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>7</v>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>7</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>7</v>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>7</v>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>7</v>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>7</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>7</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>7</v>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>7</v>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>7</v>
@@ -3718,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>7</v>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>7</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>7</v>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>7</v>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>7</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>7</v>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>7</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>7</v>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>7</v>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>7</v>
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>7</v>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>7</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>7</v>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>7</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>7</v>
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>7</v>
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>7</v>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>7</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>7</v>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>7</v>
@@ -4642,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>7</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>7</v>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>7</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>7</v>
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>7</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>7</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>7</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>7</v>
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>7</v>
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>7</v>
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>7</v>
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>7</v>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>7</v>
@@ -5214,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>7</v>
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>7</v>
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>7</v>
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>7</v>
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>7</v>
@@ -5434,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>7</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>7</v>
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>7</v>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>7</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>7</v>
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>7</v>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>7</v>
@@ -5742,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>7</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>7</v>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>7</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>7</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>7</v>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>7</v>
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>7</v>
@@ -6050,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>7</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>7</v>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>7</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>7</v>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>7</v>
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>7</v>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>7</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>7</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>7</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>7</v>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>7</v>
@@ -6534,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>7</v>
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>7</v>
@@ -6622,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>7</v>
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>7</v>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>7</v>
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>7</v>
@@ -6798,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>7</v>
@@ -6842,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>7</v>
@@ -6886,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>7</v>
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>7</v>
@@ -6974,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>7</v>
@@ -7018,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>7</v>
@@ -7062,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>7</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>7</v>
@@ -7150,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>7</v>
@@ -7194,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>7</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M113" s="8" t="s">
         <v>7</v>
@@ -7282,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>7</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>7</v>
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>7</v>
@@ -7414,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M117" s="8" t="s">
         <v>7</v>
@@ -7458,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>7</v>
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>7</v>
@@ -7546,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>7</v>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121" s="8" t="s">
         <v>7</v>
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M122" s="8" t="s">
         <v>7</v>
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123" s="8" t="s">
         <v>7</v>
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" s="8" t="s">
         <v>7</v>
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" s="8" t="s">
         <v>7</v>
@@ -7810,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>7</v>
@@ -7854,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127" s="8" t="s">
         <v>7</v>
@@ -7898,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>7</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>7</v>
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130" s="8" t="s">
         <v>7</v>
@@ -8030,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>7</v>
@@ -8074,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>7</v>
@@ -8118,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133" s="8" t="s">
         <v>7</v>
@@ -8162,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>7</v>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="L135" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>7</v>
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="L136" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M136" s="8" t="s">
         <v>7</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="L137" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137" s="8" t="s">
         <v>7</v>
@@ -8338,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="L138" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>7</v>
@@ -8382,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="L139" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139" s="8" t="s">
         <v>7</v>
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>7</v>
@@ -8470,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M141" s="8" t="s">
         <v>7</v>
@@ -8514,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="L142" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>7</v>
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="L143" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>7</v>
@@ -8602,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="L144" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M144" s="8" t="s">
         <v>7</v>
@@ -8646,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="L145" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>7</v>
@@ -8690,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="L146" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>7</v>
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="L147" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>7</v>
@@ -8778,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="L148" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>7</v>
@@ -8822,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>7</v>
@@ -8866,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>7</v>
@@ -8910,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="L151" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>7</v>
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="L152" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>7</v>
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="L153" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>7</v>
@@ -9042,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="L154" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>7</v>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>7</v>
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>7</v>
@@ -9174,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>7</v>
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>7</v>
@@ -9262,7 +9262,7 @@
         <v>1</v>
       </c>
       <c r="L159" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>7</v>
@@ -9306,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="L160" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>7</v>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="L161" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>7</v>
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="L162" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>7</v>
@@ -9438,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="L163" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>7</v>
@@ -9482,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>7</v>
@@ -9526,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="L165" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>7</v>
@@ -9570,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>7</v>
@@ -9614,7 +9614,7 @@
         <v>1</v>
       </c>
       <c r="L167" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>7</v>
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="L168" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M168" s="8" t="s">
         <v>7</v>
@@ -9702,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="L169" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>7</v>
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="L170" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>7</v>
@@ -9790,7 +9790,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M171" s="8" t="s">
         <v>7</v>
@@ -9834,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M172" s="8" t="s">
         <v>7</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M173" s="8" t="s">
         <v>7</v>
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M174" s="8" t="s">
         <v>7</v>
@@ -9966,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="L175" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M175" s="8" t="s">
         <v>7</v>
@@ -10010,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="L176" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M176" s="8" t="s">
         <v>7</v>
@@ -10054,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="L177" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M177" s="8" t="s">
         <v>7</v>
@@ -10098,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="L178" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M178" s="8" t="s">
         <v>7</v>
@@ -10142,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="L179" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M179" s="8" t="s">
         <v>7</v>
@@ -10186,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="L180" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M180" s="8" t="s">
         <v>7</v>
@@ -10230,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M181" s="8" t="s">
         <v>7</v>
@@ -10274,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="L182" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M182" s="8" t="s">
         <v>7</v>
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="L183" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M183" s="8" t="s">
         <v>7</v>
@@ -10362,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="L184" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M184" s="8" t="s">
         <v>7</v>
@@ -10406,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="L185" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M185" s="8" t="s">
         <v>7</v>
@@ -10450,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="L186" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M186" s="8" t="s">
         <v>7</v>
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="L187" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M187" s="8" t="s">
         <v>7</v>
@@ -10538,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M188" s="8" t="s">
         <v>7</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="L189" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M189" s="8" t="s">
         <v>7</v>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M190" s="8" t="s">
         <v>7</v>
@@ -10670,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="L191" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M191" s="8" t="s">
         <v>7</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="L192" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M192" s="8" t="s">
         <v>7</v>
@@ -10758,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="L193" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M193" s="8" t="s">
         <v>7</v>
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="L194" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M194" s="8" t="s">
         <v>7</v>
@@ -10846,7 +10846,7 @@
         <v>1</v>
       </c>
       <c r="L195" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M195" s="8" t="s">
         <v>7</v>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M196" s="8" t="s">
         <v>7</v>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M197" s="8" t="s">
         <v>7</v>
@@ -10978,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M198" s="8" t="s">
         <v>7</v>
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="L199" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M199" s="8" t="s">
         <v>7</v>
@@ -11066,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="L200" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M200" s="8" t="s">
         <v>7</v>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="L201" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M201" s="8" t="s">
         <v>7</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="L202" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M202" s="8" t="s">
         <v>7</v>
@@ -11198,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="L203" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M203" s="8" t="s">
         <v>7</v>
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M204" s="8" t="s">
         <v>7</v>
@@ -11286,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M205" s="8" t="s">
         <v>7</v>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M206" s="8" t="s">
         <v>7</v>
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="L207" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M207" s="8" t="s">
         <v>7</v>
@@ -11418,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="L208" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M208" s="8" t="s">
         <v>7</v>
@@ -11462,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="L209" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M209" s="8" t="s">
         <v>7</v>
@@ -11506,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="L210" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M210" s="8" t="s">
         <v>7</v>
@@ -11550,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M211" s="8" t="s">
         <v>7</v>
@@ -11594,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M212" s="8" t="s">
         <v>7</v>
@@ -11638,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="L213" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M213" s="8" t="s">
         <v>7</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="L214" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M214" s="8" t="s">
         <v>7</v>
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="L215" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M215" s="8" t="s">
         <v>7</v>
@@ -11770,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="L216" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M216" s="8" t="s">
         <v>7</v>
@@ -11814,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="L217" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M217" s="8" t="s">
         <v>7</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="L218" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M218" s="8" t="s">
         <v>7</v>
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="L219" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M219" s="8" t="s">
         <v>7</v>
@@ -11946,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="L220" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M220" s="8" t="s">
         <v>7</v>
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="L221" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M221" s="8" t="s">
         <v>7</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="L222" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M222" s="8" t="s">
         <v>7</v>
@@ -12078,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="L223" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M223" s="8" t="s">
         <v>7</v>
@@ -12122,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="L224" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M224" s="8" t="s">
         <v>7</v>
@@ -12166,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="L225" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M225" s="8" t="s">
         <v>7</v>
@@ -12210,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="L226" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M226" s="8" t="s">
         <v>7</v>
@@ -12254,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="L227" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M227" s="8" t="s">
         <v>7</v>
@@ -12298,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="L228" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M228" s="8" t="s">
         <v>7</v>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="L229" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M229" s="8" t="s">
         <v>7</v>
@@ -12386,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="L230" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M230" s="8" t="s">
         <v>7</v>
@@ -12430,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="L231" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M231" s="8" t="s">
         <v>7</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="L232" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M232" s="8" t="s">
         <v>7</v>
@@ -12518,7 +12518,7 @@
         <v>1</v>
       </c>
       <c r="L233" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M233" s="8" t="s">
         <v>7</v>
@@ -12562,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="L234" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M234" s="8" t="s">
         <v>7</v>
@@ -12606,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="L235" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M235" s="8" t="s">
         <v>7</v>
@@ -12650,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="L236" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M236" s="8" t="s">
         <v>7</v>
@@ -12694,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M237" s="8" t="s">
         <v>7</v>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="L238" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M238" s="8" t="s">
         <v>7</v>
@@ -12782,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="L239" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M239" s="8" t="s">
         <v>7</v>
@@ -12826,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="L240" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M240" s="8" t="s">
         <v>7</v>
@@ -12870,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="L241" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M241" s="8" t="s">
         <v>7</v>
@@ -12914,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="L242" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M242" s="8" t="s">
         <v>7</v>
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="L243" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M243" s="8" t="s">
         <v>7</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="L244" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M244" s="8" t="s">
         <v>7</v>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="L245" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M245" s="8" t="s">
         <v>7</v>
@@ -13090,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="L246" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M246" s="8" t="s">
         <v>7</v>
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="L247" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M247" s="8" t="s">
         <v>7</v>
@@ -13178,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="L248" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M248" s="8" t="s">
         <v>7</v>
@@ -13222,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="L249" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M249" s="8" t="s">
         <v>7</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="L250" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M250" s="8" t="s">
         <v>7</v>
@@ -13310,7 +13310,7 @@
         <v>1</v>
       </c>
       <c r="L251" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M251" s="8" t="s">
         <v>7</v>
@@ -13354,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="L252" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M252" s="8" t="s">
         <v>7</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="L253" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M253" s="8" t="s">
         <v>7</v>
@@ -13442,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="L254" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M254" s="8" t="s">
         <v>7</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="L255" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M255" s="8" t="s">
         <v>7</v>
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="L256" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M256" s="8" t="s">
         <v>7</v>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="L257" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M257" s="8" t="s">
         <v>7</v>
@@ -13618,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="L258" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M258" s="8" t="s">
         <v>7</v>
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="L259" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M259" s="8" t="s">
         <v>7</v>
@@ -13706,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="L260" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M260" s="8" t="s">
         <v>7</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="L261" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M261" s="8" t="s">
         <v>7</v>
@@ -13794,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="L262" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M262" s="8" t="s">
         <v>7</v>
@@ -13838,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="L263" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M263" s="8" t="s">
         <v>7</v>
@@ -13882,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="L264" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M264" s="8" t="s">
         <v>7</v>
@@ -13926,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="L265" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M265" s="8" t="s">
         <v>7</v>
@@ -13970,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="L266" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M266" s="8" t="s">
         <v>7</v>
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="L267" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M267" s="8" t="s">
         <v>7</v>
@@ -14058,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="L268" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M268" s="8" t="s">
         <v>7</v>
@@ -14102,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="L269" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M269" s="8" t="s">
         <v>7</v>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="L270" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M270" s="8" t="s">
         <v>7</v>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="L271" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M271" s="8" t="s">
         <v>7</v>
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="L272" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M272" s="8" t="s">
         <v>7</v>
@@ -14278,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="L273" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M273" s="8" t="s">
         <v>7</v>
@@ -14322,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="L274" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M274" s="8" t="s">
         <v>7</v>
@@ -14366,7 +14366,7 @@
         <v>1</v>
       </c>
       <c r="L275" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M275" s="8" t="s">
         <v>7</v>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
       <c r="L276" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M276" s="8" t="s">
         <v>7</v>
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="L277" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M277" s="8" t="s">
         <v>7</v>
@@ -14498,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="L278" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M278" s="8" t="s">
         <v>7</v>
@@ -14542,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="L279" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M279" s="8" t="s">
         <v>7</v>
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="L280" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M280" s="8" t="s">
         <v>7</v>
@@ -14630,7 +14630,7 @@
         <v>1</v>
       </c>
       <c r="L281" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M281" s="8" t="s">
         <v>7</v>
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="L282" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M282" s="8" t="s">
         <v>7</v>
@@ -14718,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="L283" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M283" s="8" t="s">
         <v>7</v>
@@ -14762,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="L284" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M284" s="8" t="s">
         <v>7</v>
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="L285" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M285" s="8" t="s">
         <v>7</v>
@@ -14850,7 +14850,7 @@
         <v>1</v>
       </c>
       <c r="L286" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M286" s="8" t="s">
         <v>7</v>
@@ -14894,7 +14894,7 @@
         <v>1</v>
       </c>
       <c r="L287" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M287" s="8" t="s">
         <v>7</v>
@@ -14938,7 +14938,7 @@
         <v>1</v>
       </c>
       <c r="L288" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M288" s="8" t="s">
         <v>7</v>
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="L289" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M289" s="8" t="s">
         <v>7</v>
@@ -15026,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="L290" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M290" s="8" t="s">
         <v>7</v>
@@ -15070,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="L291" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M291" s="8" t="s">
         <v>7</v>
@@ -15114,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="L292" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M292" s="8" t="s">
         <v>7</v>
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="L293" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M293" s="8" t="s">
         <v>7</v>
@@ -15202,7 +15202,7 @@
         <v>1</v>
       </c>
       <c r="L294" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M294" s="8" t="s">
         <v>7</v>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="L295" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M295" s="8" t="s">
         <v>7</v>
@@ -15290,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="L296" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M296" s="8" t="s">
         <v>7</v>
@@ -15334,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="L297" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M297" s="8" t="s">
         <v>7</v>
@@ -15378,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="L298" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M298" s="8" t="s">
         <v>7</v>
@@ -15422,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="L299" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M299" s="8" t="s">
         <v>7</v>
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="L300" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M300" s="8" t="s">
         <v>7</v>
@@ -15510,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="L301" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M301" s="8" t="s">
         <v>7</v>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="L302" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M302" s="8" t="s">
         <v>7</v>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="L303" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M303" s="8" t="s">
         <v>7</v>
@@ -15642,7 +15642,7 @@
         <v>1</v>
       </c>
       <c r="L304" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M304" s="8" t="s">
         <v>7</v>
@@ -15686,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="L305" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M305" s="8" t="s">
         <v>7</v>
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="L306" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M306" s="8" t="s">
         <v>7</v>
@@ -15774,7 +15774,7 @@
         <v>1</v>
       </c>
       <c r="L307" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M307" s="8" t="s">
         <v>7</v>
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="L308" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M308" s="8" t="s">
         <v>7</v>
@@ -15862,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="L309" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M309" s="8" t="s">
         <v>7</v>
@@ -15906,7 +15906,7 @@
         <v>1</v>
       </c>
       <c r="L310" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M310" s="8" t="s">
         <v>7</v>
@@ -15950,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="L311" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M311" s="8" t="s">
         <v>7</v>
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="L312" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M312" s="8" t="s">
         <v>7</v>
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="L313" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M313" s="8" t="s">
         <v>7</v>
@@ -16082,7 +16082,7 @@
         <v>1</v>
       </c>
       <c r="L314" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M314" s="8" t="s">
         <v>7</v>
@@ -16126,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="L315" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M315" s="8" t="s">
         <v>7</v>
@@ -16170,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="L316" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M316" s="8" t="s">
         <v>7</v>
@@ -16214,7 +16214,7 @@
         <v>1</v>
       </c>
       <c r="L317" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M317" s="8" t="s">
         <v>7</v>
@@ -16258,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="L318" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M318" s="8" t="s">
         <v>7</v>
@@ -16302,7 +16302,7 @@
         <v>1</v>
       </c>
       <c r="L319" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M319" s="8" t="s">
         <v>7</v>
@@ -16346,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="L320" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M320" s="8" t="s">
         <v>7</v>
@@ -16390,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="L321" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M321" s="8" t="s">
         <v>7</v>
@@ -16434,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="L322" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M322" s="8" t="s">
         <v>7</v>
@@ -16478,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="L323" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M323" s="8" t="s">
         <v>7</v>
@@ -16522,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="L324" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M324" s="8" t="s">
         <v>7</v>
@@ -16566,7 +16566,7 @@
         <v>1</v>
       </c>
       <c r="L325" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M325" s="8" t="s">
         <v>7</v>
@@ -16610,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="L326" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M326" s="8" t="s">
         <v>7</v>
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="L327" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M327" s="8" t="s">
         <v>7</v>
@@ -16698,7 +16698,7 @@
         <v>1</v>
       </c>
       <c r="L328" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M328" s="8" t="s">
         <v>7</v>
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="L329" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M329" s="8" t="s">
         <v>7</v>
@@ -16786,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="L330" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M330" s="8" t="s">
         <v>7</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="L331" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M331" s="8" t="s">
         <v>7</v>
@@ -16874,7 +16874,7 @@
         <v>1</v>
       </c>
       <c r="L332" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M332" s="8" t="s">
         <v>7</v>
@@ -16918,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="L333" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M333" s="8" t="s">
         <v>7</v>
@@ -16962,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="L334" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M334" s="8" t="s">
         <v>7</v>
@@ -17006,7 +17006,7 @@
         <v>1</v>
       </c>
       <c r="L335" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M335" s="8" t="s">
         <v>7</v>
@@ -17050,7 +17050,7 @@
         <v>1</v>
       </c>
       <c r="L336" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M336" s="8" t="s">
         <v>7</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="L337" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M337" s="8" t="s">
         <v>7</v>
@@ -17138,7 +17138,7 @@
         <v>1</v>
       </c>
       <c r="L338" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M338" s="8" t="s">
         <v>7</v>
@@ -17182,7 +17182,7 @@
         <v>1</v>
       </c>
       <c r="L339" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M339" s="8" t="s">
         <v>7</v>
@@ -17226,7 +17226,7 @@
         <v>1</v>
       </c>
       <c r="L340" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M340" s="8" t="s">
         <v>7</v>
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="L341" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M341" s="8" t="s">
         <v>7</v>
@@ -17314,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="L342" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M342" s="8" t="s">
         <v>7</v>
@@ -17358,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="L343" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M343" s="8" t="s">
         <v>7</v>
@@ -17402,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="L344" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M344" s="8" t="s">
         <v>7</v>
@@ -17446,7 +17446,7 @@
         <v>1</v>
       </c>
       <c r="L345" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M345" s="8" t="s">
         <v>7</v>
@@ -17490,7 +17490,7 @@
         <v>1</v>
       </c>
       <c r="L346" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M346" s="8" t="s">
         <v>7</v>
@@ -17534,7 +17534,7 @@
         <v>1</v>
       </c>
       <c r="L347" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M347" s="8" t="s">
         <v>7</v>
@@ -17578,7 +17578,7 @@
         <v>1</v>
       </c>
       <c r="L348" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M348" s="8" t="s">
         <v>7</v>
@@ -17622,7 +17622,7 @@
         <v>1</v>
       </c>
       <c r="L349" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M349" s="8" t="s">
         <v>7</v>
@@ -17666,7 +17666,7 @@
         <v>1</v>
       </c>
       <c r="L350" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M350" s="8" t="s">
         <v>7</v>
@@ -17710,7 +17710,7 @@
         <v>1</v>
       </c>
       <c r="L351" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M351" s="8" t="s">
         <v>7</v>
@@ -17754,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="L352" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M352" s="8" t="s">
         <v>7</v>
@@ -17798,7 +17798,7 @@
         <v>1</v>
       </c>
       <c r="L353" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M353" s="8" t="s">
         <v>7</v>
@@ -17842,7 +17842,7 @@
         <v>1</v>
       </c>
       <c r="L354" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M354" s="8" t="s">
         <v>7</v>
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="L355" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M355" s="8" t="s">
         <v>7</v>
@@ -17930,7 +17930,7 @@
         <v>1</v>
       </c>
       <c r="L356" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M356" s="8" t="s">
         <v>7</v>
@@ -17974,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="L357" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M357" s="8" t="s">
         <v>7</v>
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="L358" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M358" s="8" t="s">
         <v>7</v>
@@ -18062,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="L359" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M359" s="8" t="s">
         <v>7</v>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="L360" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M360" s="8" t="s">
         <v>7</v>
@@ -18150,7 +18150,7 @@
         <v>1</v>
       </c>
       <c r="L361" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M361" s="8" t="s">
         <v>7</v>
@@ -18194,7 +18194,7 @@
         <v>1</v>
       </c>
       <c r="L362" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M362" s="8" t="s">
         <v>7</v>
@@ -18238,7 +18238,7 @@
         <v>1</v>
       </c>
       <c r="L363" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M363" s="8" t="s">
         <v>7</v>
@@ -18282,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="L364" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M364" s="8" t="s">
         <v>7</v>
@@ -18326,7 +18326,7 @@
         <v>1</v>
       </c>
       <c r="L365" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M365" s="8" t="s">
         <v>7</v>
@@ -18370,7 +18370,7 @@
         <v>1</v>
       </c>
       <c r="L366" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M366" s="8" t="s">
         <v>7</v>
@@ -18414,7 +18414,7 @@
         <v>1</v>
       </c>
       <c r="L367" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M367" s="8" t="s">
         <v>7</v>
@@ -18458,7 +18458,7 @@
         <v>1</v>
       </c>
       <c r="L368" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M368" s="8" t="s">
         <v>7</v>
@@ -18502,7 +18502,7 @@
         <v>1</v>
       </c>
       <c r="L369" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M369" s="8" t="s">
         <v>7</v>
@@ -18546,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="L370" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M370" s="8" t="s">
         <v>7</v>
@@ -18590,7 +18590,7 @@
         <v>1</v>
       </c>
       <c r="L371" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M371" s="8" t="s">
         <v>7</v>
@@ -18634,7 +18634,7 @@
         <v>1</v>
       </c>
       <c r="L372" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M372" s="8" t="s">
         <v>7</v>
@@ -18678,7 +18678,7 @@
         <v>1</v>
       </c>
       <c r="L373" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M373" s="8" t="s">
         <v>7</v>
@@ -18722,7 +18722,7 @@
         <v>1</v>
       </c>
       <c r="L374" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M374" s="8" t="s">
         <v>7</v>
@@ -18766,7 +18766,7 @@
         <v>1</v>
       </c>
       <c r="L375" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M375" s="8" t="s">
         <v>7</v>
@@ -18810,7 +18810,7 @@
         <v>1</v>
       </c>
       <c r="L376" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M376" s="8" t="s">
         <v>7</v>
@@ -18854,7 +18854,7 @@
         <v>1</v>
       </c>
       <c r="L377" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M377" s="8" t="s">
         <v>7</v>
@@ -18898,7 +18898,7 @@
         <v>1</v>
       </c>
       <c r="L378" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M378" s="8" t="s">
         <v>7</v>
@@ -18942,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="L379" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M379" s="8" t="s">
         <v>7</v>
@@ -18986,7 +18986,7 @@
         <v>1</v>
       </c>
       <c r="L380" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M380" s="8" t="s">
         <v>7</v>
@@ -19030,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="L381" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M381" s="8" t="s">
         <v>7</v>
@@ -19074,7 +19074,7 @@
         <v>1</v>
       </c>
       <c r="L382" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M382" s="8" t="s">
         <v>7</v>
@@ -19118,7 +19118,7 @@
         <v>1</v>
       </c>
       <c r="L383" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M383" s="8" t="s">
         <v>7</v>
@@ -19162,7 +19162,7 @@
         <v>1</v>
       </c>
       <c r="L384" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M384" s="8" t="s">
         <v>7</v>
@@ -19206,7 +19206,7 @@
         <v>1</v>
       </c>
       <c r="L385" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M385" s="8" t="s">
         <v>7</v>
@@ -19250,7 +19250,7 @@
         <v>1</v>
       </c>
       <c r="L386" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M386" s="8" t="s">
         <v>7</v>
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="L387" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M387" s="8" t="s">
         <v>7</v>
@@ -19338,7 +19338,7 @@
         <v>1</v>
       </c>
       <c r="L388" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M388" s="8" t="s">
         <v>7</v>
@@ -19382,7 +19382,7 @@
         <v>1</v>
       </c>
       <c r="L389" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M389" s="8" t="s">
         <v>7</v>
@@ -19426,7 +19426,7 @@
         <v>1</v>
       </c>
       <c r="L390" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M390" s="8" t="s">
         <v>7</v>
@@ -19470,7 +19470,7 @@
         <v>1</v>
       </c>
       <c r="L391" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M391" s="8" t="s">
         <v>7</v>
@@ -19514,7 +19514,7 @@
         <v>1</v>
       </c>
       <c r="L392" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M392" s="8" t="s">
         <v>7</v>
@@ -19558,7 +19558,7 @@
         <v>1</v>
       </c>
       <c r="L393" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M393" s="8" t="s">
         <v>7</v>
@@ -19602,7 +19602,7 @@
         <v>1</v>
       </c>
       <c r="L394" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M394" s="8" t="s">
         <v>7</v>
@@ -19646,7 +19646,7 @@
         <v>1</v>
       </c>
       <c r="L395" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M395" s="8" t="s">
         <v>7</v>
@@ -19690,7 +19690,7 @@
         <v>1</v>
       </c>
       <c r="L396" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M396" s="8" t="s">
         <v>7</v>
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="L397" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M397" s="8" t="s">
         <v>7</v>
@@ -19778,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="L398" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M398" s="8" t="s">
         <v>7</v>
@@ -19822,7 +19822,7 @@
         <v>1</v>
       </c>
       <c r="L399" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M399" s="8" t="s">
         <v>7</v>
@@ -19866,7 +19866,7 @@
         <v>1</v>
       </c>
       <c r="L400" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M400" s="8" t="s">
         <v>7</v>
@@ -19910,7 +19910,7 @@
         <v>1</v>
       </c>
       <c r="L401" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M401" s="8" t="s">
         <v>7</v>
@@ -19954,7 +19954,7 @@
         <v>1</v>
       </c>
       <c r="L402" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M402" s="11" t="s">
         <v>7</v>
@@ -19976,8 +19976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20073,7 +20073,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>7</v>
@@ -20117,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>7</v>
@@ -20161,7 +20161,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>7</v>
@@ -20205,7 +20205,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>7</v>
@@ -20249,7 +20249,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>7</v>
@@ -20293,7 +20293,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>7</v>
@@ -20337,7 +20337,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>7</v>
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>7</v>
@@ -20425,7 +20425,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>7</v>
@@ -20469,7 +20469,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>7</v>
@@ -20513,7 +20513,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>7</v>
@@ -20557,7 +20557,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>7</v>
@@ -20601,7 +20601,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>7</v>
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>7</v>
@@ -20689,7 +20689,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>7</v>
@@ -20733,7 +20733,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>7</v>
@@ -20777,7 +20777,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>7</v>
@@ -20821,7 +20821,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>7</v>
@@ -20865,7 +20865,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>7</v>
@@ -20909,7 +20909,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>7</v>
@@ -20953,7 +20953,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>7</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>7</v>
@@ -21041,7 +21041,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>7</v>
@@ -21085,7 +21085,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>7</v>
@@ -21129,7 +21129,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>7</v>
@@ -21173,7 +21173,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>7</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270EF2D6-7441-7F45-862F-2E4CE3CE4D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AECE7B-15D9-E442-AAEE-CB99A37F5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="17160" windowHeight="13040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="17160" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="5" r:id="rId1"/>
@@ -2143,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19976,7 +19976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8CEC8-259B-2B45-9A93-A75490055078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nuts3" sheetId="1" r:id="rId1"/>
@@ -80,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,14 +186,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,69 +537,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:N402"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="29"/>
+    <tableColumn id="2" name="start_year" dataDxfId="28"/>
+    <tableColumn id="3" name="end_year" dataDxfId="27"/>
+    <tableColumn id="4" name="id_region" dataDxfId="26"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="25"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="24"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="23"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
+    <tableColumn id="13" name="name" dataDxfId="17"/>
+    <tableColumn id="14" name="comment" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="16"/>
+    <tableColumn id="1" name="id" dataDxfId="13"/>
+    <tableColumn id="2" name="start_year" dataDxfId="12"/>
+    <tableColumn id="3" name="end_year" dataDxfId="11"/>
+    <tableColumn id="4" name="id_region" dataDxfId="10"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="9"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="8"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="7"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
+    <tableColumn id="13" name="name" dataDxfId="1"/>
+    <tableColumn id="14" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:N27" totalsRowShown="0">
-  <autoFilter ref="A1:N27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N27" totalsRowShown="0">
+  <autoFilter ref="A1:N27"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="start_year"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="end_year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="id_region"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="building_num_min"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="building_num_max"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="optimal_heating_behavior_prob"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="id_scenario_energy_price_wholesale"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="id_scenario_energy_price_tax_rate"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="id_scenario_energy_price_mark_up"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="id_scenario_energy_price_co2_emission"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="id_scenario_energy_emission_factor"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="name"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="comment"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="start_year"/>
+    <tableColumn id="3" name="end_year"/>
+    <tableColumn id="4" name="id_region"/>
+    <tableColumn id="5" name="building_num_min"/>
+    <tableColumn id="6" name="building_num_max"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="13" name="name"/>
+    <tableColumn id="14" name="comment"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,26 +867,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
     <col min="8" max="12" width="32" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -931,7 +930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -975,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>1</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>1</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>1</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>1</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>1</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>1</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>1</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>1</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>1</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>1</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>1</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>1</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>1</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>1</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>1</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>1</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>1</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>1</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>1</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>1</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>1</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>1</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>1</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>1</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>1</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>1</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>1</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>1</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>1</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>1</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>1</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>1</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>1</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>1</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="11">
         <v>1</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="11">
         <v>1</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="11">
         <v>1</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="11">
         <v>1</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="11">
         <v>1</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="11">
         <v>1</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="11">
         <v>1</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="11">
         <v>1</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="11">
         <v>1</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="11">
         <v>1</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="11">
         <v>1</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="11">
         <v>1</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="11">
         <v>1</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" s="11">
         <v>1</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82" s="11">
         <v>1</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" s="11">
         <v>1</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14">
       <c r="A84" s="11">
         <v>1</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14">
       <c r="A85" s="11">
         <v>1</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="A86" s="11">
         <v>1</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87" s="11">
         <v>1</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="A88" s="11">
         <v>1</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="A89" s="11">
         <v>1</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90" s="11">
         <v>1</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91" s="11">
         <v>1</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92" s="11">
         <v>1</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="A93" s="11">
         <v>1</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="A94" s="11">
         <v>1</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14">
       <c r="A95" s="11">
         <v>1</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="A96" s="11">
         <v>1</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14">
       <c r="A97" s="11">
         <v>1</v>
       </c>
@@ -5155,7 +5154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98" s="11">
         <v>1</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99" s="11">
         <v>1</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100" s="11">
         <v>1</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" s="11">
         <v>1</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102" s="11">
         <v>1</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" s="11">
         <v>1</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" s="11">
         <v>1</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" s="11">
         <v>1</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" s="11">
         <v>1</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107" s="11">
         <v>1</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108" s="11">
         <v>1</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109" s="11">
         <v>1</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" s="11">
         <v>1</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" s="11">
         <v>1</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112" s="11">
         <v>1</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113" s="11">
         <v>1</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114" s="11">
         <v>1</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="11">
         <v>1</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="11">
         <v>1</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="11">
         <v>1</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="11">
         <v>1</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="11">
         <v>1</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="11">
         <v>1</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121" s="11">
         <v>1</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122" s="11">
         <v>1</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" s="11">
         <v>1</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" s="11">
         <v>1</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="11">
         <v>1</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="11">
         <v>1</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="11">
         <v>1</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="11">
         <v>1</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" s="11">
         <v>1</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="A130" s="11">
         <v>1</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14">
       <c r="A131" s="11">
         <v>1</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="A132" s="11">
         <v>1</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="11">
         <v>1</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" s="11">
         <v>1</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="A135" s="11">
         <v>1</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="11">
         <v>1</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="11">
         <v>1</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="11">
         <v>1</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="11">
         <v>1</v>
       </c>
@@ -7003,7 +7002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" s="11">
         <v>1</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14">
       <c r="A141" s="11">
         <v>1</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14">
       <c r="A142" s="11">
         <v>1</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
       <c r="A143" s="11">
         <v>1</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14">
       <c r="A144" s="11">
         <v>1</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14">
       <c r="A145" s="11">
         <v>1</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14">
       <c r="A146" s="11">
         <v>1</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14">
       <c r="A147" s="11">
         <v>1</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14">
       <c r="A148" s="11">
         <v>1</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14">
       <c r="A149" s="11">
         <v>1</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14">
       <c r="A150" s="11">
         <v>1</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14">
       <c r="A151" s="11">
         <v>1</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14">
       <c r="A152" s="11">
         <v>1</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14">
       <c r="A153" s="11">
         <v>1</v>
       </c>
@@ -7619,7 +7618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14">
       <c r="A154" s="11">
         <v>1</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14">
       <c r="A155" s="11">
         <v>1</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14">
       <c r="A156" s="11">
         <v>1</v>
       </c>
@@ -7751,7 +7750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14">
       <c r="A157" s="11">
         <v>1</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14">
       <c r="A158" s="11">
         <v>1</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14">
       <c r="A159" s="11">
         <v>1</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14">
       <c r="A160" s="11">
         <v>1</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14">
       <c r="A161" s="11">
         <v>1</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14">
       <c r="A162" s="11">
         <v>1</v>
       </c>
@@ -8015,7 +8014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14">
       <c r="A163" s="11">
         <v>1</v>
       </c>
@@ -8059,7 +8058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14">
       <c r="A164" s="11">
         <v>1</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14">
       <c r="A165" s="11">
         <v>1</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14">
       <c r="A166" s="11">
         <v>1</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14">
       <c r="A167" s="11">
         <v>1</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14">
       <c r="A168" s="11">
         <v>1</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14">
       <c r="A169" s="11">
         <v>1</v>
       </c>
@@ -8323,7 +8322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14">
       <c r="A170" s="11">
         <v>1</v>
       </c>
@@ -8367,7 +8366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14">
       <c r="A171" s="11">
         <v>1</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14">
       <c r="A172" s="11">
         <v>1</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14">
       <c r="A173" s="11">
         <v>1</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14">
       <c r="A174" s="11">
         <v>1</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14">
       <c r="A175" s="11">
         <v>1</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14">
       <c r="A176" s="11">
         <v>1</v>
       </c>
@@ -8631,7 +8630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14">
       <c r="A177" s="11">
         <v>1</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14">
       <c r="A178" s="11">
         <v>1</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14">
       <c r="A179" s="11">
         <v>1</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14">
       <c r="A180" s="11">
         <v>1</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14">
       <c r="A181" s="11">
         <v>1</v>
       </c>
@@ -8851,7 +8850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14">
       <c r="A182" s="11">
         <v>1</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14">
       <c r="A183" s="11">
         <v>1</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14">
       <c r="A184" s="11">
         <v>1</v>
       </c>
@@ -8983,7 +8982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14">
       <c r="A185" s="11">
         <v>1</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14">
       <c r="A186" s="11">
         <v>1</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14">
       <c r="A187" s="11">
         <v>1</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14">
       <c r="A188" s="11">
         <v>1</v>
       </c>
@@ -9159,7 +9158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14">
       <c r="A189" s="11">
         <v>1</v>
       </c>
@@ -9203,7 +9202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14">
       <c r="A190" s="11">
         <v>1</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14">
       <c r="A191" s="11">
         <v>1</v>
       </c>
@@ -9291,7 +9290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14">
       <c r="A192" s="11">
         <v>1</v>
       </c>
@@ -9335,7 +9334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14">
       <c r="A193" s="11">
         <v>1</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14">
       <c r="A194" s="11">
         <v>1</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14">
       <c r="A195" s="11">
         <v>1</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14">
       <c r="A196" s="11">
         <v>1</v>
       </c>
@@ -9511,7 +9510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14">
       <c r="A197" s="11">
         <v>1</v>
       </c>
@@ -9555,7 +9554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14">
       <c r="A198" s="11">
         <v>1</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14">
       <c r="A199" s="11">
         <v>1</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14">
       <c r="A200" s="11">
         <v>1</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14">
       <c r="A201" s="11">
         <v>1</v>
       </c>
@@ -9731,7 +9730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14">
       <c r="A202" s="11">
         <v>1</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14">
       <c r="A203" s="11">
         <v>1</v>
       </c>
@@ -9819,7 +9818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14">
       <c r="A204" s="11">
         <v>1</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14">
       <c r="A205" s="11">
         <v>1</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14">
       <c r="A206" s="11">
         <v>1</v>
       </c>
@@ -9951,7 +9950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14">
       <c r="A207" s="11">
         <v>1</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14">
       <c r="A208" s="11">
         <v>1</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14">
       <c r="A209" s="11">
         <v>1</v>
       </c>
@@ -10083,7 +10082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14">
       <c r="A210" s="11">
         <v>1</v>
       </c>
@@ -10127,7 +10126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14">
       <c r="A211" s="11">
         <v>1</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14">
       <c r="A212" s="11">
         <v>1</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14">
       <c r="A213" s="11">
         <v>1</v>
       </c>
@@ -10259,7 +10258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14">
       <c r="A214" s="11">
         <v>1</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14">
       <c r="A215" s="11">
         <v>1</v>
       </c>
@@ -10347,7 +10346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14">
       <c r="A216" s="11">
         <v>1</v>
       </c>
@@ -10391,7 +10390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14">
       <c r="A217" s="11">
         <v>1</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14">
       <c r="A218" s="11">
         <v>1</v>
       </c>
@@ -10479,7 +10478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14">
       <c r="A219" s="11">
         <v>1</v>
       </c>
@@ -10523,7 +10522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14">
       <c r="A220" s="11">
         <v>1</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14">
       <c r="A221" s="11">
         <v>1</v>
       </c>
@@ -10611,7 +10610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14">
       <c r="A222" s="11">
         <v>1</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14">
       <c r="A223" s="11">
         <v>1</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14">
       <c r="A224" s="11">
         <v>1</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14">
       <c r="A225" s="11">
         <v>1</v>
       </c>
@@ -10787,7 +10786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14">
       <c r="A226" s="11">
         <v>1</v>
       </c>
@@ -10831,7 +10830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14">
       <c r="A227" s="11">
         <v>1</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14">
       <c r="A228" s="11">
         <v>1</v>
       </c>
@@ -10919,7 +10918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14">
       <c r="A229" s="11">
         <v>1</v>
       </c>
@@ -10963,7 +10962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14">
       <c r="A230" s="11">
         <v>1</v>
       </c>
@@ -11007,7 +11006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14">
       <c r="A231" s="11">
         <v>1</v>
       </c>
@@ -11051,7 +11050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14">
       <c r="A232" s="11">
         <v>1</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14">
       <c r="A233" s="11">
         <v>1</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14">
       <c r="A234" s="11">
         <v>1</v>
       </c>
@@ -11183,7 +11182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14">
       <c r="A235" s="11">
         <v>1</v>
       </c>
@@ -11227,7 +11226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14">
       <c r="A236" s="11">
         <v>1</v>
       </c>
@@ -11271,7 +11270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14">
       <c r="A237" s="11">
         <v>1</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14">
       <c r="A238" s="11">
         <v>1</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14">
       <c r="A239" s="11">
         <v>1</v>
       </c>
@@ -11403,7 +11402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14">
       <c r="A240" s="11">
         <v>1</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14">
       <c r="A241" s="11">
         <v>1</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14">
       <c r="A242" s="11">
         <v>1</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14">
       <c r="A243" s="11">
         <v>1</v>
       </c>
@@ -11579,7 +11578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14">
       <c r="A244" s="11">
         <v>1</v>
       </c>
@@ -11623,7 +11622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14">
       <c r="A245" s="11">
         <v>1</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14">
       <c r="A246" s="11">
         <v>1</v>
       </c>
@@ -11711,7 +11710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14">
       <c r="A247" s="11">
         <v>1</v>
       </c>
@@ -11755,7 +11754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14">
       <c r="A248" s="11">
         <v>1</v>
       </c>
@@ -11799,7 +11798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14">
       <c r="A249" s="11">
         <v>1</v>
       </c>
@@ -11843,7 +11842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14">
       <c r="A250" s="11">
         <v>1</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14">
       <c r="A251" s="11">
         <v>1</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14">
       <c r="A252" s="11">
         <v>1</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14">
       <c r="A253" s="11">
         <v>1</v>
       </c>
@@ -12019,7 +12018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14">
       <c r="A254" s="11">
         <v>1</v>
       </c>
@@ -12063,7 +12062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14">
       <c r="A255" s="11">
         <v>1</v>
       </c>
@@ -12107,7 +12106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14">
       <c r="A256" s="11">
         <v>1</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14">
       <c r="A257" s="11">
         <v>1</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14">
       <c r="A258" s="11">
         <v>1</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14">
       <c r="A259" s="11">
         <v>1</v>
       </c>
@@ -12283,7 +12282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14">
       <c r="A260" s="11">
         <v>1</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14">
       <c r="A261" s="11">
         <v>1</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14">
       <c r="A262" s="11">
         <v>1</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14">
       <c r="A263" s="11">
         <v>1</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14">
       <c r="A264" s="11">
         <v>1</v>
       </c>
@@ -12503,7 +12502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14">
       <c r="A265" s="11">
         <v>1</v>
       </c>
@@ -12547,7 +12546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14">
       <c r="A266" s="11">
         <v>1</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14">
       <c r="A267" s="11">
         <v>1</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14">
       <c r="A268" s="11">
         <v>1</v>
       </c>
@@ -12679,7 +12678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14">
       <c r="A269" s="11">
         <v>1</v>
       </c>
@@ -12723,7 +12722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14">
       <c r="A270" s="11">
         <v>1</v>
       </c>
@@ -12767,7 +12766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14">
       <c r="A271" s="11">
         <v>1</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14">
       <c r="A272" s="11">
         <v>1</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14">
       <c r="A273" s="11">
         <v>1</v>
       </c>
@@ -12899,7 +12898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14">
       <c r="A274" s="11">
         <v>1</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14">
       <c r="A275" s="11">
         <v>1</v>
       </c>
@@ -12987,7 +12986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14">
       <c r="A276" s="11">
         <v>1</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14">
       <c r="A277" s="11">
         <v>1</v>
       </c>
@@ -13075,7 +13074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14">
       <c r="A278" s="11">
         <v>1</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14">
       <c r="A279" s="11">
         <v>1</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14">
       <c r="A280" s="11">
         <v>1</v>
       </c>
@@ -13207,7 +13206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14">
       <c r="A281" s="11">
         <v>1</v>
       </c>
@@ -13251,7 +13250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14">
       <c r="A282" s="11">
         <v>1</v>
       </c>
@@ -13295,7 +13294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14">
       <c r="A283" s="11">
         <v>1</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14">
       <c r="A284" s="11">
         <v>1</v>
       </c>
@@ -13383,7 +13382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14">
       <c r="A285" s="11">
         <v>1</v>
       </c>
@@ -13427,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14">
       <c r="A286" s="11">
         <v>1</v>
       </c>
@@ -13471,7 +13470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14">
       <c r="A287" s="11">
         <v>1</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14">
       <c r="A288" s="11">
         <v>1</v>
       </c>
@@ -13559,7 +13558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14">
       <c r="A289" s="11">
         <v>1</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14">
       <c r="A290" s="11">
         <v>1</v>
       </c>
@@ -13647,7 +13646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14">
       <c r="A291" s="11">
         <v>1</v>
       </c>
@@ -13691,7 +13690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14">
       <c r="A292" s="11">
         <v>1</v>
       </c>
@@ -13735,7 +13734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14">
       <c r="A293" s="11">
         <v>1</v>
       </c>
@@ -13779,7 +13778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14">
       <c r="A294" s="11">
         <v>1</v>
       </c>
@@ -13823,7 +13822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14">
       <c r="A295" s="11">
         <v>1</v>
       </c>
@@ -13867,7 +13866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14">
       <c r="A296" s="11">
         <v>1</v>
       </c>
@@ -13911,7 +13910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14">
       <c r="A297" s="11">
         <v>1</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14">
       <c r="A298" s="11">
         <v>1</v>
       </c>
@@ -13999,7 +13998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14">
       <c r="A299" s="11">
         <v>1</v>
       </c>
@@ -14043,7 +14042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14">
       <c r="A300" s="11">
         <v>1</v>
       </c>
@@ -14087,7 +14086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14">
       <c r="A301" s="11">
         <v>1</v>
       </c>
@@ -14131,7 +14130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14">
       <c r="A302" s="11">
         <v>1</v>
       </c>
@@ -14175,7 +14174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14">
       <c r="A303" s="11">
         <v>1</v>
       </c>
@@ -14219,7 +14218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14">
       <c r="A304" s="11">
         <v>1</v>
       </c>
@@ -14263,7 +14262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14">
       <c r="A305" s="11">
         <v>1</v>
       </c>
@@ -14307,7 +14306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14">
       <c r="A306" s="11">
         <v>1</v>
       </c>
@@ -14351,7 +14350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14">
       <c r="A307" s="11">
         <v>1</v>
       </c>
@@ -14395,7 +14394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14">
       <c r="A308" s="11">
         <v>1</v>
       </c>
@@ -14439,7 +14438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14">
       <c r="A309" s="11">
         <v>1</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14">
       <c r="A310" s="11">
         <v>1</v>
       </c>
@@ -14527,7 +14526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14">
       <c r="A311" s="11">
         <v>1</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14">
       <c r="A312" s="11">
         <v>1</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14">
       <c r="A313" s="11">
         <v>1</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14">
       <c r="A314" s="11">
         <v>1</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14">
       <c r="A315" s="11">
         <v>1</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14">
       <c r="A316" s="11">
         <v>1</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14">
       <c r="A317" s="11">
         <v>1</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14">
       <c r="A318" s="11">
         <v>1</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14">
       <c r="A319" s="11">
         <v>1</v>
       </c>
@@ -14923,7 +14922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14">
       <c r="A320" s="11">
         <v>1</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14">
       <c r="A321" s="11">
         <v>1</v>
       </c>
@@ -15011,7 +15010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14">
       <c r="A322" s="11">
         <v>1</v>
       </c>
@@ -15055,7 +15054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14">
       <c r="A323" s="11">
         <v>1</v>
       </c>
@@ -15099,7 +15098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14">
       <c r="A324" s="11">
         <v>1</v>
       </c>
@@ -15143,7 +15142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14">
       <c r="A325" s="11">
         <v>1</v>
       </c>
@@ -15187,7 +15186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14">
       <c r="A326" s="11">
         <v>1</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14">
       <c r="A327" s="11">
         <v>1</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14">
       <c r="A328" s="11">
         <v>1</v>
       </c>
@@ -15319,7 +15318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14">
       <c r="A329" s="11">
         <v>1</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14">
       <c r="A330" s="11">
         <v>1</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14">
       <c r="A331" s="11">
         <v>1</v>
       </c>
@@ -15451,7 +15450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14">
       <c r="A332" s="11">
         <v>1</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14">
       <c r="A333" s="11">
         <v>1</v>
       </c>
@@ -15539,7 +15538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14">
       <c r="A334" s="11">
         <v>1</v>
       </c>
@@ -15583,7 +15582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14">
       <c r="A335" s="11">
         <v>1</v>
       </c>
@@ -15627,7 +15626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14">
       <c r="A336" s="11">
         <v>1</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14">
       <c r="A337" s="11">
         <v>1</v>
       </c>
@@ -15715,7 +15714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14">
       <c r="A338" s="11">
         <v>1</v>
       </c>
@@ -15759,7 +15758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14">
       <c r="A339" s="11">
         <v>1</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14">
       <c r="A340" s="11">
         <v>1</v>
       </c>
@@ -15847,7 +15846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14">
       <c r="A341" s="11">
         <v>1</v>
       </c>
@@ -15891,7 +15890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14">
       <c r="A342" s="11">
         <v>1</v>
       </c>
@@ -15935,7 +15934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14">
       <c r="A343" s="11">
         <v>1</v>
       </c>
@@ -15979,7 +15978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14">
       <c r="A344" s="11">
         <v>1</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14">
       <c r="A345" s="11">
         <v>1</v>
       </c>
@@ -16067,7 +16066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14">
       <c r="A346" s="11">
         <v>1</v>
       </c>
@@ -16111,7 +16110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14">
       <c r="A347" s="11">
         <v>1</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14">
       <c r="A348" s="11">
         <v>1</v>
       </c>
@@ -16199,7 +16198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14">
       <c r="A349" s="11">
         <v>1</v>
       </c>
@@ -16243,7 +16242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14">
       <c r="A350" s="11">
         <v>1</v>
       </c>
@@ -16287,7 +16286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14">
       <c r="A351" s="11">
         <v>1</v>
       </c>
@@ -16331,7 +16330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14">
       <c r="A352" s="11">
         <v>1</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14">
       <c r="A353" s="11">
         <v>1</v>
       </c>
@@ -16419,7 +16418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14">
       <c r="A354" s="11">
         <v>1</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14">
       <c r="A355" s="11">
         <v>1</v>
       </c>
@@ -16507,7 +16506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14">
       <c r="A356" s="11">
         <v>1</v>
       </c>
@@ -16551,7 +16550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14">
       <c r="A357" s="11">
         <v>1</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14">
       <c r="A358" s="11">
         <v>1</v>
       </c>
@@ -16639,7 +16638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14">
       <c r="A359" s="11">
         <v>1</v>
       </c>
@@ -16683,7 +16682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14">
       <c r="A360" s="11">
         <v>1</v>
       </c>
@@ -16727,7 +16726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14">
       <c r="A361" s="11">
         <v>1</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14">
       <c r="A362" s="11">
         <v>1</v>
       </c>
@@ -16815,7 +16814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14">
       <c r="A363" s="11">
         <v>1</v>
       </c>
@@ -16859,7 +16858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14">
       <c r="A364" s="11">
         <v>1</v>
       </c>
@@ -16903,7 +16902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14">
       <c r="A365" s="11">
         <v>1</v>
       </c>
@@ -16947,7 +16946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14">
       <c r="A366" s="11">
         <v>1</v>
       </c>
@@ -16991,7 +16990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14">
       <c r="A367" s="11">
         <v>1</v>
       </c>
@@ -17035,7 +17034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14">
       <c r="A368" s="11">
         <v>1</v>
       </c>
@@ -17079,7 +17078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14">
       <c r="A369" s="11">
         <v>1</v>
       </c>
@@ -17123,7 +17122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14">
       <c r="A370" s="11">
         <v>1</v>
       </c>
@@ -17167,7 +17166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14">
       <c r="A371" s="11">
         <v>1</v>
       </c>
@@ -17211,7 +17210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14">
       <c r="A372" s="11">
         <v>1</v>
       </c>
@@ -17255,7 +17254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14">
       <c r="A373" s="11">
         <v>1</v>
       </c>
@@ -17299,7 +17298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14">
       <c r="A374" s="11">
         <v>1</v>
       </c>
@@ -17343,7 +17342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14">
       <c r="A375" s="11">
         <v>1</v>
       </c>
@@ -17387,7 +17386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14">
       <c r="A376" s="11">
         <v>1</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14">
       <c r="A377" s="11">
         <v>1</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14">
       <c r="A378" s="11">
         <v>1</v>
       </c>
@@ -17519,7 +17518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14">
       <c r="A379" s="11">
         <v>1</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14">
       <c r="A380" s="11">
         <v>1</v>
       </c>
@@ -17607,7 +17606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14">
       <c r="A381" s="11">
         <v>1</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14">
       <c r="A382" s="11">
         <v>1</v>
       </c>
@@ -17695,7 +17694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14">
       <c r="A383" s="11">
         <v>1</v>
       </c>
@@ -17739,7 +17738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14">
       <c r="A384" s="11">
         <v>1</v>
       </c>
@@ -17783,7 +17782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14">
       <c r="A385" s="11">
         <v>1</v>
       </c>
@@ -17827,7 +17826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14">
       <c r="A386" s="11">
         <v>1</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14">
       <c r="A387" s="11">
         <v>1</v>
       </c>
@@ -17915,7 +17914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14">
       <c r="A388" s="11">
         <v>1</v>
       </c>
@@ -17959,7 +17958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14">
       <c r="A389" s="11">
         <v>1</v>
       </c>
@@ -18003,7 +18002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14">
       <c r="A390" s="11">
         <v>1</v>
       </c>
@@ -18047,7 +18046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14">
       <c r="A391" s="11">
         <v>1</v>
       </c>
@@ -18091,7 +18090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14">
       <c r="A392" s="11">
         <v>1</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14">
       <c r="A393" s="11">
         <v>1</v>
       </c>
@@ -18179,7 +18178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14">
       <c r="A394" s="11">
         <v>1</v>
       </c>
@@ -18223,7 +18222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14">
       <c r="A395" s="11">
         <v>1</v>
       </c>
@@ -18267,7 +18266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14">
       <c r="A396" s="11">
         <v>1</v>
       </c>
@@ -18311,7 +18310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14">
       <c r="A397" s="11">
         <v>1</v>
       </c>
@@ -18355,7 +18354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14">
       <c r="A398" s="11">
         <v>1</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14">
       <c r="A399" s="11">
         <v>1</v>
       </c>
@@ -18443,7 +18442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14">
       <c r="A400" s="11">
         <v>1</v>
       </c>
@@ -18487,7 +18486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14">
       <c r="A401" s="11">
         <v>1</v>
       </c>
@@ -18531,7 +18530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14">
       <c r="A402" s="12">
         <v>1</v>
       </c>
@@ -18585,26 +18584,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.5" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -18662,10 +18661,10 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F2" s="11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G2" s="11">
         <v>0.6</v>
@@ -18702,27 +18701,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="7" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.5" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18766,7 +18765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -18810,7 +18809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -18854,7 +18853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -18942,7 +18941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -18986,7 +18985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -19030,7 +19029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -19074,7 +19073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -19118,7 +19117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -19162,7 +19161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -19206,7 +19205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -19294,7 +19293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -19338,7 +19337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -19382,7 +19381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -19426,7 +19425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -19470,7 +19469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -19514,7 +19513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -19558,7 +19557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -19602,7 +19601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -19646,7 +19645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -19690,7 +19689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -19734,7 +19733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -19778,7 +19777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -19822,7 +19821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -19866,7 +19865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="4">
         <v>1</v>
       </c>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="nuts3" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -537,6 +537,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="id" dataDxfId="13"/>
+    <tableColumn id="2" name="start_year" dataDxfId="12"/>
+    <tableColumn id="3" name="end_year" dataDxfId="11"/>
+    <tableColumn id="4" name="id_region" dataDxfId="10"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="9"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="8"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="7"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
+    <tableColumn id="13" name="name" dataDxfId="1"/>
+    <tableColumn id="14" name="comment" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:N402"/>
   <tableColumns count="14">
@@ -554,29 +577,6 @@
     <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
     <tableColumn id="13" name="name" dataDxfId="17"/>
     <tableColumn id="14" name="comment" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="id" dataDxfId="13"/>
-    <tableColumn id="2" name="start_year" dataDxfId="12"/>
-    <tableColumn id="3" name="end_year" dataDxfId="11"/>
-    <tableColumn id="4" name="id_region" dataDxfId="10"/>
-    <tableColumn id="5" name="building_num_min" dataDxfId="9"/>
-    <tableColumn id="6" name="building_num_max" dataDxfId="8"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="7"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
-    <tableColumn id="13" name="name" dataDxfId="1"/>
-    <tableColumn id="14" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,9 +868,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="11">
+        <v>9010101</v>
+      </c>
+      <c r="E2" s="11">
+        <v>500</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -18576,123 +18693,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="11">
-        <v>9010101</v>
-      </c>
-      <c r="E2" s="11">
-        <v>20</v>
-      </c>
-      <c r="F2" s="11">
-        <v>200</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA16129E-25E7-5442-A933-16F884C1E51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB68C3-B5C0-9B43-868E-05732F046E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,46 +549,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,10 +956,10 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G2" s="9">
         <v>0.6</v>
@@ -1000,10 +1000,10 @@
         <v>9010102</v>
       </c>
       <c r="E3" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G3" s="9">
         <v>0.6</v>
@@ -1044,10 +1044,10 @@
         <v>9010103</v>
       </c>
       <c r="E4" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G4" s="9">
         <v>0.6</v>
@@ -1088,10 +1088,10 @@
         <v>9010104</v>
       </c>
       <c r="E5" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G5" s="9">
         <v>0.6</v>
@@ -1132,10 +1132,10 @@
         <v>9010105</v>
       </c>
       <c r="E6" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G6" s="9">
         <v>0.6</v>
@@ -1176,10 +1176,10 @@
         <v>9010106</v>
       </c>
       <c r="E7" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F7" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G7" s="9">
         <v>0.6</v>
@@ -1220,10 +1220,10 @@
         <v>9010107</v>
       </c>
       <c r="E8" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F8" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G8" s="9">
         <v>0.6</v>
@@ -1264,10 +1264,10 @@
         <v>9010108</v>
       </c>
       <c r="E9" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F9" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G9" s="9">
         <v>0.6</v>
@@ -1308,10 +1308,10 @@
         <v>9010109</v>
       </c>
       <c r="E10" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F10" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G10" s="9">
         <v>0.6</v>
@@ -1352,10 +1352,10 @@
         <v>9010110</v>
       </c>
       <c r="E11" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F11" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G11" s="9">
         <v>0.6</v>
@@ -1396,10 +1396,10 @@
         <v>9010111</v>
       </c>
       <c r="E12" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F12" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G12" s="9">
         <v>0.6</v>
@@ -1440,10 +1440,10 @@
         <v>9010112</v>
       </c>
       <c r="E13" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F13" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G13" s="9">
         <v>0.6</v>
@@ -1484,10 +1484,10 @@
         <v>9010113</v>
       </c>
       <c r="E14" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F14" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G14" s="9">
         <v>0.6</v>
@@ -1528,10 +1528,10 @@
         <v>9010201</v>
       </c>
       <c r="E15" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F15" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G15" s="9">
         <v>0.6</v>
@@ -1572,10 +1572,10 @@
         <v>9010202</v>
       </c>
       <c r="E16" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F16" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G16" s="9">
         <v>0.6</v>
@@ -1616,10 +1616,10 @@
         <v>9010203</v>
       </c>
       <c r="E17" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F17" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G17" s="9">
         <v>0.6</v>
@@ -1660,10 +1660,10 @@
         <v>9010204</v>
       </c>
       <c r="E18" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F18" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G18" s="9">
         <v>0.6</v>
@@ -1704,10 +1704,10 @@
         <v>9010205</v>
       </c>
       <c r="E19" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F19" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G19" s="9">
         <v>0.6</v>
@@ -1748,10 +1748,10 @@
         <v>9010206</v>
       </c>
       <c r="E20" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F20" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G20" s="9">
         <v>0.6</v>
@@ -1792,10 +1792,10 @@
         <v>9010207</v>
       </c>
       <c r="E21" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F21" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G21" s="9">
         <v>0.6</v>
@@ -1836,10 +1836,10 @@
         <v>9010208</v>
       </c>
       <c r="E22" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F22" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G22" s="9">
         <v>0.6</v>
@@ -1880,10 +1880,10 @@
         <v>9010209</v>
       </c>
       <c r="E23" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F23" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G23" s="9">
         <v>0.6</v>
@@ -1924,10 +1924,10 @@
         <v>9010210</v>
       </c>
       <c r="E24" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F24" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G24" s="9">
         <v>0.6</v>
@@ -1968,10 +1968,10 @@
         <v>9010211</v>
       </c>
       <c r="E25" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F25" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G25" s="9">
         <v>0.6</v>
@@ -2012,10 +2012,10 @@
         <v>9010212</v>
       </c>
       <c r="E26" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F26" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G26" s="9">
         <v>0.6</v>
@@ -2056,10 +2056,10 @@
         <v>9010301</v>
       </c>
       <c r="E27" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F27" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G27" s="9">
         <v>0.6</v>
@@ -2100,10 +2100,10 @@
         <v>9010302</v>
       </c>
       <c r="E28" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F28" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G28" s="9">
         <v>0.6</v>
@@ -2144,10 +2144,10 @@
         <v>9010303</v>
       </c>
       <c r="E29" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F29" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G29" s="9">
         <v>0.6</v>
@@ -2188,10 +2188,10 @@
         <v>9010304</v>
       </c>
       <c r="E30" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F30" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G30" s="9">
         <v>0.6</v>
@@ -2232,10 +2232,10 @@
         <v>9010305</v>
       </c>
       <c r="E31" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F31" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G31" s="9">
         <v>0.6</v>
@@ -2276,10 +2276,10 @@
         <v>9010306</v>
       </c>
       <c r="E32" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F32" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G32" s="9">
         <v>0.6</v>
@@ -2320,10 +2320,10 @@
         <v>9010307</v>
       </c>
       <c r="E33" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F33" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G33" s="9">
         <v>0.6</v>
@@ -2364,10 +2364,10 @@
         <v>9010308</v>
       </c>
       <c r="E34" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F34" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G34" s="9">
         <v>0.6</v>
@@ -2408,10 +2408,10 @@
         <v>9010309</v>
       </c>
       <c r="E35" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F35" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G35" s="9">
         <v>0.6</v>
@@ -2452,10 +2452,10 @@
         <v>9010310</v>
       </c>
       <c r="E36" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F36" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G36" s="9">
         <v>0.6</v>
@@ -2496,10 +2496,10 @@
         <v>9010401</v>
       </c>
       <c r="E37" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F37" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G37" s="9">
         <v>0.6</v>
@@ -2540,10 +2540,10 @@
         <v>9010402</v>
       </c>
       <c r="E38" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F38" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G38" s="9">
         <v>0.6</v>
@@ -2584,10 +2584,10 @@
         <v>9010403</v>
       </c>
       <c r="E39" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F39" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G39" s="9">
         <v>0.6</v>
@@ -2628,10 +2628,10 @@
         <v>9010404</v>
       </c>
       <c r="E40" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F40" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G40" s="9">
         <v>0.6</v>
@@ -2672,10 +2672,10 @@
         <v>9010405</v>
       </c>
       <c r="E41" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F41" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G41" s="9">
         <v>0.6</v>
@@ -2716,10 +2716,10 @@
         <v>9010406</v>
       </c>
       <c r="E42" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F42" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G42" s="9">
         <v>0.6</v>
@@ -2760,10 +2760,10 @@
         <v>9010407</v>
       </c>
       <c r="E43" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F43" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G43" s="9">
         <v>0.6</v>
@@ -2804,10 +2804,10 @@
         <v>9010408</v>
       </c>
       <c r="E44" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F44" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G44" s="9">
         <v>0.6</v>
@@ -2848,10 +2848,10 @@
         <v>9010409</v>
       </c>
       <c r="E45" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F45" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G45" s="9">
         <v>0.6</v>
@@ -2892,10 +2892,10 @@
         <v>9020101</v>
       </c>
       <c r="E46" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F46" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G46" s="9">
         <v>0.6</v>
@@ -2936,10 +2936,10 @@
         <v>9020102</v>
       </c>
       <c r="E47" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F47" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G47" s="9">
         <v>0.6</v>
@@ -2980,10 +2980,10 @@
         <v>9020103</v>
       </c>
       <c r="E48" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F48" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G48" s="9">
         <v>0.6</v>
@@ -3024,10 +3024,10 @@
         <v>9020104</v>
       </c>
       <c r="E49" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F49" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G49" s="9">
         <v>0.6</v>
@@ -3068,10 +3068,10 @@
         <v>9020105</v>
       </c>
       <c r="E50" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F50" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G50" s="9">
         <v>0.6</v>
@@ -3112,10 +3112,10 @@
         <v>9020106</v>
       </c>
       <c r="E51" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F51" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G51" s="9">
         <v>0.6</v>
@@ -3156,10 +3156,10 @@
         <v>9020107</v>
       </c>
       <c r="E52" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F52" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G52" s="9">
         <v>0.6</v>
@@ -3200,10 +3200,10 @@
         <v>9020108</v>
       </c>
       <c r="E53" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F53" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G53" s="9">
         <v>0.6</v>
@@ -3244,10 +3244,10 @@
         <v>9020109</v>
       </c>
       <c r="E54" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F54" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G54" s="9">
         <v>0.6</v>
@@ -3288,10 +3288,10 @@
         <v>9020110</v>
       </c>
       <c r="E55" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F55" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G55" s="9">
         <v>0.6</v>
@@ -3332,10 +3332,10 @@
         <v>9020111</v>
       </c>
       <c r="E56" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F56" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G56" s="9">
         <v>0.6</v>
@@ -3376,10 +3376,10 @@
         <v>9020112</v>
       </c>
       <c r="E57" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F57" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G57" s="9">
         <v>0.6</v>
@@ -3420,10 +3420,10 @@
         <v>9020113</v>
       </c>
       <c r="E58" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F58" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G58" s="9">
         <v>0.6</v>
@@ -3464,10 +3464,10 @@
         <v>9020114</v>
       </c>
       <c r="E59" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F59" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G59" s="9">
         <v>0.6</v>
@@ -3508,10 +3508,10 @@
         <v>9020115</v>
       </c>
       <c r="E60" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F60" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G60" s="9">
         <v>0.6</v>
@@ -3552,10 +3552,10 @@
         <v>9020116</v>
       </c>
       <c r="E61" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F61" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G61" s="9">
         <v>0.6</v>
@@ -3596,10 +3596,10 @@
         <v>9020117</v>
       </c>
       <c r="E62" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F62" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G62" s="9">
         <v>0.6</v>
@@ -3640,10 +3640,10 @@
         <v>9020118</v>
       </c>
       <c r="E63" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F63" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G63" s="9">
         <v>0.6</v>
@@ -3684,10 +3684,10 @@
         <v>9020119</v>
       </c>
       <c r="E64" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F64" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G64" s="9">
         <v>0.6</v>
@@ -3728,10 +3728,10 @@
         <v>9020120</v>
       </c>
       <c r="E65" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F65" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G65" s="9">
         <v>0.6</v>
@@ -3772,10 +3772,10 @@
         <v>9020121</v>
       </c>
       <c r="E66" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F66" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G66" s="9">
         <v>0.6</v>
@@ -3816,10 +3816,10 @@
         <v>9020122</v>
       </c>
       <c r="E67" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F67" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G67" s="9">
         <v>0.6</v>
@@ -3860,10 +3860,10 @@
         <v>9020123</v>
       </c>
       <c r="E68" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F68" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G68" s="9">
         <v>0.6</v>
@@ -3904,10 +3904,10 @@
         <v>9020201</v>
       </c>
       <c r="E69" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F69" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G69" s="9">
         <v>0.6</v>
@@ -3948,10 +3948,10 @@
         <v>9020202</v>
       </c>
       <c r="E70" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F70" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G70" s="9">
         <v>0.6</v>
@@ -3992,10 +3992,10 @@
         <v>9020203</v>
       </c>
       <c r="E71" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F71" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G71" s="9">
         <v>0.6</v>
@@ -4036,10 +4036,10 @@
         <v>9020204</v>
       </c>
       <c r="E72" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F72" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G72" s="9">
         <v>0.6</v>
@@ -4080,10 +4080,10 @@
         <v>9020205</v>
       </c>
       <c r="E73" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F73" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G73" s="9">
         <v>0.6</v>
@@ -4124,10 +4124,10 @@
         <v>9020206</v>
       </c>
       <c r="E74" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F74" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G74" s="9">
         <v>0.6</v>
@@ -4168,10 +4168,10 @@
         <v>9020207</v>
       </c>
       <c r="E75" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F75" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G75" s="9">
         <v>0.6</v>
@@ -4212,10 +4212,10 @@
         <v>9020208</v>
       </c>
       <c r="E76" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F76" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G76" s="9">
         <v>0.6</v>
@@ -4256,10 +4256,10 @@
         <v>9020209</v>
       </c>
       <c r="E77" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F77" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G77" s="9">
         <v>0.6</v>
@@ -4300,10 +4300,10 @@
         <v>9020210</v>
       </c>
       <c r="E78" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F78" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G78" s="9">
         <v>0.6</v>
@@ -4344,10 +4344,10 @@
         <v>9020211</v>
       </c>
       <c r="E79" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F79" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G79" s="9">
         <v>0.6</v>
@@ -4388,10 +4388,10 @@
         <v>9020212</v>
       </c>
       <c r="E80" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F80" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G80" s="9">
         <v>0.6</v>
@@ -4432,10 +4432,10 @@
         <v>9020301</v>
       </c>
       <c r="E81" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F81" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G81" s="9">
         <v>0.6</v>
@@ -4476,10 +4476,10 @@
         <v>9020302</v>
       </c>
       <c r="E82" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F82" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G82" s="9">
         <v>0.6</v>
@@ -4520,10 +4520,10 @@
         <v>9020303</v>
       </c>
       <c r="E83" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F83" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G83" s="9">
         <v>0.6</v>
@@ -4564,10 +4564,10 @@
         <v>9020304</v>
       </c>
       <c r="E84" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F84" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G84" s="9">
         <v>0.6</v>
@@ -4608,10 +4608,10 @@
         <v>9020305</v>
       </c>
       <c r="E85" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F85" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G85" s="9">
         <v>0.6</v>
@@ -4652,10 +4652,10 @@
         <v>9020306</v>
       </c>
       <c r="E86" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F86" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G86" s="9">
         <v>0.6</v>
@@ -4696,10 +4696,10 @@
         <v>9020307</v>
       </c>
       <c r="E87" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F87" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G87" s="9">
         <v>0.6</v>
@@ -4740,10 +4740,10 @@
         <v>9020308</v>
       </c>
       <c r="E88" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F88" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G88" s="9">
         <v>0.6</v>
@@ -4784,10 +4784,10 @@
         <v>9020309</v>
       </c>
       <c r="E89" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F89" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G89" s="9">
         <v>0.6</v>
@@ -4828,10 +4828,10 @@
         <v>9020310</v>
       </c>
       <c r="E90" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F90" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G90" s="9">
         <v>0.6</v>
@@ -4872,10 +4872,10 @@
         <v>9020401</v>
       </c>
       <c r="E91" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F91" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G91" s="9">
         <v>0.6</v>
@@ -4916,10 +4916,10 @@
         <v>9020402</v>
       </c>
       <c r="E92" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F92" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G92" s="9">
         <v>0.6</v>
@@ -4960,10 +4960,10 @@
         <v>9020403</v>
       </c>
       <c r="E93" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F93" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G93" s="9">
         <v>0.6</v>
@@ -5004,10 +5004,10 @@
         <v>9020404</v>
       </c>
       <c r="E94" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F94" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G94" s="9">
         <v>0.6</v>
@@ -5048,10 +5048,10 @@
         <v>9020405</v>
       </c>
       <c r="E95" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F95" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G95" s="9">
         <v>0.6</v>
@@ -5092,10 +5092,10 @@
         <v>9020406</v>
       </c>
       <c r="E96" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F96" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G96" s="9">
         <v>0.6</v>
@@ -5136,10 +5136,10 @@
         <v>9020407</v>
       </c>
       <c r="E97" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F97" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G97" s="9">
         <v>0.6</v>
@@ -5180,10 +5180,10 @@
         <v>9020408</v>
       </c>
       <c r="E98" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F98" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G98" s="9">
         <v>0.6</v>
@@ -5224,10 +5224,10 @@
         <v>9020409</v>
       </c>
       <c r="E99" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F99" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G99" s="9">
         <v>0.6</v>
@@ -5268,10 +5268,10 @@
         <v>9020410</v>
       </c>
       <c r="E100" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F100" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G100" s="9">
         <v>0.6</v>
@@ -5312,10 +5312,10 @@
         <v>9020411</v>
       </c>
       <c r="E101" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F101" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G101" s="9">
         <v>0.6</v>
@@ -5356,10 +5356,10 @@
         <v>9020412</v>
       </c>
       <c r="E102" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F102" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G102" s="9">
         <v>0.6</v>
@@ -5400,10 +5400,10 @@
         <v>9020413</v>
       </c>
       <c r="E103" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F103" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G103" s="9">
         <v>0.6</v>
@@ -5444,10 +5444,10 @@
         <v>9020501</v>
       </c>
       <c r="E104" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F104" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G104" s="9">
         <v>0.6</v>
@@ -5488,10 +5488,10 @@
         <v>9020502</v>
       </c>
       <c r="E105" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F105" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G105" s="9">
         <v>0.6</v>
@@ -5532,10 +5532,10 @@
         <v>9020503</v>
       </c>
       <c r="E106" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F106" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G106" s="9">
         <v>0.6</v>
@@ -5576,10 +5576,10 @@
         <v>9020504</v>
       </c>
       <c r="E107" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F107" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G107" s="9">
         <v>0.6</v>
@@ -5620,10 +5620,10 @@
         <v>9020505</v>
       </c>
       <c r="E108" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F108" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G108" s="9">
         <v>0.6</v>
@@ -5664,10 +5664,10 @@
         <v>9020506</v>
       </c>
       <c r="E109" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F109" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G109" s="9">
         <v>0.6</v>
@@ -5708,10 +5708,10 @@
         <v>9020507</v>
       </c>
       <c r="E110" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F110" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G110" s="9">
         <v>0.6</v>
@@ -5752,10 +5752,10 @@
         <v>9020508</v>
       </c>
       <c r="E111" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F111" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G111" s="9">
         <v>0.6</v>
@@ -5796,10 +5796,10 @@
         <v>9020509</v>
       </c>
       <c r="E112" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F112" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G112" s="9">
         <v>0.6</v>
@@ -5840,10 +5840,10 @@
         <v>9020510</v>
       </c>
       <c r="E113" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F113" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G113" s="9">
         <v>0.6</v>
@@ -5884,10 +5884,10 @@
         <v>9020511</v>
       </c>
       <c r="E114" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F114" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G114" s="9">
         <v>0.6</v>
@@ -5928,10 +5928,10 @@
         <v>9020512</v>
       </c>
       <c r="E115" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F115" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G115" s="9">
         <v>0.6</v>
@@ -5972,10 +5972,10 @@
         <v>9020601</v>
       </c>
       <c r="E116" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F116" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G116" s="9">
         <v>0.6</v>
@@ -6016,10 +6016,10 @@
         <v>9020602</v>
       </c>
       <c r="E117" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F117" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G117" s="9">
         <v>0.6</v>
@@ -6060,10 +6060,10 @@
         <v>9020603</v>
       </c>
       <c r="E118" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F118" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G118" s="9">
         <v>0.6</v>
@@ -6104,10 +6104,10 @@
         <v>9020604</v>
       </c>
       <c r="E119" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F119" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G119" s="9">
         <v>0.6</v>
@@ -6148,10 +6148,10 @@
         <v>9020605</v>
       </c>
       <c r="E120" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F120" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G120" s="9">
         <v>0.6</v>
@@ -6192,10 +6192,10 @@
         <v>9020606</v>
       </c>
       <c r="E121" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F121" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G121" s="9">
         <v>0.6</v>
@@ -6236,10 +6236,10 @@
         <v>9020607</v>
       </c>
       <c r="E122" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F122" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G122" s="9">
         <v>0.6</v>
@@ -6280,10 +6280,10 @@
         <v>9020608</v>
       </c>
       <c r="E123" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F123" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G123" s="9">
         <v>0.6</v>
@@ -6324,10 +6324,10 @@
         <v>9020609</v>
       </c>
       <c r="E124" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F124" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G124" s="9">
         <v>0.6</v>
@@ -6368,10 +6368,10 @@
         <v>9020610</v>
       </c>
       <c r="E125" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F125" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G125" s="9">
         <v>0.6</v>
@@ -6412,10 +6412,10 @@
         <v>9020611</v>
       </c>
       <c r="E126" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F126" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G126" s="9">
         <v>0.6</v>
@@ -6456,10 +6456,10 @@
         <v>9020612</v>
       </c>
       <c r="E127" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F127" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G127" s="9">
         <v>0.6</v>
@@ -6500,10 +6500,10 @@
         <v>9020701</v>
       </c>
       <c r="E128" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F128" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G128" s="9">
         <v>0.6</v>
@@ -6544,10 +6544,10 @@
         <v>9020702</v>
       </c>
       <c r="E129" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F129" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G129" s="9">
         <v>0.6</v>
@@ -6588,10 +6588,10 @@
         <v>9020703</v>
       </c>
       <c r="E130" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F130" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G130" s="9">
         <v>0.6</v>
@@ -6632,10 +6632,10 @@
         <v>9020704</v>
       </c>
       <c r="E131" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F131" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G131" s="9">
         <v>0.6</v>
@@ -6676,10 +6676,10 @@
         <v>9020705</v>
       </c>
       <c r="E132" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F132" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G132" s="9">
         <v>0.6</v>
@@ -6720,10 +6720,10 @@
         <v>9020706</v>
       </c>
       <c r="E133" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F133" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G133" s="9">
         <v>0.6</v>
@@ -6764,10 +6764,10 @@
         <v>9020707</v>
       </c>
       <c r="E134" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F134" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G134" s="9">
         <v>0.6</v>
@@ -6808,10 +6808,10 @@
         <v>9020708</v>
       </c>
       <c r="E135" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F135" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G135" s="9">
         <v>0.6</v>
@@ -6852,10 +6852,10 @@
         <v>9020709</v>
       </c>
       <c r="E136" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F136" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G136" s="9">
         <v>0.6</v>
@@ -6896,10 +6896,10 @@
         <v>9020710</v>
       </c>
       <c r="E137" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F137" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G137" s="9">
         <v>0.6</v>
@@ -6940,10 +6940,10 @@
         <v>9020711</v>
       </c>
       <c r="E138" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F138" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G138" s="9">
         <v>0.6</v>
@@ -6984,10 +6984,10 @@
         <v>9020712</v>
       </c>
       <c r="E139" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F139" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G139" s="9">
         <v>0.6</v>
@@ -7028,10 +7028,10 @@
         <v>9020713</v>
       </c>
       <c r="E140" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F140" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G140" s="9">
         <v>0.6</v>
@@ -7072,10 +7072,10 @@
         <v>9020714</v>
       </c>
       <c r="E141" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F141" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G141" s="9">
         <v>0.6</v>
@@ -7116,10 +7116,10 @@
         <v>9030000</v>
       </c>
       <c r="E142" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F142" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G142" s="9">
         <v>0.6</v>
@@ -7160,10 +7160,10 @@
         <v>9040001</v>
       </c>
       <c r="E143" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F143" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G143" s="9">
         <v>0.6</v>
@@ -7204,10 +7204,10 @@
         <v>9040002</v>
       </c>
       <c r="E144" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F144" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G144" s="9">
         <v>0.6</v>
@@ -7248,10 +7248,10 @@
         <v>9040003</v>
       </c>
       <c r="E145" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F145" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G145" s="9">
         <v>0.6</v>
@@ -7292,10 +7292,10 @@
         <v>9040004</v>
       </c>
       <c r="E146" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F146" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G146" s="9">
         <v>0.6</v>
@@ -7336,10 +7336,10 @@
         <v>9040005</v>
       </c>
       <c r="E147" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F147" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G147" s="9">
         <v>0.6</v>
@@ -7380,10 +7380,10 @@
         <v>9040006</v>
       </c>
       <c r="E148" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F148" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G148" s="9">
         <v>0.6</v>
@@ -7424,10 +7424,10 @@
         <v>9040007</v>
       </c>
       <c r="E149" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F149" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G149" s="9">
         <v>0.6</v>
@@ -7468,10 +7468,10 @@
         <v>9040008</v>
       </c>
       <c r="E150" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F150" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G150" s="9">
         <v>0.6</v>
@@ -7512,10 +7512,10 @@
         <v>9040009</v>
       </c>
       <c r="E151" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F151" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G151" s="9">
         <v>0.6</v>
@@ -7556,10 +7556,10 @@
         <v>9040010</v>
       </c>
       <c r="E152" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F152" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G152" s="9">
         <v>0.6</v>
@@ -7600,10 +7600,10 @@
         <v>9040011</v>
       </c>
       <c r="E153" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F153" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G153" s="9">
         <v>0.6</v>
@@ -7644,10 +7644,10 @@
         <v>9040012</v>
       </c>
       <c r="E154" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F154" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G154" s="9">
         <v>0.6</v>
@@ -7688,10 +7688,10 @@
         <v>9040013</v>
       </c>
       <c r="E155" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F155" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G155" s="9">
         <v>0.6</v>
@@ -7732,10 +7732,10 @@
         <v>9040014</v>
       </c>
       <c r="E156" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F156" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G156" s="9">
         <v>0.6</v>
@@ -7776,10 +7776,10 @@
         <v>9040015</v>
       </c>
       <c r="E157" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F157" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G157" s="9">
         <v>0.6</v>
@@ -7820,10 +7820,10 @@
         <v>9040016</v>
       </c>
       <c r="E158" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F158" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G158" s="9">
         <v>0.6</v>
@@ -7864,10 +7864,10 @@
         <v>9040017</v>
       </c>
       <c r="E159" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F159" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G159" s="9">
         <v>0.6</v>
@@ -7908,10 +7908,10 @@
         <v>9040018</v>
       </c>
       <c r="E160" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F160" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G160" s="9">
         <v>0.6</v>
@@ -7952,10 +7952,10 @@
         <v>9050001</v>
       </c>
       <c r="E161" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F161" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G161" s="9">
         <v>0.6</v>
@@ -7996,10 +7996,10 @@
         <v>9050002</v>
       </c>
       <c r="E162" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F162" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G162" s="9">
         <v>0.6</v>
@@ -8040,10 +8040,10 @@
         <v>9060000</v>
       </c>
       <c r="E163" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F163" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G163" s="9">
         <v>0.6</v>
@@ -8084,10 +8084,10 @@
         <v>9070101</v>
       </c>
       <c r="E164" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F164" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G164" s="9">
         <v>0.6</v>
@@ -8128,10 +8128,10 @@
         <v>9070102</v>
       </c>
       <c r="E165" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F165" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G165" s="9">
         <v>0.6</v>
@@ -8172,10 +8172,10 @@
         <v>9070103</v>
       </c>
       <c r="E166" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F166" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G166" s="9">
         <v>0.6</v>
@@ -8216,10 +8216,10 @@
         <v>9070104</v>
       </c>
       <c r="E167" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F167" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G167" s="9">
         <v>0.6</v>
@@ -8260,10 +8260,10 @@
         <v>9070105</v>
       </c>
       <c r="E168" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F168" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G168" s="9">
         <v>0.6</v>
@@ -8304,10 +8304,10 @@
         <v>9070106</v>
       </c>
       <c r="E169" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F169" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G169" s="9">
         <v>0.6</v>
@@ -8348,10 +8348,10 @@
         <v>9070107</v>
       </c>
       <c r="E170" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F170" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G170" s="9">
         <v>0.6</v>
@@ -8392,10 +8392,10 @@
         <v>9070108</v>
       </c>
       <c r="E171" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F171" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G171" s="9">
         <v>0.6</v>
@@ -8436,10 +8436,10 @@
         <v>9070109</v>
       </c>
       <c r="E172" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F172" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G172" s="9">
         <v>0.6</v>
@@ -8480,10 +8480,10 @@
         <v>9070110</v>
       </c>
       <c r="E173" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F173" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G173" s="9">
         <v>0.6</v>
@@ -8524,10 +8524,10 @@
         <v>9070111</v>
       </c>
       <c r="E174" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F174" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G174" s="9">
         <v>0.6</v>
@@ -8568,10 +8568,10 @@
         <v>9070112</v>
       </c>
       <c r="E175" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F175" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G175" s="9">
         <v>0.6</v>
@@ -8612,10 +8612,10 @@
         <v>9070113</v>
       </c>
       <c r="E176" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F176" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G176" s="9">
         <v>0.6</v>
@@ -8656,10 +8656,10 @@
         <v>9070114</v>
       </c>
       <c r="E177" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F177" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G177" s="9">
         <v>0.6</v>
@@ -8700,10 +8700,10 @@
         <v>9070201</v>
       </c>
       <c r="E178" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F178" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G178" s="9">
         <v>0.6</v>
@@ -8744,10 +8744,10 @@
         <v>9070202</v>
       </c>
       <c r="E179" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F179" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G179" s="9">
         <v>0.6</v>
@@ -8788,10 +8788,10 @@
         <v>9070203</v>
       </c>
       <c r="E180" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F180" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G180" s="9">
         <v>0.6</v>
@@ -8832,10 +8832,10 @@
         <v>9070204</v>
       </c>
       <c r="E181" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F181" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G181" s="9">
         <v>0.6</v>
@@ -8876,10 +8876,10 @@
         <v>9070205</v>
       </c>
       <c r="E182" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F182" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G182" s="9">
         <v>0.6</v>
@@ -8920,10 +8920,10 @@
         <v>9070301</v>
       </c>
       <c r="E183" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F183" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G183" s="9">
         <v>0.6</v>
@@ -8964,10 +8964,10 @@
         <v>9070302</v>
       </c>
       <c r="E184" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F184" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G184" s="9">
         <v>0.6</v>
@@ -9008,10 +9008,10 @@
         <v>9070303</v>
       </c>
       <c r="E185" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F185" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G185" s="9">
         <v>0.6</v>
@@ -9052,10 +9052,10 @@
         <v>9070304</v>
       </c>
       <c r="E186" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F186" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G186" s="9">
         <v>0.6</v>
@@ -9096,10 +9096,10 @@
         <v>9070305</v>
       </c>
       <c r="E187" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F187" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G187" s="9">
         <v>0.6</v>
@@ -9140,10 +9140,10 @@
         <v>9070306</v>
       </c>
       <c r="E188" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F188" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G188" s="9">
         <v>0.6</v>
@@ -9184,10 +9184,10 @@
         <v>9070307</v>
       </c>
       <c r="E189" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F189" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G189" s="9">
         <v>0.6</v>
@@ -9228,10 +9228,10 @@
         <v>9080003</v>
       </c>
       <c r="E190" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F190" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G190" s="9">
         <v>0.6</v>
@@ -9272,10 +9272,10 @@
         <v>9080004</v>
       </c>
       <c r="E191" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F191" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G191" s="9">
         <v>0.6</v>
@@ -9316,10 +9316,10 @@
         <v>9080019</v>
       </c>
       <c r="E192" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F192" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G192" s="9">
         <v>0.6</v>
@@ -9360,10 +9360,10 @@
         <v>9080020</v>
       </c>
       <c r="E193" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F193" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G193" s="9">
         <v>0.6</v>
@@ -9404,10 +9404,10 @@
         <v>9080021</v>
       </c>
       <c r="E194" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F194" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G194" s="9">
         <v>0.6</v>
@@ -9448,10 +9448,10 @@
         <v>9080022</v>
       </c>
       <c r="E195" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F195" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G195" s="9">
         <v>0.6</v>
@@ -9492,10 +9492,10 @@
         <v>9080023</v>
       </c>
       <c r="E196" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F196" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G196" s="9">
         <v>0.6</v>
@@ -9536,10 +9536,10 @@
         <v>9080024</v>
       </c>
       <c r="E197" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F197" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G197" s="9">
         <v>0.6</v>
@@ -9580,10 +9580,10 @@
         <v>9090101</v>
       </c>
       <c r="E198" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F198" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G198" s="9">
         <v>0.6</v>
@@ -9624,10 +9624,10 @@
         <v>9090102</v>
       </c>
       <c r="E199" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F199" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G199" s="9">
         <v>0.6</v>
@@ -9668,10 +9668,10 @@
         <v>9090103</v>
       </c>
       <c r="E200" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F200" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G200" s="9">
         <v>0.6</v>
@@ -9712,10 +9712,10 @@
         <v>9090104</v>
       </c>
       <c r="E201" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F201" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G201" s="9">
         <v>0.6</v>
@@ -9756,10 +9756,10 @@
         <v>9090106</v>
       </c>
       <c r="E202" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F202" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G202" s="9">
         <v>0.6</v>
@@ -9800,10 +9800,10 @@
         <v>9090107</v>
       </c>
       <c r="E203" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F203" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G203" s="9">
         <v>0.6</v>
@@ -9844,10 +9844,10 @@
         <v>9090108</v>
       </c>
       <c r="E204" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F204" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G204" s="9">
         <v>0.6</v>
@@ -9888,10 +9888,10 @@
         <v>9090110</v>
       </c>
       <c r="E205" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F205" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G205" s="9">
         <v>0.6</v>
@@ -9932,10 +9932,10 @@
         <v>9090111</v>
       </c>
       <c r="E206" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F206" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G206" s="9">
         <v>0.6</v>
@@ -9976,10 +9976,10 @@
         <v>9090112</v>
       </c>
       <c r="E207" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F207" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G207" s="9">
         <v>0.6</v>
@@ -10020,10 +10020,10 @@
         <v>9090202</v>
       </c>
       <c r="E208" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F208" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G208" s="9">
         <v>0.6</v>
@@ -10064,10 +10064,10 @@
         <v>9090203</v>
       </c>
       <c r="E209" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F209" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G209" s="9">
         <v>0.6</v>
@@ -10108,10 +10108,10 @@
         <v>9090205</v>
       </c>
       <c r="E210" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F210" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G210" s="9">
         <v>0.6</v>
@@ -10152,10 +10152,10 @@
         <v>9090206</v>
       </c>
       <c r="E211" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F211" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G211" s="9">
         <v>0.6</v>
@@ -10196,10 +10196,10 @@
         <v>9090207</v>
       </c>
       <c r="E212" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F212" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G212" s="9">
         <v>0.6</v>
@@ -10240,10 +10240,10 @@
         <v>9090208</v>
       </c>
       <c r="E213" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F213" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G213" s="9">
         <v>0.6</v>
@@ -10284,10 +10284,10 @@
         <v>9090209</v>
       </c>
       <c r="E214" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F214" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G214" s="9">
         <v>0.6</v>
@@ -10328,10 +10328,10 @@
         <v>9090301</v>
       </c>
       <c r="E215" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F215" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G215" s="9">
         <v>0.6</v>
@@ -10372,10 +10372,10 @@
         <v>9090302</v>
       </c>
       <c r="E216" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F216" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G216" s="9">
         <v>0.6</v>
@@ -10416,10 +10416,10 @@
         <v>9090303</v>
       </c>
       <c r="E217" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F217" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G217" s="9">
         <v>0.6</v>
@@ -10460,10 +10460,10 @@
         <v>9090304</v>
       </c>
       <c r="E218" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F218" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G218" s="9">
         <v>0.6</v>
@@ -10504,10 +10504,10 @@
         <v>9090305</v>
       </c>
       <c r="E219" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F219" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G219" s="9">
         <v>0.6</v>
@@ -10548,10 +10548,10 @@
         <v>9090306</v>
       </c>
       <c r="E220" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F220" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G220" s="9">
         <v>0.6</v>
@@ -10592,10 +10592,10 @@
         <v>9090307</v>
       </c>
       <c r="E221" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F221" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G221" s="9">
         <v>0.6</v>
@@ -10636,10 +10636,10 @@
         <v>9090308</v>
       </c>
       <c r="E222" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F222" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G222" s="9">
         <v>0.6</v>
@@ -10680,10 +10680,10 @@
         <v>9090309</v>
       </c>
       <c r="E223" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F223" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G223" s="9">
         <v>0.6</v>
@@ -10724,10 +10724,10 @@
         <v>9090310</v>
       </c>
       <c r="E224" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F224" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G224" s="9">
         <v>0.6</v>
@@ -10768,10 +10768,10 @@
         <v>9090311</v>
       </c>
       <c r="E225" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F225" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G225" s="9">
         <v>0.6</v>
@@ -10812,10 +10812,10 @@
         <v>9090401</v>
       </c>
       <c r="E226" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F226" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G226" s="9">
         <v>0.6</v>
@@ -10856,10 +10856,10 @@
         <v>9090402</v>
       </c>
       <c r="E227" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F227" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G227" s="9">
         <v>0.6</v>
@@ -10900,10 +10900,10 @@
         <v>9090403</v>
       </c>
       <c r="E228" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F228" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G228" s="9">
         <v>0.6</v>
@@ -10944,10 +10944,10 @@
         <v>9090404</v>
       </c>
       <c r="E229" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F229" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G229" s="9">
         <v>0.6</v>
@@ -10988,10 +10988,10 @@
         <v>9090405</v>
       </c>
       <c r="E230" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F230" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G230" s="9">
         <v>0.6</v>
@@ -11032,10 +11032,10 @@
         <v>9090406</v>
       </c>
       <c r="E231" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F231" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G231" s="9">
         <v>0.6</v>
@@ -11076,10 +11076,10 @@
         <v>9090407</v>
       </c>
       <c r="E232" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F232" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G232" s="9">
         <v>0.6</v>
@@ -11120,10 +11120,10 @@
         <v>9090408</v>
       </c>
       <c r="E233" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F233" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G233" s="9">
         <v>0.6</v>
@@ -11164,10 +11164,10 @@
         <v>9090409</v>
       </c>
       <c r="E234" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F234" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G234" s="9">
         <v>0.6</v>
@@ -11208,10 +11208,10 @@
         <v>9090410</v>
       </c>
       <c r="E235" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F235" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G235" s="9">
         <v>0.6</v>
@@ -11252,10 +11252,10 @@
         <v>9090411</v>
       </c>
       <c r="E236" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F236" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G236" s="9">
         <v>0.6</v>
@@ -11296,10 +11296,10 @@
         <v>9090412</v>
       </c>
       <c r="E237" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F237" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G237" s="9">
         <v>0.6</v>
@@ -11340,10 +11340,10 @@
         <v>9090413</v>
       </c>
       <c r="E238" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F238" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G238" s="9">
         <v>0.6</v>
@@ -11384,10 +11384,10 @@
         <v>9090414</v>
       </c>
       <c r="E239" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F239" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G239" s="9">
         <v>0.6</v>
@@ -11428,10 +11428,10 @@
         <v>9090415</v>
       </c>
       <c r="E240" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F240" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G240" s="9">
         <v>0.6</v>
@@ -11472,10 +11472,10 @@
         <v>9090416</v>
       </c>
       <c r="E241" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F241" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G241" s="9">
         <v>0.6</v>
@@ -11516,10 +11516,10 @@
         <v>9090417</v>
       </c>
       <c r="E242" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F242" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G242" s="9">
         <v>0.6</v>
@@ -11560,10 +11560,10 @@
         <v>9100101</v>
       </c>
       <c r="E243" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F243" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G243" s="9">
         <v>0.6</v>
@@ -11604,10 +11604,10 @@
         <v>9100102</v>
       </c>
       <c r="E244" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F244" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G244" s="9">
         <v>0.6</v>
@@ -11648,10 +11648,10 @@
         <v>9100103</v>
       </c>
       <c r="E245" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F245" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G245" s="9">
         <v>0.6</v>
@@ -11692,10 +11692,10 @@
         <v>9100104</v>
       </c>
       <c r="E246" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F246" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G246" s="9">
         <v>0.6</v>
@@ -11736,10 +11736,10 @@
         <v>9100105</v>
       </c>
       <c r="E247" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F247" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G247" s="9">
         <v>0.6</v>
@@ -11780,10 +11780,10 @@
         <v>9100106</v>
       </c>
       <c r="E248" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F248" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G248" s="9">
         <v>0.6</v>
@@ -11824,10 +11824,10 @@
         <v>9100107</v>
       </c>
       <c r="E249" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F249" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G249" s="9">
         <v>0.6</v>
@@ -11868,10 +11868,10 @@
         <v>9100108</v>
       </c>
       <c r="E250" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F250" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G250" s="9">
         <v>0.6</v>
@@ -11912,10 +11912,10 @@
         <v>9100109</v>
       </c>
       <c r="E251" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F251" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G251" s="9">
         <v>0.6</v>
@@ -11956,10 +11956,10 @@
         <v>9100110</v>
       </c>
       <c r="E252" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F252" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G252" s="9">
         <v>0.6</v>
@@ -12000,10 +12000,10 @@
         <v>9100111</v>
       </c>
       <c r="E253" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F253" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G253" s="9">
         <v>0.6</v>
@@ -12044,10 +12044,10 @@
         <v>9100112</v>
       </c>
       <c r="E254" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F254" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G254" s="9">
         <v>0.6</v>
@@ -12088,10 +12088,10 @@
         <v>9100113</v>
       </c>
       <c r="E255" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F255" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G255" s="9">
         <v>0.6</v>
@@ -12132,10 +12132,10 @@
         <v>9100114</v>
       </c>
       <c r="E256" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F256" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G256" s="9">
         <v>0.6</v>
@@ -12176,10 +12176,10 @@
         <v>9100115</v>
       </c>
       <c r="E257" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F257" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G257" s="9">
         <v>0.6</v>
@@ -12220,10 +12220,10 @@
         <v>9100202</v>
       </c>
       <c r="E258" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F258" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G258" s="9">
         <v>0.6</v>
@@ -12264,10 +12264,10 @@
         <v>9100203</v>
       </c>
       <c r="E259" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F259" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G259" s="9">
         <v>0.6</v>
@@ -12308,10 +12308,10 @@
         <v>9100204</v>
       </c>
       <c r="E260" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F260" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G260" s="9">
         <v>0.6</v>
@@ -12352,10 +12352,10 @@
         <v>9100206</v>
       </c>
       <c r="E261" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F261" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G261" s="9">
         <v>0.6</v>
@@ -12396,10 +12396,10 @@
         <v>9100207</v>
       </c>
       <c r="E262" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F262" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G262" s="9">
         <v>0.6</v>
@@ -12440,10 +12440,10 @@
         <v>9100208</v>
       </c>
       <c r="E263" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F263" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G263" s="9">
         <v>0.6</v>
@@ -12484,10 +12484,10 @@
         <v>9100209</v>
       </c>
       <c r="E264" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F264" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G264" s="9">
         <v>0.6</v>
@@ -12528,10 +12528,10 @@
         <v>9100210</v>
       </c>
       <c r="E265" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F265" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G265" s="9">
         <v>0.6</v>
@@ -12572,10 +12572,10 @@
         <v>9100211</v>
       </c>
       <c r="E266" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F266" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G266" s="9">
         <v>0.6</v>
@@ -12616,10 +12616,10 @@
         <v>9100212</v>
       </c>
       <c r="E267" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F267" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G267" s="9">
         <v>0.6</v>
@@ -12660,10 +12660,10 @@
         <v>9100213</v>
       </c>
       <c r="E268" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F268" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G268" s="9">
         <v>0.6</v>
@@ -12704,10 +12704,10 @@
         <v>9100301</v>
       </c>
       <c r="E269" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F269" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G269" s="9">
         <v>0.6</v>
@@ -12748,10 +12748,10 @@
         <v>9100302</v>
       </c>
       <c r="E270" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F270" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G270" s="9">
         <v>0.6</v>
@@ -12792,10 +12792,10 @@
         <v>9100303</v>
       </c>
       <c r="E271" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F271" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G271" s="9">
         <v>0.6</v>
@@ -12836,10 +12836,10 @@
         <v>9100304</v>
       </c>
       <c r="E272" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F272" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G272" s="9">
         <v>0.6</v>
@@ -12880,10 +12880,10 @@
         <v>9100305</v>
       </c>
       <c r="E273" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F273" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G273" s="9">
         <v>0.6</v>
@@ -12924,10 +12924,10 @@
         <v>9100306</v>
       </c>
       <c r="E274" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F274" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G274" s="9">
         <v>0.6</v>
@@ -12968,10 +12968,10 @@
         <v>9100307</v>
       </c>
       <c r="E275" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F275" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G275" s="9">
         <v>0.6</v>
@@ -13012,10 +13012,10 @@
         <v>9100308</v>
       </c>
       <c r="E276" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F276" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G276" s="9">
         <v>0.6</v>
@@ -13056,10 +13056,10 @@
         <v>9100401</v>
       </c>
       <c r="E277" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F277" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G277" s="9">
         <v>0.6</v>
@@ -13100,10 +13100,10 @@
         <v>9100402</v>
       </c>
       <c r="E278" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F278" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G278" s="9">
         <v>0.6</v>
@@ -13144,10 +13144,10 @@
         <v>9100403</v>
       </c>
       <c r="E279" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F279" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G279" s="9">
         <v>0.6</v>
@@ -13188,10 +13188,10 @@
         <v>9100404</v>
       </c>
       <c r="E280" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F280" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G280" s="9">
         <v>0.6</v>
@@ -13232,10 +13232,10 @@
         <v>9100405</v>
       </c>
       <c r="E281" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F281" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G281" s="9">
         <v>0.6</v>
@@ -13276,10 +13276,10 @@
         <v>9100406</v>
       </c>
       <c r="E282" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F282" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G282" s="9">
         <v>0.6</v>
@@ -13320,10 +13320,10 @@
         <v>9100407</v>
       </c>
       <c r="E283" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F283" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G283" s="9">
         <v>0.6</v>
@@ -13364,10 +13364,10 @@
         <v>9100501</v>
       </c>
       <c r="E284" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F284" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G284" s="9">
         <v>0.6</v>
@@ -13408,10 +13408,10 @@
         <v>9100502</v>
       </c>
       <c r="E285" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F285" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G285" s="9">
         <v>0.6</v>
@@ -13452,10 +13452,10 @@
         <v>9100503</v>
       </c>
       <c r="E286" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F286" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G286" s="9">
         <v>0.6</v>
@@ -13496,10 +13496,10 @@
         <v>9100504</v>
       </c>
       <c r="E287" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F287" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G287" s="9">
         <v>0.6</v>
@@ -13540,10 +13540,10 @@
         <v>9100505</v>
       </c>
       <c r="E288" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F288" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G288" s="9">
         <v>0.6</v>
@@ -13584,10 +13584,10 @@
         <v>9100506</v>
       </c>
       <c r="E289" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F289" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G289" s="9">
         <v>0.6</v>
@@ -13628,10 +13628,10 @@
         <v>9100507</v>
       </c>
       <c r="E290" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F290" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G290" s="9">
         <v>0.6</v>
@@ -13672,10 +13672,10 @@
         <v>9100508</v>
       </c>
       <c r="E291" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F291" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G291" s="9">
         <v>0.6</v>
@@ -13716,10 +13716,10 @@
         <v>9100509</v>
       </c>
       <c r="E292" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F292" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G292" s="9">
         <v>0.6</v>
@@ -13760,10 +13760,10 @@
         <v>9100510</v>
       </c>
       <c r="E293" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F293" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G293" s="9">
         <v>0.6</v>
@@ -13804,10 +13804,10 @@
         <v>9100511</v>
       </c>
       <c r="E294" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F294" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G294" s="9">
         <v>0.6</v>
@@ -13848,10 +13848,10 @@
         <v>9100512</v>
       </c>
       <c r="E295" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F295" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G295" s="9">
         <v>0.6</v>
@@ -13892,10 +13892,10 @@
         <v>9110101</v>
       </c>
       <c r="E296" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F296" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G296" s="9">
         <v>0.6</v>
@@ -13936,10 +13936,10 @@
         <v>9110102</v>
       </c>
       <c r="E297" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F297" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G297" s="9">
         <v>0.6</v>
@@ -13980,10 +13980,10 @@
         <v>9110103</v>
       </c>
       <c r="E298" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F298" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G298" s="9">
         <v>0.6</v>
@@ -14024,10 +14024,10 @@
         <v>9110104</v>
       </c>
       <c r="E299" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F299" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G299" s="9">
         <v>0.6</v>
@@ -14068,10 +14068,10 @@
         <v>9110105</v>
       </c>
       <c r="E300" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F300" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G300" s="9">
         <v>0.6</v>
@@ -14112,10 +14112,10 @@
         <v>9110107</v>
       </c>
       <c r="E301" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F301" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G301" s="9">
         <v>0.6</v>
@@ -14156,10 +14156,10 @@
         <v>9110108</v>
       </c>
       <c r="E302" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F302" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G302" s="9">
         <v>0.6</v>
@@ -14200,10 +14200,10 @@
         <v>9110110</v>
       </c>
       <c r="E303" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F303" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G303" s="9">
         <v>0.6</v>
@@ -14244,10 +14244,10 @@
         <v>9110111</v>
       </c>
       <c r="E304" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F304" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G304" s="9">
         <v>0.6</v>
@@ -14288,10 +14288,10 @@
         <v>9110112</v>
       </c>
       <c r="E305" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F305" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G305" s="9">
         <v>0.6</v>
@@ -14332,10 +14332,10 @@
         <v>9110113</v>
       </c>
       <c r="E306" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F306" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G306" s="9">
         <v>0.6</v>
@@ -14376,10 +14376,10 @@
         <v>9110201</v>
       </c>
       <c r="E307" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F307" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G307" s="9">
         <v>0.6</v>
@@ -14420,10 +14420,10 @@
         <v>9110202</v>
       </c>
       <c r="E308" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F308" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G308" s="9">
         <v>0.6</v>
@@ -14464,10 +14464,10 @@
         <v>9110203</v>
       </c>
       <c r="E309" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F309" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G309" s="9">
         <v>0.6</v>
@@ -14508,10 +14508,10 @@
         <v>9110204</v>
       </c>
       <c r="E310" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F310" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G310" s="9">
         <v>0.6</v>
@@ -14552,10 +14552,10 @@
         <v>9110205</v>
       </c>
       <c r="E311" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F311" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G311" s="9">
         <v>0.6</v>
@@ -14596,10 +14596,10 @@
         <v>9110301</v>
       </c>
       <c r="E312" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F312" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G312" s="9">
         <v>0.6</v>
@@ -14640,10 +14640,10 @@
         <v>9110302</v>
       </c>
       <c r="E313" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F313" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G313" s="9">
         <v>0.6</v>
@@ -14684,10 +14684,10 @@
         <v>9110303</v>
       </c>
       <c r="E314" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F314" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G314" s="9">
         <v>0.6</v>
@@ -14728,10 +14728,10 @@
         <v>9110304</v>
       </c>
       <c r="E315" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F315" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G315" s="9">
         <v>0.6</v>
@@ -14772,10 +14772,10 @@
         <v>9110305</v>
       </c>
       <c r="E316" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F316" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G316" s="9">
         <v>0.6</v>
@@ -14816,10 +14816,10 @@
         <v>9110306</v>
       </c>
       <c r="E317" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F317" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G317" s="9">
         <v>0.6</v>
@@ -14860,10 +14860,10 @@
         <v>9110307</v>
       </c>
       <c r="E318" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F318" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G318" s="9">
         <v>0.6</v>
@@ -14904,10 +14904,10 @@
         <v>9110308</v>
       </c>
       <c r="E319" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F319" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G319" s="9">
         <v>0.6</v>
@@ -14948,10 +14948,10 @@
         <v>9110309</v>
       </c>
       <c r="E320" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F320" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G320" s="9">
         <v>0.6</v>
@@ -14992,10 +14992,10 @@
         <v>9110310</v>
       </c>
       <c r="E321" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F321" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G321" s="9">
         <v>0.6</v>
@@ -15036,10 +15036,10 @@
         <v>9110311</v>
       </c>
       <c r="E322" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F322" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G322" s="9">
         <v>0.6</v>
@@ -15080,10 +15080,10 @@
         <v>9110312</v>
       </c>
       <c r="E323" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F323" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G323" s="9">
         <v>0.6</v>
@@ -15124,10 +15124,10 @@
         <v>9110313</v>
       </c>
       <c r="E324" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F324" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G324" s="9">
         <v>0.6</v>
@@ -15168,10 +15168,10 @@
         <v>9110314</v>
       </c>
       <c r="E325" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F325" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G325" s="9">
         <v>0.6</v>
@@ -15212,10 +15212,10 @@
         <v>9110315</v>
       </c>
       <c r="E326" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F326" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G326" s="9">
         <v>0.6</v>
@@ -15256,10 +15256,10 @@
         <v>9110316</v>
       </c>
       <c r="E327" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F327" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G327" s="9">
         <v>0.6</v>
@@ -15300,10 +15300,10 @@
         <v>9110317</v>
       </c>
       <c r="E328" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F328" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G328" s="9">
         <v>0.6</v>
@@ -15344,10 +15344,10 @@
         <v>9110318</v>
       </c>
       <c r="E329" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F329" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G329" s="9">
         <v>0.6</v>
@@ -15388,10 +15388,10 @@
         <v>9110319</v>
       </c>
       <c r="E330" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F330" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G330" s="9">
         <v>0.6</v>
@@ -15432,10 +15432,10 @@
         <v>9110320</v>
       </c>
       <c r="E331" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F331" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G331" s="9">
         <v>0.6</v>
@@ -15476,10 +15476,10 @@
         <v>9120001</v>
       </c>
       <c r="E332" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F332" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G332" s="9">
         <v>0.6</v>
@@ -15520,10 +15520,10 @@
         <v>9120002</v>
       </c>
       <c r="E333" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F333" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G333" s="9">
         <v>0.6</v>
@@ -15564,10 +15564,10 @@
         <v>9120003</v>
       </c>
       <c r="E334" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F334" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G334" s="9">
         <v>0.6</v>
@@ -15608,10 +15608,10 @@
         <v>9120004</v>
       </c>
       <c r="E335" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F335" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G335" s="9">
         <v>0.6</v>
@@ -15652,10 +15652,10 @@
         <v>9120005</v>
       </c>
       <c r="E336" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F336" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G336" s="9">
         <v>0.6</v>
@@ -15696,10 +15696,10 @@
         <v>9120006</v>
       </c>
       <c r="E337" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F337" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G337" s="9">
         <v>0.6</v>
@@ -15740,10 +15740,10 @@
         <v>9130201</v>
       </c>
       <c r="E338" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F338" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G338" s="9">
         <v>0.6</v>
@@ -15784,10 +15784,10 @@
         <v>9130212</v>
       </c>
       <c r="E339" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F339" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G339" s="9">
         <v>0.6</v>
@@ -15828,10 +15828,10 @@
         <v>9130213</v>
       </c>
       <c r="E340" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F340" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G340" s="9">
         <v>0.6</v>
@@ -15872,10 +15872,10 @@
         <v>9130214</v>
       </c>
       <c r="E341" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F341" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G341" s="9">
         <v>0.6</v>
@@ -15916,10 +15916,10 @@
         <v>9130215</v>
       </c>
       <c r="E342" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F342" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G342" s="9">
         <v>0.6</v>
@@ -15960,10 +15960,10 @@
         <v>9130401</v>
       </c>
       <c r="E343" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F343" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G343" s="9">
         <v>0.6</v>
@@ -16004,10 +16004,10 @@
         <v>9130402</v>
       </c>
       <c r="E344" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F344" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G344" s="9">
         <v>0.6</v>
@@ -16048,10 +16048,10 @@
         <v>9130403</v>
       </c>
       <c r="E345" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F345" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G345" s="9">
         <v>0.6</v>
@@ -16092,10 +16092,10 @@
         <v>9130404</v>
       </c>
       <c r="E346" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F346" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G346" s="9">
         <v>0.6</v>
@@ -16136,10 +16136,10 @@
         <v>9130405</v>
       </c>
       <c r="E347" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F347" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G347" s="9">
         <v>0.6</v>
@@ -16180,10 +16180,10 @@
         <v>9130501</v>
       </c>
       <c r="E348" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F348" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G348" s="9">
         <v>0.6</v>
@@ -16224,10 +16224,10 @@
         <v>9130502</v>
       </c>
       <c r="E349" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F349" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G349" s="9">
         <v>0.6</v>
@@ -16268,10 +16268,10 @@
         <v>9130503</v>
       </c>
       <c r="E350" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F350" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G350" s="9">
         <v>0.6</v>
@@ -16312,10 +16312,10 @@
         <v>9140001</v>
       </c>
       <c r="E351" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F351" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G351" s="9">
         <v>0.6</v>
@@ -16356,10 +16356,10 @@
         <v>9140002</v>
       </c>
       <c r="E352" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F352" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G352" s="9">
         <v>0.6</v>
@@ -16400,10 +16400,10 @@
         <v>9140003</v>
       </c>
       <c r="E353" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F353" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G353" s="9">
         <v>0.6</v>
@@ -16444,10 +16444,10 @@
         <v>9140004</v>
       </c>
       <c r="E354" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F354" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G354" s="9">
         <v>0.6</v>
@@ -16488,10 +16488,10 @@
         <v>9140005</v>
       </c>
       <c r="E355" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F355" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G355" s="9">
         <v>0.6</v>
@@ -16532,10 +16532,10 @@
         <v>9140006</v>
       </c>
       <c r="E356" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F356" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G356" s="9">
         <v>0.6</v>
@@ -16576,10 +16576,10 @@
         <v>9140007</v>
       </c>
       <c r="E357" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F357" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G357" s="9">
         <v>0.6</v>
@@ -16620,10 +16620,10 @@
         <v>9140008</v>
       </c>
       <c r="E358" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F358" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G358" s="9">
         <v>0.6</v>
@@ -16664,10 +16664,10 @@
         <v>9140009</v>
       </c>
       <c r="E359" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F359" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G359" s="9">
         <v>0.6</v>
@@ -16708,10 +16708,10 @@
         <v>9140010</v>
       </c>
       <c r="E360" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F360" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G360" s="9">
         <v>0.6</v>
@@ -16752,10 +16752,10 @@
         <v>9140011</v>
       </c>
       <c r="E361" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F361" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G361" s="9">
         <v>0.6</v>
@@ -16796,10 +16796,10 @@
         <v>9140012</v>
       </c>
       <c r="E362" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F362" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G362" s="9">
         <v>0.6</v>
@@ -16840,10 +16840,10 @@
         <v>9140013</v>
       </c>
       <c r="E363" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F363" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G363" s="9">
         <v>0.6</v>
@@ -16884,10 +16884,10 @@
         <v>9140014</v>
       </c>
       <c r="E364" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F364" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G364" s="9">
         <v>0.6</v>
@@ -16928,10 +16928,10 @@
         <v>9150001</v>
       </c>
       <c r="E365" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F365" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G365" s="9">
         <v>0.6</v>
@@ -16972,10 +16972,10 @@
         <v>9150002</v>
       </c>
       <c r="E366" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F366" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G366" s="9">
         <v>0.6</v>
@@ -17016,10 +17016,10 @@
         <v>9150003</v>
       </c>
       <c r="E367" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F367" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G367" s="9">
         <v>0.6</v>
@@ -17060,10 +17060,10 @@
         <v>9150004</v>
       </c>
       <c r="E368" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F368" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G368" s="9">
         <v>0.6</v>
@@ -17104,10 +17104,10 @@
         <v>9150005</v>
       </c>
       <c r="E369" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F369" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G369" s="9">
         <v>0.6</v>
@@ -17148,10 +17148,10 @@
         <v>9150006</v>
       </c>
       <c r="E370" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F370" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G370" s="9">
         <v>0.6</v>
@@ -17192,10 +17192,10 @@
         <v>9150007</v>
       </c>
       <c r="E371" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F371" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G371" s="9">
         <v>0.6</v>
@@ -17236,10 +17236,10 @@
         <v>9150008</v>
       </c>
       <c r="E372" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F372" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G372" s="9">
         <v>0.6</v>
@@ -17280,10 +17280,10 @@
         <v>9150009</v>
       </c>
       <c r="E373" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F373" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G373" s="9">
         <v>0.6</v>
@@ -17324,10 +17324,10 @@
         <v>9150010</v>
       </c>
       <c r="E374" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F374" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G374" s="9">
         <v>0.6</v>
@@ -17368,10 +17368,10 @@
         <v>9150011</v>
       </c>
       <c r="E375" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F375" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G375" s="9">
         <v>0.6</v>
@@ -17412,10 +17412,10 @@
         <v>9150012</v>
       </c>
       <c r="E376" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F376" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G376" s="9">
         <v>0.6</v>
@@ -17456,10 +17456,10 @@
         <v>9150013</v>
       </c>
       <c r="E377" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F377" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G377" s="9">
         <v>0.6</v>
@@ -17500,10 +17500,10 @@
         <v>9150014</v>
       </c>
       <c r="E378" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F378" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G378" s="9">
         <v>0.6</v>
@@ -17544,10 +17544,10 @@
         <v>9150015</v>
       </c>
       <c r="E379" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F379" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G379" s="9">
         <v>0.6</v>
@@ -17588,10 +17588,10 @@
         <v>9160001</v>
       </c>
       <c r="E380" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F380" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G380" s="9">
         <v>0.6</v>
@@ -17632,10 +17632,10 @@
         <v>9160002</v>
       </c>
       <c r="E381" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F381" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G381" s="9">
         <v>0.6</v>
@@ -17676,10 +17676,10 @@
         <v>9160003</v>
       </c>
       <c r="E382" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F382" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G382" s="9">
         <v>0.6</v>
@@ -17720,10 +17720,10 @@
         <v>9160004</v>
       </c>
       <c r="E383" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F383" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G383" s="9">
         <v>0.6</v>
@@ -17764,10 +17764,10 @@
         <v>9160005</v>
       </c>
       <c r="E384" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F384" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G384" s="9">
         <v>0.6</v>
@@ -17808,10 +17808,10 @@
         <v>9160006</v>
       </c>
       <c r="E385" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F385" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G385" s="9">
         <v>0.6</v>
@@ -17852,10 +17852,10 @@
         <v>9160007</v>
       </c>
       <c r="E386" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F386" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G386" s="9">
         <v>0.6</v>
@@ -17896,10 +17896,10 @@
         <v>9160009</v>
       </c>
       <c r="E387" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F387" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G387" s="9">
         <v>0.6</v>
@@ -17940,10 +17940,10 @@
         <v>9160010</v>
       </c>
       <c r="E388" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F388" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G388" s="9">
         <v>0.6</v>
@@ -17984,10 +17984,10 @@
         <v>9160011</v>
       </c>
       <c r="E389" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F389" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G389" s="9">
         <v>0.6</v>
@@ -18028,10 +18028,10 @@
         <v>9160012</v>
       </c>
       <c r="E390" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F390" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G390" s="9">
         <v>0.6</v>
@@ -18072,10 +18072,10 @@
         <v>9160013</v>
       </c>
       <c r="E391" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F391" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G391" s="9">
         <v>0.6</v>
@@ -18116,10 +18116,10 @@
         <v>9160014</v>
       </c>
       <c r="E392" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F392" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G392" s="9">
         <v>0.6</v>
@@ -18160,10 +18160,10 @@
         <v>9160015</v>
       </c>
       <c r="E393" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F393" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G393" s="9">
         <v>0.6</v>
@@ -18204,10 +18204,10 @@
         <v>9160016</v>
       </c>
       <c r="E394" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F394" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G394" s="9">
         <v>0.6</v>
@@ -18248,10 +18248,10 @@
         <v>9160017</v>
       </c>
       <c r="E395" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F395" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G395" s="9">
         <v>0.6</v>
@@ -18292,10 +18292,10 @@
         <v>9160018</v>
       </c>
       <c r="E396" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F396" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G396" s="9">
         <v>0.6</v>
@@ -18336,10 +18336,10 @@
         <v>9160019</v>
       </c>
       <c r="E397" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F397" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G397" s="9">
         <v>0.6</v>
@@ -18380,10 +18380,10 @@
         <v>9160020</v>
       </c>
       <c r="E398" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F398" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G398" s="9">
         <v>0.6</v>
@@ -18424,10 +18424,10 @@
         <v>9160021</v>
       </c>
       <c r="E399" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F399" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G399" s="9">
         <v>0.6</v>
@@ -18468,10 +18468,10 @@
         <v>9160022</v>
       </c>
       <c r="E400" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F400" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G400" s="9">
         <v>0.6</v>
@@ -18512,10 +18512,10 @@
         <v>9160023</v>
       </c>
       <c r="E401" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F401" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G401" s="9">
         <v>0.6</v>
@@ -18556,10 +18556,10 @@
         <v>9160025</v>
       </c>
       <c r="E402" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F402" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G402" s="9">
         <v>0.6</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB68C3-B5C0-9B43-868E-05732F046E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="16380" windowHeight="8205" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="nuts3" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -91,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -549,69 +548,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="16"/>
+    <tableColumn id="1" name="id" dataDxfId="13"/>
+    <tableColumn id="2" name="start_year" dataDxfId="12"/>
+    <tableColumn id="3" name="end_year" dataDxfId="11"/>
+    <tableColumn id="4" name="id_region" dataDxfId="10"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="9"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="8"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="7"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
+    <tableColumn id="13" name="name" dataDxfId="1"/>
+    <tableColumn id="14" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:N402"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="29"/>
+    <tableColumn id="2" name="start_year" dataDxfId="28"/>
+    <tableColumn id="3" name="end_year" dataDxfId="27"/>
+    <tableColumn id="4" name="id_region" dataDxfId="26"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="25"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="24"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="23"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
+    <tableColumn id="13" name="name" dataDxfId="17"/>
+    <tableColumn id="14" name="comment" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:N27" totalsRowShown="0">
-  <autoFilter ref="A1:N27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N27" totalsRowShown="0">
+  <autoFilter ref="A1:N27"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="start_year"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="end_year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="id_region"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="building_num_min"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="building_num_max"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="optimal_heating_behavior_prob"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="id_scenario_energy_price_wholesale"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="id_scenario_energy_price_tax_rate"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="id_scenario_energy_price_mark_up"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="id_scenario_energy_price_co2_emission"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="id_scenario_energy_emission_factor"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="name"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="comment"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="start_year"/>
+    <tableColumn id="3" name="end_year"/>
+    <tableColumn id="4" name="id_region"/>
+    <tableColumn id="5" name="building_num_min"/>
+    <tableColumn id="6" name="building_num_max"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="13" name="name"/>
+    <tableColumn id="14" name="comment"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,26 +878,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="11">
+        <v>9010101</v>
+      </c>
+      <c r="E2" s="11">
+        <v>100</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
     <col min="8" max="12" width="32" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -942,7 +1058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -986,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1030,7 +1146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1074,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1118,7 +1234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1162,7 +1278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -1206,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -1250,7 +1366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1294,7 +1410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -1338,7 +1454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1382,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1426,7 +1542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1470,7 +1586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -1514,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1558,7 +1674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1602,7 +1718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -1646,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -1690,7 +1806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -1734,7 +1850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -1778,7 +1894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -1822,7 +1938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -1866,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -1910,7 +2026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -1954,7 +2070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -1998,7 +2114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -2042,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>1</v>
       </c>
@@ -2086,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -2130,7 +2246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -2174,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -2218,7 +2334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -2262,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>1</v>
       </c>
@@ -2306,7 +2422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -2350,7 +2466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>1</v>
       </c>
@@ -2394,7 +2510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>1</v>
       </c>
@@ -2438,7 +2554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>1</v>
       </c>
@@ -2482,7 +2598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>1</v>
       </c>
@@ -2526,7 +2642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>1</v>
       </c>
@@ -2570,7 +2686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>1</v>
       </c>
@@ -2614,7 +2730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>1</v>
       </c>
@@ -2658,7 +2774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>1</v>
       </c>
@@ -2702,7 +2818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>1</v>
       </c>
@@ -2746,7 +2862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>1</v>
       </c>
@@ -2790,7 +2906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>1</v>
       </c>
@@ -2834,7 +2950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -2878,7 +2994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>1</v>
       </c>
@@ -2922,7 +3038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>1</v>
       </c>
@@ -2966,7 +3082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -3010,7 +3126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>1</v>
       </c>
@@ -3054,7 +3170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>1</v>
       </c>
@@ -3098,7 +3214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>1</v>
       </c>
@@ -3142,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>1</v>
       </c>
@@ -3186,7 +3302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>1</v>
       </c>
@@ -3230,7 +3346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>1</v>
       </c>
@@ -3274,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>1</v>
       </c>
@@ -3318,7 +3434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>1</v>
       </c>
@@ -3362,7 +3478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>1</v>
       </c>
@@ -3406,7 +3522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>1</v>
       </c>
@@ -3450,7 +3566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>1</v>
       </c>
@@ -3494,7 +3610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>1</v>
       </c>
@@ -3538,7 +3654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>1</v>
       </c>
@@ -3582,7 +3698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>1</v>
       </c>
@@ -3626,7 +3742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>1</v>
       </c>
@@ -3670,7 +3786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>1</v>
       </c>
@@ -3714,7 +3830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>1</v>
       </c>
@@ -3758,7 +3874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>1</v>
       </c>
@@ -3802,7 +3918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>1</v>
       </c>
@@ -3846,7 +3962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="11">
         <v>1</v>
       </c>
@@ -3890,7 +4006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="11">
         <v>1</v>
       </c>
@@ -3934,7 +4050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="11">
         <v>1</v>
       </c>
@@ -3978,7 +4094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="11">
         <v>1</v>
       </c>
@@ -4022,7 +4138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="11">
         <v>1</v>
       </c>
@@ -4066,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="11">
         <v>1</v>
       </c>
@@ -4110,7 +4226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="11">
         <v>1</v>
       </c>
@@ -4154,7 +4270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="11">
         <v>1</v>
       </c>
@@ -4198,7 +4314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="11">
         <v>1</v>
       </c>
@@ -4242,7 +4358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="11">
         <v>1</v>
       </c>
@@ -4286,7 +4402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="11">
         <v>1</v>
       </c>
@@ -4330,7 +4446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="11">
         <v>1</v>
       </c>
@@ -4374,7 +4490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="11">
         <v>1</v>
       </c>
@@ -4418,7 +4534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" s="11">
         <v>1</v>
       </c>
@@ -4462,7 +4578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82" s="11">
         <v>1</v>
       </c>
@@ -4506,7 +4622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" s="11">
         <v>1</v>
       </c>
@@ -4550,7 +4666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14">
       <c r="A84" s="11">
         <v>1</v>
       </c>
@@ -4594,7 +4710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14">
       <c r="A85" s="11">
         <v>1</v>
       </c>
@@ -4638,7 +4754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="A86" s="11">
         <v>1</v>
       </c>
@@ -4682,7 +4798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87" s="11">
         <v>1</v>
       </c>
@@ -4726,7 +4842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="A88" s="11">
         <v>1</v>
       </c>
@@ -4770,7 +4886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="A89" s="11">
         <v>1</v>
       </c>
@@ -4814,7 +4930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90" s="11">
         <v>1</v>
       </c>
@@ -4858,7 +4974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91" s="11">
         <v>1</v>
       </c>
@@ -4902,7 +5018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92" s="11">
         <v>1</v>
       </c>
@@ -4946,7 +5062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="A93" s="11">
         <v>1</v>
       </c>
@@ -4990,7 +5106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="A94" s="11">
         <v>1</v>
       </c>
@@ -5034,7 +5150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14">
       <c r="A95" s="11">
         <v>1</v>
       </c>
@@ -5078,7 +5194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="A96" s="11">
         <v>1</v>
       </c>
@@ -5122,7 +5238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14">
       <c r="A97" s="11">
         <v>1</v>
       </c>
@@ -5166,7 +5282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98" s="11">
         <v>1</v>
       </c>
@@ -5210,7 +5326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99" s="11">
         <v>1</v>
       </c>
@@ -5254,7 +5370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100" s="11">
         <v>1</v>
       </c>
@@ -5298,7 +5414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" s="11">
         <v>1</v>
       </c>
@@ -5342,7 +5458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102" s="11">
         <v>1</v>
       </c>
@@ -5386,7 +5502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" s="11">
         <v>1</v>
       </c>
@@ -5430,7 +5546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" s="11">
         <v>1</v>
       </c>
@@ -5474,7 +5590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" s="11">
         <v>1</v>
       </c>
@@ -5518,7 +5634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" s="11">
         <v>1</v>
       </c>
@@ -5562,7 +5678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107" s="11">
         <v>1</v>
       </c>
@@ -5606,7 +5722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108" s="11">
         <v>1</v>
       </c>
@@ -5650,7 +5766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109" s="11">
         <v>1</v>
       </c>
@@ -5694,7 +5810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" s="11">
         <v>1</v>
       </c>
@@ -5738,7 +5854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" s="11">
         <v>1</v>
       </c>
@@ -5782,7 +5898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112" s="11">
         <v>1</v>
       </c>
@@ -5826,7 +5942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113" s="11">
         <v>1</v>
       </c>
@@ -5870,7 +5986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114" s="11">
         <v>1</v>
       </c>
@@ -5914,7 +6030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="11">
         <v>1</v>
       </c>
@@ -5958,7 +6074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="11">
         <v>1</v>
       </c>
@@ -6002,7 +6118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="11">
         <v>1</v>
       </c>
@@ -6046,7 +6162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="11">
         <v>1</v>
       </c>
@@ -6090,7 +6206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="11">
         <v>1</v>
       </c>
@@ -6134,7 +6250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="11">
         <v>1</v>
       </c>
@@ -6178,7 +6294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121" s="11">
         <v>1</v>
       </c>
@@ -6222,7 +6338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122" s="11">
         <v>1</v>
       </c>
@@ -6266,7 +6382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" s="11">
         <v>1</v>
       </c>
@@ -6310,7 +6426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" s="11">
         <v>1</v>
       </c>
@@ -6354,7 +6470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="11">
         <v>1</v>
       </c>
@@ -6398,7 +6514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="11">
         <v>1</v>
       </c>
@@ -6442,7 +6558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="11">
         <v>1</v>
       </c>
@@ -6486,7 +6602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="11">
         <v>1</v>
       </c>
@@ -6530,7 +6646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" s="11">
         <v>1</v>
       </c>
@@ -6574,7 +6690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="A130" s="11">
         <v>1</v>
       </c>
@@ -6618,7 +6734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14">
       <c r="A131" s="11">
         <v>1</v>
       </c>
@@ -6662,7 +6778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="A132" s="11">
         <v>1</v>
       </c>
@@ -6706,7 +6822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="11">
         <v>1</v>
       </c>
@@ -6750,7 +6866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" s="11">
         <v>1</v>
       </c>
@@ -6794,7 +6910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="A135" s="11">
         <v>1</v>
       </c>
@@ -6838,7 +6954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="11">
         <v>1</v>
       </c>
@@ -6882,7 +6998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="11">
         <v>1</v>
       </c>
@@ -6926,7 +7042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="11">
         <v>1</v>
       </c>
@@ -6970,7 +7086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="11">
         <v>1</v>
       </c>
@@ -7014,7 +7130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" s="11">
         <v>1</v>
       </c>
@@ -7058,7 +7174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14">
       <c r="A141" s="11">
         <v>1</v>
       </c>
@@ -7102,7 +7218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14">
       <c r="A142" s="11">
         <v>1</v>
       </c>
@@ -7146,7 +7262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
       <c r="A143" s="11">
         <v>1</v>
       </c>
@@ -7190,7 +7306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14">
       <c r="A144" s="11">
         <v>1</v>
       </c>
@@ -7234,7 +7350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14">
       <c r="A145" s="11">
         <v>1</v>
       </c>
@@ -7278,7 +7394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14">
       <c r="A146" s="11">
         <v>1</v>
       </c>
@@ -7322,7 +7438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14">
       <c r="A147" s="11">
         <v>1</v>
       </c>
@@ -7366,7 +7482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14">
       <c r="A148" s="11">
         <v>1</v>
       </c>
@@ -7410,7 +7526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14">
       <c r="A149" s="11">
         <v>1</v>
       </c>
@@ -7454,7 +7570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14">
       <c r="A150" s="11">
         <v>1</v>
       </c>
@@ -7498,7 +7614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14">
       <c r="A151" s="11">
         <v>1</v>
       </c>
@@ -7542,7 +7658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14">
       <c r="A152" s="11">
         <v>1</v>
       </c>
@@ -7586,7 +7702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14">
       <c r="A153" s="11">
         <v>1</v>
       </c>
@@ -7630,7 +7746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14">
       <c r="A154" s="11">
         <v>1</v>
       </c>
@@ -7674,7 +7790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14">
       <c r="A155" s="11">
         <v>1</v>
       </c>
@@ -7718,7 +7834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14">
       <c r="A156" s="11">
         <v>1</v>
       </c>
@@ -7762,7 +7878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14">
       <c r="A157" s="11">
         <v>1</v>
       </c>
@@ -7806,7 +7922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14">
       <c r="A158" s="11">
         <v>1</v>
       </c>
@@ -7850,7 +7966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14">
       <c r="A159" s="11">
         <v>1</v>
       </c>
@@ -7894,7 +8010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14">
       <c r="A160" s="11">
         <v>1</v>
       </c>
@@ -7938,7 +8054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14">
       <c r="A161" s="11">
         <v>1</v>
       </c>
@@ -7982,7 +8098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14">
       <c r="A162" s="11">
         <v>1</v>
       </c>
@@ -8026,7 +8142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14">
       <c r="A163" s="11">
         <v>1</v>
       </c>
@@ -8070,7 +8186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14">
       <c r="A164" s="11">
         <v>1</v>
       </c>
@@ -8114,7 +8230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14">
       <c r="A165" s="11">
         <v>1</v>
       </c>
@@ -8158,7 +8274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14">
       <c r="A166" s="11">
         <v>1</v>
       </c>
@@ -8202,7 +8318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14">
       <c r="A167" s="11">
         <v>1</v>
       </c>
@@ -8246,7 +8362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14">
       <c r="A168" s="11">
         <v>1</v>
       </c>
@@ -8290,7 +8406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14">
       <c r="A169" s="11">
         <v>1</v>
       </c>
@@ -8334,7 +8450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14">
       <c r="A170" s="11">
         <v>1</v>
       </c>
@@ -8378,7 +8494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14">
       <c r="A171" s="11">
         <v>1</v>
       </c>
@@ -8422,7 +8538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14">
       <c r="A172" s="11">
         <v>1</v>
       </c>
@@ -8466,7 +8582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14">
       <c r="A173" s="11">
         <v>1</v>
       </c>
@@ -8510,7 +8626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14">
       <c r="A174" s="11">
         <v>1</v>
       </c>
@@ -8554,7 +8670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14">
       <c r="A175" s="11">
         <v>1</v>
       </c>
@@ -8598,7 +8714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14">
       <c r="A176" s="11">
         <v>1</v>
       </c>
@@ -8642,7 +8758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14">
       <c r="A177" s="11">
         <v>1</v>
       </c>
@@ -8686,7 +8802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14">
       <c r="A178" s="11">
         <v>1</v>
       </c>
@@ -8730,7 +8846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14">
       <c r="A179" s="11">
         <v>1</v>
       </c>
@@ -8774,7 +8890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14">
       <c r="A180" s="11">
         <v>1</v>
       </c>
@@ -8818,7 +8934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14">
       <c r="A181" s="11">
         <v>1</v>
       </c>
@@ -8862,7 +8978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14">
       <c r="A182" s="11">
         <v>1</v>
       </c>
@@ -8906,7 +9022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14">
       <c r="A183" s="11">
         <v>1</v>
       </c>
@@ -8950,7 +9066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14">
       <c r="A184" s="11">
         <v>1</v>
       </c>
@@ -8994,7 +9110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14">
       <c r="A185" s="11">
         <v>1</v>
       </c>
@@ -9038,7 +9154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14">
       <c r="A186" s="11">
         <v>1</v>
       </c>
@@ -9082,7 +9198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14">
       <c r="A187" s="11">
         <v>1</v>
       </c>
@@ -9126,7 +9242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14">
       <c r="A188" s="11">
         <v>1</v>
       </c>
@@ -9170,7 +9286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14">
       <c r="A189" s="11">
         <v>1</v>
       </c>
@@ -9214,7 +9330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14">
       <c r="A190" s="11">
         <v>1</v>
       </c>
@@ -9258,7 +9374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14">
       <c r="A191" s="11">
         <v>1</v>
       </c>
@@ -9302,7 +9418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14">
       <c r="A192" s="11">
         <v>1</v>
       </c>
@@ -9346,7 +9462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14">
       <c r="A193" s="11">
         <v>1</v>
       </c>
@@ -9390,7 +9506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14">
       <c r="A194" s="11">
         <v>1</v>
       </c>
@@ -9434,7 +9550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14">
       <c r="A195" s="11">
         <v>1</v>
       </c>
@@ -9478,7 +9594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14">
       <c r="A196" s="11">
         <v>1</v>
       </c>
@@ -9522,7 +9638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14">
       <c r="A197" s="11">
         <v>1</v>
       </c>
@@ -9566,7 +9682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14">
       <c r="A198" s="11">
         <v>1</v>
       </c>
@@ -9610,7 +9726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14">
       <c r="A199" s="11">
         <v>1</v>
       </c>
@@ -9654,7 +9770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14">
       <c r="A200" s="11">
         <v>1</v>
       </c>
@@ -9698,7 +9814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14">
       <c r="A201" s="11">
         <v>1</v>
       </c>
@@ -9742,7 +9858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14">
       <c r="A202" s="11">
         <v>1</v>
       </c>
@@ -9786,7 +9902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14">
       <c r="A203" s="11">
         <v>1</v>
       </c>
@@ -9830,7 +9946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14">
       <c r="A204" s="11">
         <v>1</v>
       </c>
@@ -9874,7 +9990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14">
       <c r="A205" s="11">
         <v>1</v>
       </c>
@@ -9918,7 +10034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14">
       <c r="A206" s="11">
         <v>1</v>
       </c>
@@ -9962,7 +10078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14">
       <c r="A207" s="11">
         <v>1</v>
       </c>
@@ -10006,7 +10122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14">
       <c r="A208" s="11">
         <v>1</v>
       </c>
@@ -10050,7 +10166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14">
       <c r="A209" s="11">
         <v>1</v>
       </c>
@@ -10094,7 +10210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14">
       <c r="A210" s="11">
         <v>1</v>
       </c>
@@ -10138,7 +10254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14">
       <c r="A211" s="11">
         <v>1</v>
       </c>
@@ -10182,7 +10298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14">
       <c r="A212" s="11">
         <v>1</v>
       </c>
@@ -10226,7 +10342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14">
       <c r="A213" s="11">
         <v>1</v>
       </c>
@@ -10270,7 +10386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14">
       <c r="A214" s="11">
         <v>1</v>
       </c>
@@ -10314,7 +10430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14">
       <c r="A215" s="11">
         <v>1</v>
       </c>
@@ -10358,7 +10474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14">
       <c r="A216" s="11">
         <v>1</v>
       </c>
@@ -10402,7 +10518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14">
       <c r="A217" s="11">
         <v>1</v>
       </c>
@@ -10446,7 +10562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14">
       <c r="A218" s="11">
         <v>1</v>
       </c>
@@ -10490,7 +10606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14">
       <c r="A219" s="11">
         <v>1</v>
       </c>
@@ -10534,7 +10650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14">
       <c r="A220" s="11">
         <v>1</v>
       </c>
@@ -10578,7 +10694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14">
       <c r="A221" s="11">
         <v>1</v>
       </c>
@@ -10622,7 +10738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14">
       <c r="A222" s="11">
         <v>1</v>
       </c>
@@ -10666,7 +10782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14">
       <c r="A223" s="11">
         <v>1</v>
       </c>
@@ -10710,7 +10826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14">
       <c r="A224" s="11">
         <v>1</v>
       </c>
@@ -10754,7 +10870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14">
       <c r="A225" s="11">
         <v>1</v>
       </c>
@@ -10798,7 +10914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14">
       <c r="A226" s="11">
         <v>1</v>
       </c>
@@ -10842,7 +10958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14">
       <c r="A227" s="11">
         <v>1</v>
       </c>
@@ -10886,7 +11002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14">
       <c r="A228" s="11">
         <v>1</v>
       </c>
@@ -10930,7 +11046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14">
       <c r="A229" s="11">
         <v>1</v>
       </c>
@@ -10974,7 +11090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14">
       <c r="A230" s="11">
         <v>1</v>
       </c>
@@ -11018,7 +11134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14">
       <c r="A231" s="11">
         <v>1</v>
       </c>
@@ -11062,7 +11178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14">
       <c r="A232" s="11">
         <v>1</v>
       </c>
@@ -11106,7 +11222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14">
       <c r="A233" s="11">
         <v>1</v>
       </c>
@@ -11150,7 +11266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14">
       <c r="A234" s="11">
         <v>1</v>
       </c>
@@ -11194,7 +11310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14">
       <c r="A235" s="11">
         <v>1</v>
       </c>
@@ -11238,7 +11354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14">
       <c r="A236" s="11">
         <v>1</v>
       </c>
@@ -11282,7 +11398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14">
       <c r="A237" s="11">
         <v>1</v>
       </c>
@@ -11326,7 +11442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14">
       <c r="A238" s="11">
         <v>1</v>
       </c>
@@ -11370,7 +11486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14">
       <c r="A239" s="11">
         <v>1</v>
       </c>
@@ -11414,7 +11530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14">
       <c r="A240" s="11">
         <v>1</v>
       </c>
@@ -11458,7 +11574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14">
       <c r="A241" s="11">
         <v>1</v>
       </c>
@@ -11502,7 +11618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14">
       <c r="A242" s="11">
         <v>1</v>
       </c>
@@ -11546,7 +11662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14">
       <c r="A243" s="11">
         <v>1</v>
       </c>
@@ -11590,7 +11706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14">
       <c r="A244" s="11">
         <v>1</v>
       </c>
@@ -11634,7 +11750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14">
       <c r="A245" s="11">
         <v>1</v>
       </c>
@@ -11678,7 +11794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14">
       <c r="A246" s="11">
         <v>1</v>
       </c>
@@ -11722,7 +11838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14">
       <c r="A247" s="11">
         <v>1</v>
       </c>
@@ -11766,7 +11882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14">
       <c r="A248" s="11">
         <v>1</v>
       </c>
@@ -11810,7 +11926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14">
       <c r="A249" s="11">
         <v>1</v>
       </c>
@@ -11854,7 +11970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14">
       <c r="A250" s="11">
         <v>1</v>
       </c>
@@ -11898,7 +12014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14">
       <c r="A251" s="11">
         <v>1</v>
       </c>
@@ -11942,7 +12058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14">
       <c r="A252" s="11">
         <v>1</v>
       </c>
@@ -11986,7 +12102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14">
       <c r="A253" s="11">
         <v>1</v>
       </c>
@@ -12030,7 +12146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14">
       <c r="A254" s="11">
         <v>1</v>
       </c>
@@ -12074,7 +12190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14">
       <c r="A255" s="11">
         <v>1</v>
       </c>
@@ -12118,7 +12234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14">
       <c r="A256" s="11">
         <v>1</v>
       </c>
@@ -12162,7 +12278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14">
       <c r="A257" s="11">
         <v>1</v>
       </c>
@@ -12206,7 +12322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14">
       <c r="A258" s="11">
         <v>1</v>
       </c>
@@ -12250,7 +12366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14">
       <c r="A259" s="11">
         <v>1</v>
       </c>
@@ -12294,7 +12410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14">
       <c r="A260" s="11">
         <v>1</v>
       </c>
@@ -12338,7 +12454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14">
       <c r="A261" s="11">
         <v>1</v>
       </c>
@@ -12382,7 +12498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14">
       <c r="A262" s="11">
         <v>1</v>
       </c>
@@ -12426,7 +12542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14">
       <c r="A263" s="11">
         <v>1</v>
       </c>
@@ -12470,7 +12586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14">
       <c r="A264" s="11">
         <v>1</v>
       </c>
@@ -12514,7 +12630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14">
       <c r="A265" s="11">
         <v>1</v>
       </c>
@@ -12558,7 +12674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14">
       <c r="A266" s="11">
         <v>1</v>
       </c>
@@ -12602,7 +12718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14">
       <c r="A267" s="11">
         <v>1</v>
       </c>
@@ -12646,7 +12762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14">
       <c r="A268" s="11">
         <v>1</v>
       </c>
@@ -12690,7 +12806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14">
       <c r="A269" s="11">
         <v>1</v>
       </c>
@@ -12734,7 +12850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14">
       <c r="A270" s="11">
         <v>1</v>
       </c>
@@ -12778,7 +12894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14">
       <c r="A271" s="11">
         <v>1</v>
       </c>
@@ -12822,7 +12938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14">
       <c r="A272" s="11">
         <v>1</v>
       </c>
@@ -12866,7 +12982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14">
       <c r="A273" s="11">
         <v>1</v>
       </c>
@@ -12910,7 +13026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14">
       <c r="A274" s="11">
         <v>1</v>
       </c>
@@ -12954,7 +13070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14">
       <c r="A275" s="11">
         <v>1</v>
       </c>
@@ -12998,7 +13114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14">
       <c r="A276" s="11">
         <v>1</v>
       </c>
@@ -13042,7 +13158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14">
       <c r="A277" s="11">
         <v>1</v>
       </c>
@@ -13086,7 +13202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14">
       <c r="A278" s="11">
         <v>1</v>
       </c>
@@ -13130,7 +13246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14">
       <c r="A279" s="11">
         <v>1</v>
       </c>
@@ -13174,7 +13290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14">
       <c r="A280" s="11">
         <v>1</v>
       </c>
@@ -13218,7 +13334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14">
       <c r="A281" s="11">
         <v>1</v>
       </c>
@@ -13262,7 +13378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14">
       <c r="A282" s="11">
         <v>1</v>
       </c>
@@ -13306,7 +13422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14">
       <c r="A283" s="11">
         <v>1</v>
       </c>
@@ -13350,7 +13466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14">
       <c r="A284" s="11">
         <v>1</v>
       </c>
@@ -13394,7 +13510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14">
       <c r="A285" s="11">
         <v>1</v>
       </c>
@@ -13438,7 +13554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14">
       <c r="A286" s="11">
         <v>1</v>
       </c>
@@ -13482,7 +13598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14">
       <c r="A287" s="11">
         <v>1</v>
       </c>
@@ -13526,7 +13642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14">
       <c r="A288" s="11">
         <v>1</v>
       </c>
@@ -13570,7 +13686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14">
       <c r="A289" s="11">
         <v>1</v>
       </c>
@@ -13614,7 +13730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14">
       <c r="A290" s="11">
         <v>1</v>
       </c>
@@ -13658,7 +13774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14">
       <c r="A291" s="11">
         <v>1</v>
       </c>
@@ -13702,7 +13818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14">
       <c r="A292" s="11">
         <v>1</v>
       </c>
@@ -13746,7 +13862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14">
       <c r="A293" s="11">
         <v>1</v>
       </c>
@@ -13790,7 +13906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14">
       <c r="A294" s="11">
         <v>1</v>
       </c>
@@ -13834,7 +13950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14">
       <c r="A295" s="11">
         <v>1</v>
       </c>
@@ -13878,7 +13994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14">
       <c r="A296" s="11">
         <v>1</v>
       </c>
@@ -13922,7 +14038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14">
       <c r="A297" s="11">
         <v>1</v>
       </c>
@@ -13966,7 +14082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14">
       <c r="A298" s="11">
         <v>1</v>
       </c>
@@ -14010,7 +14126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14">
       <c r="A299" s="11">
         <v>1</v>
       </c>
@@ -14054,7 +14170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14">
       <c r="A300" s="11">
         <v>1</v>
       </c>
@@ -14098,7 +14214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14">
       <c r="A301" s="11">
         <v>1</v>
       </c>
@@ -14142,7 +14258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14">
       <c r="A302" s="11">
         <v>1</v>
       </c>
@@ -14186,7 +14302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14">
       <c r="A303" s="11">
         <v>1</v>
       </c>
@@ -14230,7 +14346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14">
       <c r="A304" s="11">
         <v>1</v>
       </c>
@@ -14274,7 +14390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14">
       <c r="A305" s="11">
         <v>1</v>
       </c>
@@ -14318,7 +14434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14">
       <c r="A306" s="11">
         <v>1</v>
       </c>
@@ -14362,7 +14478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14">
       <c r="A307" s="11">
         <v>1</v>
       </c>
@@ -14406,7 +14522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14">
       <c r="A308" s="11">
         <v>1</v>
       </c>
@@ -14450,7 +14566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14">
       <c r="A309" s="11">
         <v>1</v>
       </c>
@@ -14494,7 +14610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14">
       <c r="A310" s="11">
         <v>1</v>
       </c>
@@ -14538,7 +14654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14">
       <c r="A311" s="11">
         <v>1</v>
       </c>
@@ -14582,7 +14698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14">
       <c r="A312" s="11">
         <v>1</v>
       </c>
@@ -14626,7 +14742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14">
       <c r="A313" s="11">
         <v>1</v>
       </c>
@@ -14670,7 +14786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14">
       <c r="A314" s="11">
         <v>1</v>
       </c>
@@ -14714,7 +14830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14">
       <c r="A315" s="11">
         <v>1</v>
       </c>
@@ -14758,7 +14874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14">
       <c r="A316" s="11">
         <v>1</v>
       </c>
@@ -14802,7 +14918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14">
       <c r="A317" s="11">
         <v>1</v>
       </c>
@@ -14846,7 +14962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14">
       <c r="A318" s="11">
         <v>1</v>
       </c>
@@ -14890,7 +15006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14">
       <c r="A319" s="11">
         <v>1</v>
       </c>
@@ -14934,7 +15050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14">
       <c r="A320" s="11">
         <v>1</v>
       </c>
@@ -14978,7 +15094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14">
       <c r="A321" s="11">
         <v>1</v>
       </c>
@@ -15022,7 +15138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14">
       <c r="A322" s="11">
         <v>1</v>
       </c>
@@ -15066,7 +15182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14">
       <c r="A323" s="11">
         <v>1</v>
       </c>
@@ -15110,7 +15226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14">
       <c r="A324" s="11">
         <v>1</v>
       </c>
@@ -15154,7 +15270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14">
       <c r="A325" s="11">
         <v>1</v>
       </c>
@@ -15198,7 +15314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14">
       <c r="A326" s="11">
         <v>1</v>
       </c>
@@ -15242,7 +15358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14">
       <c r="A327" s="11">
         <v>1</v>
       </c>
@@ -15286,7 +15402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14">
       <c r="A328" s="11">
         <v>1</v>
       </c>
@@ -15330,7 +15446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14">
       <c r="A329" s="11">
         <v>1</v>
       </c>
@@ -15374,7 +15490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14">
       <c r="A330" s="11">
         <v>1</v>
       </c>
@@ -15418,7 +15534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14">
       <c r="A331" s="11">
         <v>1</v>
       </c>
@@ -15462,7 +15578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14">
       <c r="A332" s="11">
         <v>1</v>
       </c>
@@ -15506,7 +15622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14">
       <c r="A333" s="11">
         <v>1</v>
       </c>
@@ -15550,7 +15666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14">
       <c r="A334" s="11">
         <v>1</v>
       </c>
@@ -15594,7 +15710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14">
       <c r="A335" s="11">
         <v>1</v>
       </c>
@@ -15638,7 +15754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14">
       <c r="A336" s="11">
         <v>1</v>
       </c>
@@ -15682,7 +15798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14">
       <c r="A337" s="11">
         <v>1</v>
       </c>
@@ -15726,7 +15842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14">
       <c r="A338" s="11">
         <v>1</v>
       </c>
@@ -15770,7 +15886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14">
       <c r="A339" s="11">
         <v>1</v>
       </c>
@@ -15814,7 +15930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14">
       <c r="A340" s="11">
         <v>1</v>
       </c>
@@ -15858,7 +15974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14">
       <c r="A341" s="11">
         <v>1</v>
       </c>
@@ -15902,7 +16018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14">
       <c r="A342" s="11">
         <v>1</v>
       </c>
@@ -15946,7 +16062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14">
       <c r="A343" s="11">
         <v>1</v>
       </c>
@@ -15990,7 +16106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14">
       <c r="A344" s="11">
         <v>1</v>
       </c>
@@ -16034,7 +16150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14">
       <c r="A345" s="11">
         <v>1</v>
       </c>
@@ -16078,7 +16194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14">
       <c r="A346" s="11">
         <v>1</v>
       </c>
@@ -16122,7 +16238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14">
       <c r="A347" s="11">
         <v>1</v>
       </c>
@@ -16166,7 +16282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14">
       <c r="A348" s="11">
         <v>1</v>
       </c>
@@ -16210,7 +16326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14">
       <c r="A349" s="11">
         <v>1</v>
       </c>
@@ -16254,7 +16370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14">
       <c r="A350" s="11">
         <v>1</v>
       </c>
@@ -16298,7 +16414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14">
       <c r="A351" s="11">
         <v>1</v>
       </c>
@@ -16342,7 +16458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14">
       <c r="A352" s="11">
         <v>1</v>
       </c>
@@ -16386,7 +16502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14">
       <c r="A353" s="11">
         <v>1</v>
       </c>
@@ -16430,7 +16546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14">
       <c r="A354" s="11">
         <v>1</v>
       </c>
@@ -16474,7 +16590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14">
       <c r="A355" s="11">
         <v>1</v>
       </c>
@@ -16518,7 +16634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14">
       <c r="A356" s="11">
         <v>1</v>
       </c>
@@ -16562,7 +16678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14">
       <c r="A357" s="11">
         <v>1</v>
       </c>
@@ -16606,7 +16722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14">
       <c r="A358" s="11">
         <v>1</v>
       </c>
@@ -16650,7 +16766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14">
       <c r="A359" s="11">
         <v>1</v>
       </c>
@@ -16694,7 +16810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14">
       <c r="A360" s="11">
         <v>1</v>
       </c>
@@ -16738,7 +16854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14">
       <c r="A361" s="11">
         <v>1</v>
       </c>
@@ -16782,7 +16898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14">
       <c r="A362" s="11">
         <v>1</v>
       </c>
@@ -16826,7 +16942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14">
       <c r="A363" s="11">
         <v>1</v>
       </c>
@@ -16870,7 +16986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14">
       <c r="A364" s="11">
         <v>1</v>
       </c>
@@ -16914,7 +17030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14">
       <c r="A365" s="11">
         <v>1</v>
       </c>
@@ -16958,7 +17074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14">
       <c r="A366" s="11">
         <v>1</v>
       </c>
@@ -17002,7 +17118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14">
       <c r="A367" s="11">
         <v>1</v>
       </c>
@@ -17046,7 +17162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14">
       <c r="A368" s="11">
         <v>1</v>
       </c>
@@ -17090,7 +17206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14">
       <c r="A369" s="11">
         <v>1</v>
       </c>
@@ -17134,7 +17250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14">
       <c r="A370" s="11">
         <v>1</v>
       </c>
@@ -17178,7 +17294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14">
       <c r="A371" s="11">
         <v>1</v>
       </c>
@@ -17222,7 +17338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14">
       <c r="A372" s="11">
         <v>1</v>
       </c>
@@ -17266,7 +17382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14">
       <c r="A373" s="11">
         <v>1</v>
       </c>
@@ -17310,7 +17426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14">
       <c r="A374" s="11">
         <v>1</v>
       </c>
@@ -17354,7 +17470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14">
       <c r="A375" s="11">
         <v>1</v>
       </c>
@@ -17398,7 +17514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14">
       <c r="A376" s="11">
         <v>1</v>
       </c>
@@ -17442,7 +17558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14">
       <c r="A377" s="11">
         <v>1</v>
       </c>
@@ -17486,7 +17602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14">
       <c r="A378" s="11">
         <v>1</v>
       </c>
@@ -17530,7 +17646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14">
       <c r="A379" s="11">
         <v>1</v>
       </c>
@@ -17574,7 +17690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14">
       <c r="A380" s="11">
         <v>1</v>
       </c>
@@ -17618,7 +17734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14">
       <c r="A381" s="11">
         <v>1</v>
       </c>
@@ -17662,7 +17778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14">
       <c r="A382" s="11">
         <v>1</v>
       </c>
@@ -17706,7 +17822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14">
       <c r="A383" s="11">
         <v>1</v>
       </c>
@@ -17750,7 +17866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14">
       <c r="A384" s="11">
         <v>1</v>
       </c>
@@ -17794,7 +17910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14">
       <c r="A385" s="11">
         <v>1</v>
       </c>
@@ -17838,7 +17954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14">
       <c r="A386" s="11">
         <v>1</v>
       </c>
@@ -17882,7 +17998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14">
       <c r="A387" s="11">
         <v>1</v>
       </c>
@@ -17926,7 +18042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14">
       <c r="A388" s="11">
         <v>1</v>
       </c>
@@ -17970,7 +18086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14">
       <c r="A389" s="11">
         <v>1</v>
       </c>
@@ -18014,7 +18130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14">
       <c r="A390" s="11">
         <v>1</v>
       </c>
@@ -18058,7 +18174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14">
       <c r="A391" s="11">
         <v>1</v>
       </c>
@@ -18102,7 +18218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14">
       <c r="A392" s="11">
         <v>1</v>
       </c>
@@ -18146,7 +18262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14">
       <c r="A393" s="11">
         <v>1</v>
       </c>
@@ -18190,7 +18306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14">
       <c r="A394" s="11">
         <v>1</v>
       </c>
@@ -18234,7 +18350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14">
       <c r="A395" s="11">
         <v>1</v>
       </c>
@@ -18278,7 +18394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14">
       <c r="A396" s="11">
         <v>1</v>
       </c>
@@ -18322,7 +18438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14">
       <c r="A397" s="11">
         <v>1</v>
       </c>
@@ -18366,7 +18482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14">
       <c r="A398" s="11">
         <v>1</v>
       </c>
@@ -18410,7 +18526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14">
       <c r="A399" s="11">
         <v>1</v>
       </c>
@@ -18454,7 +18570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14">
       <c r="A400" s="11">
         <v>1</v>
       </c>
@@ -18498,7 +18614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14">
       <c r="A401" s="11">
         <v>1</v>
       </c>
@@ -18542,7 +18658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14">
       <c r="A402" s="12">
         <v>1</v>
       </c>
@@ -18595,145 +18711,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="11">
-        <v>9010101</v>
-      </c>
-      <c r="E2" s="11">
-        <v>100</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="7" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.5" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18777,7 +18776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -18821,7 +18820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -18865,7 +18864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -18909,7 +18908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -18953,7 +18952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -18997,7 +18996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -19041,7 +19040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -19085,7 +19084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -19129,7 +19128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -19173,7 +19172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -19217,7 +19216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -19261,7 +19260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -19305,7 +19304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -19349,7 +19348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -19393,7 +19392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -19437,7 +19436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -19525,7 +19524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -19569,7 +19568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -19613,7 +19612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -19657,7 +19656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -19701,7 +19700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -19745,7 +19744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -19789,7 +19788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -19833,7 +19832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -19877,7 +19876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="4">
         <v>1</v>
       </c>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C043E495-E3E2-1644-9556-D403C5929E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4239B96-63B6-4A4C-97EC-D9D5BE12C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,46 +549,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="765" windowWidth="16380" windowHeight="8205" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="nuts3" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
@@ -200,62 +200,20 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -414,20 +372,62 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -623,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:P402"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
     <tableColumn id="1" name="id" dataDxfId="33"/>
     <tableColumn id="2" name="start_year" dataDxfId="32"/>
@@ -638,35 +638,35 @@
     <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
     <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
     <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
-    <tableColumn id="15" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" name="name" dataDxfId="21"/>
-    <tableColumn id="14" name="comment" dataDxfId="20"/>
+    <tableColumn id="15" name="renovation_mandatory" dataDxfId="21"/>
+    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="20"/>
+    <tableColumn id="13" name="name" dataDxfId="19"/>
+    <tableColumn id="14" name="comment" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P402"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="start_year" dataDxfId="16"/>
-    <tableColumn id="3" name="end_year" dataDxfId="15"/>
-    <tableColumn id="4" name="id_region" dataDxfId="14"/>
-    <tableColumn id="5" name="building_num_min" dataDxfId="13"/>
-    <tableColumn id="6" name="building_num_max" dataDxfId="12"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="11"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="10"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="9"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="8"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="7"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="6"/>
-    <tableColumn id="15" name="renovation_mandatory" dataDxfId="1"/>
-    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="0"/>
-    <tableColumn id="13" name="name" dataDxfId="5"/>
-    <tableColumn id="14" name="comment" dataDxfId="4"/>
+    <tableColumn id="1" name="id" dataDxfId="15"/>
+    <tableColumn id="2" name="start_year" dataDxfId="14"/>
+    <tableColumn id="3" name="end_year" dataDxfId="13"/>
+    <tableColumn id="4" name="id_region" dataDxfId="12"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="11"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="10"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="9"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
+    <tableColumn id="15" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" name="name" dataDxfId="1"/>
+    <tableColumn id="14" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,10 +960,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9010101</v>
+      </c>
+      <c r="E2" s="6">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6">
+        <v>500</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -21088,143 +21225,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="6">
-        <v>9010101</v>
-      </c>
-      <c r="E2" s="6">
-        <v>100</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -16,7 +16,7 @@
     <sheet name="nuts3" sheetId="1" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1050,10 +1050,10 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6">
         <v>0.6</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -963,7 +963,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962B2C0-5478-C047-9259-76553762DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="16380" windowHeight="8205" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -18,17 +19,6 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -96,8 +86,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -623,75 +613,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="33"/>
-    <tableColumn id="2" name="start_year" dataDxfId="32"/>
-    <tableColumn id="3" name="end_year" dataDxfId="31"/>
-    <tableColumn id="4" name="id_region" dataDxfId="30"/>
-    <tableColumn id="5" name="building_num_min" dataDxfId="29"/>
-    <tableColumn id="6" name="building_num_max" dataDxfId="28"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="27"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
-    <tableColumn id="15" name="renovation_mandatory" dataDxfId="21"/>
-    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="20"/>
-    <tableColumn id="13" name="name" dataDxfId="19"/>
-    <tableColumn id="14" name="comment" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P402"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="15"/>
-    <tableColumn id="2" name="start_year" dataDxfId="14"/>
-    <tableColumn id="3" name="end_year" dataDxfId="13"/>
-    <tableColumn id="4" name="id_region" dataDxfId="12"/>
-    <tableColumn id="5" name="building_num_min" dataDxfId="11"/>
-    <tableColumn id="6" name="building_num_max" dataDxfId="10"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="9"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
-    <tableColumn id="15" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" name="name" dataDxfId="1"/>
-    <tableColumn id="14" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P27" totalsRowShown="0">
-  <autoFilter ref="A1:P27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:P27" totalsRowShown="0">
+  <autoFilter ref="A1:P27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="start_year"/>
-    <tableColumn id="3" name="end_year"/>
-    <tableColumn id="4" name="id_region"/>
-    <tableColumn id="5" name="building_num_min"/>
-    <tableColumn id="6" name="building_num_max"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor"/>
-    <tableColumn id="13" name="renovation_mandatory"/>
-    <tableColumn id="14" name="heating_technology_mandatory"/>
-    <tableColumn id="15" name="name"/>
-    <tableColumn id="16" name="comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="start_year"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="end_year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="id_region"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="building_num_min"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="building_num_max"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="renovation_mandatory"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="heating_technology_mandatory"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="name"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -959,34 +949,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1044,16 +1034,16 @@
         <v>2019</v>
       </c>
       <c r="C2" s="6">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D2" s="6">
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="G2" s="6">
         <v>0.6</v>
@@ -1096,34 +1086,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P402"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1223,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1273,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1373,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1423,7 +1413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1473,7 +1463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1523,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1573,7 +1563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1623,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -1673,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -1723,7 +1713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1773,7 +1763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1823,7 +1813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1873,7 +1863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1923,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -1973,7 +1963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -2023,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -2073,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -2123,7 +2113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -2173,7 +2163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -2223,7 +2213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -2273,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -2323,7 +2313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -2373,7 +2363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -2423,7 +2413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -2473,7 +2463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>1</v>
       </c>
@@ -2523,7 +2513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -2573,7 +2563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -2623,7 +2613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -2673,7 +2663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -2723,7 +2713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -2773,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -2823,7 +2813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -2873,7 +2863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -2923,7 +2913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -2973,7 +2963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>1</v>
       </c>
@@ -3023,7 +3013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -3073,7 +3063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -3123,7 +3113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -3173,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -3223,7 +3213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -3273,7 +3263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -3323,7 +3313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -3373,7 +3363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -3423,7 +3413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -3473,7 +3463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -3523,7 +3513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -3573,7 +3563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>1</v>
       </c>
@@ -3623,7 +3613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>1</v>
       </c>
@@ -3673,7 +3663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -3723,7 +3713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -3773,7 +3763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -3823,7 +3813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>1</v>
       </c>
@@ -3873,7 +3863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -3923,7 +3913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>1</v>
       </c>
@@ -3973,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>1</v>
       </c>
@@ -4023,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>1</v>
       </c>
@@ -4073,7 +4063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>1</v>
       </c>
@@ -4123,7 +4113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -4173,7 +4163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>1</v>
       </c>
@@ -4223,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>1</v>
       </c>
@@ -4273,7 +4263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>1</v>
       </c>
@@ -4323,7 +4313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>1</v>
       </c>
@@ -4373,7 +4363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>1</v>
       </c>
@@ -4423,7 +4413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>1</v>
       </c>
@@ -4473,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -4523,7 +4513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>1</v>
       </c>
@@ -4573,7 +4563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>1</v>
       </c>
@@ -4623,7 +4613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>1</v>
       </c>
@@ -4673,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>1</v>
       </c>
@@ -4723,7 +4713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>1</v>
       </c>
@@ -4773,7 +4763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -4823,7 +4813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>1</v>
       </c>
@@ -4873,7 +4863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>1</v>
       </c>
@@ -4923,7 +4913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>1</v>
       </c>
@@ -4973,7 +4963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>1</v>
       </c>
@@ -5023,7 +5013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -5073,7 +5063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -5123,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>1</v>
       </c>
@@ -5173,7 +5163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>1</v>
       </c>
@@ -5223,7 +5213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>1</v>
       </c>
@@ -5273,7 +5263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>1</v>
       </c>
@@ -5323,7 +5313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>1</v>
       </c>
@@ -5373,7 +5363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>1</v>
       </c>
@@ -5423,7 +5413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>1</v>
       </c>
@@ -5473,7 +5463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -5523,7 +5513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -5573,7 +5563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>1</v>
       </c>
@@ -5623,7 +5613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>1</v>
       </c>
@@ -5673,7 +5663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>1</v>
       </c>
@@ -5723,7 +5713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -5773,7 +5763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>1</v>
       </c>
@@ -5823,7 +5813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>1</v>
       </c>
@@ -5873,7 +5863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>1</v>
       </c>
@@ -5923,7 +5913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>1</v>
       </c>
@@ -5973,7 +5963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>1</v>
       </c>
@@ -6023,7 +6013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>1</v>
       </c>
@@ -6073,7 +6063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>1</v>
       </c>
@@ -6123,7 +6113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -6173,7 +6163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>1</v>
       </c>
@@ -6223,7 +6213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>1</v>
       </c>
@@ -6273,7 +6263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>1</v>
       </c>
@@ -6323,7 +6313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -6373,7 +6363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>1</v>
       </c>
@@ -6423,7 +6413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>1</v>
       </c>
@@ -6473,7 +6463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>1</v>
       </c>
@@ -6523,7 +6513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>1</v>
       </c>
@@ -6573,7 +6563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -6623,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>1</v>
       </c>
@@ -6673,7 +6663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>1</v>
       </c>
@@ -6723,7 +6713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>1</v>
       </c>
@@ -6773,7 +6763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -6823,7 +6813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>1</v>
       </c>
@@ -6873,7 +6863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>1</v>
       </c>
@@ -6923,7 +6913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>1</v>
       </c>
@@ -6973,7 +6963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>1</v>
       </c>
@@ -7023,7 +7013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>1</v>
       </c>
@@ -7073,7 +7063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>1</v>
       </c>
@@ -7123,7 +7113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>1</v>
       </c>
@@ -7173,7 +7163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>1</v>
       </c>
@@ -7223,7 +7213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>1</v>
       </c>
@@ -7273,7 +7263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>1</v>
       </c>
@@ -7323,7 +7313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>1</v>
       </c>
@@ -7373,7 +7363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>1</v>
       </c>
@@ -7423,7 +7413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>1</v>
       </c>
@@ -7473,7 +7463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>1</v>
       </c>
@@ -7523,7 +7513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>1</v>
       </c>
@@ -7573,7 +7563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>1</v>
       </c>
@@ -7623,7 +7613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>1</v>
       </c>
@@ -7673,7 +7663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>1</v>
       </c>
@@ -7723,7 +7713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>1</v>
       </c>
@@ -7773,7 +7763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>1</v>
       </c>
@@ -7823,7 +7813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>1</v>
       </c>
@@ -7873,7 +7863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>1</v>
       </c>
@@ -7923,7 +7913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>1</v>
       </c>
@@ -7973,7 +7963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>1</v>
       </c>
@@ -8023,7 +8013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>1</v>
       </c>
@@ -8073,7 +8063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>1</v>
       </c>
@@ -8123,7 +8113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>1</v>
       </c>
@@ -8173,7 +8163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>1</v>
       </c>
@@ -8223,7 +8213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>1</v>
       </c>
@@ -8273,7 +8263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>1</v>
       </c>
@@ -8323,7 +8313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>1</v>
       </c>
@@ -8373,7 +8363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>1</v>
       </c>
@@ -8423,7 +8413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>1</v>
       </c>
@@ -8473,7 +8463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>1</v>
       </c>
@@ -8523,7 +8513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>1</v>
       </c>
@@ -8573,7 +8563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>1</v>
       </c>
@@ -8623,7 +8613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>1</v>
       </c>
@@ -8673,7 +8663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>1</v>
       </c>
@@ -8723,7 +8713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>1</v>
       </c>
@@ -8773,7 +8763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>1</v>
       </c>
@@ -8823,7 +8813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>1</v>
       </c>
@@ -8873,7 +8863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>1</v>
       </c>
@@ -8923,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>1</v>
       </c>
@@ -8973,7 +8963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>1</v>
       </c>
@@ -9023,7 +9013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>1</v>
       </c>
@@ -9073,7 +9063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>1</v>
       </c>
@@ -9123,7 +9113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>1</v>
       </c>
@@ -9173,7 +9163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>1</v>
       </c>
@@ -9223,7 +9213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>1</v>
       </c>
@@ -9273,7 +9263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>1</v>
       </c>
@@ -9323,7 +9313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>1</v>
       </c>
@@ -9373,7 +9363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>1</v>
       </c>
@@ -9423,7 +9413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>1</v>
       </c>
@@ -9473,7 +9463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>1</v>
       </c>
@@ -9523,7 +9513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>1</v>
       </c>
@@ -9573,7 +9563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>1</v>
       </c>
@@ -9623,7 +9613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>1</v>
       </c>
@@ -9673,7 +9663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>1</v>
       </c>
@@ -9723,7 +9713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>1</v>
       </c>
@@ -9773,7 +9763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>1</v>
       </c>
@@ -9823,7 +9813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>1</v>
       </c>
@@ -9873,7 +9863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>1</v>
       </c>
@@ -9923,7 +9913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>1</v>
       </c>
@@ -9973,7 +9963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>1</v>
       </c>
@@ -10023,7 +10013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>1</v>
       </c>
@@ -10073,7 +10063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>1</v>
       </c>
@@ -10123,7 +10113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>1</v>
       </c>
@@ -10173,7 +10163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>1</v>
       </c>
@@ -10223,7 +10213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>1</v>
       </c>
@@ -10273,7 +10263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>1</v>
       </c>
@@ -10323,7 +10313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>1</v>
       </c>
@@ -10373,7 +10363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>1</v>
       </c>
@@ -10423,7 +10413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>1</v>
       </c>
@@ -10473,7 +10463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>1</v>
       </c>
@@ -10523,7 +10513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>1</v>
       </c>
@@ -10573,7 +10563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>1</v>
       </c>
@@ -10623,7 +10613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>1</v>
       </c>
@@ -10673,7 +10663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>1</v>
       </c>
@@ -10723,7 +10713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>1</v>
       </c>
@@ -10773,7 +10763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>1</v>
       </c>
@@ -10823,7 +10813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>1</v>
       </c>
@@ -10873,7 +10863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>1</v>
       </c>
@@ -10923,7 +10913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>1</v>
       </c>
@@ -10973,7 +10963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>1</v>
       </c>
@@ -11023,7 +11013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>1</v>
       </c>
@@ -11073,7 +11063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>1</v>
       </c>
@@ -11123,7 +11113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>1</v>
       </c>
@@ -11173,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>1</v>
       </c>
@@ -11223,7 +11213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>1</v>
       </c>
@@ -11273,7 +11263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>1</v>
       </c>
@@ -11323,7 +11313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>1</v>
       </c>
@@ -11373,7 +11363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>1</v>
       </c>
@@ -11423,7 +11413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>1</v>
       </c>
@@ -11473,7 +11463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>1</v>
       </c>
@@ -11523,7 +11513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>1</v>
       </c>
@@ -11573,7 +11563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>1</v>
       </c>
@@ -11623,7 +11613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>1</v>
       </c>
@@ -11673,7 +11663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>1</v>
       </c>
@@ -11723,7 +11713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>1</v>
       </c>
@@ -11773,7 +11763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>1</v>
       </c>
@@ -11823,7 +11813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>1</v>
       </c>
@@ -11873,7 +11863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>1</v>
       </c>
@@ -11923,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>1</v>
       </c>
@@ -11973,7 +11963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>1</v>
       </c>
@@ -12023,7 +12013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>1</v>
       </c>
@@ -12073,7 +12063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>1</v>
       </c>
@@ -12123,7 +12113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>1</v>
       </c>
@@ -12173,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>1</v>
       </c>
@@ -12223,7 +12213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>1</v>
       </c>
@@ -12273,7 +12263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>1</v>
       </c>
@@ -12323,7 +12313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>1</v>
       </c>
@@ -12373,7 +12363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>1</v>
       </c>
@@ -12423,7 +12413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>1</v>
       </c>
@@ -12473,7 +12463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>1</v>
       </c>
@@ -12523,7 +12513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>1</v>
       </c>
@@ -12573,7 +12563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>1</v>
       </c>
@@ -12623,7 +12613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>1</v>
       </c>
@@ -12673,7 +12663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>1</v>
       </c>
@@ -12723,7 +12713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>1</v>
       </c>
@@ -12773,7 +12763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>1</v>
       </c>
@@ -12823,7 +12813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>1</v>
       </c>
@@ -12873,7 +12863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>1</v>
       </c>
@@ -12923,7 +12913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>1</v>
       </c>
@@ -12973,7 +12963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>1</v>
       </c>
@@ -13023,7 +13013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>1</v>
       </c>
@@ -13073,7 +13063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>1</v>
       </c>
@@ -13123,7 +13113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>1</v>
       </c>
@@ -13173,7 +13163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>1</v>
       </c>
@@ -13223,7 +13213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>1</v>
       </c>
@@ -13273,7 +13263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>1</v>
       </c>
@@ -13323,7 +13313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>1</v>
       </c>
@@ -13373,7 +13363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>1</v>
       </c>
@@ -13423,7 +13413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>1</v>
       </c>
@@ -13473,7 +13463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>1</v>
       </c>
@@ -13523,7 +13513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>1</v>
       </c>
@@ -13573,7 +13563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>1</v>
       </c>
@@ -13623,7 +13613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>1</v>
       </c>
@@ -13673,7 +13663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>1</v>
       </c>
@@ -13723,7 +13713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>1</v>
       </c>
@@ -13773,7 +13763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>1</v>
       </c>
@@ -13823,7 +13813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>1</v>
       </c>
@@ -13873,7 +13863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>1</v>
       </c>
@@ -13923,7 +13913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>1</v>
       </c>
@@ -13973,7 +13963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>1</v>
       </c>
@@ -14023,7 +14013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>1</v>
       </c>
@@ -14073,7 +14063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>1</v>
       </c>
@@ -14123,7 +14113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>1</v>
       </c>
@@ -14173,7 +14163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>1</v>
       </c>
@@ -14223,7 +14213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>1</v>
       </c>
@@ -14273,7 +14263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>1</v>
       </c>
@@ -14323,7 +14313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>1</v>
       </c>
@@ -14373,7 +14363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>1</v>
       </c>
@@ -14423,7 +14413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>1</v>
       </c>
@@ -14473,7 +14463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>1</v>
       </c>
@@ -14523,7 +14513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>1</v>
       </c>
@@ -14573,7 +14563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>1</v>
       </c>
@@ -14623,7 +14613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>1</v>
       </c>
@@ -14673,7 +14663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>1</v>
       </c>
@@ -14723,7 +14713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>1</v>
       </c>
@@ -14773,7 +14763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>1</v>
       </c>
@@ -14823,7 +14813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>1</v>
       </c>
@@ -14873,7 +14863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>1</v>
       </c>
@@ -14923,7 +14913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>1</v>
       </c>
@@ -14973,7 +14963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>1</v>
       </c>
@@ -15023,7 +15013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>1</v>
       </c>
@@ -15073,7 +15063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>1</v>
       </c>
@@ -15123,7 +15113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>1</v>
       </c>
@@ -15173,7 +15163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>1</v>
       </c>
@@ -15223,7 +15213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>1</v>
       </c>
@@ -15273,7 +15263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>1</v>
       </c>
@@ -15323,7 +15313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>1</v>
       </c>
@@ -15373,7 +15363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>1</v>
       </c>
@@ -15423,7 +15413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>1</v>
       </c>
@@ -15473,7 +15463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>1</v>
       </c>
@@ -15523,7 +15513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>1</v>
       </c>
@@ -15573,7 +15563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>1</v>
       </c>
@@ -15623,7 +15613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>1</v>
       </c>
@@ -15673,7 +15663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>1</v>
       </c>
@@ -15723,7 +15713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>1</v>
       </c>
@@ -15773,7 +15763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>1</v>
       </c>
@@ -15823,7 +15813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>1</v>
       </c>
@@ -15873,7 +15863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>1</v>
       </c>
@@ -15923,7 +15913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>1</v>
       </c>
@@ -15973,7 +15963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>1</v>
       </c>
@@ -16023,7 +16013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>1</v>
       </c>
@@ -16073,7 +16063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>1</v>
       </c>
@@ -16123,7 +16113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>1</v>
       </c>
@@ -16173,7 +16163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>1</v>
       </c>
@@ -16223,7 +16213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>1</v>
       </c>
@@ -16273,7 +16263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>1</v>
       </c>
@@ -16323,7 +16313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>1</v>
       </c>
@@ -16373,7 +16363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>1</v>
       </c>
@@ -16423,7 +16413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>1</v>
       </c>
@@ -16473,7 +16463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>1</v>
       </c>
@@ -16523,7 +16513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>1</v>
       </c>
@@ -16573,7 +16563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>1</v>
       </c>
@@ -16623,7 +16613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>1</v>
       </c>
@@ -16673,7 +16663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>1</v>
       </c>
@@ -16723,7 +16713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>1</v>
       </c>
@@ -16773,7 +16763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>1</v>
       </c>
@@ -16823,7 +16813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>1</v>
       </c>
@@ -16873,7 +16863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>1</v>
       </c>
@@ -16923,7 +16913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>1</v>
       </c>
@@ -16973,7 +16963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>1</v>
       </c>
@@ -17023,7 +17013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>1</v>
       </c>
@@ -17073,7 +17063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>1</v>
       </c>
@@ -17123,7 +17113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>1</v>
       </c>
@@ -17173,7 +17163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>1</v>
       </c>
@@ -17223,7 +17213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>1</v>
       </c>
@@ -17273,7 +17263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>1</v>
       </c>
@@ -17323,7 +17313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>1</v>
       </c>
@@ -17373,7 +17363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>1</v>
       </c>
@@ -17423,7 +17413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>1</v>
       </c>
@@ -17473,7 +17463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>1</v>
       </c>
@@ -17523,7 +17513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>1</v>
       </c>
@@ -17573,7 +17563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>1</v>
       </c>
@@ -17623,7 +17613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>1</v>
       </c>
@@ -17673,7 +17663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>1</v>
       </c>
@@ -17723,7 +17713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>1</v>
       </c>
@@ -17773,7 +17763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>1</v>
       </c>
@@ -17823,7 +17813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>1</v>
       </c>
@@ -17873,7 +17863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>1</v>
       </c>
@@ -17923,7 +17913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>1</v>
       </c>
@@ -17973,7 +17963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>1</v>
       </c>
@@ -18023,7 +18013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>1</v>
       </c>
@@ -18073,7 +18063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>1</v>
       </c>
@@ -18123,7 +18113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>1</v>
       </c>
@@ -18173,7 +18163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>1</v>
       </c>
@@ -18223,7 +18213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>1</v>
       </c>
@@ -18273,7 +18263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>1</v>
       </c>
@@ -18323,7 +18313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>1</v>
       </c>
@@ -18373,7 +18363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>1</v>
       </c>
@@ -18423,7 +18413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>1</v>
       </c>
@@ -18473,7 +18463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>1</v>
       </c>
@@ -18523,7 +18513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>1</v>
       </c>
@@ -18573,7 +18563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>1</v>
       </c>
@@ -18623,7 +18613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>1</v>
       </c>
@@ -18673,7 +18663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>1</v>
       </c>
@@ -18723,7 +18713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>1</v>
       </c>
@@ -18773,7 +18763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>1</v>
       </c>
@@ -18823,7 +18813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>1</v>
       </c>
@@ -18873,7 +18863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>1</v>
       </c>
@@ -18923,7 +18913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>1</v>
       </c>
@@ -18973,7 +18963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>1</v>
       </c>
@@ -19023,7 +19013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>1</v>
       </c>
@@ -19073,7 +19063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>1</v>
       </c>
@@ -19123,7 +19113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>1</v>
       </c>
@@ -19173,7 +19163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>1</v>
       </c>
@@ -19223,7 +19213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>1</v>
       </c>
@@ -19273,7 +19263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:16">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>1</v>
       </c>
@@ -19323,7 +19313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:16">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>1</v>
       </c>
@@ -19373,7 +19363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>1</v>
       </c>
@@ -19423,7 +19413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>1</v>
       </c>
@@ -19473,7 +19463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:16">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>1</v>
       </c>
@@ -19523,7 +19513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>1</v>
       </c>
@@ -19573,7 +19563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>1</v>
       </c>
@@ -19623,7 +19613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>1</v>
       </c>
@@ -19673,7 +19663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>1</v>
       </c>
@@ -19723,7 +19713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>1</v>
       </c>
@@ -19773,7 +19763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>1</v>
       </c>
@@ -19823,7 +19813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>1</v>
       </c>
@@ -19873,7 +19863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>1</v>
       </c>
@@ -19923,7 +19913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>1</v>
       </c>
@@ -19973,7 +19963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>1</v>
       </c>
@@ -20023,7 +20013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>1</v>
       </c>
@@ -20073,7 +20063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>1</v>
       </c>
@@ -20123,7 +20113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>1</v>
       </c>
@@ -20173,7 +20163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>1</v>
       </c>
@@ -20223,7 +20213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>1</v>
       </c>
@@ -20273,7 +20263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>1</v>
       </c>
@@ -20323,7 +20313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>1</v>
       </c>
@@ -20373,7 +20363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>1</v>
       </c>
@@ -20423,7 +20413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>1</v>
       </c>
@@ -20473,7 +20463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>1</v>
       </c>
@@ -20523,7 +20513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>1</v>
       </c>
@@ -20573,7 +20563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>1</v>
       </c>
@@ -20623,7 +20613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>1</v>
       </c>
@@ -20673,7 +20663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>1</v>
       </c>
@@ -20723,7 +20713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>1</v>
       </c>
@@ -20773,7 +20763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>1</v>
       </c>
@@ -20823,7 +20813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>1</v>
       </c>
@@ -20873,7 +20863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>1</v>
       </c>
@@ -20923,7 +20913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>1</v>
       </c>
@@ -20973,7 +20963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>1</v>
       </c>
@@ -21023,7 +21013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>1</v>
       </c>
@@ -21073,7 +21063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>1</v>
       </c>
@@ -21123,7 +21113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:16">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>1</v>
       </c>
@@ -21173,7 +21163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:16">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>1</v>
       </c>
@@ -21233,34 +21223,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21310,7 +21300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21360,7 +21350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21410,7 +21400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21460,7 +21450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -21510,7 +21500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21560,7 +21550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -21610,7 +21600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -21660,7 +21650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -21710,7 +21700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -21760,7 +21750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21810,7 +21800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -21860,7 +21850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -21910,7 +21900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -21960,7 +21950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -22010,7 +22000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -22060,7 +22050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -22110,7 +22100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -22160,7 +22150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -22210,7 +22200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -22260,7 +22250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -22310,7 +22300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -22360,7 +22350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -22410,7 +22400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -22460,7 +22450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -22510,7 +22500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -22560,7 +22550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962B2C0-5478-C047-9259-76553762DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C7953-0BF5-8140-A3A0-AA5210C0213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,13 +1040,13 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G2" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C7953-0BF5-8140-A3A0-AA5210C0213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="16380" windowHeight="8205" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -86,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -613,75 +612,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="18"/>
+    <tableColumn id="1" name="id" dataDxfId="33"/>
+    <tableColumn id="2" name="start_year" dataDxfId="32"/>
+    <tableColumn id="3" name="end_year" dataDxfId="31"/>
+    <tableColumn id="4" name="id_region" dataDxfId="30"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="29"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="28"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="27"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
+    <tableColumn id="15" name="renovation_mandatory" dataDxfId="21"/>
+    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="20"/>
+    <tableColumn id="13" name="name" dataDxfId="19"/>
+    <tableColumn id="14" name="comment" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P402"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="15"/>
+    <tableColumn id="2" name="start_year" dataDxfId="14"/>
+    <tableColumn id="3" name="end_year" dataDxfId="13"/>
+    <tableColumn id="4" name="id_region" dataDxfId="12"/>
+    <tableColumn id="5" name="building_num_min" dataDxfId="11"/>
+    <tableColumn id="6" name="building_num_max" dataDxfId="10"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="9"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
+    <tableColumn id="15" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" name="name" dataDxfId="1"/>
+    <tableColumn id="14" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:P27" totalsRowShown="0">
-  <autoFilter ref="A1:P27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P27" totalsRowShown="0">
+  <autoFilter ref="A1:P27"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="start_year"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="end_year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="id_region"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="building_num_min"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="building_num_max"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="optimal_heating_behavior_prob"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="id_scenario_energy_price_wholesale"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="id_scenario_energy_price_tax_rate"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="id_scenario_energy_price_mark_up"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="id_scenario_energy_price_co2_emission"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="id_scenario_energy_emission_factor"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="renovation_mandatory"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="heating_technology_mandatory"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="name"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="comment"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="start_year"/>
+    <tableColumn id="3" name="end_year"/>
+    <tableColumn id="4" name="id_region"/>
+    <tableColumn id="5" name="building_num_min"/>
+    <tableColumn id="6" name="building_num_max"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="13" name="renovation_mandatory"/>
+    <tableColumn id="14" name="heating_technology_mandatory"/>
+    <tableColumn id="15" name="name"/>
+    <tableColumn id="16" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,34 +948,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1040,10 +1039,10 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -1086,34 +1085,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P402"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="6">
         <v>1</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="6">
         <v>1</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -3513,7 +3512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="6">
         <v>1</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" s="6">
         <v>1</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" s="6">
         <v>1</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="6">
         <v>1</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="6">
         <v>1</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="6">
         <v>1</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="6">
         <v>1</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="6">
         <v>1</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="6">
         <v>1</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="6">
         <v>1</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="6">
         <v>1</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" s="6">
         <v>1</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="6">
         <v>1</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" s="6">
         <v>1</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" s="6">
         <v>1</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" s="6">
         <v>1</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" s="6">
         <v>1</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" s="6">
         <v>1</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="6">
         <v>1</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" s="6">
         <v>1</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="6">
         <v>1</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" s="6">
         <v>1</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" s="6">
         <v>1</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82" s="6">
         <v>1</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83" s="6">
         <v>1</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84" s="6">
         <v>1</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85" s="6">
         <v>1</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86" s="6">
         <v>1</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87" s="6">
         <v>1</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90" s="6">
         <v>1</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="A91" s="6">
         <v>1</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="A92" s="6">
         <v>1</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="A94" s="6">
         <v>1</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" s="6">
         <v>1</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" s="6">
         <v>1</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" s="6">
         <v>1</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" s="6">
         <v>1</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" s="6">
         <v>1</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" s="6">
         <v>1</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" s="6">
         <v>1</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" s="6">
         <v>1</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" s="6">
         <v>1</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" s="6">
         <v>1</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" s="6">
         <v>1</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" s="6">
         <v>1</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" s="6">
         <v>1</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="6">
         <v>1</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="6">
         <v>1</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="6">
         <v>1</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="6">
         <v>1</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="6">
         <v>1</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="6">
         <v>1</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" s="6">
         <v>1</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="6">
         <v>1</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="6">
         <v>1</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="6">
         <v>1</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="6">
         <v>1</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="6">
         <v>1</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="6">
         <v>1</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="6">
         <v>1</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="6">
         <v>1</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16">
       <c r="A127" s="6">
         <v>1</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16">
       <c r="A128" s="6">
         <v>1</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="6">
         <v>1</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="6">
         <v>1</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="6">
         <v>1</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="6">
         <v>1</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="6">
         <v>1</v>
       </c>
@@ -7763,7 +7762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="6">
         <v>1</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="6">
         <v>1</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="6">
         <v>1</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="6">
         <v>1</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="6">
         <v>1</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="6">
         <v>1</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="6">
         <v>1</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="6">
         <v>1</v>
       </c>
@@ -8163,7 +8162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="6">
         <v>1</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="6">
         <v>1</v>
       </c>
@@ -8263,7 +8262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="6">
         <v>1</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16">
       <c r="A145" s="6">
         <v>1</v>
       </c>
@@ -8363,7 +8362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16">
       <c r="A146" s="6">
         <v>1</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16">
       <c r="A147" s="6">
         <v>1</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16">
       <c r="A148" s="6">
         <v>1</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16">
       <c r="A149" s="6">
         <v>1</v>
       </c>
@@ -8563,7 +8562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16">
       <c r="A150" s="6">
         <v>1</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16">
       <c r="A151" s="6">
         <v>1</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16">
       <c r="A152" s="6">
         <v>1</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16">
       <c r="A153" s="6">
         <v>1</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16">
       <c r="A154" s="6">
         <v>1</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16">
       <c r="A155" s="6">
         <v>1</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16">
       <c r="A156" s="6">
         <v>1</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16">
       <c r="A157" s="6">
         <v>1</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16">
       <c r="A158" s="6">
         <v>1</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16">
       <c r="A159" s="6">
         <v>1</v>
       </c>
@@ -9063,7 +9062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16">
       <c r="A160" s="6">
         <v>1</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16">
       <c r="A161" s="6">
         <v>1</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16">
       <c r="A162" s="6">
         <v>1</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16">
       <c r="A163" s="6">
         <v>1</v>
       </c>
@@ -9263,7 +9262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16">
       <c r="A164" s="6">
         <v>1</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16">
       <c r="A165" s="6">
         <v>1</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16">
       <c r="A166" s="6">
         <v>1</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16">
       <c r="A167" s="6">
         <v>1</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16">
       <c r="A168" s="6">
         <v>1</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16">
       <c r="A169" s="6">
         <v>1</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16">
       <c r="A170" s="6">
         <v>1</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16">
       <c r="A171" s="6">
         <v>1</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16">
       <c r="A172" s="6">
         <v>1</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16">
       <c r="A173" s="6">
         <v>1</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16">
       <c r="A174" s="6">
         <v>1</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16">
       <c r="A175" s="6">
         <v>1</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16">
       <c r="A176" s="6">
         <v>1</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16">
       <c r="A177" s="6">
         <v>1</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16">
       <c r="A178" s="6">
         <v>1</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16">
       <c r="A179" s="6">
         <v>1</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16">
       <c r="A180" s="6">
         <v>1</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16">
       <c r="A181" s="6">
         <v>1</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16">
       <c r="A182" s="6">
         <v>1</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16">
       <c r="A183" s="6">
         <v>1</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16">
       <c r="A184" s="6">
         <v>1</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16">
       <c r="A185" s="6">
         <v>1</v>
       </c>
@@ -10363,7 +10362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16">
       <c r="A186" s="6">
         <v>1</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16">
       <c r="A187" s="6">
         <v>1</v>
       </c>
@@ -10463,7 +10462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16">
       <c r="A188" s="6">
         <v>1</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16">
       <c r="A189" s="6">
         <v>1</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16">
       <c r="A190" s="6">
         <v>1</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16">
       <c r="A191" s="6">
         <v>1</v>
       </c>
@@ -10663,7 +10662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16">
       <c r="A192" s="6">
         <v>1</v>
       </c>
@@ -10713,7 +10712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16">
       <c r="A193" s="6">
         <v>1</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16">
       <c r="A194" s="6">
         <v>1</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16">
       <c r="A195" s="6">
         <v>1</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16">
       <c r="A196" s="6">
         <v>1</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16">
       <c r="A197" s="6">
         <v>1</v>
       </c>
@@ -10963,7 +10962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16">
       <c r="A198" s="6">
         <v>1</v>
       </c>
@@ -11013,7 +11012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16">
       <c r="A199" s="6">
         <v>1</v>
       </c>
@@ -11063,7 +11062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16">
       <c r="A200" s="6">
         <v>1</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16">
       <c r="A201" s="6">
         <v>1</v>
       </c>
@@ -11163,7 +11162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16">
       <c r="A202" s="6">
         <v>1</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16">
       <c r="A203" s="6">
         <v>1</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16">
       <c r="A204" s="6">
         <v>1</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16">
       <c r="A205" s="6">
         <v>1</v>
       </c>
@@ -11363,7 +11362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16">
       <c r="A206" s="6">
         <v>1</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16">
       <c r="A207" s="6">
         <v>1</v>
       </c>
@@ -11463,7 +11462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16">
       <c r="A208" s="6">
         <v>1</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16">
       <c r="A209" s="6">
         <v>1</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16">
       <c r="A210" s="6">
         <v>1</v>
       </c>
@@ -11613,7 +11612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16">
       <c r="A211" s="6">
         <v>1</v>
       </c>
@@ -11663,7 +11662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16">
       <c r="A212" s="6">
         <v>1</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16">
       <c r="A213" s="6">
         <v>1</v>
       </c>
@@ -11763,7 +11762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16">
       <c r="A214" s="6">
         <v>1</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16">
       <c r="A215" s="6">
         <v>1</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16">
       <c r="A216" s="6">
         <v>1</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16">
       <c r="A217" s="6">
         <v>1</v>
       </c>
@@ -11963,7 +11962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16">
       <c r="A218" s="6">
         <v>1</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16">
       <c r="A219" s="6">
         <v>1</v>
       </c>
@@ -12063,7 +12062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16">
       <c r="A220" s="6">
         <v>1</v>
       </c>
@@ -12113,7 +12112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16">
       <c r="A221" s="6">
         <v>1</v>
       </c>
@@ -12163,7 +12162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16">
       <c r="A222" s="6">
         <v>1</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16">
       <c r="A223" s="6">
         <v>1</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16">
       <c r="A224" s="6">
         <v>1</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16">
       <c r="A225" s="6">
         <v>1</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16">
       <c r="A226" s="6">
         <v>1</v>
       </c>
@@ -12413,7 +12412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16">
       <c r="A227" s="6">
         <v>1</v>
       </c>
@@ -12463,7 +12462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16">
       <c r="A228" s="6">
         <v>1</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16">
       <c r="A229" s="6">
         <v>1</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16">
       <c r="A230" s="6">
         <v>1</v>
       </c>
@@ -12613,7 +12612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16">
       <c r="A231" s="6">
         <v>1</v>
       </c>
@@ -12663,7 +12662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16">
       <c r="A232" s="6">
         <v>1</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16">
       <c r="A233" s="6">
         <v>1</v>
       </c>
@@ -12763,7 +12762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16">
       <c r="A234" s="6">
         <v>1</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16">
       <c r="A235" s="6">
         <v>1</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16">
       <c r="A236" s="6">
         <v>1</v>
       </c>
@@ -12913,7 +12912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16">
       <c r="A237" s="6">
         <v>1</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16">
       <c r="A238" s="6">
         <v>1</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16">
       <c r="A239" s="6">
         <v>1</v>
       </c>
@@ -13063,7 +13062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16">
       <c r="A240" s="6">
         <v>1</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16">
       <c r="A241" s="6">
         <v>1</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16">
       <c r="A242" s="6">
         <v>1</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16">
       <c r="A243" s="6">
         <v>1</v>
       </c>
@@ -13263,7 +13262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16">
       <c r="A244" s="6">
         <v>1</v>
       </c>
@@ -13313,7 +13312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16">
       <c r="A245" s="6">
         <v>1</v>
       </c>
@@ -13363,7 +13362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16">
       <c r="A246" s="6">
         <v>1</v>
       </c>
@@ -13413,7 +13412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16">
       <c r="A247" s="6">
         <v>1</v>
       </c>
@@ -13463,7 +13462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16">
       <c r="A248" s="6">
         <v>1</v>
       </c>
@@ -13513,7 +13512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16">
       <c r="A249" s="6">
         <v>1</v>
       </c>
@@ -13563,7 +13562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16">
       <c r="A250" s="6">
         <v>1</v>
       </c>
@@ -13613,7 +13612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16">
       <c r="A251" s="6">
         <v>1</v>
       </c>
@@ -13663,7 +13662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16">
       <c r="A252" s="6">
         <v>1</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16">
       <c r="A253" s="6">
         <v>1</v>
       </c>
@@ -13763,7 +13762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16">
       <c r="A254" s="6">
         <v>1</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16">
       <c r="A255" s="6">
         <v>1</v>
       </c>
@@ -13863,7 +13862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16">
       <c r="A256" s="6">
         <v>1</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16">
       <c r="A257" s="6">
         <v>1</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16">
       <c r="A258" s="6">
         <v>1</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16">
       <c r="A259" s="6">
         <v>1</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16">
       <c r="A260" s="6">
         <v>1</v>
       </c>
@@ -14113,7 +14112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16">
       <c r="A261" s="6">
         <v>1</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16">
       <c r="A262" s="6">
         <v>1</v>
       </c>
@@ -14213,7 +14212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16">
       <c r="A263" s="6">
         <v>1</v>
       </c>
@@ -14263,7 +14262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16">
       <c r="A264" s="6">
         <v>1</v>
       </c>
@@ -14313,7 +14312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16">
       <c r="A265" s="6">
         <v>1</v>
       </c>
@@ -14363,7 +14362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16">
       <c r="A266" s="6">
         <v>1</v>
       </c>
@@ -14413,7 +14412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16">
       <c r="A267" s="6">
         <v>1</v>
       </c>
@@ -14463,7 +14462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16">
       <c r="A268" s="6">
         <v>1</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16">
       <c r="A269" s="6">
         <v>1</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16">
       <c r="A270" s="6">
         <v>1</v>
       </c>
@@ -14613,7 +14612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16">
       <c r="A271" s="6">
         <v>1</v>
       </c>
@@ -14663,7 +14662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16">
       <c r="A272" s="6">
         <v>1</v>
       </c>
@@ -14713,7 +14712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16">
       <c r="A273" s="6">
         <v>1</v>
       </c>
@@ -14763,7 +14762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16">
       <c r="A274" s="6">
         <v>1</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16">
       <c r="A275" s="6">
         <v>1</v>
       </c>
@@ -14863,7 +14862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16">
       <c r="A276" s="6">
         <v>1</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16">
       <c r="A277" s="6">
         <v>1</v>
       </c>
@@ -14963,7 +14962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16">
       <c r="A278" s="6">
         <v>1</v>
       </c>
@@ -15013,7 +15012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16">
       <c r="A279" s="6">
         <v>1</v>
       </c>
@@ -15063,7 +15062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16">
       <c r="A280" s="6">
         <v>1</v>
       </c>
@@ -15113,7 +15112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16">
       <c r="A281" s="6">
         <v>1</v>
       </c>
@@ -15163,7 +15162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16">
       <c r="A282" s="6">
         <v>1</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16">
       <c r="A283" s="6">
         <v>1</v>
       </c>
@@ -15263,7 +15262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16">
       <c r="A284" s="6">
         <v>1</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16">
       <c r="A285" s="6">
         <v>1</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16">
       <c r="A286" s="6">
         <v>1</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16">
       <c r="A287" s="6">
         <v>1</v>
       </c>
@@ -15463,7 +15462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16">
       <c r="A288" s="6">
         <v>1</v>
       </c>
@@ -15513,7 +15512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16">
       <c r="A289" s="6">
         <v>1</v>
       </c>
@@ -15563,7 +15562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16">
       <c r="A290" s="6">
         <v>1</v>
       </c>
@@ -15613,7 +15612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16">
       <c r="A291" s="6">
         <v>1</v>
       </c>
@@ -15663,7 +15662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16">
       <c r="A292" s="6">
         <v>1</v>
       </c>
@@ -15713,7 +15712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16">
       <c r="A293" s="6">
         <v>1</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16">
       <c r="A294" s="6">
         <v>1</v>
       </c>
@@ -15813,7 +15812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16">
       <c r="A295" s="6">
         <v>1</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16">
       <c r="A296" s="6">
         <v>1</v>
       </c>
@@ -15913,7 +15912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16">
       <c r="A297" s="6">
         <v>1</v>
       </c>
@@ -15963,7 +15962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16">
       <c r="A298" s="6">
         <v>1</v>
       </c>
@@ -16013,7 +16012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16">
       <c r="A299" s="6">
         <v>1</v>
       </c>
@@ -16063,7 +16062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16">
       <c r="A300" s="6">
         <v>1</v>
       </c>
@@ -16113,7 +16112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16">
       <c r="A301" s="6">
         <v>1</v>
       </c>
@@ -16163,7 +16162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16">
       <c r="A302" s="6">
         <v>1</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16">
       <c r="A303" s="6">
         <v>1</v>
       </c>
@@ -16263,7 +16262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16">
       <c r="A304" s="6">
         <v>1</v>
       </c>
@@ -16313,7 +16312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16">
       <c r="A305" s="6">
         <v>1</v>
       </c>
@@ -16363,7 +16362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16">
       <c r="A306" s="6">
         <v>1</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16">
       <c r="A307" s="6">
         <v>1</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16">
       <c r="A308" s="6">
         <v>1</v>
       </c>
@@ -16513,7 +16512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16">
       <c r="A309" s="6">
         <v>1</v>
       </c>
@@ -16563,7 +16562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16">
       <c r="A310" s="6">
         <v>1</v>
       </c>
@@ -16613,7 +16612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16">
       <c r="A311" s="6">
         <v>1</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16">
       <c r="A312" s="6">
         <v>1</v>
       </c>
@@ -16713,7 +16712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16">
       <c r="A313" s="6">
         <v>1</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16">
       <c r="A314" s="6">
         <v>1</v>
       </c>
@@ -16813,7 +16812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16">
       <c r="A315" s="6">
         <v>1</v>
       </c>
@@ -16863,7 +16862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16">
       <c r="A316" s="6">
         <v>1</v>
       </c>
@@ -16913,7 +16912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16">
       <c r="A317" s="6">
         <v>1</v>
       </c>
@@ -16963,7 +16962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16">
       <c r="A318" s="6">
         <v>1</v>
       </c>
@@ -17013,7 +17012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16">
       <c r="A319" s="6">
         <v>1</v>
       </c>
@@ -17063,7 +17062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16">
       <c r="A320" s="6">
         <v>1</v>
       </c>
@@ -17113,7 +17112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16">
       <c r="A321" s="6">
         <v>1</v>
       </c>
@@ -17163,7 +17162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16">
       <c r="A322" s="6">
         <v>1</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16">
       <c r="A323" s="6">
         <v>1</v>
       </c>
@@ -17263,7 +17262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16">
       <c r="A324" s="6">
         <v>1</v>
       </c>
@@ -17313,7 +17312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16">
       <c r="A325" s="6">
         <v>1</v>
       </c>
@@ -17363,7 +17362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16">
       <c r="A326" s="6">
         <v>1</v>
       </c>
@@ -17413,7 +17412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16">
       <c r="A327" s="6">
         <v>1</v>
       </c>
@@ -17463,7 +17462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16">
       <c r="A328" s="6">
         <v>1</v>
       </c>
@@ -17513,7 +17512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16">
       <c r="A329" s="6">
         <v>1</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16">
       <c r="A330" s="6">
         <v>1</v>
       </c>
@@ -17613,7 +17612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16">
       <c r="A331" s="6">
         <v>1</v>
       </c>
@@ -17663,7 +17662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16">
       <c r="A332" s="6">
         <v>1</v>
       </c>
@@ -17713,7 +17712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16">
       <c r="A333" s="6">
         <v>1</v>
       </c>
@@ -17763,7 +17762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16">
       <c r="A334" s="6">
         <v>1</v>
       </c>
@@ -17813,7 +17812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16">
       <c r="A335" s="6">
         <v>1</v>
       </c>
@@ -17863,7 +17862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16">
       <c r="A336" s="6">
         <v>1</v>
       </c>
@@ -17913,7 +17912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16">
       <c r="A337" s="6">
         <v>1</v>
       </c>
@@ -17963,7 +17962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16">
       <c r="A338" s="6">
         <v>1</v>
       </c>
@@ -18013,7 +18012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16">
       <c r="A339" s="6">
         <v>1</v>
       </c>
@@ -18063,7 +18062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16">
       <c r="A340" s="6">
         <v>1</v>
       </c>
@@ -18113,7 +18112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16">
       <c r="A341" s="6">
         <v>1</v>
       </c>
@@ -18163,7 +18162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16">
       <c r="A342" s="6">
         <v>1</v>
       </c>
@@ -18213,7 +18212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16">
       <c r="A343" s="6">
         <v>1</v>
       </c>
@@ -18263,7 +18262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16">
       <c r="A344" s="6">
         <v>1</v>
       </c>
@@ -18313,7 +18312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16">
       <c r="A345" s="6">
         <v>1</v>
       </c>
@@ -18363,7 +18362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16">
       <c r="A346" s="6">
         <v>1</v>
       </c>
@@ -18413,7 +18412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16">
       <c r="A347" s="6">
         <v>1</v>
       </c>
@@ -18463,7 +18462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16">
       <c r="A348" s="6">
         <v>1</v>
       </c>
@@ -18513,7 +18512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16">
       <c r="A349" s="6">
         <v>1</v>
       </c>
@@ -18563,7 +18562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16">
       <c r="A350" s="6">
         <v>1</v>
       </c>
@@ -18613,7 +18612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16">
       <c r="A351" s="6">
         <v>1</v>
       </c>
@@ -18663,7 +18662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16">
       <c r="A352" s="6">
         <v>1</v>
       </c>
@@ -18713,7 +18712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16">
       <c r="A353" s="6">
         <v>1</v>
       </c>
@@ -18763,7 +18762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16">
       <c r="A354" s="6">
         <v>1</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16">
       <c r="A355" s="6">
         <v>1</v>
       </c>
@@ -18863,7 +18862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16">
       <c r="A356" s="6">
         <v>1</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16">
       <c r="A357" s="6">
         <v>1</v>
       </c>
@@ -18963,7 +18962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16">
       <c r="A358" s="6">
         <v>1</v>
       </c>
@@ -19013,7 +19012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16">
       <c r="A359" s="6">
         <v>1</v>
       </c>
@@ -19063,7 +19062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16">
       <c r="A360" s="6">
         <v>1</v>
       </c>
@@ -19113,7 +19112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16">
       <c r="A361" s="6">
         <v>1</v>
       </c>
@@ -19163,7 +19162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16">
       <c r="A362" s="6">
         <v>1</v>
       </c>
@@ -19213,7 +19212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16">
       <c r="A363" s="6">
         <v>1</v>
       </c>
@@ -19263,7 +19262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16">
       <c r="A364" s="6">
         <v>1</v>
       </c>
@@ -19313,7 +19312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16">
       <c r="A365" s="6">
         <v>1</v>
       </c>
@@ -19363,7 +19362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16">
       <c r="A366" s="6">
         <v>1</v>
       </c>
@@ -19413,7 +19412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16">
       <c r="A367" s="6">
         <v>1</v>
       </c>
@@ -19463,7 +19462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16">
       <c r="A368" s="6">
         <v>1</v>
       </c>
@@ -19513,7 +19512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16">
       <c r="A369" s="6">
         <v>1</v>
       </c>
@@ -19563,7 +19562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16">
       <c r="A370" s="6">
         <v>1</v>
       </c>
@@ -19613,7 +19612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16">
       <c r="A371" s="6">
         <v>1</v>
       </c>
@@ -19663,7 +19662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16">
       <c r="A372" s="6">
         <v>1</v>
       </c>
@@ -19713,7 +19712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16">
       <c r="A373" s="6">
         <v>1</v>
       </c>
@@ -19763,7 +19762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16">
       <c r="A374" s="6">
         <v>1</v>
       </c>
@@ -19813,7 +19812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16">
       <c r="A375" s="6">
         <v>1</v>
       </c>
@@ -19863,7 +19862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16">
       <c r="A376" s="6">
         <v>1</v>
       </c>
@@ -19913,7 +19912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16">
       <c r="A377" s="6">
         <v>1</v>
       </c>
@@ -19963,7 +19962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16">
       <c r="A378" s="6">
         <v>1</v>
       </c>
@@ -20013,7 +20012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16">
       <c r="A379" s="6">
         <v>1</v>
       </c>
@@ -20063,7 +20062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16">
       <c r="A380" s="6">
         <v>1</v>
       </c>
@@ -20113,7 +20112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16">
       <c r="A381" s="6">
         <v>1</v>
       </c>
@@ -20163,7 +20162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16">
       <c r="A382" s="6">
         <v>1</v>
       </c>
@@ -20213,7 +20212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16">
       <c r="A383" s="6">
         <v>1</v>
       </c>
@@ -20263,7 +20262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16">
       <c r="A384" s="6">
         <v>1</v>
       </c>
@@ -20313,7 +20312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16">
       <c r="A385" s="6">
         <v>1</v>
       </c>
@@ -20363,7 +20362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16">
       <c r="A386" s="6">
         <v>1</v>
       </c>
@@ -20413,7 +20412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16">
       <c r="A387" s="6">
         <v>1</v>
       </c>
@@ -20463,7 +20462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16">
       <c r="A388" s="6">
         <v>1</v>
       </c>
@@ -20513,7 +20512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16">
       <c r="A389" s="6">
         <v>1</v>
       </c>
@@ -20563,7 +20562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16">
       <c r="A390" s="6">
         <v>1</v>
       </c>
@@ -20613,7 +20612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16">
       <c r="A391" s="6">
         <v>1</v>
       </c>
@@ -20663,7 +20662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16">
       <c r="A392" s="6">
         <v>1</v>
       </c>
@@ -20713,7 +20712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16">
       <c r="A393" s="6">
         <v>1</v>
       </c>
@@ -20763,7 +20762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16">
       <c r="A394" s="6">
         <v>1</v>
       </c>
@@ -20813,7 +20812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16">
       <c r="A395" s="6">
         <v>1</v>
       </c>
@@ -20863,7 +20862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16">
       <c r="A396" s="6">
         <v>1</v>
       </c>
@@ -20913,7 +20912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16">
       <c r="A397" s="6">
         <v>1</v>
       </c>
@@ -20963,7 +20962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16">
       <c r="A398" s="6">
         <v>1</v>
       </c>
@@ -21013,7 +21012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16">
       <c r="A399" s="6">
         <v>1</v>
       </c>
@@ -21063,7 +21062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16">
       <c r="A400" s="6">
         <v>1</v>
       </c>
@@ -21113,7 +21112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16">
       <c r="A401" s="6">
         <v>1</v>
       </c>
@@ -21163,7 +21162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16">
       <c r="A402" s="7">
         <v>1</v>
       </c>
@@ -21223,34 +21222,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21300,7 +21299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21350,7 +21349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21400,7 +21399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21450,7 +21449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
@@ -21500,7 +21499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21550,7 +21549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1</v>
       </c>
@@ -21600,7 +21599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1</v>
       </c>
@@ -21650,7 +21649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
@@ -21700,7 +21699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
@@ -21750,7 +21749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21800,7 +21799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
@@ -21850,7 +21849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1</v>
       </c>
@@ -21900,7 +21899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1</v>
       </c>
@@ -21950,7 +21949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1</v>
       </c>
@@ -22000,7 +21999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1</v>
       </c>
@@ -22050,7 +22049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1</v>
       </c>
@@ -22100,7 +22099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1</v>
       </c>
@@ -22150,7 +22149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1</v>
       </c>
@@ -22200,7 +22199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1</v>
       </c>
@@ -22250,7 +22249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1</v>
       </c>
@@ -22300,7 +22299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1</v>
       </c>
@@ -22350,7 +22349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>1</v>
       </c>
@@ -22400,7 +22399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1</v>
       </c>
@@ -22450,7 +22449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>1</v>
       </c>
@@ -22500,7 +22499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>1</v>
       </c>
@@ -22550,7 +22549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>1</v>
       </c>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4440022D-3757-BE46-BB9D-59947C5358B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="16380" windowHeight="8205" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -85,8 +86,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -612,75 +613,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:P2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="33"/>
-    <tableColumn id="2" name="start_year" dataDxfId="32"/>
-    <tableColumn id="3" name="end_year" dataDxfId="31"/>
-    <tableColumn id="4" name="id_region" dataDxfId="30"/>
-    <tableColumn id="5" name="building_num_min" dataDxfId="29"/>
-    <tableColumn id="6" name="building_num_max" dataDxfId="28"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="27"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
-    <tableColumn id="15" name="renovation_mandatory" dataDxfId="21"/>
-    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="20"/>
-    <tableColumn id="13" name="name" dataDxfId="19"/>
-    <tableColumn id="14" name="comment" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_min" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="building_num_max" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P402"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P402" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="15"/>
-    <tableColumn id="2" name="start_year" dataDxfId="14"/>
-    <tableColumn id="3" name="end_year" dataDxfId="13"/>
-    <tableColumn id="4" name="id_region" dataDxfId="12"/>
-    <tableColumn id="5" name="building_num_min" dataDxfId="11"/>
-    <tableColumn id="6" name="building_num_max" dataDxfId="10"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob" dataDxfId="9"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
-    <tableColumn id="15" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" name="name" dataDxfId="1"/>
-    <tableColumn id="14" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="building_num_min" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="building_num_max" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P27" totalsRowShown="0">
-  <autoFilter ref="A1:P27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:P27" totalsRowShown="0">
+  <autoFilter ref="A1:P27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="start_year"/>
-    <tableColumn id="3" name="end_year"/>
-    <tableColumn id="4" name="id_region"/>
-    <tableColumn id="5" name="building_num_min"/>
-    <tableColumn id="6" name="building_num_max"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor"/>
-    <tableColumn id="13" name="renovation_mandatory"/>
-    <tableColumn id="14" name="heating_technology_mandatory"/>
-    <tableColumn id="15" name="name"/>
-    <tableColumn id="16" name="comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="start_year"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="end_year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="id_region"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="building_num_min"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="building_num_max"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="renovation_mandatory"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="heating_technology_mandatory"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="name"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -948,34 +949,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1039,10 +1040,10 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -1085,34 +1086,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P402"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -1712,7 +1713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>1</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>1</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>1</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>1</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>1</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>1</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>1</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>1</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>1</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>1</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>1</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>1</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>1</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>1</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>1</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>1</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>1</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>1</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>1</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>1</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>1</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>1</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>1</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>1</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>1</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>1</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>1</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>1</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>1</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>1</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>1</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>1</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>1</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>1</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>1</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>1</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>1</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>1</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>1</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>1</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>1</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>1</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>1</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>1</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>1</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>1</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>1</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>1</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>1</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>1</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>1</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>1</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>1</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>1</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>1</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>1</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>1</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>1</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>1</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>1</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>1</v>
       </c>
@@ -7262,7 +7263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>1</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>1</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>1</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>1</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>1</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>1</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>1</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>1</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>1</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>1</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>1</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>1</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>1</v>
       </c>
@@ -7912,7 +7913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>1</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>1</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>1</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>1</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>1</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>1</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>1</v>
       </c>
@@ -8262,7 +8263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>1</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>1</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>1</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>1</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>1</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>1</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>1</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>1</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>1</v>
       </c>
@@ -8712,7 +8713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>1</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>1</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>1</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>1</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>1</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>1</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>1</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>1</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>1</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>1</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>1</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>1</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>1</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>1</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>1</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>1</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>1</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>1</v>
       </c>
@@ -9612,7 +9613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>1</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>1</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>1</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>1</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>1</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>1</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>1</v>
       </c>
@@ -9962,7 +9963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>1</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>1</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>1</v>
       </c>
@@ -10112,7 +10113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>1</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>1</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>1</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>1</v>
       </c>
@@ -10312,7 +10313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>1</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>1</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>1</v>
       </c>
@@ -10462,7 +10463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>1</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>1</v>
       </c>
@@ -10562,7 +10563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>1</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>1</v>
       </c>
@@ -10662,7 +10663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>1</v>
       </c>
@@ -10712,7 +10713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>1</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>1</v>
       </c>
@@ -10812,7 +10813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>1</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>1</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>1</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>1</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>1</v>
       </c>
@@ -11062,7 +11063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>1</v>
       </c>
@@ -11112,7 +11113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>1</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>1</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>1</v>
       </c>
@@ -11262,7 +11263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>1</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>1</v>
       </c>
@@ -11362,7 +11363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>1</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>1</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>1</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>1</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>1</v>
       </c>
@@ -11612,7 +11613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>1</v>
       </c>
@@ -11662,7 +11663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>1</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>1</v>
       </c>
@@ -11762,7 +11763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>1</v>
       </c>
@@ -11812,7 +11813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>1</v>
       </c>
@@ -11862,7 +11863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>1</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>1</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>1</v>
       </c>
@@ -12012,7 +12013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>1</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>1</v>
       </c>
@@ -12112,7 +12113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>1</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>1</v>
       </c>
@@ -12212,7 +12213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>1</v>
       </c>
@@ -12262,7 +12263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>1</v>
       </c>
@@ -12312,7 +12313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>1</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>1</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>1</v>
       </c>
@@ -12462,7 +12463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>1</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>1</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>1</v>
       </c>
@@ -12612,7 +12613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>1</v>
       </c>
@@ -12662,7 +12663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>1</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>1</v>
       </c>
@@ -12762,7 +12763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>1</v>
       </c>
@@ -12812,7 +12813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>1</v>
       </c>
@@ -12862,7 +12863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>1</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>1</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>1</v>
       </c>
@@ -13012,7 +13013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>1</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>1</v>
       </c>
@@ -13112,7 +13113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>1</v>
       </c>
@@ -13162,7 +13163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>1</v>
       </c>
@@ -13212,7 +13213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>1</v>
       </c>
@@ -13262,7 +13263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>1</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>1</v>
       </c>
@@ -13362,7 +13363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>1</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>1</v>
       </c>
@@ -13462,7 +13463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>1</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>1</v>
       </c>
@@ -13562,7 +13563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>1</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>1</v>
       </c>
@@ -13662,7 +13663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>1</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>1</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>1</v>
       </c>
@@ -13812,7 +13813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>1</v>
       </c>
@@ -13862,7 +13863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>1</v>
       </c>
@@ -13912,7 +13913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>1</v>
       </c>
@@ -13962,7 +13963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>1</v>
       </c>
@@ -14012,7 +14013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>1</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>1</v>
       </c>
@@ -14112,7 +14113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>1</v>
       </c>
@@ -14162,7 +14163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>1</v>
       </c>
@@ -14212,7 +14213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>1</v>
       </c>
@@ -14262,7 +14263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>1</v>
       </c>
@@ -14312,7 +14313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>1</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>1</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>1</v>
       </c>
@@ -14462,7 +14463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>1</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>1</v>
       </c>
@@ -14562,7 +14563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>1</v>
       </c>
@@ -14612,7 +14613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>1</v>
       </c>
@@ -14662,7 +14663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>1</v>
       </c>
@@ -14712,7 +14713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>1</v>
       </c>
@@ -14762,7 +14763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>1</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>1</v>
       </c>
@@ -14862,7 +14863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>1</v>
       </c>
@@ -14912,7 +14913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>1</v>
       </c>
@@ -14962,7 +14963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>1</v>
       </c>
@@ -15012,7 +15013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>1</v>
       </c>
@@ -15062,7 +15063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>1</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>1</v>
       </c>
@@ -15162,7 +15163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>1</v>
       </c>
@@ -15212,7 +15213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>1</v>
       </c>
@@ -15262,7 +15263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>1</v>
       </c>
@@ -15312,7 +15313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>1</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>1</v>
       </c>
@@ -15412,7 +15413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>1</v>
       </c>
@@ -15462,7 +15463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>1</v>
       </c>
@@ -15512,7 +15513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>1</v>
       </c>
@@ -15562,7 +15563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>1</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>1</v>
       </c>
@@ -15662,7 +15663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>1</v>
       </c>
@@ -15712,7 +15713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>1</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>1</v>
       </c>
@@ -15812,7 +15813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>1</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>1</v>
       </c>
@@ -15912,7 +15913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>1</v>
       </c>
@@ -15962,7 +15963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>1</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>1</v>
       </c>
@@ -16062,7 +16063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>1</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>1</v>
       </c>
@@ -16162,7 +16163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>1</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>1</v>
       </c>
@@ -16262,7 +16263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>1</v>
       </c>
@@ -16312,7 +16313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>1</v>
       </c>
@@ -16362,7 +16363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>1</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>1</v>
       </c>
@@ -16462,7 +16463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>1</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>1</v>
       </c>
@@ -16562,7 +16563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>1</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>1</v>
       </c>
@@ -16662,7 +16663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>1</v>
       </c>
@@ -16712,7 +16713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>1</v>
       </c>
@@ -16762,7 +16763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>1</v>
       </c>
@@ -16812,7 +16813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>1</v>
       </c>
@@ -16862,7 +16863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>1</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>1</v>
       </c>
@@ -16962,7 +16963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>1</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>1</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>1</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>1</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>1</v>
       </c>
@@ -17212,7 +17213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>1</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>1</v>
       </c>
@@ -17312,7 +17313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>1</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>1</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>1</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>1</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>1</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>1</v>
       </c>
@@ -17612,7 +17613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>1</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>1</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>1</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>1</v>
       </c>
@@ -17812,7 +17813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>1</v>
       </c>
@@ -17862,7 +17863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>1</v>
       </c>
@@ -17912,7 +17913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>1</v>
       </c>
@@ -17962,7 +17963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>1</v>
       </c>
@@ -18012,7 +18013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>1</v>
       </c>
@@ -18062,7 +18063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>1</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>1</v>
       </c>
@@ -18162,7 +18163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>1</v>
       </c>
@@ -18212,7 +18213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>1</v>
       </c>
@@ -18262,7 +18263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>1</v>
       </c>
@@ -18312,7 +18313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>1</v>
       </c>
@@ -18362,7 +18363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>1</v>
       </c>
@@ -18412,7 +18413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>1</v>
       </c>
@@ -18462,7 +18463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>1</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>1</v>
       </c>
@@ -18562,7 +18563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>1</v>
       </c>
@@ -18612,7 +18613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>1</v>
       </c>
@@ -18662,7 +18663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>1</v>
       </c>
@@ -18712,7 +18713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>1</v>
       </c>
@@ -18762,7 +18763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>1</v>
       </c>
@@ -18812,7 +18813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>1</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>1</v>
       </c>
@@ -18912,7 +18913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>1</v>
       </c>
@@ -18962,7 +18963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>1</v>
       </c>
@@ -19012,7 +19013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>1</v>
       </c>
@@ -19062,7 +19063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>1</v>
       </c>
@@ -19112,7 +19113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>1</v>
       </c>
@@ -19162,7 +19163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>1</v>
       </c>
@@ -19212,7 +19213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>1</v>
       </c>
@@ -19262,7 +19263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:16">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>1</v>
       </c>
@@ -19312,7 +19313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:16">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>1</v>
       </c>
@@ -19362,7 +19363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>1</v>
       </c>
@@ -19412,7 +19413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>1</v>
       </c>
@@ -19462,7 +19463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:16">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>1</v>
       </c>
@@ -19512,7 +19513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>1</v>
       </c>
@@ -19562,7 +19563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>1</v>
       </c>
@@ -19612,7 +19613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>1</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>1</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>1</v>
       </c>
@@ -19762,7 +19763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>1</v>
       </c>
@@ -19812,7 +19813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>1</v>
       </c>
@@ -19862,7 +19863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>1</v>
       </c>
@@ -19912,7 +19913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>1</v>
       </c>
@@ -19962,7 +19963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>1</v>
       </c>
@@ -20012,7 +20013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>1</v>
       </c>
@@ -20062,7 +20063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>1</v>
       </c>
@@ -20112,7 +20113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>1</v>
       </c>
@@ -20162,7 +20163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>1</v>
       </c>
@@ -20212,7 +20213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>1</v>
       </c>
@@ -20262,7 +20263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>1</v>
       </c>
@@ -20312,7 +20313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>1</v>
       </c>
@@ -20362,7 +20363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>1</v>
       </c>
@@ -20412,7 +20413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>1</v>
       </c>
@@ -20462,7 +20463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>1</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>1</v>
       </c>
@@ -20562,7 +20563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>1</v>
       </c>
@@ -20612,7 +20613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>1</v>
       </c>
@@ -20662,7 +20663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>1</v>
       </c>
@@ -20712,7 +20713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>1</v>
       </c>
@@ -20762,7 +20763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>1</v>
       </c>
@@ -20812,7 +20813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>1</v>
       </c>
@@ -20862,7 +20863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>1</v>
       </c>
@@ -20912,7 +20913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>1</v>
       </c>
@@ -20962,7 +20963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>1</v>
       </c>
@@ -21012,7 +21013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>1</v>
       </c>
@@ -21062,7 +21063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>1</v>
       </c>
@@ -21112,7 +21113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:16">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>1</v>
       </c>
@@ -21162,7 +21163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:16">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>1</v>
       </c>
@@ -21222,34 +21223,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21299,7 +21300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21349,7 +21350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21399,7 +21400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21449,7 +21450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -21499,7 +21500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -21549,7 +21550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -21599,7 +21600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -21649,7 +21650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -21699,7 +21700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -21749,7 +21750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21799,7 +21800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -21849,7 +21850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -21899,7 +21900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -21949,7 +21950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -21999,7 +22000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -22049,7 +22050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -22099,7 +22100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -22149,7 +22150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -22199,7 +22200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -22249,7 +22250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -22299,7 +22300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -22399,7 +22400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -22449,7 +22450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -22499,7 +22500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -22549,7 +22550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4440022D-3757-BE46-BB9D-59947C5358B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE66DF-EBF1-2E42-BFB4-3F9246882082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,10 +1040,10 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F820C1D9-FACA-F045-81B9-6295B2D87DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB35CAF-9CD1-1148-A4D4-AD280CCE1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31280" yWindow="-18920" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,7 +909,7 @@
   <dimension ref="A1:N402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18632,7 +18632,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB35CAF-9CD1-1148-A4D4-AD280CCE1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A733DF-A776-C341-884D-3CA536F0033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31280" yWindow="-18920" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nuts3" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -200,6 +200,21 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -214,6 +229,21 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -340,21 +370,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -369,21 +384,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -575,46 +575,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,10 +905,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9010101</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -18620,129 +18743,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="6">
-        <v>9010101</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F7CA1-2628-144C-A155-780BA156BDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139DFD7A-2C3B-154D-870B-D5BE4480EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="-19020" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nuts3" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -186,160 +186,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -541,6 +387,160 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -623,48 +623,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O402" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:O402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A61F4543-44BF-804C-9854-1F36358A5A9C}" name="id_scenario_teleworking" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{39CEAB76-A582-8943-9B28-1245EAD02E50}" name="id_scenario_teleworking" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O402" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:O402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{39CEAB76-A582-8943-9B28-1245EAD02E50}" name="id_scenario_teleworking" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{A61F4543-44BF-804C-9854-1F36358A5A9C}" name="id_scenario_teleworking" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,11 +956,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9010101</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19878,136 +20008,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="6">
-        <v>9010101</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139DFD7A-2C3B-154D-870B-D5BE4480EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18C331-B3DB-A84B-B93A-51A21E3E7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="-19020" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37860" yWindow="-18960" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -186,6 +186,160 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF8FAADC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8FAADC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -387,160 +541,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF8FAADC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8FAADC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -623,48 +623,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{39CEAB76-A582-8943-9B28-1245EAD02E50}" name="id_scenario_teleworking" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{39CEAB76-A582-8943-9B28-1245EAD02E50}" name="id_scenario_teleworking" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="renovation_mandatory" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="heating_technology_mandatory" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="name" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="comment" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O402" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O402" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{A61F4543-44BF-804C-9854-1F36358A5A9C}" name="id_scenario_teleworking" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A61F4543-44BF-804C-9854-1F36358A5A9C}" name="id_scenario_teleworking" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,7 +960,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
         <v>2019</v>
       </c>
       <c r="C2" s="6">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="D2" s="6">
         <v>9010101</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18C331-B3DB-A84B-B93A-51A21E3E7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500BE29B-E027-3D43-ACE4-A4E9592F8149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37860" yWindow="-18960" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C2" s="6">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="D2" s="6">
         <v>9010101</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500BE29B-E027-3D43-ACE4-A4E9592F8149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71B7E45-3024-5945-8CDE-8D5C0E325ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37860" yWindow="-18960" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
         <v>2010</v>
       </c>
       <c r="C2" s="6">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="D2" s="6">
         <v>9010101</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71B7E45-3024-5945-8CDE-8D5C0E325ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815E598-F0A4-4B47-AF40-7FFFDD95765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37860" yWindow="-18960" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
         <v>2010</v>
       </c>
       <c r="C2" s="6">
-        <v>2050</v>
+        <v>2010</v>
       </c>
       <c r="D2" s="6">
         <v>9010101</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815E598-F0A4-4B47-AF40-7FFFDD95765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A007BD5A-B9DE-094E-B464-5216AC317657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37860" yWindow="-18960" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="-19140" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
         <v>2010</v>
       </c>
       <c r="C2" s="6">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D2" s="6">
         <v>9010101</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A007BD5A-B9DE-094E-B464-5216AC317657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E74A04-28F1-0246-8B73-7A57681EC146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="-19140" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>12</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E74A04-28F1-0246-8B73-7A57681EC146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E163DA-AC37-B843-A25E-C98299BB21CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="-19140" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="2" r:id="rId1"/>
-    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
-    <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId3"/>
+    <sheet name="test-Hessen" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -623,8 +624,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
+  <autoFilter ref="A1:O2" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{CFA4FCFE-56A8-C54F-A28E-4ABA0C10454B}" name="id"/>
+    <tableColumn id="2" xr3:uid="{BF53976D-72ED-3944-BB41-E338B719F10D}" name="start_year"/>
+    <tableColumn id="3" xr3:uid="{45FD69FC-A0DB-174D-BF7E-161504969217}" name="end_year"/>
+    <tableColumn id="4" xr3:uid="{810DEFEB-2DC2-E042-B8A6-34EEECD4DA3F}" name="id_region"/>
+    <tableColumn id="5" xr3:uid="{6395BF38-49E4-264B-A092-0A6ABE45E6FF}" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="6" xr3:uid="{6559BA5C-6E89-4B47-9132-0A827D57848B}" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="7" xr3:uid="{4FE8B133-2FF4-0C46-B7B3-D097D64D7F6E}" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="8" xr3:uid="{7B59B475-8688-BC48-B066-F184FC88CE6A}" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="9" xr3:uid="{44503F30-88F4-3D4F-AC66-BFE435DC8481}" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="10" xr3:uid="{B8E40001-99E2-384F-89D0-F356E72C7B4A}" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="11" xr3:uid="{7D9AFDF0-7D8E-FA4C-B1E9-9D95F6BAA8D2}" name="id_scenario_teleworking"/>
+    <tableColumn id="12" xr3:uid="{B19EDCAB-6E02-C344-9FAC-935FCA98E1B6}" name="renovation_mandatory"/>
+    <tableColumn id="13" xr3:uid="{44EFA135-D3DA-F045-9BE1-867E28ED5AB0}" name="heating_technology_mandatory"/>
+    <tableColumn id="14" xr3:uid="{C2C71075-23DB-4D4C-9A96-48091F9B5251}" name="name"/>
+    <tableColumn id="15" xr3:uid="{969E06A4-B5B1-8842-A5F9-C75F409024B0}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="30"/>
@@ -646,7 +671,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O402" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
@@ -670,7 +695,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:O27" totalsRowShown="0">
   <autoFilter ref="A1:O27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
@@ -956,11 +981,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>9010101</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1192,7 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1064,15 +1213,109 @@
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>9010102</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2010</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>9010103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1085,12 +1328,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O402"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20015,7 +20258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E163DA-AC37-B843-A25E-C98299BB21CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CC59D-373B-2841-8797-19B9DB65F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="-19140" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test_1" sheetId="4" r:id="rId1"/>
+    <sheet name="test_3" sheetId="2" r:id="rId2"/>
     <sheet name="nuts3" sheetId="1" r:id="rId3"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,7 @@
         <v>9010101</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1084,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1192,7 @@
         <v>9010101</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1238,8 +1238,8 @@
       <c r="D3">
         <v>9010102</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" s="6">
+        <v>0.6</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1285,8 +1285,8 @@
       <c r="D4">
         <v>9010103</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" s="6">
+        <v>0.6</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82F4176-96BE-5D41-8A7D-0C55812975FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFAF4C-5B66-8544-BD59-8B6A3806D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40720" yWindow="-19040" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,6 +219,22 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -245,22 +261,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -632,14 +632,14 @@
     <tableColumn id="6" xr3:uid="{6E085763-6428-8849-926E-58D399BA3E52}" name="id_scenario_dh_availability" dataDxfId="10"/>
     <tableColumn id="17" xr3:uid="{F607CC92-C860-4342-92C5-3654F72FFC55}" name="id_scenario_gas_availability" dataDxfId="9"/>
     <tableColumn id="20" xr3:uid="{A0210A8C-0F42-2542-A661-790D5687D85B}" name="id_scenario_hydrogen_availability" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{3018A588-A851-E442-BC12-487FD51F83A5}" name="id_scenario_subsidy_building_renovation" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{9FAD53A0-957A-DE4E-882D-7BCFD06970FE}" name="id_scenario_subsidy_heating_modernization" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{E3BC392B-08E5-6342-825C-FA6099E74527}" name="id_scenario_renovation_mandatory" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{7C3F4DB9-647C-4A42-B5AA-DD0A60CE71A6}" name="id_scenario_heating_technology_mandatory" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{3018A588-A851-E442-BC12-487FD51F83A5}" name="id_scenario_subsidy_building_renovation" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{9FAD53A0-957A-DE4E-882D-7BCFD06970FE}" name="id_scenario_subsidy_heating_modernization" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{E3BC392B-08E5-6342-825C-FA6099E74527}" name="id_scenario_renovation_mandatory" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{7C3F4DB9-647C-4A42-B5AA-DD0A60CE71A6}" name="id_scenario_heating_technology_mandatory" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -944,7 +944,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1045,7 @@
         <v>2010</v>
       </c>
       <c r="C2">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="D2">
         <v>9010101</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFAF4C-5B66-8544-BD59-8B6A3806D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F86D83-4B79-B34D-A413-AAD0FD58F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40720" yWindow="-19040" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2180" yWindow="-18160" windowWidth="26240" windowHeight="17700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_1" sheetId="4" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X402"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F86D83-4B79-B34D-A413-AAD0FD58F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FFC3C8-6235-324A-818F-95F6CAF1CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2180" yWindow="-18160" windowWidth="26240" windowHeight="17700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2180" yWindow="-18160" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_1" sheetId="4" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A123" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FFC3C8-6235-324A-818F-95F6CAF1CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE172B4-D9F0-8240-A7FC-C1C09E0AD181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2180" yWindow="-18160" windowWidth="26240" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_1" sheetId="4" r:id="rId1"/>
-    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId1"/>
+    <sheet name="test_1" sheetId="4" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -580,6 +580,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:X402" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:X402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A61F4543-44BF-804C-9854-1F36358A5A9C}" name="id_scenario_teleworking" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{8B926D07-14F3-4A43-BCFF-84B481D1000D}" name="id_scenario_building_component_availability" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{18F1DD40-F56B-FE45-BAF5-ADE443DA527A}" name="id_scenario_heating_technology_availability" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{6E085763-6428-8849-926E-58D399BA3E52}" name="id_scenario_dh_availability" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{F607CC92-C860-4342-92C5-3654F72FFC55}" name="id_scenario_gas_availability" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{A0210A8C-0F42-2542-A661-790D5687D85B}" name="id_scenario_hydrogen_availability" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{3018A588-A851-E442-BC12-487FD51F83A5}" name="id_scenario_subsidy_building_renovation" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{9FAD53A0-957A-DE4E-882D-7BCFD06970FE}" name="id_scenario_subsidy_heating_modernization" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{E3BC392B-08E5-6342-825C-FA6099E74527}" name="id_scenario_renovation_mandatory" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{7C3F4DB9-647C-4A42-B5AA-DD0A60CE71A6}" name="id_scenario_heating_technology_mandatory" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}" name="Table1" displayName="Table1" ref="A1:X2" totalsRowShown="0">
   <autoFilter ref="A1:X2" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}"/>
   <tableColumns count="24">
@@ -607,39 +640,6 @@
     <tableColumn id="13" xr3:uid="{44EFA135-D3DA-F045-9BE1-867E28ED5AB0}" name="heating_technology_mandatory"/>
     <tableColumn id="14" xr3:uid="{C2C71075-23DB-4D4C-9A96-48091F9B5251}" name="name"/>
     <tableColumn id="15" xr3:uid="{969E06A4-B5B1-8842-A5F9-C75F409024B0}" name="comment"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:X402" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:X402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="start_year" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="end_year" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_region" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="optimal_heating_behavior_prob" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="id_scenario_energy_price_wholesale" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="id_scenario_energy_price_mark_up" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="id_scenario_energy_emission_factor" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A61F4543-44BF-804C-9854-1F36358A5A9C}" name="id_scenario_teleworking" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{8B926D07-14F3-4A43-BCFF-84B481D1000D}" name="id_scenario_building_component_availability" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{18F1DD40-F56B-FE45-BAF5-ADE443DA527A}" name="id_scenario_heating_technology_availability" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{6E085763-6428-8849-926E-58D399BA3E52}" name="id_scenario_dh_availability" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{F607CC92-C860-4342-92C5-3654F72FFC55}" name="id_scenario_gas_availability" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{A0210A8C-0F42-2542-A661-790D5687D85B}" name="id_scenario_hydrogen_availability" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{3018A588-A851-E442-BC12-487FD51F83A5}" name="id_scenario_subsidy_building_renovation" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{9FAD53A0-957A-DE4E-882D-7BCFD06970FE}" name="id_scenario_subsidy_heating_modernization" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{E3BC392B-08E5-6342-825C-FA6099E74527}" name="id_scenario_renovation_mandatory" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{7C3F4DB9-647C-4A42-B5AA-DD0A60CE71A6}" name="id_scenario_heating_technology_mandatory" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="renovation_mandatory" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -940,192 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
-  <dimension ref="A1:X2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="27.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2010</v>
-      </c>
-      <c r="C2">
-        <v>2050</v>
-      </c>
-      <c r="D2">
-        <v>9010101</v>
-      </c>
-      <c r="E2">
-        <v>0.6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X402"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1226,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C2" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D2" s="4">
         <v>9010101</v>
@@ -1299,11 +1118,11 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>2019</v>
+      <c r="B3" s="4">
+        <v>2010</v>
       </c>
       <c r="C3" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D3" s="6">
         <v>9010102</v>
@@ -1373,11 +1192,11 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <v>2019</v>
+      <c r="B4" s="4">
+        <v>2010</v>
       </c>
       <c r="C4" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D4" s="6">
         <v>9010103</v>
@@ -1447,11 +1266,11 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
-        <v>2019</v>
+      <c r="B5" s="4">
+        <v>2010</v>
       </c>
       <c r="C5" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D5" s="6">
         <v>9010104</v>
@@ -1521,11 +1340,11 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
-        <v>2019</v>
+      <c r="B6" s="4">
+        <v>2010</v>
       </c>
       <c r="C6" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D6" s="6">
         <v>9010105</v>
@@ -1595,11 +1414,11 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
-        <v>2019</v>
+      <c r="B7" s="4">
+        <v>2010</v>
       </c>
       <c r="C7" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D7" s="6">
         <v>9010106</v>
@@ -1669,11 +1488,11 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
-        <v>2019</v>
+      <c r="B8" s="4">
+        <v>2010</v>
       </c>
       <c r="C8" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D8" s="6">
         <v>9010107</v>
@@ -1743,11 +1562,11 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
-        <v>2019</v>
+      <c r="B9" s="4">
+        <v>2010</v>
       </c>
       <c r="C9" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D9" s="6">
         <v>9010108</v>
@@ -1817,11 +1636,11 @@
       <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
-        <v>2019</v>
+      <c r="B10" s="4">
+        <v>2010</v>
       </c>
       <c r="C10" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D10" s="6">
         <v>9010109</v>
@@ -1891,11 +1710,11 @@
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
-        <v>2019</v>
+      <c r="B11" s="4">
+        <v>2010</v>
       </c>
       <c r="C11" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D11" s="6">
         <v>9010110</v>
@@ -1965,11 +1784,11 @@
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="6">
-        <v>2019</v>
+      <c r="B12" s="4">
+        <v>2010</v>
       </c>
       <c r="C12" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D12" s="6">
         <v>9010111</v>
@@ -2039,11 +1858,11 @@
       <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="6">
-        <v>2019</v>
+      <c r="B13" s="4">
+        <v>2010</v>
       </c>
       <c r="C13" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D13" s="6">
         <v>9010112</v>
@@ -2113,11 +1932,11 @@
       <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="6">
-        <v>2019</v>
+      <c r="B14" s="4">
+        <v>2010</v>
       </c>
       <c r="C14" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D14" s="6">
         <v>9010113</v>
@@ -2187,11 +2006,11 @@
       <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="6">
-        <v>2019</v>
+      <c r="B15" s="4">
+        <v>2010</v>
       </c>
       <c r="C15" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D15" s="6">
         <v>9010201</v>
@@ -2261,11 +2080,11 @@
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="6">
-        <v>2019</v>
+      <c r="B16" s="4">
+        <v>2010</v>
       </c>
       <c r="C16" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D16" s="6">
         <v>9010202</v>
@@ -2335,11 +2154,11 @@
       <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B17" s="6">
-        <v>2019</v>
+      <c r="B17" s="4">
+        <v>2010</v>
       </c>
       <c r="C17" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D17" s="6">
         <v>9010203</v>
@@ -2409,11 +2228,11 @@
       <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="6">
-        <v>2019</v>
+      <c r="B18" s="4">
+        <v>2010</v>
       </c>
       <c r="C18" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D18" s="6">
         <v>9010204</v>
@@ -2483,11 +2302,11 @@
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="6">
-        <v>2019</v>
+      <c r="B19" s="4">
+        <v>2010</v>
       </c>
       <c r="C19" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D19" s="6">
         <v>9010205</v>
@@ -2557,11 +2376,11 @@
       <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B20" s="6">
-        <v>2019</v>
+      <c r="B20" s="4">
+        <v>2010</v>
       </c>
       <c r="C20" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D20" s="6">
         <v>9010206</v>
@@ -2631,11 +2450,11 @@
       <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="6">
-        <v>2019</v>
+      <c r="B21" s="4">
+        <v>2010</v>
       </c>
       <c r="C21" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D21" s="6">
         <v>9010207</v>
@@ -2705,11 +2524,11 @@
       <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="B22" s="6">
-        <v>2019</v>
+      <c r="B22" s="4">
+        <v>2010</v>
       </c>
       <c r="C22" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D22" s="6">
         <v>9010208</v>
@@ -2779,11 +2598,11 @@
       <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="B23" s="6">
-        <v>2019</v>
+      <c r="B23" s="4">
+        <v>2010</v>
       </c>
       <c r="C23" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D23" s="6">
         <v>9010209</v>
@@ -2853,11 +2672,11 @@
       <c r="A24" s="6">
         <v>1</v>
       </c>
-      <c r="B24" s="6">
-        <v>2019</v>
+      <c r="B24" s="4">
+        <v>2010</v>
       </c>
       <c r="C24" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D24" s="6">
         <v>9010210</v>
@@ -2927,11 +2746,11 @@
       <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="6">
-        <v>2019</v>
+      <c r="B25" s="4">
+        <v>2010</v>
       </c>
       <c r="C25" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D25" s="6">
         <v>9010211</v>
@@ -3001,11 +2820,11 @@
       <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="6">
-        <v>2019</v>
+      <c r="B26" s="4">
+        <v>2010</v>
       </c>
       <c r="C26" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D26" s="6">
         <v>9010212</v>
@@ -3075,11 +2894,11 @@
       <c r="A27" s="6">
         <v>1</v>
       </c>
-      <c r="B27" s="6">
-        <v>2019</v>
+      <c r="B27" s="4">
+        <v>2010</v>
       </c>
       <c r="C27" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D27" s="6">
         <v>9010301</v>
@@ -3149,11 +2968,11 @@
       <c r="A28" s="6">
         <v>1</v>
       </c>
-      <c r="B28" s="6">
-        <v>2019</v>
+      <c r="B28" s="4">
+        <v>2010</v>
       </c>
       <c r="C28" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D28" s="6">
         <v>9010302</v>
@@ -3223,11 +3042,11 @@
       <c r="A29" s="6">
         <v>1</v>
       </c>
-      <c r="B29" s="6">
-        <v>2019</v>
+      <c r="B29" s="4">
+        <v>2010</v>
       </c>
       <c r="C29" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D29" s="6">
         <v>9010303</v>
@@ -3297,11 +3116,11 @@
       <c r="A30" s="6">
         <v>1</v>
       </c>
-      <c r="B30" s="6">
-        <v>2019</v>
+      <c r="B30" s="4">
+        <v>2010</v>
       </c>
       <c r="C30" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D30" s="6">
         <v>9010304</v>
@@ -3371,11 +3190,11 @@
       <c r="A31" s="6">
         <v>1</v>
       </c>
-      <c r="B31" s="6">
-        <v>2019</v>
+      <c r="B31" s="4">
+        <v>2010</v>
       </c>
       <c r="C31" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D31" s="6">
         <v>9010305</v>
@@ -3445,11 +3264,11 @@
       <c r="A32" s="6">
         <v>1</v>
       </c>
-      <c r="B32" s="6">
-        <v>2019</v>
+      <c r="B32" s="4">
+        <v>2010</v>
       </c>
       <c r="C32" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D32" s="6">
         <v>9010306</v>
@@ -3519,11 +3338,11 @@
       <c r="A33" s="6">
         <v>1</v>
       </c>
-      <c r="B33" s="6">
-        <v>2019</v>
+      <c r="B33" s="4">
+        <v>2010</v>
       </c>
       <c r="C33" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D33" s="6">
         <v>9010307</v>
@@ -3593,11 +3412,11 @@
       <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="6">
-        <v>2019</v>
+      <c r="B34" s="4">
+        <v>2010</v>
       </c>
       <c r="C34" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D34" s="6">
         <v>9010308</v>
@@ -3667,11 +3486,11 @@
       <c r="A35" s="6">
         <v>1</v>
       </c>
-      <c r="B35" s="6">
-        <v>2019</v>
+      <c r="B35" s="4">
+        <v>2010</v>
       </c>
       <c r="C35" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D35" s="6">
         <v>9010309</v>
@@ -3741,11 +3560,11 @@
       <c r="A36" s="6">
         <v>1</v>
       </c>
-      <c r="B36" s="6">
-        <v>2019</v>
+      <c r="B36" s="4">
+        <v>2010</v>
       </c>
       <c r="C36" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D36" s="6">
         <v>9010310</v>
@@ -3815,11 +3634,11 @@
       <c r="A37" s="6">
         <v>1</v>
       </c>
-      <c r="B37" s="6">
-        <v>2019</v>
+      <c r="B37" s="4">
+        <v>2010</v>
       </c>
       <c r="C37" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D37" s="6">
         <v>9010401</v>
@@ -3889,11 +3708,11 @@
       <c r="A38" s="6">
         <v>1</v>
       </c>
-      <c r="B38" s="6">
-        <v>2019</v>
+      <c r="B38" s="4">
+        <v>2010</v>
       </c>
       <c r="C38" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D38" s="6">
         <v>9010402</v>
@@ -3963,11 +3782,11 @@
       <c r="A39" s="6">
         <v>1</v>
       </c>
-      <c r="B39" s="6">
-        <v>2019</v>
+      <c r="B39" s="4">
+        <v>2010</v>
       </c>
       <c r="C39" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D39" s="6">
         <v>9010403</v>
@@ -4037,11 +3856,11 @@
       <c r="A40" s="6">
         <v>1</v>
       </c>
-      <c r="B40" s="6">
-        <v>2019</v>
+      <c r="B40" s="4">
+        <v>2010</v>
       </c>
       <c r="C40" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D40" s="6">
         <v>9010404</v>
@@ -4111,11 +3930,11 @@
       <c r="A41" s="6">
         <v>1</v>
       </c>
-      <c r="B41" s="6">
-        <v>2019</v>
+      <c r="B41" s="4">
+        <v>2010</v>
       </c>
       <c r="C41" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D41" s="6">
         <v>9010405</v>
@@ -4185,11 +4004,11 @@
       <c r="A42" s="6">
         <v>1</v>
       </c>
-      <c r="B42" s="6">
-        <v>2019</v>
+      <c r="B42" s="4">
+        <v>2010</v>
       </c>
       <c r="C42" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D42" s="6">
         <v>9010406</v>
@@ -4259,11 +4078,11 @@
       <c r="A43" s="6">
         <v>1</v>
       </c>
-      <c r="B43" s="6">
-        <v>2019</v>
+      <c r="B43" s="4">
+        <v>2010</v>
       </c>
       <c r="C43" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D43" s="6">
         <v>9010407</v>
@@ -4333,11 +4152,11 @@
       <c r="A44" s="6">
         <v>1</v>
       </c>
-      <c r="B44" s="6">
-        <v>2019</v>
+      <c r="B44" s="4">
+        <v>2010</v>
       </c>
       <c r="C44" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D44" s="6">
         <v>9010408</v>
@@ -4407,11 +4226,11 @@
       <c r="A45" s="6">
         <v>1</v>
       </c>
-      <c r="B45" s="6">
-        <v>2019</v>
+      <c r="B45" s="4">
+        <v>2010</v>
       </c>
       <c r="C45" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D45" s="6">
         <v>9010409</v>
@@ -4481,11 +4300,11 @@
       <c r="A46" s="6">
         <v>1</v>
       </c>
-      <c r="B46" s="6">
-        <v>2019</v>
+      <c r="B46" s="4">
+        <v>2010</v>
       </c>
       <c r="C46" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D46" s="6">
         <v>9020101</v>
@@ -4555,11 +4374,11 @@
       <c r="A47" s="6">
         <v>1</v>
       </c>
-      <c r="B47" s="6">
-        <v>2019</v>
+      <c r="B47" s="4">
+        <v>2010</v>
       </c>
       <c r="C47" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D47" s="6">
         <v>9020102</v>
@@ -4629,11 +4448,11 @@
       <c r="A48" s="6">
         <v>1</v>
       </c>
-      <c r="B48" s="6">
-        <v>2019</v>
+      <c r="B48" s="4">
+        <v>2010</v>
       </c>
       <c r="C48" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D48" s="6">
         <v>9020103</v>
@@ -4703,11 +4522,11 @@
       <c r="A49" s="6">
         <v>1</v>
       </c>
-      <c r="B49" s="6">
-        <v>2019</v>
+      <c r="B49" s="4">
+        <v>2010</v>
       </c>
       <c r="C49" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D49" s="6">
         <v>9020104</v>
@@ -4777,11 +4596,11 @@
       <c r="A50" s="6">
         <v>1</v>
       </c>
-      <c r="B50" s="6">
-        <v>2019</v>
+      <c r="B50" s="4">
+        <v>2010</v>
       </c>
       <c r="C50" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D50" s="6">
         <v>9020105</v>
@@ -4851,11 +4670,11 @@
       <c r="A51" s="6">
         <v>1</v>
       </c>
-      <c r="B51" s="6">
-        <v>2019</v>
+      <c r="B51" s="4">
+        <v>2010</v>
       </c>
       <c r="C51" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D51" s="6">
         <v>9020106</v>
@@ -4925,11 +4744,11 @@
       <c r="A52" s="6">
         <v>1</v>
       </c>
-      <c r="B52" s="6">
-        <v>2019</v>
+      <c r="B52" s="4">
+        <v>2010</v>
       </c>
       <c r="C52" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D52" s="6">
         <v>9020107</v>
@@ -4999,11 +4818,11 @@
       <c r="A53" s="6">
         <v>1</v>
       </c>
-      <c r="B53" s="6">
-        <v>2019</v>
+      <c r="B53" s="4">
+        <v>2010</v>
       </c>
       <c r="C53" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D53" s="6">
         <v>9020108</v>
@@ -5073,11 +4892,11 @@
       <c r="A54" s="6">
         <v>1</v>
       </c>
-      <c r="B54" s="6">
-        <v>2019</v>
+      <c r="B54" s="4">
+        <v>2010</v>
       </c>
       <c r="C54" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D54" s="6">
         <v>9020109</v>
@@ -5147,11 +4966,11 @@
       <c r="A55" s="6">
         <v>1</v>
       </c>
-      <c r="B55" s="6">
-        <v>2019</v>
+      <c r="B55" s="4">
+        <v>2010</v>
       </c>
       <c r="C55" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D55" s="6">
         <v>9020110</v>
@@ -5221,11 +5040,11 @@
       <c r="A56" s="6">
         <v>1</v>
       </c>
-      <c r="B56" s="6">
-        <v>2019</v>
+      <c r="B56" s="4">
+        <v>2010</v>
       </c>
       <c r="C56" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D56" s="6">
         <v>9020111</v>
@@ -5295,11 +5114,11 @@
       <c r="A57" s="6">
         <v>1</v>
       </c>
-      <c r="B57" s="6">
-        <v>2019</v>
+      <c r="B57" s="4">
+        <v>2010</v>
       </c>
       <c r="C57" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D57" s="6">
         <v>9020112</v>
@@ -5369,11 +5188,11 @@
       <c r="A58" s="6">
         <v>1</v>
       </c>
-      <c r="B58" s="6">
-        <v>2019</v>
+      <c r="B58" s="4">
+        <v>2010</v>
       </c>
       <c r="C58" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D58" s="6">
         <v>9020113</v>
@@ -5443,11 +5262,11 @@
       <c r="A59" s="6">
         <v>1</v>
       </c>
-      <c r="B59" s="6">
-        <v>2019</v>
+      <c r="B59" s="4">
+        <v>2010</v>
       </c>
       <c r="C59" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D59" s="6">
         <v>9020114</v>
@@ -5517,11 +5336,11 @@
       <c r="A60" s="6">
         <v>1</v>
       </c>
-      <c r="B60" s="6">
-        <v>2019</v>
+      <c r="B60" s="4">
+        <v>2010</v>
       </c>
       <c r="C60" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D60" s="6">
         <v>9020115</v>
@@ -5591,11 +5410,11 @@
       <c r="A61" s="6">
         <v>1</v>
       </c>
-      <c r="B61" s="6">
-        <v>2019</v>
+      <c r="B61" s="4">
+        <v>2010</v>
       </c>
       <c r="C61" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D61" s="6">
         <v>9020116</v>
@@ -5665,11 +5484,11 @@
       <c r="A62" s="6">
         <v>1</v>
       </c>
-      <c r="B62" s="6">
-        <v>2019</v>
+      <c r="B62" s="4">
+        <v>2010</v>
       </c>
       <c r="C62" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D62" s="6">
         <v>9020117</v>
@@ -5739,11 +5558,11 @@
       <c r="A63" s="6">
         <v>1</v>
       </c>
-      <c r="B63" s="6">
-        <v>2019</v>
+      <c r="B63" s="4">
+        <v>2010</v>
       </c>
       <c r="C63" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D63" s="6">
         <v>9020118</v>
@@ -5813,11 +5632,11 @@
       <c r="A64" s="6">
         <v>1</v>
       </c>
-      <c r="B64" s="6">
-        <v>2019</v>
+      <c r="B64" s="4">
+        <v>2010</v>
       </c>
       <c r="C64" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D64" s="6">
         <v>9020119</v>
@@ -5887,11 +5706,11 @@
       <c r="A65" s="6">
         <v>1</v>
       </c>
-      <c r="B65" s="6">
-        <v>2019</v>
+      <c r="B65" s="4">
+        <v>2010</v>
       </c>
       <c r="C65" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D65" s="6">
         <v>9020120</v>
@@ -5961,11 +5780,11 @@
       <c r="A66" s="6">
         <v>1</v>
       </c>
-      <c r="B66" s="6">
-        <v>2019</v>
+      <c r="B66" s="4">
+        <v>2010</v>
       </c>
       <c r="C66" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D66" s="6">
         <v>9020121</v>
@@ -6035,11 +5854,11 @@
       <c r="A67" s="6">
         <v>1</v>
       </c>
-      <c r="B67" s="6">
-        <v>2019</v>
+      <c r="B67" s="4">
+        <v>2010</v>
       </c>
       <c r="C67" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D67" s="6">
         <v>9020122</v>
@@ -6109,11 +5928,11 @@
       <c r="A68" s="6">
         <v>1</v>
       </c>
-      <c r="B68" s="6">
-        <v>2019</v>
+      <c r="B68" s="4">
+        <v>2010</v>
       </c>
       <c r="C68" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D68" s="6">
         <v>9020123</v>
@@ -6183,11 +6002,11 @@
       <c r="A69" s="6">
         <v>1</v>
       </c>
-      <c r="B69" s="6">
-        <v>2019</v>
+      <c r="B69" s="4">
+        <v>2010</v>
       </c>
       <c r="C69" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D69" s="6">
         <v>9020201</v>
@@ -6257,11 +6076,11 @@
       <c r="A70" s="6">
         <v>1</v>
       </c>
-      <c r="B70" s="6">
-        <v>2019</v>
+      <c r="B70" s="4">
+        <v>2010</v>
       </c>
       <c r="C70" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D70" s="6">
         <v>9020202</v>
@@ -6331,11 +6150,11 @@
       <c r="A71" s="6">
         <v>1</v>
       </c>
-      <c r="B71" s="6">
-        <v>2019</v>
+      <c r="B71" s="4">
+        <v>2010</v>
       </c>
       <c r="C71" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D71" s="6">
         <v>9020203</v>
@@ -6405,11 +6224,11 @@
       <c r="A72" s="6">
         <v>1</v>
       </c>
-      <c r="B72" s="6">
-        <v>2019</v>
+      <c r="B72" s="4">
+        <v>2010</v>
       </c>
       <c r="C72" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D72" s="6">
         <v>9020204</v>
@@ -6479,11 +6298,11 @@
       <c r="A73" s="6">
         <v>1</v>
       </c>
-      <c r="B73" s="6">
-        <v>2019</v>
+      <c r="B73" s="4">
+        <v>2010</v>
       </c>
       <c r="C73" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D73" s="6">
         <v>9020205</v>
@@ -6553,11 +6372,11 @@
       <c r="A74" s="6">
         <v>1</v>
       </c>
-      <c r="B74" s="6">
-        <v>2019</v>
+      <c r="B74" s="4">
+        <v>2010</v>
       </c>
       <c r="C74" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D74" s="6">
         <v>9020206</v>
@@ -6627,11 +6446,11 @@
       <c r="A75" s="6">
         <v>1</v>
       </c>
-      <c r="B75" s="6">
-        <v>2019</v>
+      <c r="B75" s="4">
+        <v>2010</v>
       </c>
       <c r="C75" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D75" s="6">
         <v>9020207</v>
@@ -6701,11 +6520,11 @@
       <c r="A76" s="6">
         <v>1</v>
       </c>
-      <c r="B76" s="6">
-        <v>2019</v>
+      <c r="B76" s="4">
+        <v>2010</v>
       </c>
       <c r="C76" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D76" s="6">
         <v>9020208</v>
@@ -6775,11 +6594,11 @@
       <c r="A77" s="6">
         <v>1</v>
       </c>
-      <c r="B77" s="6">
-        <v>2019</v>
+      <c r="B77" s="4">
+        <v>2010</v>
       </c>
       <c r="C77" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D77" s="6">
         <v>9020209</v>
@@ -6849,11 +6668,11 @@
       <c r="A78" s="6">
         <v>1</v>
       </c>
-      <c r="B78" s="6">
-        <v>2019</v>
+      <c r="B78" s="4">
+        <v>2010</v>
       </c>
       <c r="C78" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D78" s="6">
         <v>9020210</v>
@@ -6923,11 +6742,11 @@
       <c r="A79" s="6">
         <v>1</v>
       </c>
-      <c r="B79" s="6">
-        <v>2019</v>
+      <c r="B79" s="4">
+        <v>2010</v>
       </c>
       <c r="C79" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D79" s="6">
         <v>9020211</v>
@@ -6997,11 +6816,11 @@
       <c r="A80" s="6">
         <v>1</v>
       </c>
-      <c r="B80" s="6">
-        <v>2019</v>
+      <c r="B80" s="4">
+        <v>2010</v>
       </c>
       <c r="C80" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D80" s="6">
         <v>9020212</v>
@@ -7071,11 +6890,11 @@
       <c r="A81" s="6">
         <v>1</v>
       </c>
-      <c r="B81" s="6">
-        <v>2019</v>
+      <c r="B81" s="4">
+        <v>2010</v>
       </c>
       <c r="C81" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D81" s="6">
         <v>9020301</v>
@@ -7145,11 +6964,11 @@
       <c r="A82" s="6">
         <v>1</v>
       </c>
-      <c r="B82" s="6">
-        <v>2019</v>
+      <c r="B82" s="4">
+        <v>2010</v>
       </c>
       <c r="C82" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D82" s="6">
         <v>9020302</v>
@@ -7219,11 +7038,11 @@
       <c r="A83" s="6">
         <v>1</v>
       </c>
-      <c r="B83" s="6">
-        <v>2019</v>
+      <c r="B83" s="4">
+        <v>2010</v>
       </c>
       <c r="C83" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D83" s="6">
         <v>9020303</v>
@@ -7293,11 +7112,11 @@
       <c r="A84" s="6">
         <v>1</v>
       </c>
-      <c r="B84" s="6">
-        <v>2019</v>
+      <c r="B84" s="4">
+        <v>2010</v>
       </c>
       <c r="C84" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D84" s="6">
         <v>9020304</v>
@@ -7367,11 +7186,11 @@
       <c r="A85" s="6">
         <v>1</v>
       </c>
-      <c r="B85" s="6">
-        <v>2019</v>
+      <c r="B85" s="4">
+        <v>2010</v>
       </c>
       <c r="C85" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D85" s="6">
         <v>9020305</v>
@@ -7441,11 +7260,11 @@
       <c r="A86" s="6">
         <v>1</v>
       </c>
-      <c r="B86" s="6">
-        <v>2019</v>
+      <c r="B86" s="4">
+        <v>2010</v>
       </c>
       <c r="C86" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D86" s="6">
         <v>9020306</v>
@@ -7515,11 +7334,11 @@
       <c r="A87" s="6">
         <v>1</v>
       </c>
-      <c r="B87" s="6">
-        <v>2019</v>
+      <c r="B87" s="4">
+        <v>2010</v>
       </c>
       <c r="C87" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D87" s="6">
         <v>9020307</v>
@@ -7589,11 +7408,11 @@
       <c r="A88" s="6">
         <v>1</v>
       </c>
-      <c r="B88" s="6">
-        <v>2019</v>
+      <c r="B88" s="4">
+        <v>2010</v>
       </c>
       <c r="C88" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D88" s="6">
         <v>9020308</v>
@@ -7663,11 +7482,11 @@
       <c r="A89" s="6">
         <v>1</v>
       </c>
-      <c r="B89" s="6">
-        <v>2019</v>
+      <c r="B89" s="4">
+        <v>2010</v>
       </c>
       <c r="C89" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D89" s="6">
         <v>9020309</v>
@@ -7737,11 +7556,11 @@
       <c r="A90" s="6">
         <v>1</v>
       </c>
-      <c r="B90" s="6">
-        <v>2019</v>
+      <c r="B90" s="4">
+        <v>2010</v>
       </c>
       <c r="C90" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D90" s="6">
         <v>9020310</v>
@@ -7811,11 +7630,11 @@
       <c r="A91" s="6">
         <v>1</v>
       </c>
-      <c r="B91" s="6">
-        <v>2019</v>
+      <c r="B91" s="4">
+        <v>2010</v>
       </c>
       <c r="C91" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D91" s="6">
         <v>9020401</v>
@@ -7885,11 +7704,11 @@
       <c r="A92" s="6">
         <v>1</v>
       </c>
-      <c r="B92" s="6">
-        <v>2019</v>
+      <c r="B92" s="4">
+        <v>2010</v>
       </c>
       <c r="C92" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D92" s="6">
         <v>9020402</v>
@@ -7959,11 +7778,11 @@
       <c r="A93" s="6">
         <v>1</v>
       </c>
-      <c r="B93" s="6">
-        <v>2019</v>
+      <c r="B93" s="4">
+        <v>2010</v>
       </c>
       <c r="C93" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D93" s="6">
         <v>9020403</v>
@@ -8033,11 +7852,11 @@
       <c r="A94" s="6">
         <v>1</v>
       </c>
-      <c r="B94" s="6">
-        <v>2019</v>
+      <c r="B94" s="4">
+        <v>2010</v>
       </c>
       <c r="C94" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D94" s="6">
         <v>9020404</v>
@@ -8107,11 +7926,11 @@
       <c r="A95" s="6">
         <v>1</v>
       </c>
-      <c r="B95" s="6">
-        <v>2019</v>
+      <c r="B95" s="4">
+        <v>2010</v>
       </c>
       <c r="C95" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D95" s="6">
         <v>9020405</v>
@@ -8181,11 +8000,11 @@
       <c r="A96" s="6">
         <v>1</v>
       </c>
-      <c r="B96" s="6">
-        <v>2019</v>
+      <c r="B96" s="4">
+        <v>2010</v>
       </c>
       <c r="C96" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D96" s="6">
         <v>9020406</v>
@@ -8255,11 +8074,11 @@
       <c r="A97" s="6">
         <v>1</v>
       </c>
-      <c r="B97" s="6">
-        <v>2019</v>
+      <c r="B97" s="4">
+        <v>2010</v>
       </c>
       <c r="C97" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D97" s="6">
         <v>9020407</v>
@@ -8329,11 +8148,11 @@
       <c r="A98" s="6">
         <v>1</v>
       </c>
-      <c r="B98" s="6">
-        <v>2019</v>
+      <c r="B98" s="4">
+        <v>2010</v>
       </c>
       <c r="C98" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D98" s="6">
         <v>9020408</v>
@@ -8403,11 +8222,11 @@
       <c r="A99" s="6">
         <v>1</v>
       </c>
-      <c r="B99" s="6">
-        <v>2019</v>
+      <c r="B99" s="4">
+        <v>2010</v>
       </c>
       <c r="C99" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D99" s="6">
         <v>9020409</v>
@@ -8477,11 +8296,11 @@
       <c r="A100" s="6">
         <v>1</v>
       </c>
-      <c r="B100" s="6">
-        <v>2019</v>
+      <c r="B100" s="4">
+        <v>2010</v>
       </c>
       <c r="C100" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D100" s="6">
         <v>9020410</v>
@@ -8551,11 +8370,11 @@
       <c r="A101" s="6">
         <v>1</v>
       </c>
-      <c r="B101" s="6">
-        <v>2019</v>
+      <c r="B101" s="4">
+        <v>2010</v>
       </c>
       <c r="C101" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D101" s="6">
         <v>9020411</v>
@@ -8625,11 +8444,11 @@
       <c r="A102" s="6">
         <v>1</v>
       </c>
-      <c r="B102" s="6">
-        <v>2019</v>
+      <c r="B102" s="4">
+        <v>2010</v>
       </c>
       <c r="C102" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D102" s="6">
         <v>9020412</v>
@@ -8699,11 +8518,11 @@
       <c r="A103" s="6">
         <v>1</v>
       </c>
-      <c r="B103" s="6">
-        <v>2019</v>
+      <c r="B103" s="4">
+        <v>2010</v>
       </c>
       <c r="C103" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D103" s="6">
         <v>9020413</v>
@@ -8773,11 +8592,11 @@
       <c r="A104" s="6">
         <v>1</v>
       </c>
-      <c r="B104" s="6">
-        <v>2019</v>
+      <c r="B104" s="4">
+        <v>2010</v>
       </c>
       <c r="C104" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D104" s="6">
         <v>9020501</v>
@@ -8847,11 +8666,11 @@
       <c r="A105" s="6">
         <v>1</v>
       </c>
-      <c r="B105" s="6">
-        <v>2019</v>
+      <c r="B105" s="4">
+        <v>2010</v>
       </c>
       <c r="C105" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D105" s="6">
         <v>9020502</v>
@@ -8921,11 +8740,11 @@
       <c r="A106" s="6">
         <v>1</v>
       </c>
-      <c r="B106" s="6">
-        <v>2019</v>
+      <c r="B106" s="4">
+        <v>2010</v>
       </c>
       <c r="C106" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D106" s="6">
         <v>9020503</v>
@@ -8995,11 +8814,11 @@
       <c r="A107" s="6">
         <v>1</v>
       </c>
-      <c r="B107" s="6">
-        <v>2019</v>
+      <c r="B107" s="4">
+        <v>2010</v>
       </c>
       <c r="C107" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D107" s="6">
         <v>9020504</v>
@@ -9069,11 +8888,11 @@
       <c r="A108" s="6">
         <v>1</v>
       </c>
-      <c r="B108" s="6">
-        <v>2019</v>
+      <c r="B108" s="4">
+        <v>2010</v>
       </c>
       <c r="C108" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D108" s="6">
         <v>9020505</v>
@@ -9143,11 +8962,11 @@
       <c r="A109" s="6">
         <v>1</v>
       </c>
-      <c r="B109" s="6">
-        <v>2019</v>
+      <c r="B109" s="4">
+        <v>2010</v>
       </c>
       <c r="C109" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D109" s="6">
         <v>9020506</v>
@@ -9217,11 +9036,11 @@
       <c r="A110" s="6">
         <v>1</v>
       </c>
-      <c r="B110" s="6">
-        <v>2019</v>
+      <c r="B110" s="4">
+        <v>2010</v>
       </c>
       <c r="C110" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D110" s="6">
         <v>9020507</v>
@@ -9291,11 +9110,11 @@
       <c r="A111" s="6">
         <v>1</v>
       </c>
-      <c r="B111" s="6">
-        <v>2019</v>
+      <c r="B111" s="4">
+        <v>2010</v>
       </c>
       <c r="C111" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D111" s="6">
         <v>9020508</v>
@@ -9365,11 +9184,11 @@
       <c r="A112" s="6">
         <v>1</v>
       </c>
-      <c r="B112" s="6">
-        <v>2019</v>
+      <c r="B112" s="4">
+        <v>2010</v>
       </c>
       <c r="C112" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D112" s="6">
         <v>9020509</v>
@@ -9439,11 +9258,11 @@
       <c r="A113" s="6">
         <v>1</v>
       </c>
-      <c r="B113" s="6">
-        <v>2019</v>
+      <c r="B113" s="4">
+        <v>2010</v>
       </c>
       <c r="C113" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D113" s="6">
         <v>9020510</v>
@@ -9513,11 +9332,11 @@
       <c r="A114" s="6">
         <v>1</v>
       </c>
-      <c r="B114" s="6">
-        <v>2019</v>
+      <c r="B114" s="4">
+        <v>2010</v>
       </c>
       <c r="C114" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D114" s="6">
         <v>9020511</v>
@@ -9587,11 +9406,11 @@
       <c r="A115" s="6">
         <v>1</v>
       </c>
-      <c r="B115" s="6">
-        <v>2019</v>
+      <c r="B115" s="4">
+        <v>2010</v>
       </c>
       <c r="C115" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D115" s="6">
         <v>9020512</v>
@@ -9661,11 +9480,11 @@
       <c r="A116" s="6">
         <v>1</v>
       </c>
-      <c r="B116" s="6">
-        <v>2019</v>
+      <c r="B116" s="4">
+        <v>2010</v>
       </c>
       <c r="C116" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D116" s="6">
         <v>9020601</v>
@@ -9735,11 +9554,11 @@
       <c r="A117" s="6">
         <v>1</v>
       </c>
-      <c r="B117" s="6">
-        <v>2019</v>
+      <c r="B117" s="4">
+        <v>2010</v>
       </c>
       <c r="C117" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D117" s="6">
         <v>9020602</v>
@@ -9809,11 +9628,11 @@
       <c r="A118" s="6">
         <v>1</v>
       </c>
-      <c r="B118" s="6">
-        <v>2019</v>
+      <c r="B118" s="4">
+        <v>2010</v>
       </c>
       <c r="C118" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D118" s="6">
         <v>9020603</v>
@@ -9883,11 +9702,11 @@
       <c r="A119" s="6">
         <v>1</v>
       </c>
-      <c r="B119" s="6">
-        <v>2019</v>
+      <c r="B119" s="4">
+        <v>2010</v>
       </c>
       <c r="C119" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D119" s="6">
         <v>9020604</v>
@@ -9957,11 +9776,11 @@
       <c r="A120" s="6">
         <v>1</v>
       </c>
-      <c r="B120" s="6">
-        <v>2019</v>
+      <c r="B120" s="4">
+        <v>2010</v>
       </c>
       <c r="C120" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D120" s="6">
         <v>9020605</v>
@@ -10031,11 +9850,11 @@
       <c r="A121" s="6">
         <v>1</v>
       </c>
-      <c r="B121" s="6">
-        <v>2019</v>
+      <c r="B121" s="4">
+        <v>2010</v>
       </c>
       <c r="C121" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D121" s="6">
         <v>9020606</v>
@@ -10105,11 +9924,11 @@
       <c r="A122" s="6">
         <v>1</v>
       </c>
-      <c r="B122" s="6">
-        <v>2019</v>
+      <c r="B122" s="4">
+        <v>2010</v>
       </c>
       <c r="C122" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D122" s="6">
         <v>9020607</v>
@@ -10179,11 +9998,11 @@
       <c r="A123" s="6">
         <v>1</v>
       </c>
-      <c r="B123" s="6">
-        <v>2019</v>
+      <c r="B123" s="4">
+        <v>2010</v>
       </c>
       <c r="C123" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D123" s="6">
         <v>9020608</v>
@@ -10253,11 +10072,11 @@
       <c r="A124" s="6">
         <v>1</v>
       </c>
-      <c r="B124" s="6">
-        <v>2019</v>
+      <c r="B124" s="4">
+        <v>2010</v>
       </c>
       <c r="C124" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D124" s="6">
         <v>9020609</v>
@@ -10327,11 +10146,11 @@
       <c r="A125" s="6">
         <v>1</v>
       </c>
-      <c r="B125" s="6">
-        <v>2019</v>
+      <c r="B125" s="4">
+        <v>2010</v>
       </c>
       <c r="C125" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D125" s="6">
         <v>9020610</v>
@@ -10401,11 +10220,11 @@
       <c r="A126" s="6">
         <v>1</v>
       </c>
-      <c r="B126" s="6">
-        <v>2019</v>
+      <c r="B126" s="4">
+        <v>2010</v>
       </c>
       <c r="C126" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D126" s="6">
         <v>9020611</v>
@@ -10475,11 +10294,11 @@
       <c r="A127" s="6">
         <v>1</v>
       </c>
-      <c r="B127" s="6">
-        <v>2019</v>
+      <c r="B127" s="4">
+        <v>2010</v>
       </c>
       <c r="C127" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D127" s="6">
         <v>9020612</v>
@@ -10549,11 +10368,11 @@
       <c r="A128" s="6">
         <v>1</v>
       </c>
-      <c r="B128" s="6">
-        <v>2019</v>
+      <c r="B128" s="4">
+        <v>2010</v>
       </c>
       <c r="C128" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D128" s="6">
         <v>9020701</v>
@@ -10623,11 +10442,11 @@
       <c r="A129" s="6">
         <v>1</v>
       </c>
-      <c r="B129" s="6">
-        <v>2019</v>
+      <c r="B129" s="4">
+        <v>2010</v>
       </c>
       <c r="C129" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D129" s="6">
         <v>9020702</v>
@@ -10697,11 +10516,11 @@
       <c r="A130" s="6">
         <v>1</v>
       </c>
-      <c r="B130" s="6">
-        <v>2019</v>
+      <c r="B130" s="4">
+        <v>2010</v>
       </c>
       <c r="C130" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D130" s="6">
         <v>9020703</v>
@@ -10771,11 +10590,11 @@
       <c r="A131" s="6">
         <v>1</v>
       </c>
-      <c r="B131" s="6">
-        <v>2019</v>
+      <c r="B131" s="4">
+        <v>2010</v>
       </c>
       <c r="C131" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D131" s="6">
         <v>9020704</v>
@@ -10845,11 +10664,11 @@
       <c r="A132" s="6">
         <v>1</v>
       </c>
-      <c r="B132" s="6">
-        <v>2019</v>
+      <c r="B132" s="4">
+        <v>2010</v>
       </c>
       <c r="C132" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D132" s="6">
         <v>9020705</v>
@@ -10919,11 +10738,11 @@
       <c r="A133" s="6">
         <v>1</v>
       </c>
-      <c r="B133" s="6">
-        <v>2019</v>
+      <c r="B133" s="4">
+        <v>2010</v>
       </c>
       <c r="C133" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D133" s="6">
         <v>9020706</v>
@@ -10993,11 +10812,11 @@
       <c r="A134" s="6">
         <v>1</v>
       </c>
-      <c r="B134" s="6">
-        <v>2019</v>
+      <c r="B134" s="4">
+        <v>2010</v>
       </c>
       <c r="C134" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D134" s="6">
         <v>9020707</v>
@@ -11067,11 +10886,11 @@
       <c r="A135" s="6">
         <v>1</v>
       </c>
-      <c r="B135" s="6">
-        <v>2019</v>
+      <c r="B135" s="4">
+        <v>2010</v>
       </c>
       <c r="C135" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D135" s="6">
         <v>9020708</v>
@@ -11141,11 +10960,11 @@
       <c r="A136" s="6">
         <v>1</v>
       </c>
-      <c r="B136" s="6">
-        <v>2019</v>
+      <c r="B136" s="4">
+        <v>2010</v>
       </c>
       <c r="C136" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D136" s="6">
         <v>9020709</v>
@@ -11215,11 +11034,11 @@
       <c r="A137" s="6">
         <v>1</v>
       </c>
-      <c r="B137" s="6">
-        <v>2019</v>
+      <c r="B137" s="4">
+        <v>2010</v>
       </c>
       <c r="C137" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D137" s="6">
         <v>9020710</v>
@@ -11289,11 +11108,11 @@
       <c r="A138" s="6">
         <v>1</v>
       </c>
-      <c r="B138" s="6">
-        <v>2019</v>
+      <c r="B138" s="4">
+        <v>2010</v>
       </c>
       <c r="C138" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D138" s="6">
         <v>9020711</v>
@@ -11363,11 +11182,11 @@
       <c r="A139" s="6">
         <v>1</v>
       </c>
-      <c r="B139" s="6">
-        <v>2019</v>
+      <c r="B139" s="4">
+        <v>2010</v>
       </c>
       <c r="C139" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D139" s="6">
         <v>9020712</v>
@@ -11437,11 +11256,11 @@
       <c r="A140" s="6">
         <v>1</v>
       </c>
-      <c r="B140" s="6">
-        <v>2019</v>
+      <c r="B140" s="4">
+        <v>2010</v>
       </c>
       <c r="C140" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D140" s="6">
         <v>9020713</v>
@@ -11511,11 +11330,11 @@
       <c r="A141" s="6">
         <v>1</v>
       </c>
-      <c r="B141" s="6">
-        <v>2019</v>
+      <c r="B141" s="4">
+        <v>2010</v>
       </c>
       <c r="C141" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D141" s="6">
         <v>9020714</v>
@@ -11585,11 +11404,11 @@
       <c r="A142" s="6">
         <v>1</v>
       </c>
-      <c r="B142" s="6">
-        <v>2019</v>
+      <c r="B142" s="4">
+        <v>2010</v>
       </c>
       <c r="C142" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D142" s="6">
         <v>9030000</v>
@@ -11659,11 +11478,11 @@
       <c r="A143" s="6">
         <v>1</v>
       </c>
-      <c r="B143" s="6">
-        <v>2019</v>
+      <c r="B143" s="4">
+        <v>2010</v>
       </c>
       <c r="C143" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D143" s="6">
         <v>9040001</v>
@@ -11733,11 +11552,11 @@
       <c r="A144" s="6">
         <v>1</v>
       </c>
-      <c r="B144" s="6">
-        <v>2019</v>
+      <c r="B144" s="4">
+        <v>2010</v>
       </c>
       <c r="C144" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D144" s="6">
         <v>9040002</v>
@@ -11807,11 +11626,11 @@
       <c r="A145" s="6">
         <v>1</v>
       </c>
-      <c r="B145" s="6">
-        <v>2019</v>
+      <c r="B145" s="4">
+        <v>2010</v>
       </c>
       <c r="C145" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D145" s="6">
         <v>9040003</v>
@@ -11881,11 +11700,11 @@
       <c r="A146" s="6">
         <v>1</v>
       </c>
-      <c r="B146" s="6">
-        <v>2019</v>
+      <c r="B146" s="4">
+        <v>2010</v>
       </c>
       <c r="C146" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D146" s="6">
         <v>9040004</v>
@@ -11955,11 +11774,11 @@
       <c r="A147" s="6">
         <v>1</v>
       </c>
-      <c r="B147" s="6">
-        <v>2019</v>
+      <c r="B147" s="4">
+        <v>2010</v>
       </c>
       <c r="C147" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D147" s="6">
         <v>9040005</v>
@@ -12029,11 +11848,11 @@
       <c r="A148" s="6">
         <v>1</v>
       </c>
-      <c r="B148" s="6">
-        <v>2019</v>
+      <c r="B148" s="4">
+        <v>2010</v>
       </c>
       <c r="C148" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D148" s="6">
         <v>9040006</v>
@@ -12103,11 +11922,11 @@
       <c r="A149" s="6">
         <v>1</v>
       </c>
-      <c r="B149" s="6">
-        <v>2019</v>
+      <c r="B149" s="4">
+        <v>2010</v>
       </c>
       <c r="C149" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D149" s="6">
         <v>9040007</v>
@@ -12177,11 +11996,11 @@
       <c r="A150" s="6">
         <v>1</v>
       </c>
-      <c r="B150" s="6">
-        <v>2019</v>
+      <c r="B150" s="4">
+        <v>2010</v>
       </c>
       <c r="C150" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D150" s="6">
         <v>9040008</v>
@@ -12251,11 +12070,11 @@
       <c r="A151" s="6">
         <v>1</v>
       </c>
-      <c r="B151" s="6">
-        <v>2019</v>
+      <c r="B151" s="4">
+        <v>2010</v>
       </c>
       <c r="C151" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D151" s="6">
         <v>9040009</v>
@@ -12325,11 +12144,11 @@
       <c r="A152" s="6">
         <v>1</v>
       </c>
-      <c r="B152" s="6">
-        <v>2019</v>
+      <c r="B152" s="4">
+        <v>2010</v>
       </c>
       <c r="C152" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D152" s="6">
         <v>9040010</v>
@@ -12399,11 +12218,11 @@
       <c r="A153" s="6">
         <v>1</v>
       </c>
-      <c r="B153" s="6">
-        <v>2019</v>
+      <c r="B153" s="4">
+        <v>2010</v>
       </c>
       <c r="C153" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D153" s="6">
         <v>9040011</v>
@@ -12473,11 +12292,11 @@
       <c r="A154" s="6">
         <v>1</v>
       </c>
-      <c r="B154" s="6">
-        <v>2019</v>
+      <c r="B154" s="4">
+        <v>2010</v>
       </c>
       <c r="C154" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D154" s="6">
         <v>9040012</v>
@@ -12547,11 +12366,11 @@
       <c r="A155" s="6">
         <v>1</v>
       </c>
-      <c r="B155" s="6">
-        <v>2019</v>
+      <c r="B155" s="4">
+        <v>2010</v>
       </c>
       <c r="C155" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D155" s="6">
         <v>9040013</v>
@@ -12621,11 +12440,11 @@
       <c r="A156" s="6">
         <v>1</v>
       </c>
-      <c r="B156" s="6">
-        <v>2019</v>
+      <c r="B156" s="4">
+        <v>2010</v>
       </c>
       <c r="C156" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D156" s="6">
         <v>9040014</v>
@@ -12695,11 +12514,11 @@
       <c r="A157" s="6">
         <v>1</v>
       </c>
-      <c r="B157" s="6">
-        <v>2019</v>
+      <c r="B157" s="4">
+        <v>2010</v>
       </c>
       <c r="C157" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D157" s="6">
         <v>9040015</v>
@@ -12769,11 +12588,11 @@
       <c r="A158" s="6">
         <v>1</v>
       </c>
-      <c r="B158" s="6">
-        <v>2019</v>
+      <c r="B158" s="4">
+        <v>2010</v>
       </c>
       <c r="C158" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D158" s="6">
         <v>9040016</v>
@@ -12843,11 +12662,11 @@
       <c r="A159" s="6">
         <v>1</v>
       </c>
-      <c r="B159" s="6">
-        <v>2019</v>
+      <c r="B159" s="4">
+        <v>2010</v>
       </c>
       <c r="C159" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D159" s="6">
         <v>9040017</v>
@@ -12917,11 +12736,11 @@
       <c r="A160" s="6">
         <v>1</v>
       </c>
-      <c r="B160" s="6">
-        <v>2019</v>
+      <c r="B160" s="4">
+        <v>2010</v>
       </c>
       <c r="C160" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D160" s="6">
         <v>9040018</v>
@@ -12991,11 +12810,11 @@
       <c r="A161" s="6">
         <v>1</v>
       </c>
-      <c r="B161" s="6">
-        <v>2019</v>
+      <c r="B161" s="4">
+        <v>2010</v>
       </c>
       <c r="C161" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D161" s="6">
         <v>9050001</v>
@@ -13065,11 +12884,11 @@
       <c r="A162" s="6">
         <v>1</v>
       </c>
-      <c r="B162" s="6">
-        <v>2019</v>
+      <c r="B162" s="4">
+        <v>2010</v>
       </c>
       <c r="C162" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D162" s="6">
         <v>9050002</v>
@@ -13139,11 +12958,11 @@
       <c r="A163" s="6">
         <v>1</v>
       </c>
-      <c r="B163" s="6">
-        <v>2019</v>
+      <c r="B163" s="4">
+        <v>2010</v>
       </c>
       <c r="C163" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D163" s="6">
         <v>9060000</v>
@@ -13213,11 +13032,11 @@
       <c r="A164" s="6">
         <v>1</v>
       </c>
-      <c r="B164" s="6">
-        <v>2019</v>
+      <c r="B164" s="4">
+        <v>2010</v>
       </c>
       <c r="C164" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D164" s="6">
         <v>9070101</v>
@@ -13287,11 +13106,11 @@
       <c r="A165" s="6">
         <v>1</v>
       </c>
-      <c r="B165" s="6">
-        <v>2019</v>
+      <c r="B165" s="4">
+        <v>2010</v>
       </c>
       <c r="C165" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D165" s="6">
         <v>9070102</v>
@@ -13361,11 +13180,11 @@
       <c r="A166" s="6">
         <v>1</v>
       </c>
-      <c r="B166" s="6">
-        <v>2019</v>
+      <c r="B166" s="4">
+        <v>2010</v>
       </c>
       <c r="C166" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D166" s="6">
         <v>9070103</v>
@@ -13435,11 +13254,11 @@
       <c r="A167" s="6">
         <v>1</v>
       </c>
-      <c r="B167" s="6">
-        <v>2019</v>
+      <c r="B167" s="4">
+        <v>2010</v>
       </c>
       <c r="C167" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D167" s="6">
         <v>9070104</v>
@@ -13509,11 +13328,11 @@
       <c r="A168" s="6">
         <v>1</v>
       </c>
-      <c r="B168" s="6">
-        <v>2019</v>
+      <c r="B168" s="4">
+        <v>2010</v>
       </c>
       <c r="C168" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D168" s="6">
         <v>9070105</v>
@@ -13583,11 +13402,11 @@
       <c r="A169" s="6">
         <v>1</v>
       </c>
-      <c r="B169" s="6">
-        <v>2019</v>
+      <c r="B169" s="4">
+        <v>2010</v>
       </c>
       <c r="C169" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D169" s="6">
         <v>9070106</v>
@@ -13657,11 +13476,11 @@
       <c r="A170" s="6">
         <v>1</v>
       </c>
-      <c r="B170" s="6">
-        <v>2019</v>
+      <c r="B170" s="4">
+        <v>2010</v>
       </c>
       <c r="C170" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D170" s="6">
         <v>9070107</v>
@@ -13731,11 +13550,11 @@
       <c r="A171" s="6">
         <v>1</v>
       </c>
-      <c r="B171" s="6">
-        <v>2019</v>
+      <c r="B171" s="4">
+        <v>2010</v>
       </c>
       <c r="C171" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D171" s="6">
         <v>9070108</v>
@@ -13805,11 +13624,11 @@
       <c r="A172" s="6">
         <v>1</v>
       </c>
-      <c r="B172" s="6">
-        <v>2019</v>
+      <c r="B172" s="4">
+        <v>2010</v>
       </c>
       <c r="C172" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D172" s="6">
         <v>9070109</v>
@@ -13879,11 +13698,11 @@
       <c r="A173" s="6">
         <v>1</v>
       </c>
-      <c r="B173" s="6">
-        <v>2019</v>
+      <c r="B173" s="4">
+        <v>2010</v>
       </c>
       <c r="C173" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D173" s="6">
         <v>9070110</v>
@@ -13953,11 +13772,11 @@
       <c r="A174" s="6">
         <v>1</v>
       </c>
-      <c r="B174" s="6">
-        <v>2019</v>
+      <c r="B174" s="4">
+        <v>2010</v>
       </c>
       <c r="C174" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D174" s="6">
         <v>9070111</v>
@@ -14027,11 +13846,11 @@
       <c r="A175" s="6">
         <v>1</v>
       </c>
-      <c r="B175" s="6">
-        <v>2019</v>
+      <c r="B175" s="4">
+        <v>2010</v>
       </c>
       <c r="C175" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D175" s="6">
         <v>9070112</v>
@@ -14101,11 +13920,11 @@
       <c r="A176" s="6">
         <v>1</v>
       </c>
-      <c r="B176" s="6">
-        <v>2019</v>
+      <c r="B176" s="4">
+        <v>2010</v>
       </c>
       <c r="C176" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D176" s="6">
         <v>9070113</v>
@@ -14175,11 +13994,11 @@
       <c r="A177" s="6">
         <v>1</v>
       </c>
-      <c r="B177" s="6">
-        <v>2019</v>
+      <c r="B177" s="4">
+        <v>2010</v>
       </c>
       <c r="C177" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D177" s="6">
         <v>9070114</v>
@@ -14249,11 +14068,11 @@
       <c r="A178" s="6">
         <v>1</v>
       </c>
-      <c r="B178" s="6">
-        <v>2019</v>
+      <c r="B178" s="4">
+        <v>2010</v>
       </c>
       <c r="C178" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D178" s="6">
         <v>9070201</v>
@@ -14323,11 +14142,11 @@
       <c r="A179" s="6">
         <v>1</v>
       </c>
-      <c r="B179" s="6">
-        <v>2019</v>
+      <c r="B179" s="4">
+        <v>2010</v>
       </c>
       <c r="C179" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D179" s="6">
         <v>9070202</v>
@@ -14397,11 +14216,11 @@
       <c r="A180" s="6">
         <v>1</v>
       </c>
-      <c r="B180" s="6">
-        <v>2019</v>
+      <c r="B180" s="4">
+        <v>2010</v>
       </c>
       <c r="C180" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D180" s="6">
         <v>9070203</v>
@@ -14471,11 +14290,11 @@
       <c r="A181" s="6">
         <v>1</v>
       </c>
-      <c r="B181" s="6">
-        <v>2019</v>
+      <c r="B181" s="4">
+        <v>2010</v>
       </c>
       <c r="C181" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D181" s="6">
         <v>9070204</v>
@@ -14545,11 +14364,11 @@
       <c r="A182" s="6">
         <v>1</v>
       </c>
-      <c r="B182" s="6">
-        <v>2019</v>
+      <c r="B182" s="4">
+        <v>2010</v>
       </c>
       <c r="C182" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D182" s="6">
         <v>9070205</v>
@@ -14619,11 +14438,11 @@
       <c r="A183" s="6">
         <v>1</v>
       </c>
-      <c r="B183" s="6">
-        <v>2019</v>
+      <c r="B183" s="4">
+        <v>2010</v>
       </c>
       <c r="C183" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D183" s="6">
         <v>9070301</v>
@@ -14693,11 +14512,11 @@
       <c r="A184" s="6">
         <v>1</v>
       </c>
-      <c r="B184" s="6">
-        <v>2019</v>
+      <c r="B184" s="4">
+        <v>2010</v>
       </c>
       <c r="C184" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D184" s="6">
         <v>9070302</v>
@@ -14767,11 +14586,11 @@
       <c r="A185" s="6">
         <v>1</v>
       </c>
-      <c r="B185" s="6">
-        <v>2019</v>
+      <c r="B185" s="4">
+        <v>2010</v>
       </c>
       <c r="C185" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D185" s="6">
         <v>9070303</v>
@@ -14841,11 +14660,11 @@
       <c r="A186" s="6">
         <v>1</v>
       </c>
-      <c r="B186" s="6">
-        <v>2019</v>
+      <c r="B186" s="4">
+        <v>2010</v>
       </c>
       <c r="C186" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D186" s="6">
         <v>9070304</v>
@@ -14915,11 +14734,11 @@
       <c r="A187" s="6">
         <v>1</v>
       </c>
-      <c r="B187" s="6">
-        <v>2019</v>
+      <c r="B187" s="4">
+        <v>2010</v>
       </c>
       <c r="C187" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D187" s="6">
         <v>9070305</v>
@@ -14989,11 +14808,11 @@
       <c r="A188" s="6">
         <v>1</v>
       </c>
-      <c r="B188" s="6">
-        <v>2019</v>
+      <c r="B188" s="4">
+        <v>2010</v>
       </c>
       <c r="C188" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D188" s="6">
         <v>9070306</v>
@@ -15063,11 +14882,11 @@
       <c r="A189" s="6">
         <v>1</v>
       </c>
-      <c r="B189" s="6">
-        <v>2019</v>
+      <c r="B189" s="4">
+        <v>2010</v>
       </c>
       <c r="C189" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D189" s="6">
         <v>9070307</v>
@@ -15137,11 +14956,11 @@
       <c r="A190" s="6">
         <v>1</v>
       </c>
-      <c r="B190" s="6">
-        <v>2019</v>
+      <c r="B190" s="4">
+        <v>2010</v>
       </c>
       <c r="C190" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D190" s="6">
         <v>9080003</v>
@@ -15211,11 +15030,11 @@
       <c r="A191" s="6">
         <v>1</v>
       </c>
-      <c r="B191" s="6">
-        <v>2019</v>
+      <c r="B191" s="4">
+        <v>2010</v>
       </c>
       <c r="C191" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D191" s="6">
         <v>9080004</v>
@@ -15285,11 +15104,11 @@
       <c r="A192" s="6">
         <v>1</v>
       </c>
-      <c r="B192" s="6">
-        <v>2019</v>
+      <c r="B192" s="4">
+        <v>2010</v>
       </c>
       <c r="C192" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D192" s="6">
         <v>9080019</v>
@@ -15359,11 +15178,11 @@
       <c r="A193" s="6">
         <v>1</v>
       </c>
-      <c r="B193" s="6">
-        <v>2019</v>
+      <c r="B193" s="4">
+        <v>2010</v>
       </c>
       <c r="C193" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D193" s="6">
         <v>9080020</v>
@@ -15433,11 +15252,11 @@
       <c r="A194" s="6">
         <v>1</v>
       </c>
-      <c r="B194" s="6">
-        <v>2019</v>
+      <c r="B194" s="4">
+        <v>2010</v>
       </c>
       <c r="C194" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D194" s="6">
         <v>9080021</v>
@@ -15507,11 +15326,11 @@
       <c r="A195" s="6">
         <v>1</v>
       </c>
-      <c r="B195" s="6">
-        <v>2019</v>
+      <c r="B195" s="4">
+        <v>2010</v>
       </c>
       <c r="C195" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D195" s="6">
         <v>9080022</v>
@@ -15581,11 +15400,11 @@
       <c r="A196" s="6">
         <v>1</v>
       </c>
-      <c r="B196" s="6">
-        <v>2019</v>
+      <c r="B196" s="4">
+        <v>2010</v>
       </c>
       <c r="C196" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D196" s="6">
         <v>9080023</v>
@@ -15655,11 +15474,11 @@
       <c r="A197" s="6">
         <v>1</v>
       </c>
-      <c r="B197" s="6">
-        <v>2019</v>
+      <c r="B197" s="4">
+        <v>2010</v>
       </c>
       <c r="C197" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D197" s="6">
         <v>9080024</v>
@@ -15729,11 +15548,11 @@
       <c r="A198" s="6">
         <v>1</v>
       </c>
-      <c r="B198" s="6">
-        <v>2019</v>
+      <c r="B198" s="4">
+        <v>2010</v>
       </c>
       <c r="C198" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D198" s="6">
         <v>9090101</v>
@@ -15803,11 +15622,11 @@
       <c r="A199" s="6">
         <v>1</v>
       </c>
-      <c r="B199" s="6">
-        <v>2019</v>
+      <c r="B199" s="4">
+        <v>2010</v>
       </c>
       <c r="C199" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D199" s="6">
         <v>9090102</v>
@@ -15877,11 +15696,11 @@
       <c r="A200" s="6">
         <v>1</v>
       </c>
-      <c r="B200" s="6">
-        <v>2019</v>
+      <c r="B200" s="4">
+        <v>2010</v>
       </c>
       <c r="C200" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D200" s="6">
         <v>9090103</v>
@@ -15951,11 +15770,11 @@
       <c r="A201" s="6">
         <v>1</v>
       </c>
-      <c r="B201" s="6">
-        <v>2019</v>
+      <c r="B201" s="4">
+        <v>2010</v>
       </c>
       <c r="C201" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D201" s="6">
         <v>9090104</v>
@@ -16025,11 +15844,11 @@
       <c r="A202" s="6">
         <v>1</v>
       </c>
-      <c r="B202" s="6">
-        <v>2019</v>
+      <c r="B202" s="4">
+        <v>2010</v>
       </c>
       <c r="C202" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D202" s="6">
         <v>9090106</v>
@@ -16099,11 +15918,11 @@
       <c r="A203" s="6">
         <v>1</v>
       </c>
-      <c r="B203" s="6">
-        <v>2019</v>
+      <c r="B203" s="4">
+        <v>2010</v>
       </c>
       <c r="C203" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D203" s="6">
         <v>9090107</v>
@@ -16173,11 +15992,11 @@
       <c r="A204" s="6">
         <v>1</v>
       </c>
-      <c r="B204" s="6">
-        <v>2019</v>
+      <c r="B204" s="4">
+        <v>2010</v>
       </c>
       <c r="C204" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D204" s="6">
         <v>9090108</v>
@@ -16247,11 +16066,11 @@
       <c r="A205" s="6">
         <v>1</v>
       </c>
-      <c r="B205" s="6">
-        <v>2019</v>
+      <c r="B205" s="4">
+        <v>2010</v>
       </c>
       <c r="C205" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D205" s="6">
         <v>9090110</v>
@@ -16321,11 +16140,11 @@
       <c r="A206" s="6">
         <v>1</v>
       </c>
-      <c r="B206" s="6">
-        <v>2019</v>
+      <c r="B206" s="4">
+        <v>2010</v>
       </c>
       <c r="C206" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D206" s="6">
         <v>9090111</v>
@@ -16395,11 +16214,11 @@
       <c r="A207" s="6">
         <v>1</v>
       </c>
-      <c r="B207" s="6">
-        <v>2019</v>
+      <c r="B207" s="4">
+        <v>2010</v>
       </c>
       <c r="C207" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D207" s="6">
         <v>9090112</v>
@@ -16469,11 +16288,11 @@
       <c r="A208" s="6">
         <v>1</v>
       </c>
-      <c r="B208" s="6">
-        <v>2019</v>
+      <c r="B208" s="4">
+        <v>2010</v>
       </c>
       <c r="C208" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D208" s="6">
         <v>9090202</v>
@@ -16543,11 +16362,11 @@
       <c r="A209" s="6">
         <v>1</v>
       </c>
-      <c r="B209" s="6">
-        <v>2019</v>
+      <c r="B209" s="4">
+        <v>2010</v>
       </c>
       <c r="C209" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D209" s="6">
         <v>9090203</v>
@@ -16617,11 +16436,11 @@
       <c r="A210" s="6">
         <v>1</v>
       </c>
-      <c r="B210" s="6">
-        <v>2019</v>
+      <c r="B210" s="4">
+        <v>2010</v>
       </c>
       <c r="C210" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D210" s="6">
         <v>9090205</v>
@@ -16691,11 +16510,11 @@
       <c r="A211" s="6">
         <v>1</v>
       </c>
-      <c r="B211" s="6">
-        <v>2019</v>
+      <c r="B211" s="4">
+        <v>2010</v>
       </c>
       <c r="C211" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D211" s="6">
         <v>9090206</v>
@@ -16765,11 +16584,11 @@
       <c r="A212" s="6">
         <v>1</v>
       </c>
-      <c r="B212" s="6">
-        <v>2019</v>
+      <c r="B212" s="4">
+        <v>2010</v>
       </c>
       <c r="C212" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D212" s="6">
         <v>9090207</v>
@@ -16839,11 +16658,11 @@
       <c r="A213" s="6">
         <v>1</v>
       </c>
-      <c r="B213" s="6">
-        <v>2019</v>
+      <c r="B213" s="4">
+        <v>2010</v>
       </c>
       <c r="C213" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D213" s="6">
         <v>9090208</v>
@@ -16913,11 +16732,11 @@
       <c r="A214" s="6">
         <v>1</v>
       </c>
-      <c r="B214" s="6">
-        <v>2019</v>
+      <c r="B214" s="4">
+        <v>2010</v>
       </c>
       <c r="C214" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D214" s="6">
         <v>9090209</v>
@@ -16987,11 +16806,11 @@
       <c r="A215" s="6">
         <v>1</v>
       </c>
-      <c r="B215" s="6">
-        <v>2019</v>
+      <c r="B215" s="4">
+        <v>2010</v>
       </c>
       <c r="C215" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D215" s="6">
         <v>9090301</v>
@@ -17061,11 +16880,11 @@
       <c r="A216" s="6">
         <v>1</v>
       </c>
-      <c r="B216" s="6">
-        <v>2019</v>
+      <c r="B216" s="4">
+        <v>2010</v>
       </c>
       <c r="C216" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D216" s="6">
         <v>9090302</v>
@@ -17135,11 +16954,11 @@
       <c r="A217" s="6">
         <v>1</v>
       </c>
-      <c r="B217" s="6">
-        <v>2019</v>
+      <c r="B217" s="4">
+        <v>2010</v>
       </c>
       <c r="C217" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D217" s="6">
         <v>9090303</v>
@@ -17209,11 +17028,11 @@
       <c r="A218" s="6">
         <v>1</v>
       </c>
-      <c r="B218" s="6">
-        <v>2019</v>
+      <c r="B218" s="4">
+        <v>2010</v>
       </c>
       <c r="C218" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D218" s="6">
         <v>9090304</v>
@@ -17283,11 +17102,11 @@
       <c r="A219" s="6">
         <v>1</v>
       </c>
-      <c r="B219" s="6">
-        <v>2019</v>
+      <c r="B219" s="4">
+        <v>2010</v>
       </c>
       <c r="C219" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D219" s="6">
         <v>9090305</v>
@@ -17357,11 +17176,11 @@
       <c r="A220" s="6">
         <v>1</v>
       </c>
-      <c r="B220" s="6">
-        <v>2019</v>
+      <c r="B220" s="4">
+        <v>2010</v>
       </c>
       <c r="C220" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D220" s="6">
         <v>9090306</v>
@@ -17431,11 +17250,11 @@
       <c r="A221" s="6">
         <v>1</v>
       </c>
-      <c r="B221" s="6">
-        <v>2019</v>
+      <c r="B221" s="4">
+        <v>2010</v>
       </c>
       <c r="C221" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D221" s="6">
         <v>9090307</v>
@@ -17505,11 +17324,11 @@
       <c r="A222" s="6">
         <v>1</v>
       </c>
-      <c r="B222" s="6">
-        <v>2019</v>
+      <c r="B222" s="4">
+        <v>2010</v>
       </c>
       <c r="C222" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D222" s="6">
         <v>9090308</v>
@@ -17579,11 +17398,11 @@
       <c r="A223" s="6">
         <v>1</v>
       </c>
-      <c r="B223" s="6">
-        <v>2019</v>
+      <c r="B223" s="4">
+        <v>2010</v>
       </c>
       <c r="C223" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D223" s="6">
         <v>9090309</v>
@@ -17653,11 +17472,11 @@
       <c r="A224" s="6">
         <v>1</v>
       </c>
-      <c r="B224" s="6">
-        <v>2019</v>
+      <c r="B224" s="4">
+        <v>2010</v>
       </c>
       <c r="C224" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D224" s="6">
         <v>9090310</v>
@@ -17727,11 +17546,11 @@
       <c r="A225" s="6">
         <v>1</v>
       </c>
-      <c r="B225" s="6">
-        <v>2019</v>
+      <c r="B225" s="4">
+        <v>2010</v>
       </c>
       <c r="C225" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D225" s="6">
         <v>9090311</v>
@@ -17801,11 +17620,11 @@
       <c r="A226" s="6">
         <v>1</v>
       </c>
-      <c r="B226" s="6">
-        <v>2019</v>
+      <c r="B226" s="4">
+        <v>2010</v>
       </c>
       <c r="C226" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D226" s="6">
         <v>9090401</v>
@@ -17875,11 +17694,11 @@
       <c r="A227" s="6">
         <v>1</v>
       </c>
-      <c r="B227" s="6">
-        <v>2019</v>
+      <c r="B227" s="4">
+        <v>2010</v>
       </c>
       <c r="C227" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D227" s="6">
         <v>9090402</v>
@@ -17949,11 +17768,11 @@
       <c r="A228" s="6">
         <v>1</v>
       </c>
-      <c r="B228" s="6">
-        <v>2019</v>
+      <c r="B228" s="4">
+        <v>2010</v>
       </c>
       <c r="C228" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D228" s="6">
         <v>9090403</v>
@@ -18023,11 +17842,11 @@
       <c r="A229" s="6">
         <v>1</v>
       </c>
-      <c r="B229" s="6">
-        <v>2019</v>
+      <c r="B229" s="4">
+        <v>2010</v>
       </c>
       <c r="C229" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D229" s="6">
         <v>9090404</v>
@@ -18097,11 +17916,11 @@
       <c r="A230" s="6">
         <v>1</v>
       </c>
-      <c r="B230" s="6">
-        <v>2019</v>
+      <c r="B230" s="4">
+        <v>2010</v>
       </c>
       <c r="C230" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D230" s="6">
         <v>9090405</v>
@@ -18171,11 +17990,11 @@
       <c r="A231" s="6">
         <v>1</v>
       </c>
-      <c r="B231" s="6">
-        <v>2019</v>
+      <c r="B231" s="4">
+        <v>2010</v>
       </c>
       <c r="C231" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D231" s="6">
         <v>9090406</v>
@@ -18245,11 +18064,11 @@
       <c r="A232" s="6">
         <v>1</v>
       </c>
-      <c r="B232" s="6">
-        <v>2019</v>
+      <c r="B232" s="4">
+        <v>2010</v>
       </c>
       <c r="C232" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D232" s="6">
         <v>9090407</v>
@@ -18319,11 +18138,11 @@
       <c r="A233" s="6">
         <v>1</v>
       </c>
-      <c r="B233" s="6">
-        <v>2019</v>
+      <c r="B233" s="4">
+        <v>2010</v>
       </c>
       <c r="C233" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D233" s="6">
         <v>9090408</v>
@@ -18393,11 +18212,11 @@
       <c r="A234" s="6">
         <v>1</v>
       </c>
-      <c r="B234" s="6">
-        <v>2019</v>
+      <c r="B234" s="4">
+        <v>2010</v>
       </c>
       <c r="C234" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D234" s="6">
         <v>9090409</v>
@@ -18467,11 +18286,11 @@
       <c r="A235" s="6">
         <v>1</v>
       </c>
-      <c r="B235" s="6">
-        <v>2019</v>
+      <c r="B235" s="4">
+        <v>2010</v>
       </c>
       <c r="C235" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D235" s="6">
         <v>9090410</v>
@@ -18541,11 +18360,11 @@
       <c r="A236" s="6">
         <v>1</v>
       </c>
-      <c r="B236" s="6">
-        <v>2019</v>
+      <c r="B236" s="4">
+        <v>2010</v>
       </c>
       <c r="C236" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D236" s="6">
         <v>9090411</v>
@@ -18615,11 +18434,11 @@
       <c r="A237" s="6">
         <v>1</v>
       </c>
-      <c r="B237" s="6">
-        <v>2019</v>
+      <c r="B237" s="4">
+        <v>2010</v>
       </c>
       <c r="C237" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D237" s="6">
         <v>9090412</v>
@@ -18689,11 +18508,11 @@
       <c r="A238" s="6">
         <v>1</v>
       </c>
-      <c r="B238" s="6">
-        <v>2019</v>
+      <c r="B238" s="4">
+        <v>2010</v>
       </c>
       <c r="C238" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D238" s="6">
         <v>9090413</v>
@@ -18763,11 +18582,11 @@
       <c r="A239" s="6">
         <v>1</v>
       </c>
-      <c r="B239" s="6">
-        <v>2019</v>
+      <c r="B239" s="4">
+        <v>2010</v>
       </c>
       <c r="C239" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D239" s="6">
         <v>9090414</v>
@@ -18837,11 +18656,11 @@
       <c r="A240" s="6">
         <v>1</v>
       </c>
-      <c r="B240" s="6">
-        <v>2019</v>
+      <c r="B240" s="4">
+        <v>2010</v>
       </c>
       <c r="C240" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D240" s="6">
         <v>9090415</v>
@@ -18911,11 +18730,11 @@
       <c r="A241" s="6">
         <v>1</v>
       </c>
-      <c r="B241" s="6">
-        <v>2019</v>
+      <c r="B241" s="4">
+        <v>2010</v>
       </c>
       <c r="C241" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D241" s="6">
         <v>9090416</v>
@@ -18985,11 +18804,11 @@
       <c r="A242" s="6">
         <v>1</v>
       </c>
-      <c r="B242" s="6">
-        <v>2019</v>
+      <c r="B242" s="4">
+        <v>2010</v>
       </c>
       <c r="C242" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D242" s="6">
         <v>9090417</v>
@@ -19059,11 +18878,11 @@
       <c r="A243" s="6">
         <v>1</v>
       </c>
-      <c r="B243" s="6">
-        <v>2019</v>
+      <c r="B243" s="4">
+        <v>2010</v>
       </c>
       <c r="C243" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D243" s="6">
         <v>9100101</v>
@@ -19133,11 +18952,11 @@
       <c r="A244" s="6">
         <v>1</v>
       </c>
-      <c r="B244" s="6">
-        <v>2019</v>
+      <c r="B244" s="4">
+        <v>2010</v>
       </c>
       <c r="C244" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D244" s="6">
         <v>9100102</v>
@@ -19207,11 +19026,11 @@
       <c r="A245" s="6">
         <v>1</v>
       </c>
-      <c r="B245" s="6">
-        <v>2019</v>
+      <c r="B245" s="4">
+        <v>2010</v>
       </c>
       <c r="C245" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D245" s="6">
         <v>9100103</v>
@@ -19281,11 +19100,11 @@
       <c r="A246" s="6">
         <v>1</v>
       </c>
-      <c r="B246" s="6">
-        <v>2019</v>
+      <c r="B246" s="4">
+        <v>2010</v>
       </c>
       <c r="C246" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D246" s="6">
         <v>9100104</v>
@@ -19355,11 +19174,11 @@
       <c r="A247" s="6">
         <v>1</v>
       </c>
-      <c r="B247" s="6">
-        <v>2019</v>
+      <c r="B247" s="4">
+        <v>2010</v>
       </c>
       <c r="C247" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D247" s="6">
         <v>9100105</v>
@@ -19429,11 +19248,11 @@
       <c r="A248" s="6">
         <v>1</v>
       </c>
-      <c r="B248" s="6">
-        <v>2019</v>
+      <c r="B248" s="4">
+        <v>2010</v>
       </c>
       <c r="C248" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D248" s="6">
         <v>9100106</v>
@@ -19503,11 +19322,11 @@
       <c r="A249" s="6">
         <v>1</v>
       </c>
-      <c r="B249" s="6">
-        <v>2019</v>
+      <c r="B249" s="4">
+        <v>2010</v>
       </c>
       <c r="C249" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D249" s="6">
         <v>9100107</v>
@@ -19577,11 +19396,11 @@
       <c r="A250" s="6">
         <v>1</v>
       </c>
-      <c r="B250" s="6">
-        <v>2019</v>
+      <c r="B250" s="4">
+        <v>2010</v>
       </c>
       <c r="C250" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D250" s="6">
         <v>9100108</v>
@@ -19651,11 +19470,11 @@
       <c r="A251" s="6">
         <v>1</v>
       </c>
-      <c r="B251" s="6">
-        <v>2019</v>
+      <c r="B251" s="4">
+        <v>2010</v>
       </c>
       <c r="C251" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D251" s="6">
         <v>9100109</v>
@@ -19725,11 +19544,11 @@
       <c r="A252" s="6">
         <v>1</v>
       </c>
-      <c r="B252" s="6">
-        <v>2019</v>
+      <c r="B252" s="4">
+        <v>2010</v>
       </c>
       <c r="C252" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D252" s="6">
         <v>9100110</v>
@@ -19799,11 +19618,11 @@
       <c r="A253" s="6">
         <v>1</v>
       </c>
-      <c r="B253" s="6">
-        <v>2019</v>
+      <c r="B253" s="4">
+        <v>2010</v>
       </c>
       <c r="C253" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D253" s="6">
         <v>9100111</v>
@@ -19873,11 +19692,11 @@
       <c r="A254" s="6">
         <v>1</v>
       </c>
-      <c r="B254" s="6">
-        <v>2019</v>
+      <c r="B254" s="4">
+        <v>2010</v>
       </c>
       <c r="C254" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D254" s="6">
         <v>9100112</v>
@@ -19947,11 +19766,11 @@
       <c r="A255" s="6">
         <v>1</v>
       </c>
-      <c r="B255" s="6">
-        <v>2019</v>
+      <c r="B255" s="4">
+        <v>2010</v>
       </c>
       <c r="C255" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D255" s="6">
         <v>9100113</v>
@@ -20021,11 +19840,11 @@
       <c r="A256" s="6">
         <v>1</v>
       </c>
-      <c r="B256" s="6">
-        <v>2019</v>
+      <c r="B256" s="4">
+        <v>2010</v>
       </c>
       <c r="C256" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D256" s="6">
         <v>9100114</v>
@@ -20095,11 +19914,11 @@
       <c r="A257" s="6">
         <v>1</v>
       </c>
-      <c r="B257" s="6">
-        <v>2019</v>
+      <c r="B257" s="4">
+        <v>2010</v>
       </c>
       <c r="C257" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D257" s="6">
         <v>9100115</v>
@@ -20169,11 +19988,11 @@
       <c r="A258" s="6">
         <v>1</v>
       </c>
-      <c r="B258" s="6">
-        <v>2019</v>
+      <c r="B258" s="4">
+        <v>2010</v>
       </c>
       <c r="C258" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D258" s="6">
         <v>9100202</v>
@@ -20243,11 +20062,11 @@
       <c r="A259" s="6">
         <v>1</v>
       </c>
-      <c r="B259" s="6">
-        <v>2019</v>
+      <c r="B259" s="4">
+        <v>2010</v>
       </c>
       <c r="C259" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D259" s="6">
         <v>9100203</v>
@@ -20317,11 +20136,11 @@
       <c r="A260" s="6">
         <v>1</v>
       </c>
-      <c r="B260" s="6">
-        <v>2019</v>
+      <c r="B260" s="4">
+        <v>2010</v>
       </c>
       <c r="C260" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D260" s="6">
         <v>9100204</v>
@@ -20391,11 +20210,11 @@
       <c r="A261" s="6">
         <v>1</v>
       </c>
-      <c r="B261" s="6">
-        <v>2019</v>
+      <c r="B261" s="4">
+        <v>2010</v>
       </c>
       <c r="C261" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D261" s="6">
         <v>9100206</v>
@@ -20465,11 +20284,11 @@
       <c r="A262" s="6">
         <v>1</v>
       </c>
-      <c r="B262" s="6">
-        <v>2019</v>
+      <c r="B262" s="4">
+        <v>2010</v>
       </c>
       <c r="C262" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D262" s="6">
         <v>9100207</v>
@@ -20539,11 +20358,11 @@
       <c r="A263" s="6">
         <v>1</v>
       </c>
-      <c r="B263" s="6">
-        <v>2019</v>
+      <c r="B263" s="4">
+        <v>2010</v>
       </c>
       <c r="C263" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D263" s="6">
         <v>9100208</v>
@@ -20613,11 +20432,11 @@
       <c r="A264" s="6">
         <v>1</v>
       </c>
-      <c r="B264" s="6">
-        <v>2019</v>
+      <c r="B264" s="4">
+        <v>2010</v>
       </c>
       <c r="C264" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D264" s="6">
         <v>9100209</v>
@@ -20687,11 +20506,11 @@
       <c r="A265" s="6">
         <v>1</v>
       </c>
-      <c r="B265" s="6">
-        <v>2019</v>
+      <c r="B265" s="4">
+        <v>2010</v>
       </c>
       <c r="C265" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D265" s="6">
         <v>9100210</v>
@@ -20761,11 +20580,11 @@
       <c r="A266" s="6">
         <v>1</v>
       </c>
-      <c r="B266" s="6">
-        <v>2019</v>
+      <c r="B266" s="4">
+        <v>2010</v>
       </c>
       <c r="C266" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D266" s="6">
         <v>9100211</v>
@@ -20835,11 +20654,11 @@
       <c r="A267" s="6">
         <v>1</v>
       </c>
-      <c r="B267" s="6">
-        <v>2019</v>
+      <c r="B267" s="4">
+        <v>2010</v>
       </c>
       <c r="C267" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D267" s="6">
         <v>9100212</v>
@@ -20909,11 +20728,11 @@
       <c r="A268" s="6">
         <v>1</v>
       </c>
-      <c r="B268" s="6">
-        <v>2019</v>
+      <c r="B268" s="4">
+        <v>2010</v>
       </c>
       <c r="C268" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D268" s="6">
         <v>9100213</v>
@@ -20983,11 +20802,11 @@
       <c r="A269" s="6">
         <v>1</v>
       </c>
-      <c r="B269" s="6">
-        <v>2019</v>
+      <c r="B269" s="4">
+        <v>2010</v>
       </c>
       <c r="C269" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D269" s="6">
         <v>9100301</v>
@@ -21057,11 +20876,11 @@
       <c r="A270" s="6">
         <v>1</v>
       </c>
-      <c r="B270" s="6">
-        <v>2019</v>
+      <c r="B270" s="4">
+        <v>2010</v>
       </c>
       <c r="C270" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D270" s="6">
         <v>9100302</v>
@@ -21131,11 +20950,11 @@
       <c r="A271" s="6">
         <v>1</v>
       </c>
-      <c r="B271" s="6">
-        <v>2019</v>
+      <c r="B271" s="4">
+        <v>2010</v>
       </c>
       <c r="C271" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D271" s="6">
         <v>9100303</v>
@@ -21205,11 +21024,11 @@
       <c r="A272" s="6">
         <v>1</v>
       </c>
-      <c r="B272" s="6">
-        <v>2019</v>
+      <c r="B272" s="4">
+        <v>2010</v>
       </c>
       <c r="C272" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D272" s="6">
         <v>9100304</v>
@@ -21279,11 +21098,11 @@
       <c r="A273" s="6">
         <v>1</v>
       </c>
-      <c r="B273" s="6">
-        <v>2019</v>
+      <c r="B273" s="4">
+        <v>2010</v>
       </c>
       <c r="C273" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D273" s="6">
         <v>9100305</v>
@@ -21353,11 +21172,11 @@
       <c r="A274" s="6">
         <v>1</v>
       </c>
-      <c r="B274" s="6">
-        <v>2019</v>
+      <c r="B274" s="4">
+        <v>2010</v>
       </c>
       <c r="C274" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D274" s="6">
         <v>9100306</v>
@@ -21427,11 +21246,11 @@
       <c r="A275" s="6">
         <v>1</v>
       </c>
-      <c r="B275" s="6">
-        <v>2019</v>
+      <c r="B275" s="4">
+        <v>2010</v>
       </c>
       <c r="C275" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D275" s="6">
         <v>9100307</v>
@@ -21501,11 +21320,11 @@
       <c r="A276" s="6">
         <v>1</v>
       </c>
-      <c r="B276" s="6">
-        <v>2019</v>
+      <c r="B276" s="4">
+        <v>2010</v>
       </c>
       <c r="C276" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D276" s="6">
         <v>9100308</v>
@@ -21575,11 +21394,11 @@
       <c r="A277" s="6">
         <v>1</v>
       </c>
-      <c r="B277" s="6">
-        <v>2019</v>
+      <c r="B277" s="4">
+        <v>2010</v>
       </c>
       <c r="C277" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D277" s="6">
         <v>9100401</v>
@@ -21649,11 +21468,11 @@
       <c r="A278" s="6">
         <v>1</v>
       </c>
-      <c r="B278" s="6">
-        <v>2019</v>
+      <c r="B278" s="4">
+        <v>2010</v>
       </c>
       <c r="C278" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D278" s="6">
         <v>9100402</v>
@@ -21723,11 +21542,11 @@
       <c r="A279" s="6">
         <v>1</v>
       </c>
-      <c r="B279" s="6">
-        <v>2019</v>
+      <c r="B279" s="4">
+        <v>2010</v>
       </c>
       <c r="C279" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D279" s="6">
         <v>9100403</v>
@@ -21797,11 +21616,11 @@
       <c r="A280" s="6">
         <v>1</v>
       </c>
-      <c r="B280" s="6">
-        <v>2019</v>
+      <c r="B280" s="4">
+        <v>2010</v>
       </c>
       <c r="C280" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D280" s="6">
         <v>9100404</v>
@@ -21871,11 +21690,11 @@
       <c r="A281" s="6">
         <v>1</v>
       </c>
-      <c r="B281" s="6">
-        <v>2019</v>
+      <c r="B281" s="4">
+        <v>2010</v>
       </c>
       <c r="C281" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D281" s="6">
         <v>9100405</v>
@@ -21945,11 +21764,11 @@
       <c r="A282" s="6">
         <v>1</v>
       </c>
-      <c r="B282" s="6">
-        <v>2019</v>
+      <c r="B282" s="4">
+        <v>2010</v>
       </c>
       <c r="C282" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D282" s="6">
         <v>9100406</v>
@@ -22019,11 +21838,11 @@
       <c r="A283" s="6">
         <v>1</v>
       </c>
-      <c r="B283" s="6">
-        <v>2019</v>
+      <c r="B283" s="4">
+        <v>2010</v>
       </c>
       <c r="C283" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D283" s="6">
         <v>9100407</v>
@@ -22093,11 +21912,11 @@
       <c r="A284" s="6">
         <v>1</v>
       </c>
-      <c r="B284" s="6">
-        <v>2019</v>
+      <c r="B284" s="4">
+        <v>2010</v>
       </c>
       <c r="C284" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D284" s="6">
         <v>9100501</v>
@@ -22167,11 +21986,11 @@
       <c r="A285" s="6">
         <v>1</v>
       </c>
-      <c r="B285" s="6">
-        <v>2019</v>
+      <c r="B285" s="4">
+        <v>2010</v>
       </c>
       <c r="C285" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D285" s="6">
         <v>9100502</v>
@@ -22241,11 +22060,11 @@
       <c r="A286" s="6">
         <v>1</v>
       </c>
-      <c r="B286" s="6">
-        <v>2019</v>
+      <c r="B286" s="4">
+        <v>2010</v>
       </c>
       <c r="C286" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D286" s="6">
         <v>9100503</v>
@@ -22315,11 +22134,11 @@
       <c r="A287" s="6">
         <v>1</v>
       </c>
-      <c r="B287" s="6">
-        <v>2019</v>
+      <c r="B287" s="4">
+        <v>2010</v>
       </c>
       <c r="C287" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D287" s="6">
         <v>9100504</v>
@@ -22389,11 +22208,11 @@
       <c r="A288" s="6">
         <v>1</v>
       </c>
-      <c r="B288" s="6">
-        <v>2019</v>
+      <c r="B288" s="4">
+        <v>2010</v>
       </c>
       <c r="C288" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D288" s="6">
         <v>9100505</v>
@@ -22463,11 +22282,11 @@
       <c r="A289" s="6">
         <v>1</v>
       </c>
-      <c r="B289" s="6">
-        <v>2019</v>
+      <c r="B289" s="4">
+        <v>2010</v>
       </c>
       <c r="C289" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D289" s="6">
         <v>9100506</v>
@@ -22537,11 +22356,11 @@
       <c r="A290" s="6">
         <v>1</v>
       </c>
-      <c r="B290" s="6">
-        <v>2019</v>
+      <c r="B290" s="4">
+        <v>2010</v>
       </c>
       <c r="C290" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D290" s="6">
         <v>9100507</v>
@@ -22611,11 +22430,11 @@
       <c r="A291" s="6">
         <v>1</v>
       </c>
-      <c r="B291" s="6">
-        <v>2019</v>
+      <c r="B291" s="4">
+        <v>2010</v>
       </c>
       <c r="C291" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D291" s="6">
         <v>9100508</v>
@@ -22685,11 +22504,11 @@
       <c r="A292" s="6">
         <v>1</v>
       </c>
-      <c r="B292" s="6">
-        <v>2019</v>
+      <c r="B292" s="4">
+        <v>2010</v>
       </c>
       <c r="C292" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D292" s="6">
         <v>9100509</v>
@@ -22759,11 +22578,11 @@
       <c r="A293" s="6">
         <v>1</v>
       </c>
-      <c r="B293" s="6">
-        <v>2019</v>
+      <c r="B293" s="4">
+        <v>2010</v>
       </c>
       <c r="C293" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D293" s="6">
         <v>9100510</v>
@@ -22833,11 +22652,11 @@
       <c r="A294" s="6">
         <v>1</v>
       </c>
-      <c r="B294" s="6">
-        <v>2019</v>
+      <c r="B294" s="4">
+        <v>2010</v>
       </c>
       <c r="C294" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D294" s="6">
         <v>9100511</v>
@@ -22907,11 +22726,11 @@
       <c r="A295" s="6">
         <v>1</v>
       </c>
-      <c r="B295" s="6">
-        <v>2019</v>
+      <c r="B295" s="4">
+        <v>2010</v>
       </c>
       <c r="C295" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D295" s="6">
         <v>9100512</v>
@@ -22981,11 +22800,11 @@
       <c r="A296" s="6">
         <v>1</v>
       </c>
-      <c r="B296" s="6">
-        <v>2019</v>
+      <c r="B296" s="4">
+        <v>2010</v>
       </c>
       <c r="C296" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D296" s="6">
         <v>9110101</v>
@@ -23055,11 +22874,11 @@
       <c r="A297" s="6">
         <v>1</v>
       </c>
-      <c r="B297" s="6">
-        <v>2019</v>
+      <c r="B297" s="4">
+        <v>2010</v>
       </c>
       <c r="C297" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D297" s="6">
         <v>9110102</v>
@@ -23129,11 +22948,11 @@
       <c r="A298" s="6">
         <v>1</v>
       </c>
-      <c r="B298" s="6">
-        <v>2019</v>
+      <c r="B298" s="4">
+        <v>2010</v>
       </c>
       <c r="C298" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D298" s="6">
         <v>9110103</v>
@@ -23203,11 +23022,11 @@
       <c r="A299" s="6">
         <v>1</v>
       </c>
-      <c r="B299" s="6">
-        <v>2019</v>
+      <c r="B299" s="4">
+        <v>2010</v>
       </c>
       <c r="C299" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D299" s="6">
         <v>9110104</v>
@@ -23277,11 +23096,11 @@
       <c r="A300" s="6">
         <v>1</v>
       </c>
-      <c r="B300" s="6">
-        <v>2019</v>
+      <c r="B300" s="4">
+        <v>2010</v>
       </c>
       <c r="C300" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D300" s="6">
         <v>9110105</v>
@@ -23351,11 +23170,11 @@
       <c r="A301" s="6">
         <v>1</v>
       </c>
-      <c r="B301" s="6">
-        <v>2019</v>
+      <c r="B301" s="4">
+        <v>2010</v>
       </c>
       <c r="C301" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D301" s="6">
         <v>9110107</v>
@@ -23425,11 +23244,11 @@
       <c r="A302" s="6">
         <v>1</v>
       </c>
-      <c r="B302" s="6">
-        <v>2019</v>
+      <c r="B302" s="4">
+        <v>2010</v>
       </c>
       <c r="C302" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D302" s="6">
         <v>9110108</v>
@@ -23499,11 +23318,11 @@
       <c r="A303" s="6">
         <v>1</v>
       </c>
-      <c r="B303" s="6">
-        <v>2019</v>
+      <c r="B303" s="4">
+        <v>2010</v>
       </c>
       <c r="C303" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D303" s="6">
         <v>9110110</v>
@@ -23573,11 +23392,11 @@
       <c r="A304" s="6">
         <v>1</v>
       </c>
-      <c r="B304" s="6">
-        <v>2019</v>
+      <c r="B304" s="4">
+        <v>2010</v>
       </c>
       <c r="C304" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D304" s="6">
         <v>9110111</v>
@@ -23647,11 +23466,11 @@
       <c r="A305" s="6">
         <v>1</v>
       </c>
-      <c r="B305" s="6">
-        <v>2019</v>
+      <c r="B305" s="4">
+        <v>2010</v>
       </c>
       <c r="C305" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D305" s="6">
         <v>9110112</v>
@@ -23721,11 +23540,11 @@
       <c r="A306" s="6">
         <v>1</v>
       </c>
-      <c r="B306" s="6">
-        <v>2019</v>
+      <c r="B306" s="4">
+        <v>2010</v>
       </c>
       <c r="C306" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D306" s="6">
         <v>9110113</v>
@@ -23795,11 +23614,11 @@
       <c r="A307" s="6">
         <v>1</v>
       </c>
-      <c r="B307" s="6">
-        <v>2019</v>
+      <c r="B307" s="4">
+        <v>2010</v>
       </c>
       <c r="C307" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D307" s="6">
         <v>9110201</v>
@@ -23869,11 +23688,11 @@
       <c r="A308" s="6">
         <v>1</v>
       </c>
-      <c r="B308" s="6">
-        <v>2019</v>
+      <c r="B308" s="4">
+        <v>2010</v>
       </c>
       <c r="C308" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D308" s="6">
         <v>9110202</v>
@@ -23943,11 +23762,11 @@
       <c r="A309" s="6">
         <v>1</v>
       </c>
-      <c r="B309" s="6">
-        <v>2019</v>
+      <c r="B309" s="4">
+        <v>2010</v>
       </c>
       <c r="C309" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D309" s="6">
         <v>9110203</v>
@@ -24017,11 +23836,11 @@
       <c r="A310" s="6">
         <v>1</v>
       </c>
-      <c r="B310" s="6">
-        <v>2019</v>
+      <c r="B310" s="4">
+        <v>2010</v>
       </c>
       <c r="C310" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D310" s="6">
         <v>9110204</v>
@@ -24091,11 +23910,11 @@
       <c r="A311" s="6">
         <v>1</v>
       </c>
-      <c r="B311" s="6">
-        <v>2019</v>
+      <c r="B311" s="4">
+        <v>2010</v>
       </c>
       <c r="C311" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D311" s="6">
         <v>9110205</v>
@@ -24165,11 +23984,11 @@
       <c r="A312" s="6">
         <v>1</v>
       </c>
-      <c r="B312" s="6">
-        <v>2019</v>
+      <c r="B312" s="4">
+        <v>2010</v>
       </c>
       <c r="C312" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D312" s="6">
         <v>9110301</v>
@@ -24239,11 +24058,11 @@
       <c r="A313" s="6">
         <v>1</v>
       </c>
-      <c r="B313" s="6">
-        <v>2019</v>
+      <c r="B313" s="4">
+        <v>2010</v>
       </c>
       <c r="C313" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D313" s="6">
         <v>9110302</v>
@@ -24313,11 +24132,11 @@
       <c r="A314" s="6">
         <v>1</v>
       </c>
-      <c r="B314" s="6">
-        <v>2019</v>
+      <c r="B314" s="4">
+        <v>2010</v>
       </c>
       <c r="C314" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D314" s="6">
         <v>9110303</v>
@@ -24387,11 +24206,11 @@
       <c r="A315" s="6">
         <v>1</v>
       </c>
-      <c r="B315" s="6">
-        <v>2019</v>
+      <c r="B315" s="4">
+        <v>2010</v>
       </c>
       <c r="C315" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D315" s="6">
         <v>9110304</v>
@@ -24461,11 +24280,11 @@
       <c r="A316" s="6">
         <v>1</v>
       </c>
-      <c r="B316" s="6">
-        <v>2019</v>
+      <c r="B316" s="4">
+        <v>2010</v>
       </c>
       <c r="C316" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D316" s="6">
         <v>9110305</v>
@@ -24535,11 +24354,11 @@
       <c r="A317" s="6">
         <v>1</v>
       </c>
-      <c r="B317" s="6">
-        <v>2019</v>
+      <c r="B317" s="4">
+        <v>2010</v>
       </c>
       <c r="C317" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D317" s="6">
         <v>9110306</v>
@@ -24609,11 +24428,11 @@
       <c r="A318" s="6">
         <v>1</v>
       </c>
-      <c r="B318" s="6">
-        <v>2019</v>
+      <c r="B318" s="4">
+        <v>2010</v>
       </c>
       <c r="C318" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D318" s="6">
         <v>9110307</v>
@@ -24683,11 +24502,11 @@
       <c r="A319" s="6">
         <v>1</v>
       </c>
-      <c r="B319" s="6">
-        <v>2019</v>
+      <c r="B319" s="4">
+        <v>2010</v>
       </c>
       <c r="C319" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D319" s="6">
         <v>9110308</v>
@@ -24757,11 +24576,11 @@
       <c r="A320" s="6">
         <v>1</v>
       </c>
-      <c r="B320" s="6">
-        <v>2019</v>
+      <c r="B320" s="4">
+        <v>2010</v>
       </c>
       <c r="C320" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D320" s="6">
         <v>9110309</v>
@@ -24831,11 +24650,11 @@
       <c r="A321" s="6">
         <v>1</v>
       </c>
-      <c r="B321" s="6">
-        <v>2019</v>
+      <c r="B321" s="4">
+        <v>2010</v>
       </c>
       <c r="C321" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D321" s="6">
         <v>9110310</v>
@@ -24905,11 +24724,11 @@
       <c r="A322" s="6">
         <v>1</v>
       </c>
-      <c r="B322" s="6">
-        <v>2019</v>
+      <c r="B322" s="4">
+        <v>2010</v>
       </c>
       <c r="C322" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D322" s="6">
         <v>9110311</v>
@@ -24979,11 +24798,11 @@
       <c r="A323" s="6">
         <v>1</v>
       </c>
-      <c r="B323" s="6">
-        <v>2019</v>
+      <c r="B323" s="4">
+        <v>2010</v>
       </c>
       <c r="C323" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D323" s="6">
         <v>9110312</v>
@@ -25053,11 +24872,11 @@
       <c r="A324" s="6">
         <v>1</v>
       </c>
-      <c r="B324" s="6">
-        <v>2019</v>
+      <c r="B324" s="4">
+        <v>2010</v>
       </c>
       <c r="C324" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D324" s="6">
         <v>9110313</v>
@@ -25127,11 +24946,11 @@
       <c r="A325" s="6">
         <v>1</v>
       </c>
-      <c r="B325" s="6">
-        <v>2019</v>
+      <c r="B325" s="4">
+        <v>2010</v>
       </c>
       <c r="C325" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D325" s="6">
         <v>9110314</v>
@@ -25201,11 +25020,11 @@
       <c r="A326" s="6">
         <v>1</v>
       </c>
-      <c r="B326" s="6">
-        <v>2019</v>
+      <c r="B326" s="4">
+        <v>2010</v>
       </c>
       <c r="C326" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D326" s="6">
         <v>9110315</v>
@@ -25275,11 +25094,11 @@
       <c r="A327" s="6">
         <v>1</v>
       </c>
-      <c r="B327" s="6">
-        <v>2019</v>
+      <c r="B327" s="4">
+        <v>2010</v>
       </c>
       <c r="C327" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D327" s="6">
         <v>9110316</v>
@@ -25349,11 +25168,11 @@
       <c r="A328" s="6">
         <v>1</v>
       </c>
-      <c r="B328" s="6">
-        <v>2019</v>
+      <c r="B328" s="4">
+        <v>2010</v>
       </c>
       <c r="C328" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D328" s="6">
         <v>9110317</v>
@@ -25423,11 +25242,11 @@
       <c r="A329" s="6">
         <v>1</v>
       </c>
-      <c r="B329" s="6">
-        <v>2019</v>
+      <c r="B329" s="4">
+        <v>2010</v>
       </c>
       <c r="C329" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D329" s="6">
         <v>9110318</v>
@@ -25497,11 +25316,11 @@
       <c r="A330" s="6">
         <v>1</v>
       </c>
-      <c r="B330" s="6">
-        <v>2019</v>
+      <c r="B330" s="4">
+        <v>2010</v>
       </c>
       <c r="C330" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D330" s="6">
         <v>9110319</v>
@@ -25571,11 +25390,11 @@
       <c r="A331" s="6">
         <v>1</v>
       </c>
-      <c r="B331" s="6">
-        <v>2019</v>
+      <c r="B331" s="4">
+        <v>2010</v>
       </c>
       <c r="C331" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D331" s="6">
         <v>9110320</v>
@@ -25645,11 +25464,11 @@
       <c r="A332" s="6">
         <v>1</v>
       </c>
-      <c r="B332" s="6">
-        <v>2019</v>
+      <c r="B332" s="4">
+        <v>2010</v>
       </c>
       <c r="C332" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D332" s="6">
         <v>9120001</v>
@@ -25719,11 +25538,11 @@
       <c r="A333" s="6">
         <v>1</v>
       </c>
-      <c r="B333" s="6">
-        <v>2019</v>
+      <c r="B333" s="4">
+        <v>2010</v>
       </c>
       <c r="C333" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D333" s="6">
         <v>9120002</v>
@@ -25793,11 +25612,11 @@
       <c r="A334" s="6">
         <v>1</v>
       </c>
-      <c r="B334" s="6">
-        <v>2019</v>
+      <c r="B334" s="4">
+        <v>2010</v>
       </c>
       <c r="C334" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D334" s="6">
         <v>9120003</v>
@@ -25867,11 +25686,11 @@
       <c r="A335" s="6">
         <v>1</v>
       </c>
-      <c r="B335" s="6">
-        <v>2019</v>
+      <c r="B335" s="4">
+        <v>2010</v>
       </c>
       <c r="C335" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D335" s="6">
         <v>9120004</v>
@@ -25941,11 +25760,11 @@
       <c r="A336" s="6">
         <v>1</v>
       </c>
-      <c r="B336" s="6">
-        <v>2019</v>
+      <c r="B336" s="4">
+        <v>2010</v>
       </c>
       <c r="C336" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D336" s="6">
         <v>9120005</v>
@@ -26015,11 +25834,11 @@
       <c r="A337" s="6">
         <v>1</v>
       </c>
-      <c r="B337" s="6">
-        <v>2019</v>
+      <c r="B337" s="4">
+        <v>2010</v>
       </c>
       <c r="C337" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D337" s="6">
         <v>9120006</v>
@@ -26089,11 +25908,11 @@
       <c r="A338" s="6">
         <v>1</v>
       </c>
-      <c r="B338" s="6">
-        <v>2019</v>
+      <c r="B338" s="4">
+        <v>2010</v>
       </c>
       <c r="C338" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D338" s="6">
         <v>9130201</v>
@@ -26163,11 +25982,11 @@
       <c r="A339" s="6">
         <v>1</v>
       </c>
-      <c r="B339" s="6">
-        <v>2019</v>
+      <c r="B339" s="4">
+        <v>2010</v>
       </c>
       <c r="C339" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D339" s="6">
         <v>9130212</v>
@@ -26237,11 +26056,11 @@
       <c r="A340" s="6">
         <v>1</v>
       </c>
-      <c r="B340" s="6">
-        <v>2019</v>
+      <c r="B340" s="4">
+        <v>2010</v>
       </c>
       <c r="C340" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D340" s="6">
         <v>9130213</v>
@@ -26311,11 +26130,11 @@
       <c r="A341" s="6">
         <v>1</v>
       </c>
-      <c r="B341" s="6">
-        <v>2019</v>
+      <c r="B341" s="4">
+        <v>2010</v>
       </c>
       <c r="C341" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D341" s="6">
         <v>9130214</v>
@@ -26385,11 +26204,11 @@
       <c r="A342" s="6">
         <v>1</v>
       </c>
-      <c r="B342" s="6">
-        <v>2019</v>
+      <c r="B342" s="4">
+        <v>2010</v>
       </c>
       <c r="C342" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D342" s="6">
         <v>9130215</v>
@@ -26459,11 +26278,11 @@
       <c r="A343" s="6">
         <v>1</v>
       </c>
-      <c r="B343" s="6">
-        <v>2019</v>
+      <c r="B343" s="4">
+        <v>2010</v>
       </c>
       <c r="C343" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D343" s="6">
         <v>9130401</v>
@@ -26533,11 +26352,11 @@
       <c r="A344" s="6">
         <v>1</v>
       </c>
-      <c r="B344" s="6">
-        <v>2019</v>
+      <c r="B344" s="4">
+        <v>2010</v>
       </c>
       <c r="C344" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D344" s="6">
         <v>9130402</v>
@@ -26607,11 +26426,11 @@
       <c r="A345" s="6">
         <v>1</v>
       </c>
-      <c r="B345" s="6">
-        <v>2019</v>
+      <c r="B345" s="4">
+        <v>2010</v>
       </c>
       <c r="C345" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D345" s="6">
         <v>9130403</v>
@@ -26681,11 +26500,11 @@
       <c r="A346" s="6">
         <v>1</v>
       </c>
-      <c r="B346" s="6">
-        <v>2019</v>
+      <c r="B346" s="4">
+        <v>2010</v>
       </c>
       <c r="C346" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D346" s="6">
         <v>9130404</v>
@@ -26755,11 +26574,11 @@
       <c r="A347" s="6">
         <v>1</v>
       </c>
-      <c r="B347" s="6">
-        <v>2019</v>
+      <c r="B347" s="4">
+        <v>2010</v>
       </c>
       <c r="C347" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D347" s="6">
         <v>9130405</v>
@@ -26829,11 +26648,11 @@
       <c r="A348" s="6">
         <v>1</v>
       </c>
-      <c r="B348" s="6">
-        <v>2019</v>
+      <c r="B348" s="4">
+        <v>2010</v>
       </c>
       <c r="C348" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D348" s="6">
         <v>9130501</v>
@@ -26903,11 +26722,11 @@
       <c r="A349" s="6">
         <v>1</v>
       </c>
-      <c r="B349" s="6">
-        <v>2019</v>
+      <c r="B349" s="4">
+        <v>2010</v>
       </c>
       <c r="C349" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D349" s="6">
         <v>9130502</v>
@@ -26977,11 +26796,11 @@
       <c r="A350" s="6">
         <v>1</v>
       </c>
-      <c r="B350" s="6">
-        <v>2019</v>
+      <c r="B350" s="4">
+        <v>2010</v>
       </c>
       <c r="C350" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D350" s="6">
         <v>9130503</v>
@@ -27051,11 +26870,11 @@
       <c r="A351" s="6">
         <v>1</v>
       </c>
-      <c r="B351" s="6">
-        <v>2019</v>
+      <c r="B351" s="4">
+        <v>2010</v>
       </c>
       <c r="C351" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D351" s="6">
         <v>9140001</v>
@@ -27125,11 +26944,11 @@
       <c r="A352" s="6">
         <v>1</v>
       </c>
-      <c r="B352" s="6">
-        <v>2019</v>
+      <c r="B352" s="4">
+        <v>2010</v>
       </c>
       <c r="C352" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D352" s="6">
         <v>9140002</v>
@@ -27199,11 +27018,11 @@
       <c r="A353" s="6">
         <v>1</v>
       </c>
-      <c r="B353" s="6">
-        <v>2019</v>
+      <c r="B353" s="4">
+        <v>2010</v>
       </c>
       <c r="C353" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D353" s="6">
         <v>9140003</v>
@@ -27273,11 +27092,11 @@
       <c r="A354" s="6">
         <v>1</v>
       </c>
-      <c r="B354" s="6">
-        <v>2019</v>
+      <c r="B354" s="4">
+        <v>2010</v>
       </c>
       <c r="C354" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D354" s="6">
         <v>9140004</v>
@@ -27347,11 +27166,11 @@
       <c r="A355" s="6">
         <v>1</v>
       </c>
-      <c r="B355" s="6">
-        <v>2019</v>
+      <c r="B355" s="4">
+        <v>2010</v>
       </c>
       <c r="C355" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D355" s="6">
         <v>9140005</v>
@@ -27421,11 +27240,11 @@
       <c r="A356" s="6">
         <v>1</v>
       </c>
-      <c r="B356" s="6">
-        <v>2019</v>
+      <c r="B356" s="4">
+        <v>2010</v>
       </c>
       <c r="C356" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D356" s="6">
         <v>9140006</v>
@@ -27495,11 +27314,11 @@
       <c r="A357" s="6">
         <v>1</v>
       </c>
-      <c r="B357" s="6">
-        <v>2019</v>
+      <c r="B357" s="4">
+        <v>2010</v>
       </c>
       <c r="C357" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D357" s="6">
         <v>9140007</v>
@@ -27569,11 +27388,11 @@
       <c r="A358" s="6">
         <v>1</v>
       </c>
-      <c r="B358" s="6">
-        <v>2019</v>
+      <c r="B358" s="4">
+        <v>2010</v>
       </c>
       <c r="C358" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D358" s="6">
         <v>9140008</v>
@@ -27643,11 +27462,11 @@
       <c r="A359" s="6">
         <v>1</v>
       </c>
-      <c r="B359" s="6">
-        <v>2019</v>
+      <c r="B359" s="4">
+        <v>2010</v>
       </c>
       <c r="C359" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D359" s="6">
         <v>9140009</v>
@@ -27717,11 +27536,11 @@
       <c r="A360" s="6">
         <v>1</v>
       </c>
-      <c r="B360" s="6">
-        <v>2019</v>
+      <c r="B360" s="4">
+        <v>2010</v>
       </c>
       <c r="C360" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D360" s="6">
         <v>9140010</v>
@@ -27791,11 +27610,11 @@
       <c r="A361" s="6">
         <v>1</v>
       </c>
-      <c r="B361" s="6">
-        <v>2019</v>
+      <c r="B361" s="4">
+        <v>2010</v>
       </c>
       <c r="C361" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D361" s="6">
         <v>9140011</v>
@@ -27865,11 +27684,11 @@
       <c r="A362" s="6">
         <v>1</v>
       </c>
-      <c r="B362" s="6">
-        <v>2019</v>
+      <c r="B362" s="4">
+        <v>2010</v>
       </c>
       <c r="C362" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D362" s="6">
         <v>9140012</v>
@@ -27939,11 +27758,11 @@
       <c r="A363" s="6">
         <v>1</v>
       </c>
-      <c r="B363" s="6">
-        <v>2019</v>
+      <c r="B363" s="4">
+        <v>2010</v>
       </c>
       <c r="C363" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D363" s="6">
         <v>9140013</v>
@@ -28013,11 +27832,11 @@
       <c r="A364" s="6">
         <v>1</v>
       </c>
-      <c r="B364" s="6">
-        <v>2019</v>
+      <c r="B364" s="4">
+        <v>2010</v>
       </c>
       <c r="C364" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D364" s="6">
         <v>9140014</v>
@@ -28087,11 +27906,11 @@
       <c r="A365" s="6">
         <v>1</v>
       </c>
-      <c r="B365" s="6">
-        <v>2019</v>
+      <c r="B365" s="4">
+        <v>2010</v>
       </c>
       <c r="C365" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D365" s="6">
         <v>9150001</v>
@@ -28161,11 +27980,11 @@
       <c r="A366" s="6">
         <v>1</v>
       </c>
-      <c r="B366" s="6">
-        <v>2019</v>
+      <c r="B366" s="4">
+        <v>2010</v>
       </c>
       <c r="C366" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D366" s="6">
         <v>9150002</v>
@@ -28235,11 +28054,11 @@
       <c r="A367" s="6">
         <v>1</v>
       </c>
-      <c r="B367" s="6">
-        <v>2019</v>
+      <c r="B367" s="4">
+        <v>2010</v>
       </c>
       <c r="C367" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D367" s="6">
         <v>9150003</v>
@@ -28309,11 +28128,11 @@
       <c r="A368" s="6">
         <v>1</v>
       </c>
-      <c r="B368" s="6">
-        <v>2019</v>
+      <c r="B368" s="4">
+        <v>2010</v>
       </c>
       <c r="C368" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D368" s="6">
         <v>9150004</v>
@@ -28383,11 +28202,11 @@
       <c r="A369" s="6">
         <v>1</v>
       </c>
-      <c r="B369" s="6">
-        <v>2019</v>
+      <c r="B369" s="4">
+        <v>2010</v>
       </c>
       <c r="C369" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D369" s="6">
         <v>9150005</v>
@@ -28457,11 +28276,11 @@
       <c r="A370" s="6">
         <v>1</v>
       </c>
-      <c r="B370" s="6">
-        <v>2019</v>
+      <c r="B370" s="4">
+        <v>2010</v>
       </c>
       <c r="C370" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D370" s="6">
         <v>9150006</v>
@@ -28531,11 +28350,11 @@
       <c r="A371" s="6">
         <v>1</v>
       </c>
-      <c r="B371" s="6">
-        <v>2019</v>
+      <c r="B371" s="4">
+        <v>2010</v>
       </c>
       <c r="C371" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D371" s="6">
         <v>9150007</v>
@@ -28605,11 +28424,11 @@
       <c r="A372" s="6">
         <v>1</v>
       </c>
-      <c r="B372" s="6">
-        <v>2019</v>
+      <c r="B372" s="4">
+        <v>2010</v>
       </c>
       <c r="C372" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D372" s="6">
         <v>9150008</v>
@@ -28679,11 +28498,11 @@
       <c r="A373" s="6">
         <v>1</v>
       </c>
-      <c r="B373" s="6">
-        <v>2019</v>
+      <c r="B373" s="4">
+        <v>2010</v>
       </c>
       <c r="C373" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D373" s="6">
         <v>9150009</v>
@@ -28753,11 +28572,11 @@
       <c r="A374" s="6">
         <v>1</v>
       </c>
-      <c r="B374" s="6">
-        <v>2019</v>
+      <c r="B374" s="4">
+        <v>2010</v>
       </c>
       <c r="C374" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D374" s="6">
         <v>9150010</v>
@@ -28827,11 +28646,11 @@
       <c r="A375" s="6">
         <v>1</v>
       </c>
-      <c r="B375" s="6">
-        <v>2019</v>
+      <c r="B375" s="4">
+        <v>2010</v>
       </c>
       <c r="C375" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D375" s="6">
         <v>9150011</v>
@@ -28901,11 +28720,11 @@
       <c r="A376" s="6">
         <v>1</v>
       </c>
-      <c r="B376" s="6">
-        <v>2019</v>
+      <c r="B376" s="4">
+        <v>2010</v>
       </c>
       <c r="C376" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D376" s="6">
         <v>9150012</v>
@@ -28975,11 +28794,11 @@
       <c r="A377" s="6">
         <v>1</v>
       </c>
-      <c r="B377" s="6">
-        <v>2019</v>
+      <c r="B377" s="4">
+        <v>2010</v>
       </c>
       <c r="C377" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D377" s="6">
         <v>9150013</v>
@@ -29049,11 +28868,11 @@
       <c r="A378" s="6">
         <v>1</v>
       </c>
-      <c r="B378" s="6">
-        <v>2019</v>
+      <c r="B378" s="4">
+        <v>2010</v>
       </c>
       <c r="C378" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D378" s="6">
         <v>9150014</v>
@@ -29123,11 +28942,11 @@
       <c r="A379" s="6">
         <v>1</v>
       </c>
-      <c r="B379" s="6">
-        <v>2019</v>
+      <c r="B379" s="4">
+        <v>2010</v>
       </c>
       <c r="C379" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D379" s="6">
         <v>9150015</v>
@@ -29197,11 +29016,11 @@
       <c r="A380" s="6">
         <v>1</v>
       </c>
-      <c r="B380" s="6">
-        <v>2019</v>
+      <c r="B380" s="4">
+        <v>2010</v>
       </c>
       <c r="C380" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D380" s="6">
         <v>9160001</v>
@@ -29271,11 +29090,11 @@
       <c r="A381" s="6">
         <v>1</v>
       </c>
-      <c r="B381" s="6">
-        <v>2019</v>
+      <c r="B381" s="4">
+        <v>2010</v>
       </c>
       <c r="C381" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D381" s="6">
         <v>9160002</v>
@@ -29345,11 +29164,11 @@
       <c r="A382" s="6">
         <v>1</v>
       </c>
-      <c r="B382" s="6">
-        <v>2019</v>
+      <c r="B382" s="4">
+        <v>2010</v>
       </c>
       <c r="C382" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D382" s="6">
         <v>9160003</v>
@@ -29419,11 +29238,11 @@
       <c r="A383" s="6">
         <v>1</v>
       </c>
-      <c r="B383" s="6">
-        <v>2019</v>
+      <c r="B383" s="4">
+        <v>2010</v>
       </c>
       <c r="C383" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D383" s="6">
         <v>9160004</v>
@@ -29493,11 +29312,11 @@
       <c r="A384" s="6">
         <v>1</v>
       </c>
-      <c r="B384" s="6">
-        <v>2019</v>
+      <c r="B384" s="4">
+        <v>2010</v>
       </c>
       <c r="C384" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D384" s="6">
         <v>9160005</v>
@@ -29567,11 +29386,11 @@
       <c r="A385" s="6">
         <v>1</v>
       </c>
-      <c r="B385" s="6">
-        <v>2019</v>
+      <c r="B385" s="4">
+        <v>2010</v>
       </c>
       <c r="C385" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D385" s="6">
         <v>9160006</v>
@@ -29641,11 +29460,11 @@
       <c r="A386" s="6">
         <v>1</v>
       </c>
-      <c r="B386" s="6">
-        <v>2019</v>
+      <c r="B386" s="4">
+        <v>2010</v>
       </c>
       <c r="C386" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D386" s="6">
         <v>9160007</v>
@@ -29715,11 +29534,11 @@
       <c r="A387" s="6">
         <v>1</v>
       </c>
-      <c r="B387" s="6">
-        <v>2019</v>
+      <c r="B387" s="4">
+        <v>2010</v>
       </c>
       <c r="C387" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D387" s="6">
         <v>9160009</v>
@@ -29789,11 +29608,11 @@
       <c r="A388" s="6">
         <v>1</v>
       </c>
-      <c r="B388" s="6">
-        <v>2019</v>
+      <c r="B388" s="4">
+        <v>2010</v>
       </c>
       <c r="C388" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D388" s="6">
         <v>9160010</v>
@@ -29863,11 +29682,11 @@
       <c r="A389" s="6">
         <v>1</v>
       </c>
-      <c r="B389" s="6">
-        <v>2019</v>
+      <c r="B389" s="4">
+        <v>2010</v>
       </c>
       <c r="C389" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D389" s="6">
         <v>9160011</v>
@@ -29937,11 +29756,11 @@
       <c r="A390" s="6">
         <v>1</v>
       </c>
-      <c r="B390" s="6">
-        <v>2019</v>
+      <c r="B390" s="4">
+        <v>2010</v>
       </c>
       <c r="C390" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D390" s="6">
         <v>9160012</v>
@@ -30011,11 +29830,11 @@
       <c r="A391" s="6">
         <v>1</v>
       </c>
-      <c r="B391" s="6">
-        <v>2019</v>
+      <c r="B391" s="4">
+        <v>2010</v>
       </c>
       <c r="C391" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D391" s="6">
         <v>9160013</v>
@@ -30085,11 +29904,11 @@
       <c r="A392" s="6">
         <v>1</v>
       </c>
-      <c r="B392" s="6">
-        <v>2019</v>
+      <c r="B392" s="4">
+        <v>2010</v>
       </c>
       <c r="C392" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D392" s="6">
         <v>9160014</v>
@@ -30159,11 +29978,11 @@
       <c r="A393" s="6">
         <v>1</v>
       </c>
-      <c r="B393" s="6">
-        <v>2019</v>
+      <c r="B393" s="4">
+        <v>2010</v>
       </c>
       <c r="C393" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D393" s="6">
         <v>9160015</v>
@@ -30233,11 +30052,11 @@
       <c r="A394" s="6">
         <v>1</v>
       </c>
-      <c r="B394" s="6">
-        <v>2019</v>
+      <c r="B394" s="4">
+        <v>2010</v>
       </c>
       <c r="C394" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D394" s="6">
         <v>9160016</v>
@@ -30307,11 +30126,11 @@
       <c r="A395" s="6">
         <v>1</v>
       </c>
-      <c r="B395" s="6">
-        <v>2019</v>
+      <c r="B395" s="4">
+        <v>2010</v>
       </c>
       <c r="C395" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D395" s="6">
         <v>9160017</v>
@@ -30381,11 +30200,11 @@
       <c r="A396" s="6">
         <v>1</v>
       </c>
-      <c r="B396" s="6">
-        <v>2019</v>
+      <c r="B396" s="4">
+        <v>2010</v>
       </c>
       <c r="C396" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D396" s="6">
         <v>9160018</v>
@@ -30455,11 +30274,11 @@
       <c r="A397" s="6">
         <v>1</v>
       </c>
-      <c r="B397" s="6">
-        <v>2019</v>
+      <c r="B397" s="4">
+        <v>2010</v>
       </c>
       <c r="C397" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D397" s="6">
         <v>9160019</v>
@@ -30529,11 +30348,11 @@
       <c r="A398" s="6">
         <v>1</v>
       </c>
-      <c r="B398" s="6">
-        <v>2019</v>
+      <c r="B398" s="4">
+        <v>2010</v>
       </c>
       <c r="C398" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D398" s="6">
         <v>9160020</v>
@@ -30603,11 +30422,11 @@
       <c r="A399" s="6">
         <v>1</v>
       </c>
-      <c r="B399" s="6">
-        <v>2019</v>
+      <c r="B399" s="4">
+        <v>2010</v>
       </c>
       <c r="C399" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D399" s="6">
         <v>9160021</v>
@@ -30677,11 +30496,11 @@
       <c r="A400" s="6">
         <v>1</v>
       </c>
-      <c r="B400" s="6">
-        <v>2019</v>
+      <c r="B400" s="4">
+        <v>2010</v>
       </c>
       <c r="C400" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D400" s="6">
         <v>9160022</v>
@@ -30751,11 +30570,11 @@
       <c r="A401" s="6">
         <v>1</v>
       </c>
-      <c r="B401" s="6">
-        <v>2019</v>
+      <c r="B401" s="4">
+        <v>2010</v>
       </c>
       <c r="C401" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D401" s="6">
         <v>9160023</v>
@@ -30825,11 +30644,11 @@
       <c r="A402" s="7">
         <v>1</v>
       </c>
-      <c r="B402" s="7">
-        <v>2019</v>
+      <c r="B402" s="4">
+        <v>2010</v>
       </c>
       <c r="C402" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D402" s="7">
         <v>9160025</v>
@@ -30899,6 +30718,187 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1"/>
+    <col min="11" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>2050</v>
+      </c>
+      <c r="D2">
+        <v>9010101</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE172B4-D9F0-8240-A7FC-C1C09E0AD181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0501F-DE51-324D-8277-BB4F322729F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="-20460" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nuts3" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:X402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C2" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D2" s="4">
         <v>9010101</v>
@@ -1119,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C3" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D3" s="6">
         <v>9010102</v>
@@ -1193,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C4" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D4" s="6">
         <v>9010103</v>
@@ -1267,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C5" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D5" s="6">
         <v>9010104</v>
@@ -1341,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C6" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D6" s="6">
         <v>9010105</v>
@@ -1415,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C7" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D7" s="6">
         <v>9010106</v>
@@ -1489,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C8" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D8" s="6">
         <v>9010107</v>
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C9" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D9" s="6">
         <v>9010108</v>
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C10" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D10" s="6">
         <v>9010109</v>
@@ -1711,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C11" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D11" s="6">
         <v>9010110</v>
@@ -1785,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C12" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D12" s="6">
         <v>9010111</v>
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C13" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D13" s="6">
         <v>9010112</v>
@@ -1933,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C14" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D14" s="6">
         <v>9010113</v>
@@ -2007,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C15" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D15" s="6">
         <v>9010201</v>
@@ -2081,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C16" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D16" s="6">
         <v>9010202</v>
@@ -2155,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C17" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D17" s="6">
         <v>9010203</v>
@@ -2229,10 +2229,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C18" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D18" s="6">
         <v>9010204</v>
@@ -2303,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C19" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D19" s="6">
         <v>9010205</v>
@@ -2377,10 +2377,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C20" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D20" s="6">
         <v>9010206</v>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C21" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D21" s="6">
         <v>9010207</v>
@@ -2525,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C22" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D22" s="6">
         <v>9010208</v>
@@ -2599,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C23" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D23" s="6">
         <v>9010209</v>
@@ -2673,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C24" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D24" s="6">
         <v>9010210</v>
@@ -2747,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C25" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D25" s="6">
         <v>9010211</v>
@@ -2821,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C26" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D26" s="6">
         <v>9010212</v>
@@ -2895,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C27" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D27" s="6">
         <v>9010301</v>
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C28" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D28" s="6">
         <v>9010302</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C29" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D29" s="6">
         <v>9010303</v>
@@ -3117,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C30" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D30" s="6">
         <v>9010304</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C31" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D31" s="6">
         <v>9010305</v>
@@ -3265,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C32" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D32" s="6">
         <v>9010306</v>
@@ -3339,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C33" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D33" s="6">
         <v>9010307</v>
@@ -3413,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C34" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D34" s="6">
         <v>9010308</v>
@@ -3487,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C35" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D35" s="6">
         <v>9010309</v>
@@ -3561,10 +3561,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C36" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D36" s="6">
         <v>9010310</v>
@@ -3635,10 +3635,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C37" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D37" s="6">
         <v>9010401</v>
@@ -3709,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C38" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D38" s="6">
         <v>9010402</v>
@@ -3783,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C39" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D39" s="6">
         <v>9010403</v>
@@ -3857,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C40" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D40" s="6">
         <v>9010404</v>
@@ -3931,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C41" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D41" s="6">
         <v>9010405</v>
@@ -4005,10 +4005,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C42" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D42" s="6">
         <v>9010406</v>
@@ -4079,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D43" s="6">
         <v>9010407</v>
@@ -4153,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C44" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D44" s="6">
         <v>9010408</v>
@@ -4227,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C45" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D45" s="6">
         <v>9010409</v>
@@ -4301,10 +4301,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C46" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D46" s="6">
         <v>9020101</v>
@@ -4375,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C47" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D47" s="6">
         <v>9020102</v>
@@ -4449,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C48" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D48" s="6">
         <v>9020103</v>
@@ -4523,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C49" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D49" s="6">
         <v>9020104</v>
@@ -4597,10 +4597,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C50" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D50" s="6">
         <v>9020105</v>
@@ -4671,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C51" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D51" s="6">
         <v>9020106</v>
@@ -4745,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C52" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D52" s="6">
         <v>9020107</v>
@@ -4819,10 +4819,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C53" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D53" s="6">
         <v>9020108</v>
@@ -4893,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C54" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D54" s="6">
         <v>9020109</v>
@@ -4967,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C55" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D55" s="6">
         <v>9020110</v>
@@ -5041,10 +5041,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C56" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D56" s="6">
         <v>9020111</v>
@@ -5115,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C57" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D57" s="6">
         <v>9020112</v>
@@ -5189,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C58" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D58" s="6">
         <v>9020113</v>
@@ -5263,10 +5263,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C59" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D59" s="6">
         <v>9020114</v>
@@ -5337,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C60" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D60" s="6">
         <v>9020115</v>
@@ -5411,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C61" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D61" s="6">
         <v>9020116</v>
@@ -5485,10 +5485,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C62" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D62" s="6">
         <v>9020117</v>
@@ -5559,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C63" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D63" s="6">
         <v>9020118</v>
@@ -5633,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C64" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D64" s="6">
         <v>9020119</v>
@@ -5707,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C65" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D65" s="6">
         <v>9020120</v>
@@ -5781,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C66" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D66" s="6">
         <v>9020121</v>
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C67" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D67" s="6">
         <v>9020122</v>
@@ -5929,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C68" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D68" s="6">
         <v>9020123</v>
@@ -6003,10 +6003,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C69" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D69" s="6">
         <v>9020201</v>
@@ -6077,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C70" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D70" s="6">
         <v>9020202</v>
@@ -6151,10 +6151,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C71" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D71" s="6">
         <v>9020203</v>
@@ -6225,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C72" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D72" s="6">
         <v>9020204</v>
@@ -6299,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C73" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D73" s="6">
         <v>9020205</v>
@@ -6373,10 +6373,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C74" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D74" s="6">
         <v>9020206</v>
@@ -6447,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D75" s="6">
         <v>9020207</v>
@@ -6521,10 +6521,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C76" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D76" s="6">
         <v>9020208</v>
@@ -6595,10 +6595,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C77" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D77" s="6">
         <v>9020209</v>
@@ -6669,10 +6669,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C78" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D78" s="6">
         <v>9020210</v>
@@ -6743,10 +6743,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C79" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D79" s="6">
         <v>9020211</v>
@@ -6817,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C80" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D80" s="6">
         <v>9020212</v>
@@ -6891,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D81" s="6">
         <v>9020301</v>
@@ -6965,10 +6965,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D82" s="6">
         <v>9020302</v>
@@ -7039,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C83" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D83" s="6">
         <v>9020303</v>
@@ -7113,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C84" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D84" s="6">
         <v>9020304</v>
@@ -7187,10 +7187,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C85" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D85" s="6">
         <v>9020305</v>
@@ -7261,10 +7261,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C86" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D86" s="6">
         <v>9020306</v>
@@ -7335,10 +7335,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C87" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D87" s="6">
         <v>9020307</v>
@@ -7409,10 +7409,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C88" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D88" s="6">
         <v>9020308</v>
@@ -7483,10 +7483,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C89" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D89" s="6">
         <v>9020309</v>
@@ -7557,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C90" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D90" s="6">
         <v>9020310</v>
@@ -7631,10 +7631,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C91" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D91" s="6">
         <v>9020401</v>
@@ -7705,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C92" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D92" s="6">
         <v>9020402</v>
@@ -7779,10 +7779,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C93" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D93" s="6">
         <v>9020403</v>
@@ -7853,10 +7853,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C94" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D94" s="6">
         <v>9020404</v>
@@ -7927,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C95" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D95" s="6">
         <v>9020405</v>
@@ -8001,10 +8001,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C96" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D96" s="6">
         <v>9020406</v>
@@ -8075,10 +8075,10 @@
         <v>1</v>
       </c>
       <c r="B97" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C97" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D97" s="6">
         <v>9020407</v>
@@ -8149,10 +8149,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C98" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D98" s="6">
         <v>9020408</v>
@@ -8223,10 +8223,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C99" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D99" s="6">
         <v>9020409</v>
@@ -8297,10 +8297,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C100" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D100" s="6">
         <v>9020410</v>
@@ -8371,10 +8371,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C101" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D101" s="6">
         <v>9020411</v>
@@ -8445,10 +8445,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C102" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D102" s="6">
         <v>9020412</v>
@@ -8519,10 +8519,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C103" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D103" s="6">
         <v>9020413</v>
@@ -8593,10 +8593,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C104" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D104" s="6">
         <v>9020501</v>
@@ -8667,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C105" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D105" s="6">
         <v>9020502</v>
@@ -8741,10 +8741,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C106" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D106" s="6">
         <v>9020503</v>
@@ -8815,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C107" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D107" s="6">
         <v>9020504</v>
@@ -8889,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C108" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D108" s="6">
         <v>9020505</v>
@@ -8963,10 +8963,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C109" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D109" s="6">
         <v>9020506</v>
@@ -9037,10 +9037,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C110" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D110" s="6">
         <v>9020507</v>
@@ -9111,10 +9111,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C111" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D111" s="6">
         <v>9020508</v>
@@ -9185,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C112" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D112" s="6">
         <v>9020509</v>
@@ -9259,10 +9259,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C113" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D113" s="6">
         <v>9020510</v>
@@ -9333,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C114" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D114" s="6">
         <v>9020511</v>
@@ -9407,10 +9407,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C115" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D115" s="6">
         <v>9020512</v>
@@ -9481,10 +9481,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C116" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D116" s="6">
         <v>9020601</v>
@@ -9555,10 +9555,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C117" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D117" s="6">
         <v>9020602</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C118" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D118" s="6">
         <v>9020603</v>
@@ -9703,10 +9703,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C119" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D119" s="6">
         <v>9020604</v>
@@ -9777,10 +9777,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C120" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D120" s="6">
         <v>9020605</v>
@@ -9851,10 +9851,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C121" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D121" s="6">
         <v>9020606</v>
@@ -9925,10 +9925,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C122" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D122" s="6">
         <v>9020607</v>
@@ -9999,10 +9999,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C123" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D123" s="6">
         <v>9020608</v>
@@ -10073,10 +10073,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C124" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D124" s="6">
         <v>9020609</v>
@@ -10147,10 +10147,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C125" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D125" s="6">
         <v>9020610</v>
@@ -10221,10 +10221,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C126" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D126" s="6">
         <v>9020611</v>
@@ -10295,10 +10295,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C127" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D127" s="6">
         <v>9020612</v>
@@ -10369,10 +10369,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C128" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D128" s="6">
         <v>9020701</v>
@@ -10443,10 +10443,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C129" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D129" s="6">
         <v>9020702</v>
@@ -10517,10 +10517,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C130" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D130" s="6">
         <v>9020703</v>
@@ -10591,10 +10591,10 @@
         <v>1</v>
       </c>
       <c r="B131" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C131" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D131" s="6">
         <v>9020704</v>
@@ -10665,10 +10665,10 @@
         <v>1</v>
       </c>
       <c r="B132" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C132" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D132" s="6">
         <v>9020705</v>
@@ -10739,10 +10739,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C133" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D133" s="6">
         <v>9020706</v>
@@ -10813,10 +10813,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C134" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D134" s="6">
         <v>9020707</v>
@@ -10887,10 +10887,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C135" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D135" s="6">
         <v>9020708</v>
@@ -10961,10 +10961,10 @@
         <v>1</v>
       </c>
       <c r="B136" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C136" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D136" s="6">
         <v>9020709</v>
@@ -11035,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="B137" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C137" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D137" s="6">
         <v>9020710</v>
@@ -11109,10 +11109,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C138" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D138" s="6">
         <v>9020711</v>
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C139" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D139" s="6">
         <v>9020712</v>
@@ -11257,10 +11257,10 @@
         <v>1</v>
       </c>
       <c r="B140" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C140" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D140" s="6">
         <v>9020713</v>
@@ -11331,10 +11331,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C141" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D141" s="6">
         <v>9020714</v>
@@ -11405,10 +11405,10 @@
         <v>1</v>
       </c>
       <c r="B142" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C142" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D142" s="6">
         <v>9030000</v>
@@ -11479,10 +11479,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C143" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D143" s="6">
         <v>9040001</v>
@@ -11553,10 +11553,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C144" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D144" s="6">
         <v>9040002</v>
@@ -11627,10 +11627,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C145" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D145" s="6">
         <v>9040003</v>
@@ -11701,10 +11701,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C146" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D146" s="6">
         <v>9040004</v>
@@ -11775,10 +11775,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C147" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D147" s="6">
         <v>9040005</v>
@@ -11849,10 +11849,10 @@
         <v>1</v>
       </c>
       <c r="B148" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C148" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D148" s="6">
         <v>9040006</v>
@@ -11923,10 +11923,10 @@
         <v>1</v>
       </c>
       <c r="B149" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C149" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D149" s="6">
         <v>9040007</v>
@@ -11997,10 +11997,10 @@
         <v>1</v>
       </c>
       <c r="B150" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C150" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D150" s="6">
         <v>9040008</v>
@@ -12071,10 +12071,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C151" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D151" s="6">
         <v>9040009</v>
@@ -12145,10 +12145,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C152" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D152" s="6">
         <v>9040010</v>
@@ -12219,10 +12219,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C153" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D153" s="6">
         <v>9040011</v>
@@ -12293,10 +12293,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C154" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D154" s="6">
         <v>9040012</v>
@@ -12367,10 +12367,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C155" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D155" s="6">
         <v>9040013</v>
@@ -12441,10 +12441,10 @@
         <v>1</v>
       </c>
       <c r="B156" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C156" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D156" s="6">
         <v>9040014</v>
@@ -12515,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="B157" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C157" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D157" s="6">
         <v>9040015</v>
@@ -12589,10 +12589,10 @@
         <v>1</v>
       </c>
       <c r="B158" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C158" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D158" s="6">
         <v>9040016</v>
@@ -12663,10 +12663,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C159" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D159" s="6">
         <v>9040017</v>
@@ -12737,10 +12737,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C160" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D160" s="6">
         <v>9040018</v>
@@ -12811,10 +12811,10 @@
         <v>1</v>
       </c>
       <c r="B161" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C161" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D161" s="6">
         <v>9050001</v>
@@ -12885,10 +12885,10 @@
         <v>1</v>
       </c>
       <c r="B162" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C162" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D162" s="6">
         <v>9050002</v>
@@ -12959,10 +12959,10 @@
         <v>1</v>
       </c>
       <c r="B163" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C163" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D163" s="6">
         <v>9060000</v>
@@ -13033,10 +13033,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C164" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D164" s="6">
         <v>9070101</v>
@@ -13107,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="B165" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C165" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D165" s="6">
         <v>9070102</v>
@@ -13181,10 +13181,10 @@
         <v>1</v>
       </c>
       <c r="B166" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C166" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D166" s="6">
         <v>9070103</v>
@@ -13255,10 +13255,10 @@
         <v>1</v>
       </c>
       <c r="B167" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C167" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D167" s="6">
         <v>9070104</v>
@@ -13329,10 +13329,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C168" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D168" s="6">
         <v>9070105</v>
@@ -13403,10 +13403,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C169" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D169" s="6">
         <v>9070106</v>
@@ -13477,10 +13477,10 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C170" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D170" s="6">
         <v>9070107</v>
@@ -13551,10 +13551,10 @@
         <v>1</v>
       </c>
       <c r="B171" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C171" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D171" s="6">
         <v>9070108</v>
@@ -13625,10 +13625,10 @@
         <v>1</v>
       </c>
       <c r="B172" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C172" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D172" s="6">
         <v>9070109</v>
@@ -13699,10 +13699,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C173" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D173" s="6">
         <v>9070110</v>
@@ -13773,10 +13773,10 @@
         <v>1</v>
       </c>
       <c r="B174" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C174" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D174" s="6">
         <v>9070111</v>
@@ -13847,10 +13847,10 @@
         <v>1</v>
       </c>
       <c r="B175" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C175" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D175" s="6">
         <v>9070112</v>
@@ -13921,10 +13921,10 @@
         <v>1</v>
       </c>
       <c r="B176" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C176" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D176" s="6">
         <v>9070113</v>
@@ -13995,10 +13995,10 @@
         <v>1</v>
       </c>
       <c r="B177" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C177" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D177" s="6">
         <v>9070114</v>
@@ -14069,10 +14069,10 @@
         <v>1</v>
       </c>
       <c r="B178" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C178" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D178" s="6">
         <v>9070201</v>
@@ -14143,10 +14143,10 @@
         <v>1</v>
       </c>
       <c r="B179" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C179" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D179" s="6">
         <v>9070202</v>
@@ -14217,10 +14217,10 @@
         <v>1</v>
       </c>
       <c r="B180" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C180" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D180" s="6">
         <v>9070203</v>
@@ -14291,10 +14291,10 @@
         <v>1</v>
       </c>
       <c r="B181" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C181" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D181" s="6">
         <v>9070204</v>
@@ -14365,10 +14365,10 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C182" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D182" s="6">
         <v>9070205</v>
@@ -14439,10 +14439,10 @@
         <v>1</v>
       </c>
       <c r="B183" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C183" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D183" s="6">
         <v>9070301</v>
@@ -14513,10 +14513,10 @@
         <v>1</v>
       </c>
       <c r="B184" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C184" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D184" s="6">
         <v>9070302</v>
@@ -14587,10 +14587,10 @@
         <v>1</v>
       </c>
       <c r="B185" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C185" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D185" s="6">
         <v>9070303</v>
@@ -14661,10 +14661,10 @@
         <v>1</v>
       </c>
       <c r="B186" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C186" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D186" s="6">
         <v>9070304</v>
@@ -14735,10 +14735,10 @@
         <v>1</v>
       </c>
       <c r="B187" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C187" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D187" s="6">
         <v>9070305</v>
@@ -14809,10 +14809,10 @@
         <v>1</v>
       </c>
       <c r="B188" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C188" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D188" s="6">
         <v>9070306</v>
@@ -14883,10 +14883,10 @@
         <v>1</v>
       </c>
       <c r="B189" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C189" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D189" s="6">
         <v>9070307</v>
@@ -14957,10 +14957,10 @@
         <v>1</v>
       </c>
       <c r="B190" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C190" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D190" s="6">
         <v>9080003</v>
@@ -15031,10 +15031,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C191" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D191" s="6">
         <v>9080004</v>
@@ -15105,10 +15105,10 @@
         <v>1</v>
       </c>
       <c r="B192" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C192" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D192" s="6">
         <v>9080019</v>
@@ -15179,10 +15179,10 @@
         <v>1</v>
       </c>
       <c r="B193" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C193" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D193" s="6">
         <v>9080020</v>
@@ -15253,10 +15253,10 @@
         <v>1</v>
       </c>
       <c r="B194" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C194" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D194" s="6">
         <v>9080021</v>
@@ -15327,10 +15327,10 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C195" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D195" s="6">
         <v>9080022</v>
@@ -15401,10 +15401,10 @@
         <v>1</v>
       </c>
       <c r="B196" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C196" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D196" s="6">
         <v>9080023</v>
@@ -15475,10 +15475,10 @@
         <v>1</v>
       </c>
       <c r="B197" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C197" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D197" s="6">
         <v>9080024</v>
@@ -15549,10 +15549,10 @@
         <v>1</v>
       </c>
       <c r="B198" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C198" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D198" s="6">
         <v>9090101</v>
@@ -15623,10 +15623,10 @@
         <v>1</v>
       </c>
       <c r="B199" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C199" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D199" s="6">
         <v>9090102</v>
@@ -15697,10 +15697,10 @@
         <v>1</v>
       </c>
       <c r="B200" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C200" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D200" s="6">
         <v>9090103</v>
@@ -15771,10 +15771,10 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C201" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D201" s="6">
         <v>9090104</v>
@@ -15845,10 +15845,10 @@
         <v>1</v>
       </c>
       <c r="B202" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C202" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D202" s="6">
         <v>9090106</v>
@@ -15919,10 +15919,10 @@
         <v>1</v>
       </c>
       <c r="B203" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C203" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D203" s="6">
         <v>9090107</v>
@@ -15993,10 +15993,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C204" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D204" s="6">
         <v>9090108</v>
@@ -16067,10 +16067,10 @@
         <v>1</v>
       </c>
       <c r="B205" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C205" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D205" s="6">
         <v>9090110</v>
@@ -16141,10 +16141,10 @@
         <v>1</v>
       </c>
       <c r="B206" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C206" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D206" s="6">
         <v>9090111</v>
@@ -16215,10 +16215,10 @@
         <v>1</v>
       </c>
       <c r="B207" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C207" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D207" s="6">
         <v>9090112</v>
@@ -16289,10 +16289,10 @@
         <v>1</v>
       </c>
       <c r="B208" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C208" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D208" s="6">
         <v>9090202</v>
@@ -16363,10 +16363,10 @@
         <v>1</v>
       </c>
       <c r="B209" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C209" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D209" s="6">
         <v>9090203</v>
@@ -16437,10 +16437,10 @@
         <v>1</v>
       </c>
       <c r="B210" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C210" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D210" s="6">
         <v>9090205</v>
@@ -16511,10 +16511,10 @@
         <v>1</v>
       </c>
       <c r="B211" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C211" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D211" s="6">
         <v>9090206</v>
@@ -16585,10 +16585,10 @@
         <v>1</v>
       </c>
       <c r="B212" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C212" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D212" s="6">
         <v>9090207</v>
@@ -16659,10 +16659,10 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C213" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D213" s="6">
         <v>9090208</v>
@@ -16733,10 +16733,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C214" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D214" s="6">
         <v>9090209</v>
@@ -16807,10 +16807,10 @@
         <v>1</v>
       </c>
       <c r="B215" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C215" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D215" s="6">
         <v>9090301</v>
@@ -16881,10 +16881,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C216" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D216" s="6">
         <v>9090302</v>
@@ -16955,10 +16955,10 @@
         <v>1</v>
       </c>
       <c r="B217" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C217" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D217" s="6">
         <v>9090303</v>
@@ -17029,10 +17029,10 @@
         <v>1</v>
       </c>
       <c r="B218" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C218" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D218" s="6">
         <v>9090304</v>
@@ -17103,10 +17103,10 @@
         <v>1</v>
       </c>
       <c r="B219" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C219" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D219" s="6">
         <v>9090305</v>
@@ -17177,10 +17177,10 @@
         <v>1</v>
       </c>
       <c r="B220" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C220" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D220" s="6">
         <v>9090306</v>
@@ -17251,10 +17251,10 @@
         <v>1</v>
       </c>
       <c r="B221" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C221" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D221" s="6">
         <v>9090307</v>
@@ -17325,10 +17325,10 @@
         <v>1</v>
       </c>
       <c r="B222" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C222" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D222" s="6">
         <v>9090308</v>
@@ -17399,10 +17399,10 @@
         <v>1</v>
       </c>
       <c r="B223" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C223" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D223" s="6">
         <v>9090309</v>
@@ -17473,10 +17473,10 @@
         <v>1</v>
       </c>
       <c r="B224" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C224" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D224" s="6">
         <v>9090310</v>
@@ -17547,10 +17547,10 @@
         <v>1</v>
       </c>
       <c r="B225" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C225" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D225" s="6">
         <v>9090311</v>
@@ -17621,10 +17621,10 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C226" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D226" s="6">
         <v>9090401</v>
@@ -17695,10 +17695,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C227" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D227" s="6">
         <v>9090402</v>
@@ -17769,10 +17769,10 @@
         <v>1</v>
       </c>
       <c r="B228" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C228" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D228" s="6">
         <v>9090403</v>
@@ -17843,10 +17843,10 @@
         <v>1</v>
       </c>
       <c r="B229" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C229" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D229" s="6">
         <v>9090404</v>
@@ -17917,10 +17917,10 @@
         <v>1</v>
       </c>
       <c r="B230" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C230" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D230" s="6">
         <v>9090405</v>
@@ -17991,10 +17991,10 @@
         <v>1</v>
       </c>
       <c r="B231" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C231" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D231" s="6">
         <v>9090406</v>
@@ -18065,10 +18065,10 @@
         <v>1</v>
       </c>
       <c r="B232" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C232" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D232" s="6">
         <v>9090407</v>
@@ -18139,10 +18139,10 @@
         <v>1</v>
       </c>
       <c r="B233" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C233" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D233" s="6">
         <v>9090408</v>
@@ -18213,10 +18213,10 @@
         <v>1</v>
       </c>
       <c r="B234" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C234" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D234" s="6">
         <v>9090409</v>
@@ -18287,10 +18287,10 @@
         <v>1</v>
       </c>
       <c r="B235" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C235" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D235" s="6">
         <v>9090410</v>
@@ -18361,10 +18361,10 @@
         <v>1</v>
       </c>
       <c r="B236" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C236" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D236" s="6">
         <v>9090411</v>
@@ -18435,10 +18435,10 @@
         <v>1</v>
       </c>
       <c r="B237" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C237" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D237" s="6">
         <v>9090412</v>
@@ -18509,10 +18509,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C238" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D238" s="6">
         <v>9090413</v>
@@ -18583,10 +18583,10 @@
         <v>1</v>
       </c>
       <c r="B239" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C239" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D239" s="6">
         <v>9090414</v>
@@ -18657,10 +18657,10 @@
         <v>1</v>
       </c>
       <c r="B240" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C240" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D240" s="6">
         <v>9090415</v>
@@ -18731,10 +18731,10 @@
         <v>1</v>
       </c>
       <c r="B241" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C241" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D241" s="6">
         <v>9090416</v>
@@ -18805,10 +18805,10 @@
         <v>1</v>
       </c>
       <c r="B242" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C242" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D242" s="6">
         <v>9090417</v>
@@ -18879,10 +18879,10 @@
         <v>1</v>
       </c>
       <c r="B243" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C243" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D243" s="6">
         <v>9100101</v>
@@ -18953,10 +18953,10 @@
         <v>1</v>
       </c>
       <c r="B244" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C244" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D244" s="6">
         <v>9100102</v>
@@ -19027,10 +19027,10 @@
         <v>1</v>
       </c>
       <c r="B245" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C245" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D245" s="6">
         <v>9100103</v>
@@ -19101,10 +19101,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C246" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D246" s="6">
         <v>9100104</v>
@@ -19175,10 +19175,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C247" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D247" s="6">
         <v>9100105</v>
@@ -19249,10 +19249,10 @@
         <v>1</v>
       </c>
       <c r="B248" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C248" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D248" s="6">
         <v>9100106</v>
@@ -19323,10 +19323,10 @@
         <v>1</v>
       </c>
       <c r="B249" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C249" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D249" s="6">
         <v>9100107</v>
@@ -19397,10 +19397,10 @@
         <v>1</v>
       </c>
       <c r="B250" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C250" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D250" s="6">
         <v>9100108</v>
@@ -19471,10 +19471,10 @@
         <v>1</v>
       </c>
       <c r="B251" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C251" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D251" s="6">
         <v>9100109</v>
@@ -19545,10 +19545,10 @@
         <v>1</v>
       </c>
       <c r="B252" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C252" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D252" s="6">
         <v>9100110</v>
@@ -19619,10 +19619,10 @@
         <v>1</v>
       </c>
       <c r="B253" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C253" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D253" s="6">
         <v>9100111</v>
@@ -19693,10 +19693,10 @@
         <v>1</v>
       </c>
       <c r="B254" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C254" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D254" s="6">
         <v>9100112</v>
@@ -19767,10 +19767,10 @@
         <v>1</v>
       </c>
       <c r="B255" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C255" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D255" s="6">
         <v>9100113</v>
@@ -19841,10 +19841,10 @@
         <v>1</v>
       </c>
       <c r="B256" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C256" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D256" s="6">
         <v>9100114</v>
@@ -19915,10 +19915,10 @@
         <v>1</v>
       </c>
       <c r="B257" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C257" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D257" s="6">
         <v>9100115</v>
@@ -19989,10 +19989,10 @@
         <v>1</v>
       </c>
       <c r="B258" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C258" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D258" s="6">
         <v>9100202</v>
@@ -20063,10 +20063,10 @@
         <v>1</v>
       </c>
       <c r="B259" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C259" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D259" s="6">
         <v>9100203</v>
@@ -20137,10 +20137,10 @@
         <v>1</v>
       </c>
       <c r="B260" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C260" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D260" s="6">
         <v>9100204</v>
@@ -20211,10 +20211,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C261" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D261" s="6">
         <v>9100206</v>
@@ -20285,10 +20285,10 @@
         <v>1</v>
       </c>
       <c r="B262" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C262" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D262" s="6">
         <v>9100207</v>
@@ -20359,10 +20359,10 @@
         <v>1</v>
       </c>
       <c r="B263" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C263" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D263" s="6">
         <v>9100208</v>
@@ -20433,10 +20433,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C264" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D264" s="6">
         <v>9100209</v>
@@ -20507,10 +20507,10 @@
         <v>1</v>
       </c>
       <c r="B265" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C265" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D265" s="6">
         <v>9100210</v>
@@ -20581,10 +20581,10 @@
         <v>1</v>
       </c>
       <c r="B266" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C266" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D266" s="6">
         <v>9100211</v>
@@ -20655,10 +20655,10 @@
         <v>1</v>
       </c>
       <c r="B267" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C267" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D267" s="6">
         <v>9100212</v>
@@ -20729,10 +20729,10 @@
         <v>1</v>
       </c>
       <c r="B268" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C268" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D268" s="6">
         <v>9100213</v>
@@ -20803,10 +20803,10 @@
         <v>1</v>
       </c>
       <c r="B269" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C269" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D269" s="6">
         <v>9100301</v>
@@ -20877,10 +20877,10 @@
         <v>1</v>
       </c>
       <c r="B270" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C270" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D270" s="6">
         <v>9100302</v>
@@ -20951,10 +20951,10 @@
         <v>1</v>
       </c>
       <c r="B271" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C271" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D271" s="6">
         <v>9100303</v>
@@ -21025,10 +21025,10 @@
         <v>1</v>
       </c>
       <c r="B272" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C272" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D272" s="6">
         <v>9100304</v>
@@ -21099,10 +21099,10 @@
         <v>1</v>
       </c>
       <c r="B273" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C273" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D273" s="6">
         <v>9100305</v>
@@ -21173,10 +21173,10 @@
         <v>1</v>
       </c>
       <c r="B274" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C274" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D274" s="6">
         <v>9100306</v>
@@ -21247,10 +21247,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C275" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D275" s="6">
         <v>9100307</v>
@@ -21321,10 +21321,10 @@
         <v>1</v>
       </c>
       <c r="B276" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C276" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D276" s="6">
         <v>9100308</v>
@@ -21395,10 +21395,10 @@
         <v>1</v>
       </c>
       <c r="B277" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C277" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D277" s="6">
         <v>9100401</v>
@@ -21469,10 +21469,10 @@
         <v>1</v>
       </c>
       <c r="B278" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C278" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D278" s="6">
         <v>9100402</v>
@@ -21543,10 +21543,10 @@
         <v>1</v>
       </c>
       <c r="B279" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C279" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D279" s="6">
         <v>9100403</v>
@@ -21617,10 +21617,10 @@
         <v>1</v>
       </c>
       <c r="B280" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C280" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D280" s="6">
         <v>9100404</v>
@@ -21691,10 +21691,10 @@
         <v>1</v>
       </c>
       <c r="B281" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C281" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D281" s="6">
         <v>9100405</v>
@@ -21765,10 +21765,10 @@
         <v>1</v>
       </c>
       <c r="B282" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C282" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D282" s="6">
         <v>9100406</v>
@@ -21839,10 +21839,10 @@
         <v>1</v>
       </c>
       <c r="B283" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C283" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D283" s="6">
         <v>9100407</v>
@@ -21913,10 +21913,10 @@
         <v>1</v>
       </c>
       <c r="B284" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C284" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D284" s="6">
         <v>9100501</v>
@@ -21987,10 +21987,10 @@
         <v>1</v>
       </c>
       <c r="B285" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C285" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D285" s="6">
         <v>9100502</v>
@@ -22061,10 +22061,10 @@
         <v>1</v>
       </c>
       <c r="B286" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C286" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D286" s="6">
         <v>9100503</v>
@@ -22135,10 +22135,10 @@
         <v>1</v>
       </c>
       <c r="B287" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C287" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D287" s="6">
         <v>9100504</v>
@@ -22209,10 +22209,10 @@
         <v>1</v>
       </c>
       <c r="B288" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C288" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D288" s="6">
         <v>9100505</v>
@@ -22283,10 +22283,10 @@
         <v>1</v>
       </c>
       <c r="B289" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C289" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D289" s="6">
         <v>9100506</v>
@@ -22357,10 +22357,10 @@
         <v>1</v>
       </c>
       <c r="B290" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C290" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D290" s="6">
         <v>9100507</v>
@@ -22431,10 +22431,10 @@
         <v>1</v>
       </c>
       <c r="B291" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C291" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D291" s="6">
         <v>9100508</v>
@@ -22505,10 +22505,10 @@
         <v>1</v>
       </c>
       <c r="B292" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C292" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D292" s="6">
         <v>9100509</v>
@@ -22579,10 +22579,10 @@
         <v>1</v>
       </c>
       <c r="B293" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C293" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D293" s="6">
         <v>9100510</v>
@@ -22653,10 +22653,10 @@
         <v>1</v>
       </c>
       <c r="B294" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C294" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D294" s="6">
         <v>9100511</v>
@@ -22727,10 +22727,10 @@
         <v>1</v>
       </c>
       <c r="B295" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C295" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D295" s="6">
         <v>9100512</v>
@@ -22801,10 +22801,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C296" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D296" s="6">
         <v>9110101</v>
@@ -22875,10 +22875,10 @@
         <v>1</v>
       </c>
       <c r="B297" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C297" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D297" s="6">
         <v>9110102</v>
@@ -22949,10 +22949,10 @@
         <v>1</v>
       </c>
       <c r="B298" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C298" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D298" s="6">
         <v>9110103</v>
@@ -23023,10 +23023,10 @@
         <v>1</v>
       </c>
       <c r="B299" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C299" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D299" s="6">
         <v>9110104</v>
@@ -23097,10 +23097,10 @@
         <v>1</v>
       </c>
       <c r="B300" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C300" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D300" s="6">
         <v>9110105</v>
@@ -23171,10 +23171,10 @@
         <v>1</v>
       </c>
       <c r="B301" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C301" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D301" s="6">
         <v>9110107</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="B302" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C302" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D302" s="6">
         <v>9110108</v>
@@ -23319,10 +23319,10 @@
         <v>1</v>
       </c>
       <c r="B303" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C303" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D303" s="6">
         <v>9110110</v>
@@ -23393,10 +23393,10 @@
         <v>1</v>
       </c>
       <c r="B304" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C304" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D304" s="6">
         <v>9110111</v>
@@ -23467,10 +23467,10 @@
         <v>1</v>
       </c>
       <c r="B305" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C305" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D305" s="6">
         <v>9110112</v>
@@ -23541,10 +23541,10 @@
         <v>1</v>
       </c>
       <c r="B306" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C306" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D306" s="6">
         <v>9110113</v>
@@ -23615,10 +23615,10 @@
         <v>1</v>
       </c>
       <c r="B307" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C307" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D307" s="6">
         <v>9110201</v>
@@ -23689,10 +23689,10 @@
         <v>1</v>
       </c>
       <c r="B308" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C308" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D308" s="6">
         <v>9110202</v>
@@ -23763,10 +23763,10 @@
         <v>1</v>
       </c>
       <c r="B309" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C309" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D309" s="6">
         <v>9110203</v>
@@ -23837,10 +23837,10 @@
         <v>1</v>
       </c>
       <c r="B310" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C310" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D310" s="6">
         <v>9110204</v>
@@ -23911,10 +23911,10 @@
         <v>1</v>
       </c>
       <c r="B311" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C311" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D311" s="6">
         <v>9110205</v>
@@ -23985,10 +23985,10 @@
         <v>1</v>
       </c>
       <c r="B312" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C312" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D312" s="6">
         <v>9110301</v>
@@ -24059,10 +24059,10 @@
         <v>1</v>
       </c>
       <c r="B313" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C313" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D313" s="6">
         <v>9110302</v>
@@ -24133,10 +24133,10 @@
         <v>1</v>
       </c>
       <c r="B314" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C314" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D314" s="6">
         <v>9110303</v>
@@ -24207,10 +24207,10 @@
         <v>1</v>
       </c>
       <c r="B315" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C315" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D315" s="6">
         <v>9110304</v>
@@ -24281,10 +24281,10 @@
         <v>1</v>
       </c>
       <c r="B316" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C316" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D316" s="6">
         <v>9110305</v>
@@ -24355,10 +24355,10 @@
         <v>1</v>
       </c>
       <c r="B317" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C317" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D317" s="6">
         <v>9110306</v>
@@ -24429,10 +24429,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C318" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D318" s="6">
         <v>9110307</v>
@@ -24503,10 +24503,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C319" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D319" s="6">
         <v>9110308</v>
@@ -24577,10 +24577,10 @@
         <v>1</v>
       </c>
       <c r="B320" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C320" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D320" s="6">
         <v>9110309</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="B321" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C321" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D321" s="6">
         <v>9110310</v>
@@ -24725,10 +24725,10 @@
         <v>1</v>
       </c>
       <c r="B322" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C322" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D322" s="6">
         <v>9110311</v>
@@ -24799,10 +24799,10 @@
         <v>1</v>
       </c>
       <c r="B323" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C323" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D323" s="6">
         <v>9110312</v>
@@ -24873,10 +24873,10 @@
         <v>1</v>
       </c>
       <c r="B324" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C324" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D324" s="6">
         <v>9110313</v>
@@ -24947,10 +24947,10 @@
         <v>1</v>
       </c>
       <c r="B325" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C325" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D325" s="6">
         <v>9110314</v>
@@ -25021,10 +25021,10 @@
         <v>1</v>
       </c>
       <c r="B326" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C326" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D326" s="6">
         <v>9110315</v>
@@ -25095,10 +25095,10 @@
         <v>1</v>
       </c>
       <c r="B327" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C327" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D327" s="6">
         <v>9110316</v>
@@ -25169,10 +25169,10 @@
         <v>1</v>
       </c>
       <c r="B328" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C328" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D328" s="6">
         <v>9110317</v>
@@ -25243,10 +25243,10 @@
         <v>1</v>
       </c>
       <c r="B329" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C329" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D329" s="6">
         <v>9110318</v>
@@ -25317,10 +25317,10 @@
         <v>1</v>
       </c>
       <c r="B330" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C330" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D330" s="6">
         <v>9110319</v>
@@ -25391,10 +25391,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C331" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D331" s="6">
         <v>9110320</v>
@@ -25465,10 +25465,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C332" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D332" s="6">
         <v>9120001</v>
@@ -25539,10 +25539,10 @@
         <v>1</v>
       </c>
       <c r="B333" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C333" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D333" s="6">
         <v>9120002</v>
@@ -25613,10 +25613,10 @@
         <v>1</v>
       </c>
       <c r="B334" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C334" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D334" s="6">
         <v>9120003</v>
@@ -25687,10 +25687,10 @@
         <v>1</v>
       </c>
       <c r="B335" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C335" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D335" s="6">
         <v>9120004</v>
@@ -25761,10 +25761,10 @@
         <v>1</v>
       </c>
       <c r="B336" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C336" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D336" s="6">
         <v>9120005</v>
@@ -25835,10 +25835,10 @@
         <v>1</v>
       </c>
       <c r="B337" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C337" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D337" s="6">
         <v>9120006</v>
@@ -25909,10 +25909,10 @@
         <v>1</v>
       </c>
       <c r="B338" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C338" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D338" s="6">
         <v>9130201</v>
@@ -25983,10 +25983,10 @@
         <v>1</v>
       </c>
       <c r="B339" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C339" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D339" s="6">
         <v>9130212</v>
@@ -26057,10 +26057,10 @@
         <v>1</v>
       </c>
       <c r="B340" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C340" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D340" s="6">
         <v>9130213</v>
@@ -26131,10 +26131,10 @@
         <v>1</v>
       </c>
       <c r="B341" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C341" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D341" s="6">
         <v>9130214</v>
@@ -26205,10 +26205,10 @@
         <v>1</v>
       </c>
       <c r="B342" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C342" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D342" s="6">
         <v>9130215</v>
@@ -26279,10 +26279,10 @@
         <v>1</v>
       </c>
       <c r="B343" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C343" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D343" s="6">
         <v>9130401</v>
@@ -26353,10 +26353,10 @@
         <v>1</v>
       </c>
       <c r="B344" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C344" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D344" s="6">
         <v>9130402</v>
@@ -26427,10 +26427,10 @@
         <v>1</v>
       </c>
       <c r="B345" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C345" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D345" s="6">
         <v>9130403</v>
@@ -26501,10 +26501,10 @@
         <v>1</v>
       </c>
       <c r="B346" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C346" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D346" s="6">
         <v>9130404</v>
@@ -26575,10 +26575,10 @@
         <v>1</v>
       </c>
       <c r="B347" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C347" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D347" s="6">
         <v>9130405</v>
@@ -26649,10 +26649,10 @@
         <v>1</v>
       </c>
       <c r="B348" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C348" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D348" s="6">
         <v>9130501</v>
@@ -26723,10 +26723,10 @@
         <v>1</v>
       </c>
       <c r="B349" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C349" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D349" s="6">
         <v>9130502</v>
@@ -26797,10 +26797,10 @@
         <v>1</v>
       </c>
       <c r="B350" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C350" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D350" s="6">
         <v>9130503</v>
@@ -26871,10 +26871,10 @@
         <v>1</v>
       </c>
       <c r="B351" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C351" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D351" s="6">
         <v>9140001</v>
@@ -26945,10 +26945,10 @@
         <v>1</v>
       </c>
       <c r="B352" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C352" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D352" s="6">
         <v>9140002</v>
@@ -27019,10 +27019,10 @@
         <v>1</v>
       </c>
       <c r="B353" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C353" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D353" s="6">
         <v>9140003</v>
@@ -27093,10 +27093,10 @@
         <v>1</v>
       </c>
       <c r="B354" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C354" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D354" s="6">
         <v>9140004</v>
@@ -27167,10 +27167,10 @@
         <v>1</v>
       </c>
       <c r="B355" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C355" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D355" s="6">
         <v>9140005</v>
@@ -27241,10 +27241,10 @@
         <v>1</v>
       </c>
       <c r="B356" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C356" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D356" s="6">
         <v>9140006</v>
@@ -27315,10 +27315,10 @@
         <v>1</v>
       </c>
       <c r="B357" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C357" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D357" s="6">
         <v>9140007</v>
@@ -27389,10 +27389,10 @@
         <v>1</v>
       </c>
       <c r="B358" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C358" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D358" s="6">
         <v>9140008</v>
@@ -27463,10 +27463,10 @@
         <v>1</v>
       </c>
       <c r="B359" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C359" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D359" s="6">
         <v>9140009</v>
@@ -27537,10 +27537,10 @@
         <v>1</v>
       </c>
       <c r="B360" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C360" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D360" s="6">
         <v>9140010</v>
@@ -27611,10 +27611,10 @@
         <v>1</v>
       </c>
       <c r="B361" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C361" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D361" s="6">
         <v>9140011</v>
@@ -27685,10 +27685,10 @@
         <v>1</v>
       </c>
       <c r="B362" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C362" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D362" s="6">
         <v>9140012</v>
@@ -27759,10 +27759,10 @@
         <v>1</v>
       </c>
       <c r="B363" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C363" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D363" s="6">
         <v>9140013</v>
@@ -27833,10 +27833,10 @@
         <v>1</v>
       </c>
       <c r="B364" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C364" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D364" s="6">
         <v>9140014</v>
@@ -27907,10 +27907,10 @@
         <v>1</v>
       </c>
       <c r="B365" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C365" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D365" s="6">
         <v>9150001</v>
@@ -27981,10 +27981,10 @@
         <v>1</v>
       </c>
       <c r="B366" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C366" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D366" s="6">
         <v>9150002</v>
@@ -28055,10 +28055,10 @@
         <v>1</v>
       </c>
       <c r="B367" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C367" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D367" s="6">
         <v>9150003</v>
@@ -28129,10 +28129,10 @@
         <v>1</v>
       </c>
       <c r="B368" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C368" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D368" s="6">
         <v>9150004</v>
@@ -28203,10 +28203,10 @@
         <v>1</v>
       </c>
       <c r="B369" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C369" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D369" s="6">
         <v>9150005</v>
@@ -28277,10 +28277,10 @@
         <v>1</v>
       </c>
       <c r="B370" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C370" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D370" s="6">
         <v>9150006</v>
@@ -28351,10 +28351,10 @@
         <v>1</v>
       </c>
       <c r="B371" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C371" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D371" s="6">
         <v>9150007</v>
@@ -28425,10 +28425,10 @@
         <v>1</v>
       </c>
       <c r="B372" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C372" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D372" s="6">
         <v>9150008</v>
@@ -28499,10 +28499,10 @@
         <v>1</v>
       </c>
       <c r="B373" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C373" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D373" s="6">
         <v>9150009</v>
@@ -28573,10 +28573,10 @@
         <v>1</v>
       </c>
       <c r="B374" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C374" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D374" s="6">
         <v>9150010</v>
@@ -28647,10 +28647,10 @@
         <v>1</v>
       </c>
       <c r="B375" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C375" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D375" s="6">
         <v>9150011</v>
@@ -28721,10 +28721,10 @@
         <v>1</v>
       </c>
       <c r="B376" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C376" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D376" s="6">
         <v>9150012</v>
@@ -28795,10 +28795,10 @@
         <v>1</v>
       </c>
       <c r="B377" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C377" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D377" s="6">
         <v>9150013</v>
@@ -28869,10 +28869,10 @@
         <v>1</v>
       </c>
       <c r="B378" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C378" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D378" s="6">
         <v>9150014</v>
@@ -28943,10 +28943,10 @@
         <v>1</v>
       </c>
       <c r="B379" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C379" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D379" s="6">
         <v>9150015</v>
@@ -29017,10 +29017,10 @@
         <v>1</v>
       </c>
       <c r="B380" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C380" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D380" s="6">
         <v>9160001</v>
@@ -29091,10 +29091,10 @@
         <v>1</v>
       </c>
       <c r="B381" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C381" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D381" s="6">
         <v>9160002</v>
@@ -29165,10 +29165,10 @@
         <v>1</v>
       </c>
       <c r="B382" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C382" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D382" s="6">
         <v>9160003</v>
@@ -29239,10 +29239,10 @@
         <v>1</v>
       </c>
       <c r="B383" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C383" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D383" s="6">
         <v>9160004</v>
@@ -29313,10 +29313,10 @@
         <v>1</v>
       </c>
       <c r="B384" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C384" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D384" s="6">
         <v>9160005</v>
@@ -29387,10 +29387,10 @@
         <v>1</v>
       </c>
       <c r="B385" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C385" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D385" s="6">
         <v>9160006</v>
@@ -29461,10 +29461,10 @@
         <v>1</v>
       </c>
       <c r="B386" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C386" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D386" s="6">
         <v>9160007</v>
@@ -29535,10 +29535,10 @@
         <v>1</v>
       </c>
       <c r="B387" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C387" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D387" s="6">
         <v>9160009</v>
@@ -29609,10 +29609,10 @@
         <v>1</v>
       </c>
       <c r="B388" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C388" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D388" s="6">
         <v>9160010</v>
@@ -29683,10 +29683,10 @@
         <v>1</v>
       </c>
       <c r="B389" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C389" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D389" s="6">
         <v>9160011</v>
@@ -29757,10 +29757,10 @@
         <v>1</v>
       </c>
       <c r="B390" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C390" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D390" s="6">
         <v>9160012</v>
@@ -29831,10 +29831,10 @@
         <v>1</v>
       </c>
       <c r="B391" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C391" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D391" s="6">
         <v>9160013</v>
@@ -29905,10 +29905,10 @@
         <v>1</v>
       </c>
       <c r="B392" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C392" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D392" s="6">
         <v>9160014</v>
@@ -29979,10 +29979,10 @@
         <v>1</v>
       </c>
       <c r="B393" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C393" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D393" s="6">
         <v>9160015</v>
@@ -30053,10 +30053,10 @@
         <v>1</v>
       </c>
       <c r="B394" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C394" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D394" s="6">
         <v>9160016</v>
@@ -30127,10 +30127,10 @@
         <v>1</v>
       </c>
       <c r="B395" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C395" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D395" s="6">
         <v>9160017</v>
@@ -30201,10 +30201,10 @@
         <v>1</v>
       </c>
       <c r="B396" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C396" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D396" s="6">
         <v>9160018</v>
@@ -30275,10 +30275,10 @@
         <v>1</v>
       </c>
       <c r="B397" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C397" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D397" s="6">
         <v>9160019</v>
@@ -30349,10 +30349,10 @@
         <v>1</v>
       </c>
       <c r="B398" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C398" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D398" s="6">
         <v>9160020</v>
@@ -30423,10 +30423,10 @@
         <v>1</v>
       </c>
       <c r="B399" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C399" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D399" s="6">
         <v>9160021</v>
@@ -30497,10 +30497,10 @@
         <v>1</v>
       </c>
       <c r="B400" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C400" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D400" s="6">
         <v>9160022</v>
@@ -30571,10 +30571,10 @@
         <v>1</v>
       </c>
       <c r="B401" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C401" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D401" s="6">
         <v>9160023</v>
@@ -30645,10 +30645,10 @@
         <v>1</v>
       </c>
       <c r="B402" s="4">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C402" s="4">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="D402" s="7">
         <v>9160025</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0501F-DE51-324D-8277-BB4F322729F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AE794E-4836-6147-930D-03C2F2E0C37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-20460" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nuts3" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:X402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C2" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D2" s="4">
         <v>9010101</v>
@@ -1119,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C3" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D3" s="6">
         <v>9010102</v>
@@ -1193,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C4" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D4" s="6">
         <v>9010103</v>
@@ -1267,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C5" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D5" s="6">
         <v>9010104</v>
@@ -1341,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C6" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D6" s="6">
         <v>9010105</v>
@@ -1415,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C7" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D7" s="6">
         <v>9010106</v>
@@ -1489,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C8" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D8" s="6">
         <v>9010107</v>
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C9" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D9" s="6">
         <v>9010108</v>
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C10" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D10" s="6">
         <v>9010109</v>
@@ -1711,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C11" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D11" s="6">
         <v>9010110</v>
@@ -1785,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C12" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D12" s="6">
         <v>9010111</v>
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C13" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D13" s="6">
         <v>9010112</v>
@@ -1933,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C14" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D14" s="6">
         <v>9010113</v>
@@ -2007,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C15" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D15" s="6">
         <v>9010201</v>
@@ -2081,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C16" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D16" s="6">
         <v>9010202</v>
@@ -2155,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C17" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D17" s="6">
         <v>9010203</v>
@@ -2229,10 +2229,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C18" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D18" s="6">
         <v>9010204</v>
@@ -2303,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C19" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D19" s="6">
         <v>9010205</v>
@@ -2377,10 +2377,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C20" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D20" s="6">
         <v>9010206</v>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C21" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D21" s="6">
         <v>9010207</v>
@@ -2525,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C22" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D22" s="6">
         <v>9010208</v>
@@ -2599,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C23" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D23" s="6">
         <v>9010209</v>
@@ -2673,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C24" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D24" s="6">
         <v>9010210</v>
@@ -2747,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C25" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D25" s="6">
         <v>9010211</v>
@@ -2821,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C26" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D26" s="6">
         <v>9010212</v>
@@ -2895,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C27" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D27" s="6">
         <v>9010301</v>
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C28" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D28" s="6">
         <v>9010302</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C29" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D29" s="6">
         <v>9010303</v>
@@ -3117,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C30" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D30" s="6">
         <v>9010304</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C31" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D31" s="6">
         <v>9010305</v>
@@ -3265,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C32" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D32" s="6">
         <v>9010306</v>
@@ -3339,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C33" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D33" s="6">
         <v>9010307</v>
@@ -3413,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C34" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D34" s="6">
         <v>9010308</v>
@@ -3487,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C35" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D35" s="6">
         <v>9010309</v>
@@ -3561,10 +3561,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D36" s="6">
         <v>9010310</v>
@@ -3635,10 +3635,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C37" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D37" s="6">
         <v>9010401</v>
@@ -3709,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C38" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D38" s="6">
         <v>9010402</v>
@@ -3783,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C39" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D39" s="6">
         <v>9010403</v>
@@ -3857,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C40" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D40" s="6">
         <v>9010404</v>
@@ -3931,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C41" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D41" s="6">
         <v>9010405</v>
@@ -4005,10 +4005,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C42" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D42" s="6">
         <v>9010406</v>
@@ -4079,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C43" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D43" s="6">
         <v>9010407</v>
@@ -4153,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C44" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D44" s="6">
         <v>9010408</v>
@@ -4227,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C45" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D45" s="6">
         <v>9010409</v>
@@ -4301,10 +4301,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C46" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D46" s="6">
         <v>9020101</v>
@@ -4375,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C47" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D47" s="6">
         <v>9020102</v>
@@ -4449,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C48" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D48" s="6">
         <v>9020103</v>
@@ -4523,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C49" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D49" s="6">
         <v>9020104</v>
@@ -4597,10 +4597,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C50" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D50" s="6">
         <v>9020105</v>
@@ -4671,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C51" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D51" s="6">
         <v>9020106</v>
@@ -4745,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C52" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D52" s="6">
         <v>9020107</v>
@@ -4819,10 +4819,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C53" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D53" s="6">
         <v>9020108</v>
@@ -4893,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C54" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D54" s="6">
         <v>9020109</v>
@@ -4967,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C55" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D55" s="6">
         <v>9020110</v>
@@ -5041,10 +5041,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C56" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D56" s="6">
         <v>9020111</v>
@@ -5115,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C57" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D57" s="6">
         <v>9020112</v>
@@ -5189,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C58" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D58" s="6">
         <v>9020113</v>
@@ -5263,10 +5263,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C59" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D59" s="6">
         <v>9020114</v>
@@ -5337,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C60" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D60" s="6">
         <v>9020115</v>
@@ -5411,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C61" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D61" s="6">
         <v>9020116</v>
@@ -5485,10 +5485,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C62" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D62" s="6">
         <v>9020117</v>
@@ -5559,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C63" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D63" s="6">
         <v>9020118</v>
@@ -5633,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C64" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D64" s="6">
         <v>9020119</v>
@@ -5707,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C65" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D65" s="6">
         <v>9020120</v>
@@ -5781,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C66" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D66" s="6">
         <v>9020121</v>
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C67" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D67" s="6">
         <v>9020122</v>
@@ -5929,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C68" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D68" s="6">
         <v>9020123</v>
@@ -6003,10 +6003,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C69" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D69" s="6">
         <v>9020201</v>
@@ -6077,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C70" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D70" s="6">
         <v>9020202</v>
@@ -6151,10 +6151,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C71" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D71" s="6">
         <v>9020203</v>
@@ -6225,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C72" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D72" s="6">
         <v>9020204</v>
@@ -6299,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C73" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D73" s="6">
         <v>9020205</v>
@@ -6373,10 +6373,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C74" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D74" s="6">
         <v>9020206</v>
@@ -6447,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C75" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D75" s="6">
         <v>9020207</v>
@@ -6521,10 +6521,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C76" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D76" s="6">
         <v>9020208</v>
@@ -6595,10 +6595,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C77" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D77" s="6">
         <v>9020209</v>
@@ -6669,10 +6669,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C78" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D78" s="6">
         <v>9020210</v>
@@ -6743,10 +6743,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C79" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D79" s="6">
         <v>9020211</v>
@@ -6817,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C80" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D80" s="6">
         <v>9020212</v>
@@ -6891,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C81" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D81" s="6">
         <v>9020301</v>
@@ -6965,10 +6965,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C82" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D82" s="6">
         <v>9020302</v>
@@ -7039,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C83" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D83" s="6">
         <v>9020303</v>
@@ -7113,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C84" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D84" s="6">
         <v>9020304</v>
@@ -7187,10 +7187,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C85" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D85" s="6">
         <v>9020305</v>
@@ -7261,10 +7261,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C86" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D86" s="6">
         <v>9020306</v>
@@ -7335,10 +7335,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C87" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D87" s="6">
         <v>9020307</v>
@@ -7409,10 +7409,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C88" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D88" s="6">
         <v>9020308</v>
@@ -7483,10 +7483,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C89" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D89" s="6">
         <v>9020309</v>
@@ -7557,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C90" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D90" s="6">
         <v>9020310</v>
@@ -7631,10 +7631,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C91" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D91" s="6">
         <v>9020401</v>
@@ -7705,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C92" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D92" s="6">
         <v>9020402</v>
@@ -7779,10 +7779,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C93" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D93" s="6">
         <v>9020403</v>
@@ -7853,10 +7853,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C94" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D94" s="6">
         <v>9020404</v>
@@ -7927,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C95" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D95" s="6">
         <v>9020405</v>
@@ -8001,10 +8001,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C96" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D96" s="6">
         <v>9020406</v>
@@ -8075,10 +8075,10 @@
         <v>1</v>
       </c>
       <c r="B97" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C97" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D97" s="6">
         <v>9020407</v>
@@ -8149,10 +8149,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C98" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D98" s="6">
         <v>9020408</v>
@@ -8223,10 +8223,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C99" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D99" s="6">
         <v>9020409</v>
@@ -8297,10 +8297,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C100" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D100" s="6">
         <v>9020410</v>
@@ -8371,10 +8371,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C101" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D101" s="6">
         <v>9020411</v>
@@ -8445,10 +8445,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C102" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D102" s="6">
         <v>9020412</v>
@@ -8519,10 +8519,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C103" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D103" s="6">
         <v>9020413</v>
@@ -8593,10 +8593,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C104" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D104" s="6">
         <v>9020501</v>
@@ -8667,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C105" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D105" s="6">
         <v>9020502</v>
@@ -8741,10 +8741,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C106" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D106" s="6">
         <v>9020503</v>
@@ -8815,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C107" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D107" s="6">
         <v>9020504</v>
@@ -8889,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C108" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D108" s="6">
         <v>9020505</v>
@@ -8963,10 +8963,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C109" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D109" s="6">
         <v>9020506</v>
@@ -9037,10 +9037,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C110" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D110" s="6">
         <v>9020507</v>
@@ -9111,10 +9111,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C111" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D111" s="6">
         <v>9020508</v>
@@ -9185,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C112" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D112" s="6">
         <v>9020509</v>
@@ -9259,10 +9259,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C113" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D113" s="6">
         <v>9020510</v>
@@ -9333,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C114" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D114" s="6">
         <v>9020511</v>
@@ -9407,10 +9407,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C115" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D115" s="6">
         <v>9020512</v>
@@ -9481,10 +9481,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C116" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D116" s="6">
         <v>9020601</v>
@@ -9555,10 +9555,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C117" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D117" s="6">
         <v>9020602</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C118" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D118" s="6">
         <v>9020603</v>
@@ -9703,10 +9703,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C119" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D119" s="6">
         <v>9020604</v>
@@ -9777,10 +9777,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C120" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D120" s="6">
         <v>9020605</v>
@@ -9851,10 +9851,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C121" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D121" s="6">
         <v>9020606</v>
@@ -9925,10 +9925,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C122" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D122" s="6">
         <v>9020607</v>
@@ -9999,10 +9999,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C123" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D123" s="6">
         <v>9020608</v>
@@ -10073,10 +10073,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C124" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D124" s="6">
         <v>9020609</v>
@@ -10147,10 +10147,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C125" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D125" s="6">
         <v>9020610</v>
@@ -10221,10 +10221,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C126" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D126" s="6">
         <v>9020611</v>
@@ -10295,10 +10295,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C127" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D127" s="6">
         <v>9020612</v>
@@ -10369,10 +10369,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C128" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D128" s="6">
         <v>9020701</v>
@@ -10443,10 +10443,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C129" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D129" s="6">
         <v>9020702</v>
@@ -10517,10 +10517,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C130" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D130" s="6">
         <v>9020703</v>
@@ -10591,10 +10591,10 @@
         <v>1</v>
       </c>
       <c r="B131" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C131" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D131" s="6">
         <v>9020704</v>
@@ -10665,10 +10665,10 @@
         <v>1</v>
       </c>
       <c r="B132" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C132" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D132" s="6">
         <v>9020705</v>
@@ -10739,10 +10739,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C133" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D133" s="6">
         <v>9020706</v>
@@ -10813,10 +10813,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C134" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D134" s="6">
         <v>9020707</v>
@@ -10887,10 +10887,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C135" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D135" s="6">
         <v>9020708</v>
@@ -10961,10 +10961,10 @@
         <v>1</v>
       </c>
       <c r="B136" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C136" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D136" s="6">
         <v>9020709</v>
@@ -11035,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="B137" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C137" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D137" s="6">
         <v>9020710</v>
@@ -11109,10 +11109,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C138" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D138" s="6">
         <v>9020711</v>
@@ -11183,10 +11183,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C139" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D139" s="6">
         <v>9020712</v>
@@ -11257,10 +11257,10 @@
         <v>1</v>
       </c>
       <c r="B140" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C140" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D140" s="6">
         <v>9020713</v>
@@ -11331,10 +11331,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C141" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D141" s="6">
         <v>9020714</v>
@@ -11405,10 +11405,10 @@
         <v>1</v>
       </c>
       <c r="B142" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C142" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D142" s="6">
         <v>9030000</v>
@@ -11479,10 +11479,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C143" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D143" s="6">
         <v>9040001</v>
@@ -11553,10 +11553,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C144" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D144" s="6">
         <v>9040002</v>
@@ -11627,10 +11627,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C145" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D145" s="6">
         <v>9040003</v>
@@ -11701,10 +11701,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C146" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D146" s="6">
         <v>9040004</v>
@@ -11775,10 +11775,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C147" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D147" s="6">
         <v>9040005</v>
@@ -11849,10 +11849,10 @@
         <v>1</v>
       </c>
       <c r="B148" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C148" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D148" s="6">
         <v>9040006</v>
@@ -11923,10 +11923,10 @@
         <v>1</v>
       </c>
       <c r="B149" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C149" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D149" s="6">
         <v>9040007</v>
@@ -11997,10 +11997,10 @@
         <v>1</v>
       </c>
       <c r="B150" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C150" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D150" s="6">
         <v>9040008</v>
@@ -12071,10 +12071,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C151" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D151" s="6">
         <v>9040009</v>
@@ -12145,10 +12145,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C152" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D152" s="6">
         <v>9040010</v>
@@ -12219,10 +12219,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C153" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D153" s="6">
         <v>9040011</v>
@@ -12293,10 +12293,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C154" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D154" s="6">
         <v>9040012</v>
@@ -12367,10 +12367,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C155" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D155" s="6">
         <v>9040013</v>
@@ -12441,10 +12441,10 @@
         <v>1</v>
       </c>
       <c r="B156" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C156" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D156" s="6">
         <v>9040014</v>
@@ -12515,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="B157" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C157" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D157" s="6">
         <v>9040015</v>
@@ -12589,10 +12589,10 @@
         <v>1</v>
       </c>
       <c r="B158" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C158" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D158" s="6">
         <v>9040016</v>
@@ -12663,10 +12663,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C159" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D159" s="6">
         <v>9040017</v>
@@ -12737,10 +12737,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C160" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D160" s="6">
         <v>9040018</v>
@@ -12811,10 +12811,10 @@
         <v>1</v>
       </c>
       <c r="B161" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C161" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D161" s="6">
         <v>9050001</v>
@@ -12885,10 +12885,10 @@
         <v>1</v>
       </c>
       <c r="B162" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C162" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D162" s="6">
         <v>9050002</v>
@@ -12959,10 +12959,10 @@
         <v>1</v>
       </c>
       <c r="B163" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C163" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D163" s="6">
         <v>9060000</v>
@@ -13033,10 +13033,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C164" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D164" s="6">
         <v>9070101</v>
@@ -13107,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="B165" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C165" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D165" s="6">
         <v>9070102</v>
@@ -13181,10 +13181,10 @@
         <v>1</v>
       </c>
       <c r="B166" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C166" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D166" s="6">
         <v>9070103</v>
@@ -13255,10 +13255,10 @@
         <v>1</v>
       </c>
       <c r="B167" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C167" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D167" s="6">
         <v>9070104</v>
@@ -13329,10 +13329,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C168" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D168" s="6">
         <v>9070105</v>
@@ -13403,10 +13403,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C169" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D169" s="6">
         <v>9070106</v>
@@ -13477,10 +13477,10 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C170" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D170" s="6">
         <v>9070107</v>
@@ -13551,10 +13551,10 @@
         <v>1</v>
       </c>
       <c r="B171" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C171" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D171" s="6">
         <v>9070108</v>
@@ -13625,10 +13625,10 @@
         <v>1</v>
       </c>
       <c r="B172" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C172" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D172" s="6">
         <v>9070109</v>
@@ -13699,10 +13699,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C173" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D173" s="6">
         <v>9070110</v>
@@ -13773,10 +13773,10 @@
         <v>1</v>
       </c>
       <c r="B174" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C174" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D174" s="6">
         <v>9070111</v>
@@ -13847,10 +13847,10 @@
         <v>1</v>
       </c>
       <c r="B175" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C175" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D175" s="6">
         <v>9070112</v>
@@ -13921,10 +13921,10 @@
         <v>1</v>
       </c>
       <c r="B176" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C176" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D176" s="6">
         <v>9070113</v>
@@ -13995,10 +13995,10 @@
         <v>1</v>
       </c>
       <c r="B177" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C177" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D177" s="6">
         <v>9070114</v>
@@ -14069,10 +14069,10 @@
         <v>1</v>
       </c>
       <c r="B178" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C178" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D178" s="6">
         <v>9070201</v>
@@ -14143,10 +14143,10 @@
         <v>1</v>
       </c>
       <c r="B179" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C179" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D179" s="6">
         <v>9070202</v>
@@ -14217,10 +14217,10 @@
         <v>1</v>
       </c>
       <c r="B180" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C180" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D180" s="6">
         <v>9070203</v>
@@ -14291,10 +14291,10 @@
         <v>1</v>
       </c>
       <c r="B181" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C181" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D181" s="6">
         <v>9070204</v>
@@ -14365,10 +14365,10 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C182" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D182" s="6">
         <v>9070205</v>
@@ -14439,10 +14439,10 @@
         <v>1</v>
       </c>
       <c r="B183" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C183" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D183" s="6">
         <v>9070301</v>
@@ -14513,10 +14513,10 @@
         <v>1</v>
       </c>
       <c r="B184" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C184" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D184" s="6">
         <v>9070302</v>
@@ -14587,10 +14587,10 @@
         <v>1</v>
       </c>
       <c r="B185" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C185" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D185" s="6">
         <v>9070303</v>
@@ -14661,10 +14661,10 @@
         <v>1</v>
       </c>
       <c r="B186" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C186" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D186" s="6">
         <v>9070304</v>
@@ -14735,10 +14735,10 @@
         <v>1</v>
       </c>
       <c r="B187" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C187" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D187" s="6">
         <v>9070305</v>
@@ -14809,10 +14809,10 @@
         <v>1</v>
       </c>
       <c r="B188" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C188" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D188" s="6">
         <v>9070306</v>
@@ -14883,10 +14883,10 @@
         <v>1</v>
       </c>
       <c r="B189" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C189" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D189" s="6">
         <v>9070307</v>
@@ -14957,10 +14957,10 @@
         <v>1</v>
       </c>
       <c r="B190" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C190" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D190" s="6">
         <v>9080003</v>
@@ -15031,10 +15031,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C191" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D191" s="6">
         <v>9080004</v>
@@ -15105,10 +15105,10 @@
         <v>1</v>
       </c>
       <c r="B192" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C192" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D192" s="6">
         <v>9080019</v>
@@ -15179,10 +15179,10 @@
         <v>1</v>
       </c>
       <c r="B193" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C193" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D193" s="6">
         <v>9080020</v>
@@ -15253,10 +15253,10 @@
         <v>1</v>
       </c>
       <c r="B194" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C194" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D194" s="6">
         <v>9080021</v>
@@ -15327,10 +15327,10 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C195" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D195" s="6">
         <v>9080022</v>
@@ -15401,10 +15401,10 @@
         <v>1</v>
       </c>
       <c r="B196" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C196" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D196" s="6">
         <v>9080023</v>
@@ -15475,10 +15475,10 @@
         <v>1</v>
       </c>
       <c r="B197" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C197" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D197" s="6">
         <v>9080024</v>
@@ -15549,10 +15549,10 @@
         <v>1</v>
       </c>
       <c r="B198" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C198" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D198" s="6">
         <v>9090101</v>
@@ -15623,10 +15623,10 @@
         <v>1</v>
       </c>
       <c r="B199" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C199" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D199" s="6">
         <v>9090102</v>
@@ -15697,10 +15697,10 @@
         <v>1</v>
       </c>
       <c r="B200" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C200" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D200" s="6">
         <v>9090103</v>
@@ -15771,10 +15771,10 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C201" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D201" s="6">
         <v>9090104</v>
@@ -15845,10 +15845,10 @@
         <v>1</v>
       </c>
       <c r="B202" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C202" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D202" s="6">
         <v>9090106</v>
@@ -15919,10 +15919,10 @@
         <v>1</v>
       </c>
       <c r="B203" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C203" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D203" s="6">
         <v>9090107</v>
@@ -15993,10 +15993,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C204" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D204" s="6">
         <v>9090108</v>
@@ -16067,10 +16067,10 @@
         <v>1</v>
       </c>
       <c r="B205" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C205" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D205" s="6">
         <v>9090110</v>
@@ -16141,10 +16141,10 @@
         <v>1</v>
       </c>
       <c r="B206" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C206" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D206" s="6">
         <v>9090111</v>
@@ -16215,10 +16215,10 @@
         <v>1</v>
       </c>
       <c r="B207" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C207" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D207" s="6">
         <v>9090112</v>
@@ -16289,10 +16289,10 @@
         <v>1</v>
       </c>
       <c r="B208" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C208" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D208" s="6">
         <v>9090202</v>
@@ -16363,10 +16363,10 @@
         <v>1</v>
       </c>
       <c r="B209" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C209" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D209" s="6">
         <v>9090203</v>
@@ -16437,10 +16437,10 @@
         <v>1</v>
       </c>
       <c r="B210" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C210" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D210" s="6">
         <v>9090205</v>
@@ -16511,10 +16511,10 @@
         <v>1</v>
       </c>
       <c r="B211" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C211" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D211" s="6">
         <v>9090206</v>
@@ -16585,10 +16585,10 @@
         <v>1</v>
       </c>
       <c r="B212" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C212" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D212" s="6">
         <v>9090207</v>
@@ -16659,10 +16659,10 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C213" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D213" s="6">
         <v>9090208</v>
@@ -16733,10 +16733,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C214" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D214" s="6">
         <v>9090209</v>
@@ -16807,10 +16807,10 @@
         <v>1</v>
       </c>
       <c r="B215" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C215" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D215" s="6">
         <v>9090301</v>
@@ -16881,10 +16881,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C216" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D216" s="6">
         <v>9090302</v>
@@ -16955,10 +16955,10 @@
         <v>1</v>
       </c>
       <c r="B217" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C217" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D217" s="6">
         <v>9090303</v>
@@ -17029,10 +17029,10 @@
         <v>1</v>
       </c>
       <c r="B218" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C218" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D218" s="6">
         <v>9090304</v>
@@ -17103,10 +17103,10 @@
         <v>1</v>
       </c>
       <c r="B219" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C219" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D219" s="6">
         <v>9090305</v>
@@ -17177,10 +17177,10 @@
         <v>1</v>
       </c>
       <c r="B220" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C220" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D220" s="6">
         <v>9090306</v>
@@ -17251,10 +17251,10 @@
         <v>1</v>
       </c>
       <c r="B221" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C221" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D221" s="6">
         <v>9090307</v>
@@ -17325,10 +17325,10 @@
         <v>1</v>
       </c>
       <c r="B222" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C222" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D222" s="6">
         <v>9090308</v>
@@ -17399,10 +17399,10 @@
         <v>1</v>
       </c>
       <c r="B223" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C223" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D223" s="6">
         <v>9090309</v>
@@ -17473,10 +17473,10 @@
         <v>1</v>
       </c>
       <c r="B224" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C224" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D224" s="6">
         <v>9090310</v>
@@ -17547,10 +17547,10 @@
         <v>1</v>
       </c>
       <c r="B225" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C225" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D225" s="6">
         <v>9090311</v>
@@ -17621,10 +17621,10 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C226" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D226" s="6">
         <v>9090401</v>
@@ -17695,10 +17695,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C227" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D227" s="6">
         <v>9090402</v>
@@ -17769,10 +17769,10 @@
         <v>1</v>
       </c>
       <c r="B228" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C228" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D228" s="6">
         <v>9090403</v>
@@ -17843,10 +17843,10 @@
         <v>1</v>
       </c>
       <c r="B229" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C229" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D229" s="6">
         <v>9090404</v>
@@ -17917,10 +17917,10 @@
         <v>1</v>
       </c>
       <c r="B230" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C230" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D230" s="6">
         <v>9090405</v>
@@ -17991,10 +17991,10 @@
         <v>1</v>
       </c>
       <c r="B231" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C231" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D231" s="6">
         <v>9090406</v>
@@ -18065,10 +18065,10 @@
         <v>1</v>
       </c>
       <c r="B232" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C232" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D232" s="6">
         <v>9090407</v>
@@ -18139,10 +18139,10 @@
         <v>1</v>
       </c>
       <c r="B233" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C233" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D233" s="6">
         <v>9090408</v>
@@ -18213,10 +18213,10 @@
         <v>1</v>
       </c>
       <c r="B234" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C234" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D234" s="6">
         <v>9090409</v>
@@ -18287,10 +18287,10 @@
         <v>1</v>
       </c>
       <c r="B235" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C235" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D235" s="6">
         <v>9090410</v>
@@ -18361,10 +18361,10 @@
         <v>1</v>
       </c>
       <c r="B236" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C236" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D236" s="6">
         <v>9090411</v>
@@ -18435,10 +18435,10 @@
         <v>1</v>
       </c>
       <c r="B237" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C237" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D237" s="6">
         <v>9090412</v>
@@ -18509,10 +18509,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C238" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D238" s="6">
         <v>9090413</v>
@@ -18583,10 +18583,10 @@
         <v>1</v>
       </c>
       <c r="B239" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C239" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D239" s="6">
         <v>9090414</v>
@@ -18657,10 +18657,10 @@
         <v>1</v>
       </c>
       <c r="B240" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C240" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D240" s="6">
         <v>9090415</v>
@@ -18731,10 +18731,10 @@
         <v>1</v>
       </c>
       <c r="B241" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C241" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D241" s="6">
         <v>9090416</v>
@@ -18805,10 +18805,10 @@
         <v>1</v>
       </c>
       <c r="B242" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C242" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D242" s="6">
         <v>9090417</v>
@@ -18879,10 +18879,10 @@
         <v>1</v>
       </c>
       <c r="B243" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C243" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D243" s="6">
         <v>9100101</v>
@@ -18953,10 +18953,10 @@
         <v>1</v>
       </c>
       <c r="B244" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C244" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D244" s="6">
         <v>9100102</v>
@@ -19027,10 +19027,10 @@
         <v>1</v>
       </c>
       <c r="B245" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C245" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D245" s="6">
         <v>9100103</v>
@@ -19101,10 +19101,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C246" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D246" s="6">
         <v>9100104</v>
@@ -19175,10 +19175,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C247" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D247" s="6">
         <v>9100105</v>
@@ -19249,10 +19249,10 @@
         <v>1</v>
       </c>
       <c r="B248" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C248" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D248" s="6">
         <v>9100106</v>
@@ -19323,10 +19323,10 @@
         <v>1</v>
       </c>
       <c r="B249" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C249" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D249" s="6">
         <v>9100107</v>
@@ -19397,10 +19397,10 @@
         <v>1</v>
       </c>
       <c r="B250" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C250" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D250" s="6">
         <v>9100108</v>
@@ -19471,10 +19471,10 @@
         <v>1</v>
       </c>
       <c r="B251" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C251" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D251" s="6">
         <v>9100109</v>
@@ -19545,10 +19545,10 @@
         <v>1</v>
       </c>
       <c r="B252" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C252" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D252" s="6">
         <v>9100110</v>
@@ -19619,10 +19619,10 @@
         <v>1</v>
       </c>
       <c r="B253" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C253" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D253" s="6">
         <v>9100111</v>
@@ -19693,10 +19693,10 @@
         <v>1</v>
       </c>
       <c r="B254" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C254" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D254" s="6">
         <v>9100112</v>
@@ -19767,10 +19767,10 @@
         <v>1</v>
       </c>
       <c r="B255" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C255" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D255" s="6">
         <v>9100113</v>
@@ -19841,10 +19841,10 @@
         <v>1</v>
       </c>
       <c r="B256" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C256" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D256" s="6">
         <v>9100114</v>
@@ -19915,10 +19915,10 @@
         <v>1</v>
       </c>
       <c r="B257" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C257" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D257" s="6">
         <v>9100115</v>
@@ -19989,10 +19989,10 @@
         <v>1</v>
       </c>
       <c r="B258" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C258" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D258" s="6">
         <v>9100202</v>
@@ -20063,10 +20063,10 @@
         <v>1</v>
       </c>
       <c r="B259" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C259" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D259" s="6">
         <v>9100203</v>
@@ -20137,10 +20137,10 @@
         <v>1</v>
       </c>
       <c r="B260" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C260" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D260" s="6">
         <v>9100204</v>
@@ -20211,10 +20211,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C261" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D261" s="6">
         <v>9100206</v>
@@ -20285,10 +20285,10 @@
         <v>1</v>
       </c>
       <c r="B262" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C262" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D262" s="6">
         <v>9100207</v>
@@ -20359,10 +20359,10 @@
         <v>1</v>
       </c>
       <c r="B263" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C263" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D263" s="6">
         <v>9100208</v>
@@ -20433,10 +20433,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C264" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D264" s="6">
         <v>9100209</v>
@@ -20507,10 +20507,10 @@
         <v>1</v>
       </c>
       <c r="B265" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C265" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D265" s="6">
         <v>9100210</v>
@@ -20581,10 +20581,10 @@
         <v>1</v>
       </c>
       <c r="B266" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C266" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D266" s="6">
         <v>9100211</v>
@@ -20655,10 +20655,10 @@
         <v>1</v>
       </c>
       <c r="B267" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C267" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D267" s="6">
         <v>9100212</v>
@@ -20729,10 +20729,10 @@
         <v>1</v>
       </c>
       <c r="B268" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C268" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D268" s="6">
         <v>9100213</v>
@@ -20803,10 +20803,10 @@
         <v>1</v>
       </c>
       <c r="B269" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C269" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D269" s="6">
         <v>9100301</v>
@@ -20877,10 +20877,10 @@
         <v>1</v>
       </c>
       <c r="B270" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C270" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D270" s="6">
         <v>9100302</v>
@@ -20951,10 +20951,10 @@
         <v>1</v>
       </c>
       <c r="B271" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C271" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D271" s="6">
         <v>9100303</v>
@@ -21025,10 +21025,10 @@
         <v>1</v>
       </c>
       <c r="B272" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C272" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D272" s="6">
         <v>9100304</v>
@@ -21099,10 +21099,10 @@
         <v>1</v>
       </c>
       <c r="B273" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C273" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D273" s="6">
         <v>9100305</v>
@@ -21173,10 +21173,10 @@
         <v>1</v>
       </c>
       <c r="B274" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C274" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D274" s="6">
         <v>9100306</v>
@@ -21247,10 +21247,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C275" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D275" s="6">
         <v>9100307</v>
@@ -21321,10 +21321,10 @@
         <v>1</v>
       </c>
       <c r="B276" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C276" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D276" s="6">
         <v>9100308</v>
@@ -21395,10 +21395,10 @@
         <v>1</v>
       </c>
       <c r="B277" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C277" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D277" s="6">
         <v>9100401</v>
@@ -21469,10 +21469,10 @@
         <v>1</v>
       </c>
       <c r="B278" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C278" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D278" s="6">
         <v>9100402</v>
@@ -21543,10 +21543,10 @@
         <v>1</v>
       </c>
       <c r="B279" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C279" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D279" s="6">
         <v>9100403</v>
@@ -21617,10 +21617,10 @@
         <v>1</v>
       </c>
       <c r="B280" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C280" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D280" s="6">
         <v>9100404</v>
@@ -21691,10 +21691,10 @@
         <v>1</v>
       </c>
       <c r="B281" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C281" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D281" s="6">
         <v>9100405</v>
@@ -21765,10 +21765,10 @@
         <v>1</v>
       </c>
       <c r="B282" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C282" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D282" s="6">
         <v>9100406</v>
@@ -21839,10 +21839,10 @@
         <v>1</v>
       </c>
       <c r="B283" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C283" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D283" s="6">
         <v>9100407</v>
@@ -21913,10 +21913,10 @@
         <v>1</v>
       </c>
       <c r="B284" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C284" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D284" s="6">
         <v>9100501</v>
@@ -21987,10 +21987,10 @@
         <v>1</v>
       </c>
       <c r="B285" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C285" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D285" s="6">
         <v>9100502</v>
@@ -22061,10 +22061,10 @@
         <v>1</v>
       </c>
       <c r="B286" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C286" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D286" s="6">
         <v>9100503</v>
@@ -22135,10 +22135,10 @@
         <v>1</v>
       </c>
       <c r="B287" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C287" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D287" s="6">
         <v>9100504</v>
@@ -22209,10 +22209,10 @@
         <v>1</v>
       </c>
       <c r="B288" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C288" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D288" s="6">
         <v>9100505</v>
@@ -22283,10 +22283,10 @@
         <v>1</v>
       </c>
       <c r="B289" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C289" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D289" s="6">
         <v>9100506</v>
@@ -22357,10 +22357,10 @@
         <v>1</v>
       </c>
       <c r="B290" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C290" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D290" s="6">
         <v>9100507</v>
@@ -22431,10 +22431,10 @@
         <v>1</v>
       </c>
       <c r="B291" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C291" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D291" s="6">
         <v>9100508</v>
@@ -22505,10 +22505,10 @@
         <v>1</v>
       </c>
       <c r="B292" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C292" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D292" s="6">
         <v>9100509</v>
@@ -22579,10 +22579,10 @@
         <v>1</v>
       </c>
       <c r="B293" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C293" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D293" s="6">
         <v>9100510</v>
@@ -22653,10 +22653,10 @@
         <v>1</v>
       </c>
       <c r="B294" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C294" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D294" s="6">
         <v>9100511</v>
@@ -22727,10 +22727,10 @@
         <v>1</v>
       </c>
       <c r="B295" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C295" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D295" s="6">
         <v>9100512</v>
@@ -22801,10 +22801,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C296" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D296" s="6">
         <v>9110101</v>
@@ -22875,10 +22875,10 @@
         <v>1</v>
       </c>
       <c r="B297" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C297" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D297" s="6">
         <v>9110102</v>
@@ -22949,10 +22949,10 @@
         <v>1</v>
       </c>
       <c r="B298" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C298" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D298" s="6">
         <v>9110103</v>
@@ -23023,10 +23023,10 @@
         <v>1</v>
       </c>
       <c r="B299" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C299" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D299" s="6">
         <v>9110104</v>
@@ -23097,10 +23097,10 @@
         <v>1</v>
       </c>
       <c r="B300" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C300" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D300" s="6">
         <v>9110105</v>
@@ -23171,10 +23171,10 @@
         <v>1</v>
       </c>
       <c r="B301" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C301" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D301" s="6">
         <v>9110107</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="B302" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C302" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D302" s="6">
         <v>9110108</v>
@@ -23319,10 +23319,10 @@
         <v>1</v>
       </c>
       <c r="B303" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C303" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D303" s="6">
         <v>9110110</v>
@@ -23393,10 +23393,10 @@
         <v>1</v>
       </c>
       <c r="B304" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C304" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D304" s="6">
         <v>9110111</v>
@@ -23467,10 +23467,10 @@
         <v>1</v>
       </c>
       <c r="B305" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C305" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D305" s="6">
         <v>9110112</v>
@@ -23541,10 +23541,10 @@
         <v>1</v>
       </c>
       <c r="B306" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C306" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D306" s="6">
         <v>9110113</v>
@@ -23615,10 +23615,10 @@
         <v>1</v>
       </c>
       <c r="B307" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C307" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D307" s="6">
         <v>9110201</v>
@@ -23689,10 +23689,10 @@
         <v>1</v>
       </c>
       <c r="B308" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C308" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D308" s="6">
         <v>9110202</v>
@@ -23763,10 +23763,10 @@
         <v>1</v>
       </c>
       <c r="B309" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C309" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D309" s="6">
         <v>9110203</v>
@@ -23837,10 +23837,10 @@
         <v>1</v>
       </c>
       <c r="B310" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C310" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D310" s="6">
         <v>9110204</v>
@@ -23911,10 +23911,10 @@
         <v>1</v>
       </c>
       <c r="B311" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C311" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D311" s="6">
         <v>9110205</v>
@@ -23985,10 +23985,10 @@
         <v>1</v>
       </c>
       <c r="B312" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C312" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D312" s="6">
         <v>9110301</v>
@@ -24059,10 +24059,10 @@
         <v>1</v>
       </c>
       <c r="B313" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C313" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D313" s="6">
         <v>9110302</v>
@@ -24133,10 +24133,10 @@
         <v>1</v>
       </c>
       <c r="B314" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C314" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D314" s="6">
         <v>9110303</v>
@@ -24207,10 +24207,10 @@
         <v>1</v>
       </c>
       <c r="B315" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C315" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D315" s="6">
         <v>9110304</v>
@@ -24281,10 +24281,10 @@
         <v>1</v>
       </c>
       <c r="B316" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C316" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D316" s="6">
         <v>9110305</v>
@@ -24355,10 +24355,10 @@
         <v>1</v>
       </c>
       <c r="B317" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C317" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D317" s="6">
         <v>9110306</v>
@@ -24429,10 +24429,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C318" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D318" s="6">
         <v>9110307</v>
@@ -24503,10 +24503,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C319" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D319" s="6">
         <v>9110308</v>
@@ -24577,10 +24577,10 @@
         <v>1</v>
       </c>
       <c r="B320" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C320" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D320" s="6">
         <v>9110309</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="B321" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C321" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D321" s="6">
         <v>9110310</v>
@@ -24725,10 +24725,10 @@
         <v>1</v>
       </c>
       <c r="B322" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C322" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D322" s="6">
         <v>9110311</v>
@@ -24799,10 +24799,10 @@
         <v>1</v>
       </c>
       <c r="B323" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C323" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D323" s="6">
         <v>9110312</v>
@@ -24873,10 +24873,10 @@
         <v>1</v>
       </c>
       <c r="B324" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C324" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D324" s="6">
         <v>9110313</v>
@@ -24947,10 +24947,10 @@
         <v>1</v>
       </c>
       <c r="B325" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C325" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D325" s="6">
         <v>9110314</v>
@@ -25021,10 +25021,10 @@
         <v>1</v>
       </c>
       <c r="B326" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C326" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D326" s="6">
         <v>9110315</v>
@@ -25095,10 +25095,10 @@
         <v>1</v>
       </c>
       <c r="B327" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C327" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D327" s="6">
         <v>9110316</v>
@@ -25169,10 +25169,10 @@
         <v>1</v>
       </c>
       <c r="B328" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C328" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D328" s="6">
         <v>9110317</v>
@@ -25243,10 +25243,10 @@
         <v>1</v>
       </c>
       <c r="B329" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C329" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D329" s="6">
         <v>9110318</v>
@@ -25317,10 +25317,10 @@
         <v>1</v>
       </c>
       <c r="B330" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C330" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D330" s="6">
         <v>9110319</v>
@@ -25391,10 +25391,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C331" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D331" s="6">
         <v>9110320</v>
@@ -25465,10 +25465,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C332" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D332" s="6">
         <v>9120001</v>
@@ -25539,10 +25539,10 @@
         <v>1</v>
       </c>
       <c r="B333" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C333" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D333" s="6">
         <v>9120002</v>
@@ -25613,10 +25613,10 @@
         <v>1</v>
       </c>
       <c r="B334" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C334" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D334" s="6">
         <v>9120003</v>
@@ -25687,10 +25687,10 @@
         <v>1</v>
       </c>
       <c r="B335" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C335" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D335" s="6">
         <v>9120004</v>
@@ -25761,10 +25761,10 @@
         <v>1</v>
       </c>
       <c r="B336" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C336" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D336" s="6">
         <v>9120005</v>
@@ -25835,10 +25835,10 @@
         <v>1</v>
       </c>
       <c r="B337" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C337" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D337" s="6">
         <v>9120006</v>
@@ -25909,10 +25909,10 @@
         <v>1</v>
       </c>
       <c r="B338" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C338" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D338" s="6">
         <v>9130201</v>
@@ -25983,10 +25983,10 @@
         <v>1</v>
       </c>
       <c r="B339" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C339" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D339" s="6">
         <v>9130212</v>
@@ -26057,10 +26057,10 @@
         <v>1</v>
       </c>
       <c r="B340" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C340" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D340" s="6">
         <v>9130213</v>
@@ -26131,10 +26131,10 @@
         <v>1</v>
       </c>
       <c r="B341" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C341" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D341" s="6">
         <v>9130214</v>
@@ -26205,10 +26205,10 @@
         <v>1</v>
       </c>
       <c r="B342" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C342" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D342" s="6">
         <v>9130215</v>
@@ -26279,10 +26279,10 @@
         <v>1</v>
       </c>
       <c r="B343" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C343" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D343" s="6">
         <v>9130401</v>
@@ -26353,10 +26353,10 @@
         <v>1</v>
       </c>
       <c r="B344" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C344" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D344" s="6">
         <v>9130402</v>
@@ -26427,10 +26427,10 @@
         <v>1</v>
       </c>
       <c r="B345" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C345" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D345" s="6">
         <v>9130403</v>
@@ -26501,10 +26501,10 @@
         <v>1</v>
       </c>
       <c r="B346" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C346" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D346" s="6">
         <v>9130404</v>
@@ -26575,10 +26575,10 @@
         <v>1</v>
       </c>
       <c r="B347" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C347" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D347" s="6">
         <v>9130405</v>
@@ -26649,10 +26649,10 @@
         <v>1</v>
       </c>
       <c r="B348" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C348" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D348" s="6">
         <v>9130501</v>
@@ -26723,10 +26723,10 @@
         <v>1</v>
       </c>
       <c r="B349" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C349" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D349" s="6">
         <v>9130502</v>
@@ -26797,10 +26797,10 @@
         <v>1</v>
       </c>
       <c r="B350" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C350" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D350" s="6">
         <v>9130503</v>
@@ -26871,10 +26871,10 @@
         <v>1</v>
       </c>
       <c r="B351" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C351" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D351" s="6">
         <v>9140001</v>
@@ -26945,10 +26945,10 @@
         <v>1</v>
       </c>
       <c r="B352" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C352" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D352" s="6">
         <v>9140002</v>
@@ -27019,10 +27019,10 @@
         <v>1</v>
       </c>
       <c r="B353" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C353" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D353" s="6">
         <v>9140003</v>
@@ -27093,10 +27093,10 @@
         <v>1</v>
       </c>
       <c r="B354" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C354" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D354" s="6">
         <v>9140004</v>
@@ -27167,10 +27167,10 @@
         <v>1</v>
       </c>
       <c r="B355" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C355" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D355" s="6">
         <v>9140005</v>
@@ -27241,10 +27241,10 @@
         <v>1</v>
       </c>
       <c r="B356" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C356" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D356" s="6">
         <v>9140006</v>
@@ -27315,10 +27315,10 @@
         <v>1</v>
       </c>
       <c r="B357" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C357" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D357" s="6">
         <v>9140007</v>
@@ -27389,10 +27389,10 @@
         <v>1</v>
       </c>
       <c r="B358" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C358" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D358" s="6">
         <v>9140008</v>
@@ -27463,10 +27463,10 @@
         <v>1</v>
       </c>
       <c r="B359" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C359" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D359" s="6">
         <v>9140009</v>
@@ -27537,10 +27537,10 @@
         <v>1</v>
       </c>
       <c r="B360" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C360" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D360" s="6">
         <v>9140010</v>
@@ -27611,10 +27611,10 @@
         <v>1</v>
       </c>
       <c r="B361" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C361" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D361" s="6">
         <v>9140011</v>
@@ -27685,10 +27685,10 @@
         <v>1</v>
       </c>
       <c r="B362" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C362" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D362" s="6">
         <v>9140012</v>
@@ -27759,10 +27759,10 @@
         <v>1</v>
       </c>
       <c r="B363" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C363" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D363" s="6">
         <v>9140013</v>
@@ -27833,10 +27833,10 @@
         <v>1</v>
       </c>
       <c r="B364" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C364" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D364" s="6">
         <v>9140014</v>
@@ -27907,10 +27907,10 @@
         <v>1</v>
       </c>
       <c r="B365" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C365" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D365" s="6">
         <v>9150001</v>
@@ -27981,10 +27981,10 @@
         <v>1</v>
       </c>
       <c r="B366" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C366" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D366" s="6">
         <v>9150002</v>
@@ -28055,10 +28055,10 @@
         <v>1</v>
       </c>
       <c r="B367" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C367" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D367" s="6">
         <v>9150003</v>
@@ -28129,10 +28129,10 @@
         <v>1</v>
       </c>
       <c r="B368" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C368" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D368" s="6">
         <v>9150004</v>
@@ -28203,10 +28203,10 @@
         <v>1</v>
       </c>
       <c r="B369" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C369" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D369" s="6">
         <v>9150005</v>
@@ -28277,10 +28277,10 @@
         <v>1</v>
       </c>
       <c r="B370" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C370" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D370" s="6">
         <v>9150006</v>
@@ -28351,10 +28351,10 @@
         <v>1</v>
       </c>
       <c r="B371" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C371" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D371" s="6">
         <v>9150007</v>
@@ -28425,10 +28425,10 @@
         <v>1</v>
       </c>
       <c r="B372" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C372" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D372" s="6">
         <v>9150008</v>
@@ -28499,10 +28499,10 @@
         <v>1</v>
       </c>
       <c r="B373" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C373" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D373" s="6">
         <v>9150009</v>
@@ -28573,10 +28573,10 @@
         <v>1</v>
       </c>
       <c r="B374" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C374" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D374" s="6">
         <v>9150010</v>
@@ -28647,10 +28647,10 @@
         <v>1</v>
       </c>
       <c r="B375" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C375" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D375" s="6">
         <v>9150011</v>
@@ -28721,10 +28721,10 @@
         <v>1</v>
       </c>
       <c r="B376" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C376" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D376" s="6">
         <v>9150012</v>
@@ -28795,10 +28795,10 @@
         <v>1</v>
       </c>
       <c r="B377" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C377" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D377" s="6">
         <v>9150013</v>
@@ -28869,10 +28869,10 @@
         <v>1</v>
       </c>
       <c r="B378" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C378" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D378" s="6">
         <v>9150014</v>
@@ -28943,10 +28943,10 @@
         <v>1</v>
       </c>
       <c r="B379" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C379" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D379" s="6">
         <v>9150015</v>
@@ -29017,10 +29017,10 @@
         <v>1</v>
       </c>
       <c r="B380" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C380" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D380" s="6">
         <v>9160001</v>
@@ -29091,10 +29091,10 @@
         <v>1</v>
       </c>
       <c r="B381" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C381" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D381" s="6">
         <v>9160002</v>
@@ -29165,10 +29165,10 @@
         <v>1</v>
       </c>
       <c r="B382" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C382" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D382" s="6">
         <v>9160003</v>
@@ -29239,10 +29239,10 @@
         <v>1</v>
       </c>
       <c r="B383" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C383" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D383" s="6">
         <v>9160004</v>
@@ -29313,10 +29313,10 @@
         <v>1</v>
       </c>
       <c r="B384" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C384" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D384" s="6">
         <v>9160005</v>
@@ -29387,10 +29387,10 @@
         <v>1</v>
       </c>
       <c r="B385" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C385" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D385" s="6">
         <v>9160006</v>
@@ -29461,10 +29461,10 @@
         <v>1</v>
       </c>
       <c r="B386" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C386" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D386" s="6">
         <v>9160007</v>
@@ -29535,10 +29535,10 @@
         <v>1</v>
       </c>
       <c r="B387" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C387" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D387" s="6">
         <v>9160009</v>
@@ -29609,10 +29609,10 @@
         <v>1</v>
       </c>
       <c r="B388" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C388" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D388" s="6">
         <v>9160010</v>
@@ -29683,10 +29683,10 @@
         <v>1</v>
       </c>
       <c r="B389" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C389" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D389" s="6">
         <v>9160011</v>
@@ -29757,10 +29757,10 @@
         <v>1</v>
       </c>
       <c r="B390" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C390" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D390" s="6">
         <v>9160012</v>
@@ -29831,10 +29831,10 @@
         <v>1</v>
       </c>
       <c r="B391" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C391" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D391" s="6">
         <v>9160013</v>
@@ -29905,10 +29905,10 @@
         <v>1</v>
       </c>
       <c r="B392" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C392" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D392" s="6">
         <v>9160014</v>
@@ -29979,10 +29979,10 @@
         <v>1</v>
       </c>
       <c r="B393" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C393" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D393" s="6">
         <v>9160015</v>
@@ -30053,10 +30053,10 @@
         <v>1</v>
       </c>
       <c r="B394" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C394" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D394" s="6">
         <v>9160016</v>
@@ -30127,10 +30127,10 @@
         <v>1</v>
       </c>
       <c r="B395" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C395" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D395" s="6">
         <v>9160017</v>
@@ -30201,10 +30201,10 @@
         <v>1</v>
       </c>
       <c r="B396" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C396" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D396" s="6">
         <v>9160018</v>
@@ -30275,10 +30275,10 @@
         <v>1</v>
       </c>
       <c r="B397" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C397" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D397" s="6">
         <v>9160019</v>
@@ -30349,10 +30349,10 @@
         <v>1</v>
       </c>
       <c r="B398" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C398" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D398" s="6">
         <v>9160020</v>
@@ -30423,10 +30423,10 @@
         <v>1</v>
       </c>
       <c r="B399" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C399" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D399" s="6">
         <v>9160021</v>
@@ -30497,10 +30497,10 @@
         <v>1</v>
       </c>
       <c r="B400" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C400" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D400" s="6">
         <v>9160022</v>
@@ -30571,10 +30571,10 @@
         <v>1</v>
       </c>
       <c r="B401" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C401" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D401" s="6">
         <v>9160023</v>
@@ -30645,10 +30645,10 @@
         <v>1</v>
       </c>
       <c r="B402" s="4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C402" s="4">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D402" s="7">
         <v>9160025</v>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AE794E-4836-6147-930D-03C2F2E0C37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC084F-527C-F24E-9C8D-1F9F88F74DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nuts3" sheetId="1" r:id="rId1"/>
-    <sheet name="test_1" sheetId="4" r:id="rId2"/>
-    <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
+    <sheet name="test_1" sheetId="4" r:id="rId3"/>
+    <sheet name="test-Hessen" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -111,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,16 +154,56 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -199,11 +240,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8FAADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8FAADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8FAADC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8FAADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8FAADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8FAADC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8FAADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -213,6 +328,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,11 +1074,766 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4F4CA9-DB76-2945-BB1B-D2D8E9C10B59}">
+  <dimension ref="A1:X10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2050</v>
+      </c>
+      <c r="D2" s="17">
+        <v>9010101</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
+      <c r="O2" s="17">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1</v>
+      </c>
+      <c r="S2" s="17">
+        <v>1</v>
+      </c>
+      <c r="T2" s="17">
+        <v>1</v>
+      </c>
+      <c r="U2" s="17">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2050</v>
+      </c>
+      <c r="D3" s="22">
+        <v>9010102</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21">
+        <v>1</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
+      <c r="S3" s="21">
+        <v>1</v>
+      </c>
+      <c r="T3" s="21">
+        <v>1</v>
+      </c>
+      <c r="U3" s="21">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2050</v>
+      </c>
+      <c r="D4" s="26">
+        <v>9010103</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="17">
+        <v>1</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17">
+        <v>0</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2050</v>
+      </c>
+      <c r="D5" s="22">
+        <v>9010104</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="21">
+        <v>1</v>
+      </c>
+      <c r="O5" s="21">
+        <v>1</v>
+      </c>
+      <c r="P5" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
+      <c r="S5" s="21">
+        <v>1</v>
+      </c>
+      <c r="T5" s="21">
+        <v>1</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2050</v>
+      </c>
+      <c r="D6" s="26">
+        <v>9010105</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1</v>
+      </c>
+      <c r="O6" s="17">
+        <v>1</v>
+      </c>
+      <c r="P6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+      <c r="S6" s="17">
+        <v>1</v>
+      </c>
+      <c r="T6" s="17">
+        <v>1</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2050</v>
+      </c>
+      <c r="D7" s="22">
+        <v>9010106</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1</v>
+      </c>
+      <c r="S7" s="21">
+        <v>1</v>
+      </c>
+      <c r="T7" s="21">
+        <v>1</v>
+      </c>
+      <c r="U7" s="21">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2050</v>
+      </c>
+      <c r="D8" s="26">
+        <v>9010107</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="17">
+        <v>1</v>
+      </c>
+      <c r="T8" s="17">
+        <v>1</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2050</v>
+      </c>
+      <c r="D9" s="22">
+        <v>9010108</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1</v>
+      </c>
+      <c r="O9" s="21">
+        <v>1</v>
+      </c>
+      <c r="P9" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21">
+        <v>1</v>
+      </c>
+      <c r="T9" s="21">
+        <v>1</v>
+      </c>
+      <c r="U9" s="21">
+        <v>0</v>
+      </c>
+      <c r="V9" s="21">
+        <v>0</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2050</v>
+      </c>
+      <c r="D10" s="26">
+        <v>9010109</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="17">
+        <v>1</v>
+      </c>
+      <c r="T10" s="17">
+        <v>1</v>
+      </c>
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30724,7 +31613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -30905,7 +31794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC084F-527C-F24E-9C8D-1F9F88F74DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE605D-4DDD-964F-B8E9-250DECA004BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="test_1" sheetId="4" r:id="rId1"/>
     <sheet name="nuts3" sheetId="1" r:id="rId2"/>
-    <sheet name="test_1" sheetId="4" r:id="rId3"/>
-    <sheet name="test-Hessen" sheetId="3" r:id="rId4"/>
+    <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -112,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,56 +153,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor theme="5" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,85 +199,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8FAADC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF8FAADC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -328,25 +213,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,6 +580,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}" name="Table1" displayName="Table1" ref="A1:X2" totalsRowShown="0">
+  <autoFilter ref="A1:X2" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{CFA4FCFE-56A8-C54F-A28E-4ABA0C10454B}" name="id"/>
+    <tableColumn id="2" xr3:uid="{BF53976D-72ED-3944-BB41-E338B719F10D}" name="start_year"/>
+    <tableColumn id="3" xr3:uid="{45FD69FC-A0DB-174D-BF7E-161504969217}" name="end_year"/>
+    <tableColumn id="4" xr3:uid="{810DEFEB-2DC2-E042-B8A6-34EEECD4DA3F}" name="id_region"/>
+    <tableColumn id="5" xr3:uid="{6395BF38-49E4-264B-A092-0A6ABE45E6FF}" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="6" xr3:uid="{6559BA5C-6E89-4B47-9132-0A827D57848B}" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="7" xr3:uid="{4FE8B133-2FF4-0C46-B7B3-D097D64D7F6E}" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="8" xr3:uid="{7B59B475-8688-BC48-B066-F184FC88CE6A}" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="9" xr3:uid="{44503F30-88F4-3D4F-AC66-BFE435DC8481}" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="10" xr3:uid="{B8E40001-99E2-384F-89D0-F356E72C7B4A}" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="11" xr3:uid="{7D9AFDF0-7D8E-FA4C-B1E9-9D95F6BAA8D2}" name="id_scenario_teleworking"/>
+    <tableColumn id="21" xr3:uid="{E0CE2B01-51B4-9E4B-89D3-661648F514A8}" name="id_scenario_building_component_availability"/>
+    <tableColumn id="22" xr3:uid="{1FC12B17-E25B-7C47-B8AD-AA5F4A5C3FD9}" name="id_scenario_heating_technology_availability"/>
+    <tableColumn id="18" xr3:uid="{370D272B-93AF-7142-B592-39AD29166B7E}" name="id_scenario_dh_availability"/>
+    <tableColumn id="19" xr3:uid="{3FC1B820-0961-2845-9A45-C77058A87939}" name="id_scenario_gas_availability"/>
+    <tableColumn id="20" xr3:uid="{12B066CF-4650-0242-AB57-40219EA54C6F}" name="id_scenario_hydrogen_availability"/>
+    <tableColumn id="23" xr3:uid="{BFAA3749-BA67-1E45-9688-72E167CA2EC4}" name="id_scenario_subsidy_building_renovation"/>
+    <tableColumn id="24" xr3:uid="{9AC5D85E-C55A-974D-8830-78CE185FC852}" name="id_scenario_subsidy_heating_modernization"/>
+    <tableColumn id="16" xr3:uid="{A295FCBA-C66D-D24C-9D5B-AAB377492615}" name="id_scenario_renovation_mandatory"/>
+    <tableColumn id="17" xr3:uid="{2EA83E7A-824F-2149-A880-35C38588246C}" name="id_scenario_heating_technology_mandatory"/>
+    <tableColumn id="12" xr3:uid="{B19EDCAB-6E02-C344-9FAC-935FCA98E1B6}" name="renovation_mandatory"/>
+    <tableColumn id="13" xr3:uid="{44EFA135-D3DA-F045-9BE1-867E28ED5AB0}" name="heating_technology_mandatory"/>
+    <tableColumn id="14" xr3:uid="{C2C71075-23DB-4D4C-9A96-48091F9B5251}" name="name"/>
+    <tableColumn id="15" xr3:uid="{969E06A4-B5B1-8842-A5F9-C75F409024B0}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:X402" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:X402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="24">
@@ -741,39 +640,6 @@
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="heating_technology_mandatory" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="name" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="comment" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}" name="Table1" displayName="Table1" ref="A1:X2" totalsRowShown="0">
-  <autoFilter ref="A1:X2" xr:uid="{DCB0856C-ED11-6C45-8AC7-A01B79608270}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{CFA4FCFE-56A8-C54F-A28E-4ABA0C10454B}" name="id"/>
-    <tableColumn id="2" xr3:uid="{BF53976D-72ED-3944-BB41-E338B719F10D}" name="start_year"/>
-    <tableColumn id="3" xr3:uid="{45FD69FC-A0DB-174D-BF7E-161504969217}" name="end_year"/>
-    <tableColumn id="4" xr3:uid="{810DEFEB-2DC2-E042-B8A6-34EEECD4DA3F}" name="id_region"/>
-    <tableColumn id="5" xr3:uid="{6395BF38-49E4-264B-A092-0A6ABE45E6FF}" name="optimal_heating_behavior_prob"/>
-    <tableColumn id="6" xr3:uid="{6559BA5C-6E89-4B47-9132-0A827D57848B}" name="id_scenario_energy_price_wholesale"/>
-    <tableColumn id="7" xr3:uid="{4FE8B133-2FF4-0C46-B7B3-D097D64D7F6E}" name="id_scenario_energy_price_tax_rate"/>
-    <tableColumn id="8" xr3:uid="{7B59B475-8688-BC48-B066-F184FC88CE6A}" name="id_scenario_energy_price_mark_up"/>
-    <tableColumn id="9" xr3:uid="{44503F30-88F4-3D4F-AC66-BFE435DC8481}" name="id_scenario_energy_price_co2_emission"/>
-    <tableColumn id="10" xr3:uid="{B8E40001-99E2-384F-89D0-F356E72C7B4A}" name="id_scenario_energy_emission_factor"/>
-    <tableColumn id="11" xr3:uid="{7D9AFDF0-7D8E-FA4C-B1E9-9D95F6BAA8D2}" name="id_scenario_teleworking"/>
-    <tableColumn id="21" xr3:uid="{E0CE2B01-51B4-9E4B-89D3-661648F514A8}" name="id_scenario_building_component_availability"/>
-    <tableColumn id="22" xr3:uid="{1FC12B17-E25B-7C47-B8AD-AA5F4A5C3FD9}" name="id_scenario_heating_technology_availability"/>
-    <tableColumn id="18" xr3:uid="{370D272B-93AF-7142-B592-39AD29166B7E}" name="id_scenario_dh_availability"/>
-    <tableColumn id="19" xr3:uid="{3FC1B820-0961-2845-9A45-C77058A87939}" name="id_scenario_gas_availability"/>
-    <tableColumn id="20" xr3:uid="{12B066CF-4650-0242-AB57-40219EA54C6F}" name="id_scenario_hydrogen_availability"/>
-    <tableColumn id="23" xr3:uid="{BFAA3749-BA67-1E45-9688-72E167CA2EC4}" name="id_scenario_subsidy_building_renovation"/>
-    <tableColumn id="24" xr3:uid="{9AC5D85E-C55A-974D-8830-78CE185FC852}" name="id_scenario_subsidy_heating_modernization"/>
-    <tableColumn id="16" xr3:uid="{A295FCBA-C66D-D24C-9D5B-AAB377492615}" name="id_scenario_renovation_mandatory"/>
-    <tableColumn id="17" xr3:uid="{2EA83E7A-824F-2149-A880-35C38588246C}" name="id_scenario_heating_technology_mandatory"/>
-    <tableColumn id="12" xr3:uid="{B19EDCAB-6E02-C344-9FAC-935FCA98E1B6}" name="renovation_mandatory"/>
-    <tableColumn id="13" xr3:uid="{44EFA135-D3DA-F045-9BE1-867E28ED5AB0}" name="heating_technology_mandatory"/>
-    <tableColumn id="14" xr3:uid="{C2C71075-23DB-4D4C-9A96-48091F9B5251}" name="name"/>
-    <tableColumn id="15" xr3:uid="{969E06A4-B5B1-8842-A5F9-C75F409024B0}" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1074,757 +940,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4F4CA9-DB76-2945-BB1B-D2D8E9C10B59}">
-  <dimension ref="A1:X10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1"/>
+    <col min="11" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="27.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="17">
-        <v>2050</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>2050</v>
+      </c>
+      <c r="D2">
         <v>9010101</v>
       </c>
-      <c r="E2" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="17">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
-        <v>1</v>
-      </c>
-      <c r="I2" s="17">
-        <v>1</v>
-      </c>
-      <c r="J2" s="17">
-        <v>1</v>
-      </c>
-      <c r="K2" s="17">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="17">
-        <v>1</v>
-      </c>
-      <c r="O2" s="17">
-        <v>1</v>
-      </c>
-      <c r="P2" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>1</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="17">
-        <v>1</v>
-      </c>
-      <c r="T2" s="17">
-        <v>1</v>
-      </c>
-      <c r="U2" s="17">
-        <v>0</v>
-      </c>
-      <c r="V2" s="17">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="21">
-        <v>2050</v>
-      </c>
-      <c r="D3" s="22">
-        <v>9010102</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="F3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21">
-        <v>1</v>
-      </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21">
-        <v>1</v>
-      </c>
-      <c r="K3" s="21">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1</v>
-      </c>
-      <c r="N3" s="21">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21">
-        <v>1</v>
-      </c>
-      <c r="P3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>1</v>
-      </c>
-      <c r="R3" s="10">
-        <v>1</v>
-      </c>
-      <c r="S3" s="21">
-        <v>1</v>
-      </c>
-      <c r="T3" s="21">
-        <v>1</v>
-      </c>
-      <c r="U3" s="21">
-        <v>0</v>
-      </c>
-      <c r="V3" s="21">
-        <v>0</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17">
-        <v>2010</v>
-      </c>
-      <c r="C4" s="17">
-        <v>2050</v>
-      </c>
-      <c r="D4" s="26">
-        <v>9010103</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="17">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17">
-        <v>1</v>
-      </c>
-      <c r="H4" s="17">
-        <v>1</v>
-      </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="17">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1</v>
-      </c>
-      <c r="N4" s="17">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17">
-        <v>1</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>1</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1</v>
-      </c>
-      <c r="S4" s="17">
-        <v>1</v>
-      </c>
-      <c r="T4" s="17">
-        <v>1</v>
-      </c>
-      <c r="U4" s="17">
-        <v>0</v>
-      </c>
-      <c r="V4" s="17">
-        <v>0</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21">
-        <v>2010</v>
-      </c>
-      <c r="C5" s="21">
-        <v>2050</v>
-      </c>
-      <c r="D5" s="22">
-        <v>9010104</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21">
-        <v>1</v>
-      </c>
-      <c r="I5" s="21">
-        <v>1</v>
-      </c>
-      <c r="J5" s="21">
-        <v>1</v>
-      </c>
-      <c r="K5" s="21">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1</v>
-      </c>
-      <c r="N5" s="21">
-        <v>1</v>
-      </c>
-      <c r="O5" s="21">
-        <v>1</v>
-      </c>
-      <c r="P5" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>1</v>
-      </c>
-      <c r="R5" s="10">
-        <v>1</v>
-      </c>
-      <c r="S5" s="21">
-        <v>1</v>
-      </c>
-      <c r="T5" s="21">
-        <v>1</v>
-      </c>
-      <c r="U5" s="21">
-        <v>0</v>
-      </c>
-      <c r="V5" s="21">
-        <v>0</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17">
-        <v>2010</v>
-      </c>
-      <c r="C6" s="17">
-        <v>2050</v>
-      </c>
-      <c r="D6" s="26">
-        <v>9010105</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1</v>
-      </c>
-      <c r="N6" s="17">
-        <v>1</v>
-      </c>
-      <c r="O6" s="17">
-        <v>1</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1</v>
-      </c>
-      <c r="S6" s="17">
-        <v>1</v>
-      </c>
-      <c r="T6" s="17">
-        <v>1</v>
-      </c>
-      <c r="U6" s="17">
-        <v>0</v>
-      </c>
-      <c r="V6" s="17">
-        <v>0</v>
-      </c>
-      <c r="W6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21">
-        <v>2010</v>
-      </c>
-      <c r="C7" s="21">
-        <v>2050</v>
-      </c>
-      <c r="D7" s="22">
-        <v>9010106</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
-        <v>1</v>
-      </c>
-      <c r="H7" s="21">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21">
-        <v>1</v>
-      </c>
-      <c r="J7" s="21">
-        <v>1</v>
-      </c>
-      <c r="K7" s="21">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1</v>
-      </c>
-      <c r="N7" s="21">
-        <v>1</v>
-      </c>
-      <c r="O7" s="21">
-        <v>1</v>
-      </c>
-      <c r="P7" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>1</v>
-      </c>
-      <c r="R7" s="10">
-        <v>1</v>
-      </c>
-      <c r="S7" s="21">
-        <v>1</v>
-      </c>
-      <c r="T7" s="21">
-        <v>1</v>
-      </c>
-      <c r="U7" s="21">
-        <v>0</v>
-      </c>
-      <c r="V7" s="21">
-        <v>0</v>
-      </c>
-      <c r="W7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17">
-        <v>2010</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2050</v>
-      </c>
-      <c r="D8" s="26">
-        <v>9010107</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17">
-        <v>1</v>
-      </c>
-      <c r="K8" s="17">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1</v>
-      </c>
-      <c r="N8" s="17">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17">
-        <v>1</v>
-      </c>
-      <c r="P8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>1</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1</v>
-      </c>
-      <c r="S8" s="17">
-        <v>1</v>
-      </c>
-      <c r="T8" s="17">
-        <v>1</v>
-      </c>
-      <c r="U8" s="17">
-        <v>0</v>
-      </c>
-      <c r="V8" s="17">
-        <v>0</v>
-      </c>
-      <c r="W8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21">
-        <v>2010</v>
-      </c>
-      <c r="C9" s="21">
-        <v>2050</v>
-      </c>
-      <c r="D9" s="22">
-        <v>9010108</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>1</v>
-      </c>
-      <c r="H9" s="21">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21">
-        <v>1</v>
-      </c>
-      <c r="J9" s="21">
-        <v>1</v>
-      </c>
-      <c r="K9" s="21">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1</v>
-      </c>
-      <c r="N9" s="21">
-        <v>1</v>
-      </c>
-      <c r="O9" s="21">
-        <v>1</v>
-      </c>
-      <c r="P9" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>1</v>
-      </c>
-      <c r="R9" s="10">
-        <v>1</v>
-      </c>
-      <c r="S9" s="21">
-        <v>1</v>
-      </c>
-      <c r="T9" s="21">
-        <v>1</v>
-      </c>
-      <c r="U9" s="21">
-        <v>0</v>
-      </c>
-      <c r="V9" s="21">
-        <v>0</v>
-      </c>
-      <c r="W9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17">
-        <v>2010</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2050</v>
-      </c>
-      <c r="D10" s="26">
-        <v>9010109</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17">
-        <v>1</v>
-      </c>
-      <c r="K10" s="17">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1</v>
-      </c>
-      <c r="N10" s="17">
-        <v>1</v>
-      </c>
-      <c r="O10" s="17">
-        <v>1</v>
-      </c>
-      <c r="P10" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>1</v>
-      </c>
-      <c r="R10" s="9">
-        <v>1</v>
-      </c>
-      <c r="S10" s="17">
-        <v>1</v>
-      </c>
-      <c r="T10" s="17">
-        <v>1</v>
-      </c>
-      <c r="U10" s="17">
-        <v>0</v>
-      </c>
-      <c r="V10" s="17">
-        <v>0</v>
-      </c>
-      <c r="W10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="27" t="s">
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1833,7 +1125,7 @@
   <dimension ref="A1:X402"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:X10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31614,187 +30906,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBE118-62D9-7A4A-B5DC-A3881A1AE9F7}">
-  <dimension ref="A1:X2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="27.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2010</v>
-      </c>
-      <c r="C2">
-        <v>2050</v>
-      </c>
-      <c r="D2">
-        <v>9010101</v>
-      </c>
-      <c r="E2">
-        <v>0.6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>

--- a/projects/test_building/input/SimulatorScenarios.xlsx
+++ b/projects/test_building/input/SimulatorScenarios.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="test_1" sheetId="4" r:id="rId1"/>
-    <sheet name="nuts3" sheetId="1" r:id="rId2"/>
-    <sheet name="test-Hessen" sheetId="3" r:id="rId3"/>
+    <sheet name="test-Hessen" sheetId="3" r:id="rId1"/>
+    <sheet name="test" sheetId="5" r:id="rId2"/>
+    <sheet name="test_scenario" sheetId="4" r:id="rId3"/>
+    <sheet name="nuts3" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -597,7 +598,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AD2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:AD27" totalsRowShown="0">
+  <autoFilter ref="A1:AD27"/>
+  <tableColumns count="30">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="start_year"/>
+    <tableColumn id="3" name="end_year"/>
+    <tableColumn id="4" name="id_region"/>
+    <tableColumn id="7" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="8" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="9" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="10" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="11" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="12" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="5" name="id_scenario_teleworking"/>
+    <tableColumn id="21" name="id_scenario_building_component_availability"/>
+    <tableColumn id="22" name="id_scenario_building_component_cost_material"/>
+    <tableColumn id="6" name="id_scenario_building_component_input_labor"/>
+    <tableColumn id="17" name="id_scenario_heating_technology_availability"/>
+    <tableColumn id="20" name="id_scenario_dh_availability"/>
+    <tableColumn id="23" name="id_scenario_gas_availability"/>
+    <tableColumn id="24" name="id_scenario_hydrogen_availability"/>
+    <tableColumn id="18" name="id_scenario_subsidy_building_renovation"/>
+    <tableColumn id="19" name="id_scenario_subsidy_heating_modernization"/>
+    <tableColumn id="13" name="id_scenario_construction_mandatory_renewable_heating"/>
+    <tableColumn id="14" name="id_scenario_construction_pv_adoption_rate"/>
+    <tableColumn id="15" name="id_scenario_pv_penetration_rate"/>
+    <tableColumn id="16" name="id_scenario_pv_self_consumption_rate"/>
+    <tableColumn id="25" name="id_scenario_renovation_mandatory"/>
+    <tableColumn id="26" name="id_scenario_heating_technology_mandatory"/>
+    <tableColumn id="27" name="renovation_mandatory"/>
+    <tableColumn id="28" name="heating_technology_mandatory"/>
+    <tableColumn id="29" name="name"/>
+    <tableColumn id="30" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:AD2" totalsRowShown="0">
   <tableColumns count="30">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="start_year"/>
@@ -634,7 +674,45 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AD4" totalsRowShown="0">
+  <tableColumns count="30">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="start_year"/>
+    <tableColumn id="3" name="end_year"/>
+    <tableColumn id="4" name="id_region"/>
+    <tableColumn id="5" name="optimal_heating_behavior_prob"/>
+    <tableColumn id="6" name="id_scenario_energy_price_wholesale"/>
+    <tableColumn id="7" name="id_scenario_energy_price_tax_rate"/>
+    <tableColumn id="8" name="id_scenario_energy_price_mark_up"/>
+    <tableColumn id="9" name="id_scenario_energy_price_co2_emission"/>
+    <tableColumn id="10" name="id_scenario_energy_emission_factor"/>
+    <tableColumn id="11" name="id_scenario_teleworking"/>
+    <tableColumn id="21" name="id_scenario_building_component_availability"/>
+    <tableColumn id="25" name="id_scenario_building_component_cost_material"/>
+    <tableColumn id="26" name="id_scenario_building_component_input_labor"/>
+    <tableColumn id="22" name="id_scenario_heating_technology_availability"/>
+    <tableColumn id="18" name="id_scenario_dh_availability"/>
+    <tableColumn id="19" name="id_scenario_gas_availability"/>
+    <tableColumn id="20" name="id_scenario_hydrogen_availability"/>
+    <tableColumn id="23" name="id_scenario_subsidy_building_renovation"/>
+    <tableColumn id="24" name="id_scenario_subsidy_heating_modernization"/>
+    <tableColumn id="27" name="id_scenario_construction_mandatory_renewable_heating"/>
+    <tableColumn id="28" name="id_scenario_construction_pv_adoption_rate"/>
+    <tableColumn id="29" name="id_scenario_pv_penetration_rate"/>
+    <tableColumn id="30" name="id_scenario_pv_self_consumption_rate"/>
+    <tableColumn id="16" name="id_scenario_renovation_mandatory"/>
+    <tableColumn id="17" name="id_scenario_heating_technology_mandatory"/>
+    <tableColumn id="12" name="renovation_mandatory"/>
+    <tableColumn id="13" name="heating_technology_mandatory"/>
+    <tableColumn id="14" name="name"/>
+    <tableColumn id="15" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AD402" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:AD402"/>
   <tableColumns count="30">
@@ -670,45 +748,6 @@
     <tableColumn id="14" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:AD27" totalsRowShown="0">
-  <autoFilter ref="A1:AD27"/>
-  <tableColumns count="30">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="start_year"/>
-    <tableColumn id="3" name="end_year"/>
-    <tableColumn id="4" name="id_region"/>
-    <tableColumn id="7" name="optimal_heating_behavior_prob"/>
-    <tableColumn id="8" name="id_scenario_energy_price_wholesale"/>
-    <tableColumn id="9" name="id_scenario_energy_price_tax_rate"/>
-    <tableColumn id="10" name="id_scenario_energy_price_mark_up"/>
-    <tableColumn id="11" name="id_scenario_energy_price_co2_emission"/>
-    <tableColumn id="12" name="id_scenario_energy_emission_factor"/>
-    <tableColumn id="5" name="id_scenario_teleworking"/>
-    <tableColumn id="21" name="id_scenario_building_component_availability"/>
-    <tableColumn id="22" name="id_scenario_building_component_cost_material"/>
-    <tableColumn id="6" name="id_scenario_building_component_input_labor"/>
-    <tableColumn id="17" name="id_scenario_heating_technology_availability"/>
-    <tableColumn id="20" name="id_scenario_dh_availability"/>
-    <tableColumn id="23" name="id_scenario_gas_availability"/>
-    <tableColumn id="24" name="id_scenario_hydrogen_availability"/>
-    <tableColumn id="18" name="id_scenario_subsidy_building_renovation"/>
-    <tableColumn id="19" name="id_scenario_subsidy_heating_modernization"/>
-    <tableColumn id="13" name="id_scenario_construction_mandatory_renewable_heating"/>
-    <tableColumn id="14" name="id_scenario_construction_pv_adoption_rate"/>
-    <tableColumn id="15" name="id_scenario_pv_penetration_rate"/>
-    <tableColumn id="16" name="id_scenario_pv_self_consumption_rate"/>
-    <tableColumn id="25" name="id_scenario_renovation_mandatory"/>
-    <tableColumn id="26" name="id_scenario_heating_technology_mandatory"/>
-    <tableColumn id="27" name="renovation_mandatory"/>
-    <tableColumn id="28" name="heating_technology_mandatory"/>
-    <tableColumn id="29" name="name"/>
-    <tableColumn id="30" name="comment"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -975,10 +1014,2531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="36.42578125" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2">
+        <v>9070101</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>30</v>
+      </c>
+      <c r="V2">
+        <v>30</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="C3">
+        <v>2024</v>
+      </c>
+      <c r="D3">
+        <v>9070102</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>30</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2010</v>
+      </c>
+      <c r="C4">
+        <v>2024</v>
+      </c>
+      <c r="D4">
+        <v>9070103</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>30</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>2024</v>
+      </c>
+      <c r="D5">
+        <v>9070104</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6">
+        <v>2024</v>
+      </c>
+      <c r="D6">
+        <v>9070105</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>30</v>
+      </c>
+      <c r="V6">
+        <v>30</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2010</v>
+      </c>
+      <c r="C7">
+        <v>2024</v>
+      </c>
+      <c r="D7">
+        <v>9070106</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>30</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>2024</v>
+      </c>
+      <c r="D8">
+        <v>9070107</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>30</v>
+      </c>
+      <c r="V8">
+        <v>30</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2010</v>
+      </c>
+      <c r="C9">
+        <v>2024</v>
+      </c>
+      <c r="D9">
+        <v>9070108</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="V9">
+        <v>30</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="C10">
+        <v>2024</v>
+      </c>
+      <c r="D10">
+        <v>9070109</v>
+      </c>
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>30</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11">
+        <v>9070110</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>30</v>
+      </c>
+      <c r="V11">
+        <v>30</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2010</v>
+      </c>
+      <c r="C12">
+        <v>2024</v>
+      </c>
+      <c r="D12">
+        <v>9070111</v>
+      </c>
+      <c r="E12">
+        <v>0.6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>30</v>
+      </c>
+      <c r="V12">
+        <v>30</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13">
+        <v>2024</v>
+      </c>
+      <c r="D13">
+        <v>9070112</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>30</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2010</v>
+      </c>
+      <c r="C14">
+        <v>2024</v>
+      </c>
+      <c r="D14">
+        <v>9070113</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>30</v>
+      </c>
+      <c r="V14">
+        <v>30</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2010</v>
+      </c>
+      <c r="C15">
+        <v>2024</v>
+      </c>
+      <c r="D15">
+        <v>9070114</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>30</v>
+      </c>
+      <c r="V15">
+        <v>30</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2010</v>
+      </c>
+      <c r="C16">
+        <v>2024</v>
+      </c>
+      <c r="D16">
+        <v>9070201</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>30</v>
+      </c>
+      <c r="V16">
+        <v>30</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17">
+        <v>9070202</v>
+      </c>
+      <c r="E17">
+        <v>0.6</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>30</v>
+      </c>
+      <c r="V17">
+        <v>30</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2010</v>
+      </c>
+      <c r="C18">
+        <v>2024</v>
+      </c>
+      <c r="D18">
+        <v>9070203</v>
+      </c>
+      <c r="E18">
+        <v>0.6</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>30</v>
+      </c>
+      <c r="V18">
+        <v>30</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>2024</v>
+      </c>
+      <c r="D19">
+        <v>9070204</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>30</v>
+      </c>
+      <c r="V19">
+        <v>30</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2010</v>
+      </c>
+      <c r="C20">
+        <v>2024</v>
+      </c>
+      <c r="D20">
+        <v>9070205</v>
+      </c>
+      <c r="E20">
+        <v>0.6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>30</v>
+      </c>
+      <c r="V20">
+        <v>30</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2010</v>
+      </c>
+      <c r="C21">
+        <v>2024</v>
+      </c>
+      <c r="D21">
+        <v>9070301</v>
+      </c>
+      <c r="E21">
+        <v>0.6</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>30</v>
+      </c>
+      <c r="V21">
+        <v>30</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2010</v>
+      </c>
+      <c r="C22">
+        <v>2024</v>
+      </c>
+      <c r="D22">
+        <v>9070302</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <v>30</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2010</v>
+      </c>
+      <c r="C23">
+        <v>2024</v>
+      </c>
+      <c r="D23">
+        <v>9070303</v>
+      </c>
+      <c r="E23">
+        <v>0.6</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>30</v>
+      </c>
+      <c r="V23">
+        <v>30</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2010</v>
+      </c>
+      <c r="C24">
+        <v>2024</v>
+      </c>
+      <c r="D24">
+        <v>9070304</v>
+      </c>
+      <c r="E24">
+        <v>0.6</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>30</v>
+      </c>
+      <c r="V24">
+        <v>30</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2010</v>
+      </c>
+      <c r="C25">
+        <v>2024</v>
+      </c>
+      <c r="D25">
+        <v>9070305</v>
+      </c>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>30</v>
+      </c>
+      <c r="V25">
+        <v>30</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2010</v>
+      </c>
+      <c r="C26">
+        <v>2024</v>
+      </c>
+      <c r="D26">
+        <v>9070306</v>
+      </c>
+      <c r="E26">
+        <v>0.6</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>30</v>
+      </c>
+      <c r="V26">
+        <v>30</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2010</v>
+      </c>
+      <c r="C27">
+        <v>2024</v>
+      </c>
+      <c r="D27">
+        <v>9070307</v>
+      </c>
+      <c r="E27">
+        <v>0.6</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>30</v>
+      </c>
+      <c r="V27">
+        <v>30</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1200,6 +3760,424 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>2050</v>
+      </c>
+      <c r="D2">
+        <v>9010101</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="C3">
+        <v>2050</v>
+      </c>
+      <c r="D3">
+        <v>9010101</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>20</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2010</v>
+      </c>
+      <c r="C4">
+        <v>2050</v>
+      </c>
+      <c r="D4">
+        <v>9010101</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>30</v>
+      </c>
+      <c r="W4">
+        <v>30</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1208,7 +4186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD402"/>
   <sheetViews>
@@ -38241,2525 +41219,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD27"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="36.42578125" customWidth="1"/>
-    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2010</v>
-      </c>
-      <c r="C2">
-        <v>2050</v>
-      </c>
-      <c r="D2">
-        <v>9070101</v>
-      </c>
-      <c r="E2">
-        <v>0.6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>30</v>
-      </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2010</v>
-      </c>
-      <c r="C3">
-        <v>2050</v>
-      </c>
-      <c r="D3">
-        <v>9070102</v>
-      </c>
-      <c r="E3">
-        <v>0.6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>30</v>
-      </c>
-      <c r="V3">
-        <v>30</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2010</v>
-      </c>
-      <c r="C4">
-        <v>2050</v>
-      </c>
-      <c r="D4">
-        <v>9070103</v>
-      </c>
-      <c r="E4">
-        <v>0.6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>30</v>
-      </c>
-      <c r="V4">
-        <v>30</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2010</v>
-      </c>
-      <c r="C5">
-        <v>2050</v>
-      </c>
-      <c r="D5">
-        <v>9070104</v>
-      </c>
-      <c r="E5">
-        <v>0.6</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>30</v>
-      </c>
-      <c r="V5">
-        <v>30</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2010</v>
-      </c>
-      <c r="C6">
-        <v>2050</v>
-      </c>
-      <c r="D6">
-        <v>9070105</v>
-      </c>
-      <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>30</v>
-      </c>
-      <c r="V6">
-        <v>30</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2010</v>
-      </c>
-      <c r="C7">
-        <v>2050</v>
-      </c>
-      <c r="D7">
-        <v>9070106</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>30</v>
-      </c>
-      <c r="V7">
-        <v>30</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>2050</v>
-      </c>
-      <c r="D8">
-        <v>9070107</v>
-      </c>
-      <c r="E8">
-        <v>0.6</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>30</v>
-      </c>
-      <c r="V8">
-        <v>30</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2010</v>
-      </c>
-      <c r="C9">
-        <v>2050</v>
-      </c>
-      <c r="D9">
-        <v>9070108</v>
-      </c>
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>30</v>
-      </c>
-      <c r="V9">
-        <v>30</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2010</v>
-      </c>
-      <c r="C10">
-        <v>2050</v>
-      </c>
-      <c r="D10">
-        <v>9070109</v>
-      </c>
-      <c r="E10">
-        <v>0.6</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>30</v>
-      </c>
-      <c r="V10">
-        <v>30</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2010</v>
-      </c>
-      <c r="C11">
-        <v>2050</v>
-      </c>
-      <c r="D11">
-        <v>9070110</v>
-      </c>
-      <c r="E11">
-        <v>0.6</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>30</v>
-      </c>
-      <c r="V11">
-        <v>30</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2010</v>
-      </c>
-      <c r="C12">
-        <v>2050</v>
-      </c>
-      <c r="D12">
-        <v>9070111</v>
-      </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>30</v>
-      </c>
-      <c r="V12">
-        <v>30</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2010</v>
-      </c>
-      <c r="C13">
-        <v>2050</v>
-      </c>
-      <c r="D13">
-        <v>9070112</v>
-      </c>
-      <c r="E13">
-        <v>0.6</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>30</v>
-      </c>
-      <c r="V13">
-        <v>30</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>2010</v>
-      </c>
-      <c r="C14">
-        <v>2050</v>
-      </c>
-      <c r="D14">
-        <v>9070113</v>
-      </c>
-      <c r="E14">
-        <v>0.6</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>30</v>
-      </c>
-      <c r="V14">
-        <v>30</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>2010</v>
-      </c>
-      <c r="C15">
-        <v>2050</v>
-      </c>
-      <c r="D15">
-        <v>9070114</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>30</v>
-      </c>
-      <c r="V15">
-        <v>30</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2010</v>
-      </c>
-      <c r="C16">
-        <v>2050</v>
-      </c>
-      <c r="D16">
-        <v>9070201</v>
-      </c>
-      <c r="E16">
-        <v>0.6</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>30</v>
-      </c>
-      <c r="V16">
-        <v>30</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>2010</v>
-      </c>
-      <c r="C17">
-        <v>2050</v>
-      </c>
-      <c r="D17">
-        <v>9070202</v>
-      </c>
-      <c r="E17">
-        <v>0.6</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>30</v>
-      </c>
-      <c r="V17">
-        <v>30</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>2010</v>
-      </c>
-      <c r="C18">
-        <v>2050</v>
-      </c>
-      <c r="D18">
-        <v>9070203</v>
-      </c>
-      <c r="E18">
-        <v>0.6</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>30</v>
-      </c>
-      <c r="V18">
-        <v>30</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>2010</v>
-      </c>
-      <c r="C19">
-        <v>2050</v>
-      </c>
-      <c r="D19">
-        <v>9070204</v>
-      </c>
-      <c r="E19">
-        <v>0.6</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>30</v>
-      </c>
-      <c r="V19">
-        <v>30</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>2010</v>
-      </c>
-      <c r="C20">
-        <v>2050</v>
-      </c>
-      <c r="D20">
-        <v>9070205</v>
-      </c>
-      <c r="E20">
-        <v>0.6</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>30</v>
-      </c>
-      <c r="V20">
-        <v>30</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>2010</v>
-      </c>
-      <c r="C21">
-        <v>2050</v>
-      </c>
-      <c r="D21">
-        <v>9070301</v>
-      </c>
-      <c r="E21">
-        <v>0.6</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>30</v>
-      </c>
-      <c r="V21">
-        <v>30</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>2010</v>
-      </c>
-      <c r="C22">
-        <v>2050</v>
-      </c>
-      <c r="D22">
-        <v>9070302</v>
-      </c>
-      <c r="E22">
-        <v>0.6</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>30</v>
-      </c>
-      <c r="V22">
-        <v>30</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>2010</v>
-      </c>
-      <c r="C23">
-        <v>2050</v>
-      </c>
-      <c r="D23">
-        <v>9070303</v>
-      </c>
-      <c r="E23">
-        <v>0.6</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>30</v>
-      </c>
-      <c r="V23">
-        <v>30</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>2010</v>
-      </c>
-      <c r="C24">
-        <v>2050</v>
-      </c>
-      <c r="D24">
-        <v>9070304</v>
-      </c>
-      <c r="E24">
-        <v>0.6</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>30</v>
-      </c>
-      <c r="V24">
-        <v>30</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>2010</v>
-      </c>
-      <c r="C25">
-        <v>2050</v>
-      </c>
-      <c r="D25">
-        <v>9070305</v>
-      </c>
-      <c r="E25">
-        <v>0.6</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>30</v>
-      </c>
-      <c r="V25">
-        <v>30</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>2010</v>
-      </c>
-      <c r="C26">
-        <v>2050</v>
-      </c>
-      <c r="D26">
-        <v>9070306</v>
-      </c>
-      <c r="E26">
-        <v>0.6</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>30</v>
-      </c>
-      <c r="V26">
-        <v>30</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>2010</v>
-      </c>
-      <c r="C27">
-        <v>2050</v>
-      </c>
-      <c r="D27">
-        <v>9070307</v>
-      </c>
-      <c r="E27">
-        <v>0.6</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>30</v>
-      </c>
-      <c r="V27">
-        <v>30</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>